--- a/Gantt Chart.xlsx
+++ b/Gantt Chart.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A056635-702D-AE4B-B9A5-85DE93A5E5FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F48FF07-7E5B-F94F-92EC-DAAF2BC90DF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1020" yWindow="500" windowWidth="27780" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="84">
   <si>
     <t>Create a Project Schedule in this worksheet.
 Enter title of this project in cell B1. 
@@ -577,6 +577,12 @@
   </si>
   <si>
     <t xml:space="preserve">16:00 Final Report and Documentation Deadline. Submit on Moodle. </t>
+  </si>
+  <si>
+    <t>Draw line-follower circuit</t>
+  </si>
+  <si>
+    <t>Draw metal-detector circuit</t>
   </si>
 </sst>
 </file>
@@ -1280,6 +1286,13 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="12" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="166" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1292,13 +1305,6 @@
     <xf numFmtId="168" fontId="9" fillId="0" borderId="3" xfId="9" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Comma" xfId="4" builtinId="3" customBuiltin="1"/>
@@ -1809,11 +1815,11 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BL45"/>
+  <dimension ref="A1:BL47"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="119" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5:G5"/>
+      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1860,117 +1866,117 @@
         <v>5</v>
       </c>
       <c r="B3" s="44"/>
-      <c r="C3" s="94" t="s">
+      <c r="C3" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="95"/>
-      <c r="E3" s="93">
+      <c r="D3" s="91"/>
+      <c r="E3" s="96">
         <v>44476</v>
       </c>
-      <c r="F3" s="93"/>
+      <c r="F3" s="96"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="94" t="s">
+      <c r="C4" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="95"/>
+      <c r="D4" s="91"/>
       <c r="E4" s="7">
         <v>1</v>
       </c>
-      <c r="I4" s="90">
+      <c r="I4" s="93">
         <f>I5</f>
         <v>44473</v>
       </c>
-      <c r="J4" s="91"/>
-      <c r="K4" s="91"/>
-      <c r="L4" s="91"/>
-      <c r="M4" s="91"/>
-      <c r="N4" s="91"/>
-      <c r="O4" s="92"/>
-      <c r="P4" s="90">
+      <c r="J4" s="94"/>
+      <c r="K4" s="94"/>
+      <c r="L4" s="94"/>
+      <c r="M4" s="94"/>
+      <c r="N4" s="94"/>
+      <c r="O4" s="95"/>
+      <c r="P4" s="93">
         <f>P5</f>
         <v>44480</v>
       </c>
-      <c r="Q4" s="91"/>
-      <c r="R4" s="91"/>
-      <c r="S4" s="91"/>
-      <c r="T4" s="91"/>
-      <c r="U4" s="91"/>
-      <c r="V4" s="92"/>
-      <c r="W4" s="90">
+      <c r="Q4" s="94"/>
+      <c r="R4" s="94"/>
+      <c r="S4" s="94"/>
+      <c r="T4" s="94"/>
+      <c r="U4" s="94"/>
+      <c r="V4" s="95"/>
+      <c r="W4" s="93">
         <f>W5</f>
         <v>44487</v>
       </c>
-      <c r="X4" s="91"/>
-      <c r="Y4" s="91"/>
-      <c r="Z4" s="91"/>
-      <c r="AA4" s="91"/>
-      <c r="AB4" s="91"/>
-      <c r="AC4" s="92"/>
-      <c r="AD4" s="90">
+      <c r="X4" s="94"/>
+      <c r="Y4" s="94"/>
+      <c r="Z4" s="94"/>
+      <c r="AA4" s="94"/>
+      <c r="AB4" s="94"/>
+      <c r="AC4" s="95"/>
+      <c r="AD4" s="93">
         <f>AD5</f>
         <v>44494</v>
       </c>
-      <c r="AE4" s="91"/>
-      <c r="AF4" s="91"/>
-      <c r="AG4" s="91"/>
-      <c r="AH4" s="91"/>
-      <c r="AI4" s="91"/>
-      <c r="AJ4" s="92"/>
-      <c r="AK4" s="90">
+      <c r="AE4" s="94"/>
+      <c r="AF4" s="94"/>
+      <c r="AG4" s="94"/>
+      <c r="AH4" s="94"/>
+      <c r="AI4" s="94"/>
+      <c r="AJ4" s="95"/>
+      <c r="AK4" s="93">
         <f>AK5</f>
         <v>44501</v>
       </c>
-      <c r="AL4" s="91"/>
-      <c r="AM4" s="91"/>
-      <c r="AN4" s="91"/>
-      <c r="AO4" s="91"/>
-      <c r="AP4" s="91"/>
-      <c r="AQ4" s="92"/>
-      <c r="AR4" s="90">
+      <c r="AL4" s="94"/>
+      <c r="AM4" s="94"/>
+      <c r="AN4" s="94"/>
+      <c r="AO4" s="94"/>
+      <c r="AP4" s="94"/>
+      <c r="AQ4" s="95"/>
+      <c r="AR4" s="93">
         <f>AR5</f>
         <v>44508</v>
       </c>
-      <c r="AS4" s="91"/>
-      <c r="AT4" s="91"/>
-      <c r="AU4" s="91"/>
-      <c r="AV4" s="91"/>
-      <c r="AW4" s="91"/>
-      <c r="AX4" s="92"/>
-      <c r="AY4" s="90">
+      <c r="AS4" s="94"/>
+      <c r="AT4" s="94"/>
+      <c r="AU4" s="94"/>
+      <c r="AV4" s="94"/>
+      <c r="AW4" s="94"/>
+      <c r="AX4" s="95"/>
+      <c r="AY4" s="93">
         <f>AY5</f>
         <v>44515</v>
       </c>
-      <c r="AZ4" s="91"/>
-      <c r="BA4" s="91"/>
-      <c r="BB4" s="91"/>
-      <c r="BC4" s="91"/>
-      <c r="BD4" s="91"/>
-      <c r="BE4" s="92"/>
-      <c r="BF4" s="90">
+      <c r="AZ4" s="94"/>
+      <c r="BA4" s="94"/>
+      <c r="BB4" s="94"/>
+      <c r="BC4" s="94"/>
+      <c r="BD4" s="94"/>
+      <c r="BE4" s="95"/>
+      <c r="BF4" s="93">
         <f>BF5</f>
         <v>44522</v>
       </c>
-      <c r="BG4" s="91"/>
-      <c r="BH4" s="91"/>
-      <c r="BI4" s="91"/>
-      <c r="BJ4" s="91"/>
-      <c r="BK4" s="91"/>
-      <c r="BL4" s="92"/>
+      <c r="BG4" s="94"/>
+      <c r="BH4" s="94"/>
+      <c r="BI4" s="94"/>
+      <c r="BJ4" s="94"/>
+      <c r="BK4" s="94"/>
+      <c r="BL4" s="95"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="96"/>
-      <c r="C5" s="96"/>
-      <c r="D5" s="96"/>
-      <c r="E5" s="96"/>
-      <c r="F5" s="96"/>
-      <c r="G5" s="96"/>
+      <c r="B5" s="92"/>
+      <c r="C5" s="92"/>
+      <c r="D5" s="92"/>
+      <c r="E5" s="92"/>
+      <c r="F5" s="92"/>
+      <c r="G5" s="92"/>
       <c r="I5" s="11">
         <f>Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
         <v>44473</v>
@@ -2524,7 +2530,7 @@
       <c r="F8" s="79"/>
       <c r="G8" s="17"/>
       <c r="H8" s="17" t="str">
-        <f t="shared" ref="H8:H35" si="6">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <f t="shared" ref="H8:H37" si="6">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
       </c>
       <c r="I8" s="36"/>
@@ -2985,16 +2991,16 @@
     <row r="14" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="76"/>
       <c r="B14" s="89" t="s">
-        <v>31</v>
+        <v>82</v>
       </c>
       <c r="C14" s="47" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D14" s="20">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="E14" s="77">
-        <v>44481</v>
+        <v>44480</v>
       </c>
       <c r="F14" s="77">
         <v>44482</v>
@@ -3060,16 +3066,23 @@
     </row>
     <row r="15" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="76"/>
-      <c r="B15" s="55"/>
-      <c r="C15" s="47"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="77"/>
-      <c r="F15" s="77"/>
+      <c r="B15" s="89" t="s">
+        <v>83</v>
+      </c>
+      <c r="C15" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="20">
+        <v>0.8</v>
+      </c>
+      <c r="E15" s="77">
+        <v>44480</v>
+      </c>
+      <c r="F15" s="77">
+        <v>44482</v>
+      </c>
       <c r="G15" s="17"/>
-      <c r="H15" s="17" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
+      <c r="H15" s="17"/>
       <c r="I15" s="36"/>
       <c r="J15" s="36"/>
       <c r="K15" s="36"/>
@@ -3086,7 +3099,7 @@
       <c r="V15" s="73"/>
       <c r="W15" s="73"/>
       <c r="X15" s="73"/>
-      <c r="Y15" s="73"/>
+      <c r="Y15" s="74"/>
       <c r="Z15" s="73"/>
       <c r="AA15" s="73"/>
       <c r="AB15" s="73"/>
@@ -3128,21 +3141,24 @@
       <c r="BL15" s="36"/>
     </row>
     <row r="16" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="75" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="48"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="80"/>
-      <c r="F16" s="81"/>
+      <c r="A16" s="76"/>
+      <c r="B16" s="89" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="20">
+        <v>0</v>
+      </c>
+      <c r="E16" s="77">
+        <v>44481</v>
+      </c>
+      <c r="F16" s="77">
+        <v>44482</v>
+      </c>
       <c r="G16" s="17"/>
-      <c r="H16" s="17" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
+      <c r="H16" s="17"/>
       <c r="I16" s="36"/>
       <c r="J16" s="36"/>
       <c r="K16" s="36"/>
@@ -3159,7 +3175,7 @@
       <c r="V16" s="73"/>
       <c r="W16" s="73"/>
       <c r="X16" s="73"/>
-      <c r="Y16" s="73"/>
+      <c r="Y16" s="74"/>
       <c r="Z16" s="73"/>
       <c r="AA16" s="73"/>
       <c r="AB16" s="73"/>
@@ -3201,26 +3217,11 @@
       <c r="BL16" s="36"/>
     </row>
     <row r="17" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="75"/>
-      <c r="B17" s="56" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="49" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" s="23">
-        <v>0</v>
-      </c>
-      <c r="E17" s="82">
-        <v>44483</v>
-      </c>
-      <c r="F17" s="82">
-        <v>44489</v>
-      </c>
+      <c r="A17" s="76"/>
       <c r="G17" s="17"/>
-      <c r="H17" s="17">
+      <c r="H17" s="17" t="str">
         <f t="shared" si="6"/>
-        <v>7</v>
+        <v/>
       </c>
       <c r="I17" s="36"/>
       <c r="J17" s="36"/>
@@ -3280,26 +3281,20 @@
       <c r="BL17" s="36"/>
     </row>
     <row r="18" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="76"/>
-      <c r="B18" s="56" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="49" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18" s="23">
-        <v>0</v>
-      </c>
-      <c r="E18" s="82">
-        <v>44483</v>
-      </c>
-      <c r="F18" s="82">
-        <v>44489</v>
-      </c>
+      <c r="A18" s="75" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="48"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="80"/>
+      <c r="F18" s="81"/>
       <c r="G18" s="17"/>
-      <c r="H18" s="17">
+      <c r="H18" s="17" t="str">
         <f t="shared" si="6"/>
-        <v>7</v>
+        <v/>
       </c>
       <c r="I18" s="36"/>
       <c r="J18" s="36"/>
@@ -3313,8 +3308,8 @@
       <c r="R18" s="73"/>
       <c r="S18" s="73"/>
       <c r="T18" s="73"/>
-      <c r="U18" s="74"/>
-      <c r="V18" s="74"/>
+      <c r="U18" s="73"/>
+      <c r="V18" s="73"/>
       <c r="W18" s="73"/>
       <c r="X18" s="73"/>
       <c r="Y18" s="73"/>
@@ -3359,12 +3354,12 @@
       <c r="BL18" s="36"/>
     </row>
     <row r="19" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="76"/>
+      <c r="A19" s="75"/>
       <c r="B19" s="56" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C19" s="49" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="D19" s="23">
         <v>0</v>
@@ -3439,15 +3434,25 @@
     </row>
     <row r="20" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="76"/>
-      <c r="B20" s="56"/>
-      <c r="C20" s="49"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="82"/>
-      <c r="F20" s="82"/>
+      <c r="B20" s="56" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="23">
+        <v>0</v>
+      </c>
+      <c r="E20" s="82">
+        <v>44483</v>
+      </c>
+      <c r="F20" s="82">
+        <v>44489</v>
+      </c>
       <c r="G20" s="17"/>
-      <c r="H20" s="17" t="str">
+      <c r="H20" s="17">
         <f t="shared" si="6"/>
-        <v/>
+        <v>7</v>
       </c>
       <c r="I20" s="36"/>
       <c r="J20" s="36"/>
@@ -3461,11 +3466,11 @@
       <c r="R20" s="73"/>
       <c r="S20" s="73"/>
       <c r="T20" s="73"/>
-      <c r="U20" s="73"/>
-      <c r="V20" s="73"/>
+      <c r="U20" s="74"/>
+      <c r="V20" s="74"/>
       <c r="W20" s="73"/>
       <c r="X20" s="73"/>
-      <c r="Y20" s="74"/>
+      <c r="Y20" s="73"/>
       <c r="Z20" s="73"/>
       <c r="AA20" s="73"/>
       <c r="AB20" s="73"/>
@@ -3508,15 +3513,25 @@
     </row>
     <row r="21" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="76"/>
-      <c r="B21" s="56"/>
-      <c r="C21" s="49"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="82"/>
-      <c r="F21" s="82"/>
+      <c r="B21" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="49" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="23">
+        <v>0</v>
+      </c>
+      <c r="E21" s="82">
+        <v>44483</v>
+      </c>
+      <c r="F21" s="82">
+        <v>44489</v>
+      </c>
       <c r="G21" s="17"/>
-      <c r="H21" s="17" t="str">
+      <c r="H21" s="17">
         <f t="shared" si="6"/>
-        <v/>
+        <v>7</v>
       </c>
       <c r="I21" s="36"/>
       <c r="J21" s="36"/>
@@ -3576,16 +3591,12 @@
       <c r="BL21" s="36"/>
     </row>
     <row r="22" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="76" t="s">
-        <v>38</v>
-      </c>
-      <c r="B22" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="50"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="83"/>
-      <c r="F22" s="84"/>
+      <c r="A22" s="76"/>
+      <c r="B22" s="56"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="82"/>
+      <c r="F22" s="82"/>
       <c r="G22" s="17"/>
       <c r="H22" s="17" t="str">
         <f t="shared" si="6"/>
@@ -3607,7 +3618,7 @@
       <c r="V22" s="73"/>
       <c r="W22" s="73"/>
       <c r="X22" s="73"/>
-      <c r="Y22" s="73"/>
+      <c r="Y22" s="74"/>
       <c r="Z22" s="73"/>
       <c r="AA22" s="73"/>
       <c r="AB22" s="73"/>
@@ -3650,21 +3661,15 @@
     </row>
     <row r="23" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="76"/>
-      <c r="B23" s="57" t="s">
-        <v>40</v>
-      </c>
-      <c r="C23" s="51"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="85">
-        <v>44490</v>
-      </c>
-      <c r="F23" s="85">
-        <v>44491</v>
-      </c>
+      <c r="B23" s="56"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="82"/>
+      <c r="F23" s="82"/>
       <c r="G23" s="17"/>
-      <c r="H23" s="17">
+      <c r="H23" s="17" t="str">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v/>
       </c>
       <c r="I23" s="36"/>
       <c r="J23" s="36"/>
@@ -3724,22 +3729,20 @@
       <c r="BL23" s="36"/>
     </row>
     <row r="24" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="76"/>
-      <c r="B24" s="57" t="s">
+      <c r="A24" s="76" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="C24" s="51"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="85">
-        <v>44491</v>
-      </c>
-      <c r="F24" s="85">
-        <v>44496</v>
-      </c>
+      <c r="C24" s="50"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="83"/>
+      <c r="F24" s="84"/>
       <c r="G24" s="17"/>
-      <c r="H24" s="17">
+      <c r="H24" s="17" t="str">
         <f t="shared" si="6"/>
-        <v>6</v>
+        <v/>
       </c>
       <c r="I24" s="36"/>
       <c r="J24" s="36"/>
@@ -3800,15 +3803,21 @@
     </row>
     <row r="25" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="76"/>
-      <c r="B25" s="57"/>
+      <c r="B25" s="57" t="s">
+        <v>40</v>
+      </c>
       <c r="C25" s="51"/>
       <c r="D25" s="26"/>
-      <c r="E25" s="85"/>
-      <c r="F25" s="85"/>
+      <c r="E25" s="85">
+        <v>44490</v>
+      </c>
+      <c r="F25" s="85">
+        <v>44491</v>
+      </c>
       <c r="G25" s="17"/>
-      <c r="H25" s="17" t="str">
+      <c r="H25" s="17">
         <f t="shared" si="6"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="I25" s="36"/>
       <c r="J25" s="36"/>
@@ -3869,15 +3878,21 @@
     </row>
     <row r="26" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="76"/>
-      <c r="B26" s="57"/>
+      <c r="B26" s="57" t="s">
+        <v>39</v>
+      </c>
       <c r="C26" s="51"/>
       <c r="D26" s="26"/>
-      <c r="E26" s="85"/>
-      <c r="F26" s="85"/>
+      <c r="E26" s="85">
+        <v>44491</v>
+      </c>
+      <c r="F26" s="85">
+        <v>44496</v>
+      </c>
       <c r="G26" s="17"/>
-      <c r="H26" s="17" t="str">
+      <c r="H26" s="17">
         <f t="shared" si="6"/>
-        <v/>
+        <v>6</v>
       </c>
       <c r="I26" s="36"/>
       <c r="J26" s="36"/>
@@ -4006,16 +4021,12 @@
       <c r="BL27" s="36"/>
     </row>
     <row r="28" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="76" t="s">
-        <v>38</v>
-      </c>
-      <c r="B28" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="C28" s="52"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="86"/>
-      <c r="F28" s="87"/>
+      <c r="A28" s="76"/>
+      <c r="B28" s="57"/>
+      <c r="C28" s="51"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="85"/>
+      <c r="F28" s="85"/>
       <c r="G28" s="17"/>
       <c r="H28" s="17" t="str">
         <f t="shared" si="6"/>
@@ -4024,43 +4035,43 @@
       <c r="I28" s="36"/>
       <c r="J28" s="36"/>
       <c r="K28" s="36"/>
-      <c r="L28" s="36"/>
-      <c r="M28" s="36"/>
-      <c r="N28" s="36"/>
-      <c r="O28" s="36"/>
-      <c r="P28" s="36"/>
-      <c r="Q28" s="36"/>
-      <c r="R28" s="36"/>
-      <c r="S28" s="36"/>
-      <c r="T28" s="36"/>
-      <c r="U28" s="36"/>
-      <c r="V28" s="36"/>
-      <c r="W28" s="36"/>
-      <c r="X28" s="36"/>
-      <c r="Y28" s="36"/>
-      <c r="Z28" s="36"/>
-      <c r="AA28" s="36"/>
-      <c r="AB28" s="36"/>
-      <c r="AC28" s="36"/>
-      <c r="AD28" s="36"/>
-      <c r="AE28" s="36"/>
-      <c r="AF28" s="36"/>
-      <c r="AG28" s="36"/>
-      <c r="AH28" s="36"/>
-      <c r="AI28" s="36"/>
-      <c r="AJ28" s="36"/>
-      <c r="AK28" s="36"/>
-      <c r="AL28" s="36"/>
-      <c r="AM28" s="36"/>
-      <c r="AN28" s="36"/>
-      <c r="AO28" s="36"/>
-      <c r="AP28" s="36"/>
-      <c r="AQ28" s="36"/>
-      <c r="AR28" s="36"/>
-      <c r="AS28" s="36"/>
-      <c r="AT28" s="36"/>
-      <c r="AU28" s="36"/>
-      <c r="AV28" s="36"/>
+      <c r="L28" s="73"/>
+      <c r="M28" s="73"/>
+      <c r="N28" s="73"/>
+      <c r="O28" s="73"/>
+      <c r="P28" s="73"/>
+      <c r="Q28" s="73"/>
+      <c r="R28" s="73"/>
+      <c r="S28" s="73"/>
+      <c r="T28" s="73"/>
+      <c r="U28" s="73"/>
+      <c r="V28" s="73"/>
+      <c r="W28" s="73"/>
+      <c r="X28" s="73"/>
+      <c r="Y28" s="73"/>
+      <c r="Z28" s="73"/>
+      <c r="AA28" s="73"/>
+      <c r="AB28" s="73"/>
+      <c r="AC28" s="73"/>
+      <c r="AD28" s="73"/>
+      <c r="AE28" s="73"/>
+      <c r="AF28" s="73"/>
+      <c r="AG28" s="73"/>
+      <c r="AH28" s="73"/>
+      <c r="AI28" s="73"/>
+      <c r="AJ28" s="73"/>
+      <c r="AK28" s="73"/>
+      <c r="AL28" s="73"/>
+      <c r="AM28" s="73"/>
+      <c r="AN28" s="73"/>
+      <c r="AO28" s="73"/>
+      <c r="AP28" s="73"/>
+      <c r="AQ28" s="73"/>
+      <c r="AR28" s="73"/>
+      <c r="AS28" s="73"/>
+      <c r="AT28" s="73"/>
+      <c r="AU28" s="73"/>
+      <c r="AV28" s="73"/>
       <c r="AW28" s="36"/>
       <c r="AX28" s="36"/>
       <c r="AY28" s="36"/>
@@ -4080,62 +4091,56 @@
     </row>
     <row r="29" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="76"/>
-      <c r="B29" s="58" t="s">
-        <v>42</v>
-      </c>
-      <c r="C29" s="53"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="88">
-        <v>44497</v>
-      </c>
-      <c r="F29" s="88">
-        <v>44502</v>
-      </c>
+      <c r="B29" s="57"/>
+      <c r="C29" s="51"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="85"/>
+      <c r="F29" s="85"/>
       <c r="G29" s="17"/>
-      <c r="H29" s="17">
+      <c r="H29" s="17" t="str">
         <f t="shared" si="6"/>
-        <v>6</v>
+        <v/>
       </c>
       <c r="I29" s="36"/>
       <c r="J29" s="36"/>
       <c r="K29" s="36"/>
-      <c r="L29" s="36"/>
-      <c r="M29" s="36"/>
-      <c r="N29" s="36"/>
-      <c r="O29" s="36"/>
-      <c r="P29" s="36"/>
-      <c r="Q29" s="36"/>
-      <c r="R29" s="36"/>
-      <c r="S29" s="36"/>
-      <c r="T29" s="36"/>
-      <c r="U29" s="36"/>
-      <c r="V29" s="36"/>
-      <c r="W29" s="36"/>
-      <c r="X29" s="36"/>
-      <c r="Y29" s="36"/>
-      <c r="Z29" s="36"/>
-      <c r="AA29" s="36"/>
-      <c r="AB29" s="36"/>
-      <c r="AC29" s="36"/>
-      <c r="AD29" s="36"/>
-      <c r="AE29" s="36"/>
-      <c r="AF29" s="36"/>
-      <c r="AG29" s="36"/>
-      <c r="AH29" s="36"/>
-      <c r="AI29" s="36"/>
-      <c r="AJ29" s="36"/>
-      <c r="AK29" s="36"/>
-      <c r="AL29" s="36"/>
-      <c r="AM29" s="36"/>
-      <c r="AN29" s="36"/>
-      <c r="AO29" s="36"/>
-      <c r="AP29" s="36"/>
-      <c r="AQ29" s="36"/>
-      <c r="AR29" s="36"/>
-      <c r="AS29" s="36"/>
-      <c r="AT29" s="36"/>
-      <c r="AU29" s="36"/>
-      <c r="AV29" s="36"/>
+      <c r="L29" s="73"/>
+      <c r="M29" s="73"/>
+      <c r="N29" s="73"/>
+      <c r="O29" s="73"/>
+      <c r="P29" s="73"/>
+      <c r="Q29" s="73"/>
+      <c r="R29" s="73"/>
+      <c r="S29" s="73"/>
+      <c r="T29" s="73"/>
+      <c r="U29" s="73"/>
+      <c r="V29" s="73"/>
+      <c r="W29" s="73"/>
+      <c r="X29" s="73"/>
+      <c r="Y29" s="73"/>
+      <c r="Z29" s="73"/>
+      <c r="AA29" s="73"/>
+      <c r="AB29" s="73"/>
+      <c r="AC29" s="73"/>
+      <c r="AD29" s="73"/>
+      <c r="AE29" s="73"/>
+      <c r="AF29" s="73"/>
+      <c r="AG29" s="73"/>
+      <c r="AH29" s="73"/>
+      <c r="AI29" s="73"/>
+      <c r="AJ29" s="73"/>
+      <c r="AK29" s="73"/>
+      <c r="AL29" s="73"/>
+      <c r="AM29" s="73"/>
+      <c r="AN29" s="73"/>
+      <c r="AO29" s="73"/>
+      <c r="AP29" s="73"/>
+      <c r="AQ29" s="73"/>
+      <c r="AR29" s="73"/>
+      <c r="AS29" s="73"/>
+      <c r="AT29" s="73"/>
+      <c r="AU29" s="73"/>
+      <c r="AV29" s="73"/>
       <c r="AW29" s="36"/>
       <c r="AX29" s="36"/>
       <c r="AY29" s="36"/>
@@ -4154,22 +4159,20 @@
       <c r="BL29" s="36"/>
     </row>
     <row r="30" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="76"/>
-      <c r="B30" s="58" t="s">
+      <c r="A30" s="76" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="C30" s="53"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="88">
-        <v>44504</v>
-      </c>
-      <c r="F30" s="88">
-        <v>44507</v>
-      </c>
+      <c r="C30" s="52"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="86"/>
+      <c r="F30" s="87"/>
       <c r="G30" s="17"/>
-      <c r="H30" s="17">
+      <c r="H30" s="17" t="str">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v/>
       </c>
       <c r="I30" s="36"/>
       <c r="J30" s="36"/>
@@ -4231,20 +4234,20 @@
     <row r="31" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="76"/>
       <c r="B31" s="58" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C31" s="53"/>
       <c r="D31" s="29"/>
       <c r="E31" s="88">
-        <v>44504</v>
+        <v>44497</v>
       </c>
       <c r="F31" s="88">
-        <v>44507</v>
+        <v>44502</v>
       </c>
       <c r="G31" s="17"/>
       <c r="H31" s="17">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I31" s="36"/>
       <c r="J31" s="36"/>
@@ -4305,15 +4308,21 @@
     </row>
     <row r="32" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="76"/>
-      <c r="B32" s="58"/>
+      <c r="B32" s="58" t="s">
+        <v>41</v>
+      </c>
       <c r="C32" s="53"/>
       <c r="D32" s="29"/>
-      <c r="E32" s="88"/>
-      <c r="F32" s="88"/>
+      <c r="E32" s="88">
+        <v>44504</v>
+      </c>
+      <c r="F32" s="88">
+        <v>44507</v>
+      </c>
       <c r="G32" s="17"/>
-      <c r="H32" s="17" t="str">
+      <c r="H32" s="17">
         <f t="shared" si="6"/>
-        <v/>
+        <v>4</v>
       </c>
       <c r="I32" s="36"/>
       <c r="J32" s="36"/>
@@ -4374,15 +4383,21 @@
     </row>
     <row r="33" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="76"/>
-      <c r="B33" s="58"/>
+      <c r="B33" s="58" t="s">
+        <v>43</v>
+      </c>
       <c r="C33" s="53"/>
       <c r="D33" s="29"/>
-      <c r="E33" s="88"/>
-      <c r="F33" s="88"/>
+      <c r="E33" s="88">
+        <v>44504</v>
+      </c>
+      <c r="F33" s="88">
+        <v>44507</v>
+      </c>
       <c r="G33" s="17"/>
-      <c r="H33" s="17" t="str">
+      <c r="H33" s="17">
         <f t="shared" si="6"/>
-        <v/>
+        <v>4</v>
       </c>
       <c r="I33" s="36"/>
       <c r="J33" s="36"/>
@@ -4442,14 +4457,12 @@
       <c r="BL33" s="36"/>
     </row>
     <row r="34" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="B34" s="59"/>
-      <c r="C34" s="54"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="45"/>
-      <c r="F34" s="45"/>
+      <c r="A34" s="76"/>
+      <c r="B34" s="58"/>
+      <c r="C34" s="53"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="88"/>
+      <c r="F34" s="88"/>
       <c r="G34" s="17"/>
       <c r="H34" s="17" t="str">
         <f t="shared" si="6"/>
@@ -4513,128 +4526,263 @@
       <c r="BL34" s="36"/>
     </row>
     <row r="35" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="75" t="s">
-        <v>45</v>
-      </c>
-      <c r="B35" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="C35" s="31"/>
-      <c r="D35" s="32"/>
-      <c r="E35" s="33"/>
-      <c r="F35" s="34"/>
-      <c r="G35" s="35"/>
-      <c r="H35" s="35" t="str">
+      <c r="A35" s="76"/>
+      <c r="B35" s="58"/>
+      <c r="C35" s="53"/>
+      <c r="D35" s="29"/>
+      <c r="E35" s="88"/>
+      <c r="F35" s="88"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="17" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I35" s="37"/>
-      <c r="J35" s="37"/>
-      <c r="K35" s="37"/>
-      <c r="L35" s="37"/>
-      <c r="M35" s="37"/>
-      <c r="N35" s="37"/>
-      <c r="O35" s="37"/>
-      <c r="P35" s="37"/>
-      <c r="Q35" s="37"/>
-      <c r="R35" s="37"/>
-      <c r="S35" s="37"/>
-      <c r="T35" s="37"/>
-      <c r="U35" s="37"/>
-      <c r="V35" s="37"/>
-      <c r="W35" s="37"/>
-      <c r="X35" s="37"/>
-      <c r="Y35" s="37"/>
-      <c r="Z35" s="37"/>
-      <c r="AA35" s="37"/>
-      <c r="AB35" s="37"/>
-      <c r="AC35" s="37"/>
-      <c r="AD35" s="37"/>
-      <c r="AE35" s="37"/>
-      <c r="AF35" s="37"/>
-      <c r="AG35" s="37"/>
-      <c r="AH35" s="37"/>
-      <c r="AI35" s="37"/>
-      <c r="AJ35" s="37"/>
-      <c r="AK35" s="37"/>
-      <c r="AL35" s="37"/>
-      <c r="AM35" s="37"/>
-      <c r="AN35" s="37"/>
-      <c r="AO35" s="37"/>
-      <c r="AP35" s="37"/>
-      <c r="AQ35" s="37"/>
-      <c r="AR35" s="37"/>
-      <c r="AS35" s="37"/>
-      <c r="AT35" s="37"/>
-      <c r="AU35" s="37"/>
-      <c r="AV35" s="37"/>
-      <c r="AW35" s="37"/>
-      <c r="AX35" s="37"/>
-      <c r="AY35" s="37"/>
-      <c r="AZ35" s="37"/>
-      <c r="BA35" s="37"/>
-      <c r="BB35" s="37"/>
-      <c r="BC35" s="37"/>
-      <c r="BD35" s="37"/>
-      <c r="BE35" s="37"/>
-      <c r="BF35" s="37"/>
-      <c r="BG35" s="37"/>
-      <c r="BH35" s="37"/>
-      <c r="BI35" s="37"/>
-      <c r="BJ35" s="37"/>
-      <c r="BK35" s="37"/>
-      <c r="BL35" s="37"/>
-    </row>
-    <row r="36" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G36" s="6"/>
-    </row>
-    <row r="37" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C37" s="14"/>
-      <c r="F37" s="39"/>
-    </row>
-    <row r="38" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C38" s="15"/>
-    </row>
-    <row r="39" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="55" t="s">
-        <v>47</v>
-      </c>
+      <c r="I35" s="36"/>
+      <c r="J35" s="36"/>
+      <c r="K35" s="36"/>
+      <c r="L35" s="36"/>
+      <c r="M35" s="36"/>
+      <c r="N35" s="36"/>
+      <c r="O35" s="36"/>
+      <c r="P35" s="36"/>
+      <c r="Q35" s="36"/>
+      <c r="R35" s="36"/>
+      <c r="S35" s="36"/>
+      <c r="T35" s="36"/>
+      <c r="U35" s="36"/>
+      <c r="V35" s="36"/>
+      <c r="W35" s="36"/>
+      <c r="X35" s="36"/>
+      <c r="Y35" s="36"/>
+      <c r="Z35" s="36"/>
+      <c r="AA35" s="36"/>
+      <c r="AB35" s="36"/>
+      <c r="AC35" s="36"/>
+      <c r="AD35" s="36"/>
+      <c r="AE35" s="36"/>
+      <c r="AF35" s="36"/>
+      <c r="AG35" s="36"/>
+      <c r="AH35" s="36"/>
+      <c r="AI35" s="36"/>
+      <c r="AJ35" s="36"/>
+      <c r="AK35" s="36"/>
+      <c r="AL35" s="36"/>
+      <c r="AM35" s="36"/>
+      <c r="AN35" s="36"/>
+      <c r="AO35" s="36"/>
+      <c r="AP35" s="36"/>
+      <c r="AQ35" s="36"/>
+      <c r="AR35" s="36"/>
+      <c r="AS35" s="36"/>
+      <c r="AT35" s="36"/>
+      <c r="AU35" s="36"/>
+      <c r="AV35" s="36"/>
+      <c r="AW35" s="36"/>
+      <c r="AX35" s="36"/>
+      <c r="AY35" s="36"/>
+      <c r="AZ35" s="36"/>
+      <c r="BA35" s="36"/>
+      <c r="BB35" s="36"/>
+      <c r="BC35" s="36"/>
+      <c r="BD35" s="36"/>
+      <c r="BE35" s="36"/>
+      <c r="BF35" s="36"/>
+      <c r="BG35" s="36"/>
+      <c r="BH35" s="36"/>
+      <c r="BI35" s="36"/>
+      <c r="BJ35" s="36"/>
+      <c r="BK35" s="36"/>
+      <c r="BL35" s="36"/>
+    </row>
+    <row r="36" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36" s="59"/>
+      <c r="C36" s="54"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="45"/>
+      <c r="F36" s="45"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="I36" s="36"/>
+      <c r="J36" s="36"/>
+      <c r="K36" s="36"/>
+      <c r="L36" s="36"/>
+      <c r="M36" s="36"/>
+      <c r="N36" s="36"/>
+      <c r="O36" s="36"/>
+      <c r="P36" s="36"/>
+      <c r="Q36" s="36"/>
+      <c r="R36" s="36"/>
+      <c r="S36" s="36"/>
+      <c r="T36" s="36"/>
+      <c r="U36" s="36"/>
+      <c r="V36" s="36"/>
+      <c r="W36" s="36"/>
+      <c r="X36" s="36"/>
+      <c r="Y36" s="36"/>
+      <c r="Z36" s="36"/>
+      <c r="AA36" s="36"/>
+      <c r="AB36" s="36"/>
+      <c r="AC36" s="36"/>
+      <c r="AD36" s="36"/>
+      <c r="AE36" s="36"/>
+      <c r="AF36" s="36"/>
+      <c r="AG36" s="36"/>
+      <c r="AH36" s="36"/>
+      <c r="AI36" s="36"/>
+      <c r="AJ36" s="36"/>
+      <c r="AK36" s="36"/>
+      <c r="AL36" s="36"/>
+      <c r="AM36" s="36"/>
+      <c r="AN36" s="36"/>
+      <c r="AO36" s="36"/>
+      <c r="AP36" s="36"/>
+      <c r="AQ36" s="36"/>
+      <c r="AR36" s="36"/>
+      <c r="AS36" s="36"/>
+      <c r="AT36" s="36"/>
+      <c r="AU36" s="36"/>
+      <c r="AV36" s="36"/>
+      <c r="AW36" s="36"/>
+      <c r="AX36" s="36"/>
+      <c r="AY36" s="36"/>
+      <c r="AZ36" s="36"/>
+      <c r="BA36" s="36"/>
+      <c r="BB36" s="36"/>
+      <c r="BC36" s="36"/>
+      <c r="BD36" s="36"/>
+      <c r="BE36" s="36"/>
+      <c r="BF36" s="36"/>
+      <c r="BG36" s="36"/>
+      <c r="BH36" s="36"/>
+      <c r="BI36" s="36"/>
+      <c r="BJ36" s="36"/>
+      <c r="BK36" s="36"/>
+      <c r="BL36" s="36"/>
+    </row>
+    <row r="37" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="75" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="C37" s="31"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="33"/>
+      <c r="F37" s="34"/>
+      <c r="G37" s="35"/>
+      <c r="H37" s="35" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="I37" s="37"/>
+      <c r="J37" s="37"/>
+      <c r="K37" s="37"/>
+      <c r="L37" s="37"/>
+      <c r="M37" s="37"/>
+      <c r="N37" s="37"/>
+      <c r="O37" s="37"/>
+      <c r="P37" s="37"/>
+      <c r="Q37" s="37"/>
+      <c r="R37" s="37"/>
+      <c r="S37" s="37"/>
+      <c r="T37" s="37"/>
+      <c r="U37" s="37"/>
+      <c r="V37" s="37"/>
+      <c r="W37" s="37"/>
+      <c r="X37" s="37"/>
+      <c r="Y37" s="37"/>
+      <c r="Z37" s="37"/>
+      <c r="AA37" s="37"/>
+      <c r="AB37" s="37"/>
+      <c r="AC37" s="37"/>
+      <c r="AD37" s="37"/>
+      <c r="AE37" s="37"/>
+      <c r="AF37" s="37"/>
+      <c r="AG37" s="37"/>
+      <c r="AH37" s="37"/>
+      <c r="AI37" s="37"/>
+      <c r="AJ37" s="37"/>
+      <c r="AK37" s="37"/>
+      <c r="AL37" s="37"/>
+      <c r="AM37" s="37"/>
+      <c r="AN37" s="37"/>
+      <c r="AO37" s="37"/>
+      <c r="AP37" s="37"/>
+      <c r="AQ37" s="37"/>
+      <c r="AR37" s="37"/>
+      <c r="AS37" s="37"/>
+      <c r="AT37" s="37"/>
+      <c r="AU37" s="37"/>
+      <c r="AV37" s="37"/>
+      <c r="AW37" s="37"/>
+      <c r="AX37" s="37"/>
+      <c r="AY37" s="37"/>
+      <c r="AZ37" s="37"/>
+      <c r="BA37" s="37"/>
+      <c r="BB37" s="37"/>
+      <c r="BC37" s="37"/>
+      <c r="BD37" s="37"/>
+      <c r="BE37" s="37"/>
+      <c r="BF37" s="37"/>
+      <c r="BG37" s="37"/>
+      <c r="BH37" s="37"/>
+      <c r="BI37" s="37"/>
+      <c r="BJ37" s="37"/>
+      <c r="BK37" s="37"/>
+      <c r="BL37" s="37"/>
+    </row>
+    <row r="38" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G38" s="6"/>
+    </row>
+    <row r="39" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C39" s="14"/>
+      <c r="F39" s="39"/>
     </row>
     <row r="40" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="55" t="s">
-        <v>48</v>
-      </c>
+      <c r="C40" s="15"/>
     </row>
     <row r="41" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B41" s="55" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="42" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B42" s="55" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="43" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B43" s="55" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="44" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="55"/>
+      <c r="B44" s="55" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="45" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B45" s="55" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="46" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="55"/>
+    </row>
+    <row r="47" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="55" t="s">
         <v>51</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
@@ -4642,9 +4790,14 @@
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
   </mergeCells>
-  <conditionalFormatting sqref="D7:D35">
-    <cfRule type="dataBar" priority="14">
+  <conditionalFormatting sqref="D18:D37 D7:D16">
+    <cfRule type="dataBar" priority="15">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -4657,16 +4810,16 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:BL35">
-    <cfRule type="expression" dxfId="2" priority="33">
+  <conditionalFormatting sqref="I5:BL37">
+    <cfRule type="expression" dxfId="2" priority="34">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I7:BL35">
-    <cfRule type="expression" dxfId="1" priority="27">
+  <conditionalFormatting sqref="I7:BL37">
+    <cfRule type="expression" dxfId="1" priority="28">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="29" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4701,7 +4854,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D7:D35</xm:sqref>
+          <xm:sqref>D18:D37 D7:D16</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/Gantt Chart.xlsx
+++ b/Gantt Chart.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F48FF07-7E5B-F94F-92EC-DAAF2BC90DF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42C16986-5041-204B-9900-F55E5A863473}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="500" windowWidth="27780" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectSchedule" sheetId="11" r:id="rId1"/>
@@ -45,9 +45,6 @@
 Enter title of this project in cell B1. 
 Information about how to use this worksheet, including instructions for screen readers and the author of this workbook is in the About worksheet.
 Continue navigating down column A to hear further instructions.</t>
-  </si>
-  <si>
-    <t>Best Robot 101</t>
   </si>
   <si>
     <t>SIMPLE GANTT CHART by Vertex42.com</t>
@@ -583,6 +580,9 @@
   </si>
   <si>
     <t>Draw metal-detector circuit</t>
+  </si>
+  <si>
+    <t>TAIPEI101</t>
   </si>
 </sst>
 </file>
@@ -1815,11 +1815,11 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BL47"/>
+  <dimension ref="A1:BL44"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="119" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomLeft" activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1841,7 +1841,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="42" t="s">
-        <v>1</v>
+        <v>83</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
@@ -1849,25 +1849,25 @@
       <c r="F1" s="38"/>
       <c r="H1" s="2"/>
       <c r="I1" s="14" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="76" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" s="43"/>
       <c r="I2" s="40" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="76" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" s="44"/>
       <c r="C3" s="90" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3" s="91"/>
       <c r="E3" s="96">
@@ -1877,10 +1877,10 @@
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="75" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="90" t="s">
         <v>7</v>
-      </c>
-      <c r="C4" s="90" t="s">
-        <v>8</v>
       </c>
       <c r="D4" s="91"/>
       <c r="E4" s="7">
@@ -1969,7 +1969,7 @@
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="75" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" s="92"/>
       <c r="C5" s="92"/>
@@ -2204,26 +2204,26 @@
     </row>
     <row r="6" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="75" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="C6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="D6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="E6" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="F6" s="9" t="s">
         <v>14</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>15</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I6" s="13" t="str">
         <f t="shared" ref="I6" si="3">LEFT(TEXT(I5,"ddd"),1)</f>
@@ -2452,7 +2452,7 @@
     </row>
     <row r="7" spans="1:64" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="76" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" s="41"/>
       <c r="E7"/>
@@ -2519,10 +2519,10 @@
     </row>
     <row r="8" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="75" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="18" t="s">
         <v>18</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>19</v>
       </c>
       <c r="C8" s="46"/>
       <c r="D8" s="19"/>
@@ -2530,7 +2530,7 @@
       <c r="F8" s="79"/>
       <c r="G8" s="17"/>
       <c r="H8" s="17" t="str">
-        <f t="shared" ref="H8:H37" si="6">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <f t="shared" ref="H8:H34" si="6">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
       </c>
       <c r="I8" s="36"/>
@@ -2592,13 +2592,13 @@
     </row>
     <row r="9" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="75" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="89" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="89" t="s">
+      <c r="C9" s="47" t="s">
         <v>21</v>
-      </c>
-      <c r="C9" s="47" t="s">
-        <v>22</v>
       </c>
       <c r="D9" s="20">
         <v>1</v>
@@ -2674,13 +2674,13 @@
     </row>
     <row r="10" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="89" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="89" t="s">
-        <v>24</v>
-      </c>
       <c r="C10" s="47" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D10" s="20">
         <v>1</v>
@@ -2756,10 +2756,10 @@
     <row r="11" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="76"/>
       <c r="B11" s="89" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="47" t="s">
         <v>25</v>
-      </c>
-      <c r="C11" s="47" t="s">
-        <v>26</v>
       </c>
       <c r="D11" s="20">
         <v>0</v>
@@ -2835,10 +2835,10 @@
     <row r="12" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="76"/>
       <c r="B12" s="89" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="47" t="s">
         <v>27</v>
-      </c>
-      <c r="C12" s="47" t="s">
-        <v>28</v>
       </c>
       <c r="D12" s="20">
         <v>0.9</v>
@@ -2914,10 +2914,10 @@
     <row r="13" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="76"/>
       <c r="B13" s="89" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="47" t="s">
         <v>29</v>
-      </c>
-      <c r="C13" s="47" t="s">
-        <v>30</v>
       </c>
       <c r="D13" s="20">
         <v>0.2</v>
@@ -2991,10 +2991,10 @@
     <row r="14" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="76"/>
       <c r="B14" s="89" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C14" s="47" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D14" s="20">
         <v>0.8</v>
@@ -3067,10 +3067,10 @@
     <row r="15" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="76"/>
       <c r="B15" s="89" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C15" s="47" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D15" s="20">
         <v>0.8</v>
@@ -3143,10 +3143,10 @@
     <row r="16" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="76"/>
       <c r="B16" s="89" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C16" s="47" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D16" s="20">
         <v>0</v>
@@ -3282,10 +3282,10 @@
     </row>
     <row r="18" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="75" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="21" t="s">
         <v>32</v>
-      </c>
-      <c r="B18" s="21" t="s">
-        <v>33</v>
       </c>
       <c r="C18" s="48"/>
       <c r="D18" s="22"/>
@@ -3356,10 +3356,10 @@
     <row r="19" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="75"/>
       <c r="B19" s="56" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C19" s="49" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D19" s="23">
         <v>0</v>
@@ -3435,10 +3435,10 @@
     <row r="20" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="76"/>
       <c r="B20" s="56" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C20" s="49" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D20" s="23">
         <v>0</v>
@@ -3514,10 +3514,10 @@
     <row r="21" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="76"/>
       <c r="B21" s="56" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="49" t="s">
         <v>36</v>
-      </c>
-      <c r="C21" s="49" t="s">
-        <v>37</v>
       </c>
       <c r="D21" s="23">
         <v>0</v>
@@ -3660,12 +3660,16 @@
       <c r="BL22" s="36"/>
     </row>
     <row r="23" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="76"/>
-      <c r="B23" s="56"/>
-      <c r="C23" s="49"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="82"/>
-      <c r="F23" s="82"/>
+      <c r="A23" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="50"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="83"/>
+      <c r="F23" s="84"/>
       <c r="G23" s="17"/>
       <c r="H23" s="17" t="str">
         <f t="shared" si="6"/>
@@ -3729,20 +3733,22 @@
       <c r="BL23" s="36"/>
     </row>
     <row r="24" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="76" t="s">
-        <v>38</v>
-      </c>
-      <c r="B24" s="24" t="s">
+      <c r="A24" s="76"/>
+      <c r="B24" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="C24" s="50"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="83"/>
-      <c r="F24" s="84"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="85">
+        <v>44490</v>
+      </c>
+      <c r="F24" s="85">
+        <v>44491</v>
+      </c>
       <c r="G24" s="17"/>
-      <c r="H24" s="17" t="str">
+      <c r="H24" s="17">
         <f t="shared" si="6"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="I24" s="36"/>
       <c r="J24" s="36"/>
@@ -3804,20 +3810,20 @@
     <row r="25" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="76"/>
       <c r="B25" s="57" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C25" s="51"/>
       <c r="D25" s="26"/>
       <c r="E25" s="85">
-        <v>44490</v>
+        <v>44491</v>
       </c>
       <c r="F25" s="85">
-        <v>44491</v>
+        <v>44496</v>
       </c>
       <c r="G25" s="17"/>
       <c r="H25" s="17">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I25" s="36"/>
       <c r="J25" s="36"/>
@@ -3878,21 +3884,15 @@
     </row>
     <row r="26" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="76"/>
-      <c r="B26" s="57" t="s">
-        <v>39</v>
-      </c>
+      <c r="B26" s="57"/>
       <c r="C26" s="51"/>
       <c r="D26" s="26"/>
-      <c r="E26" s="85">
-        <v>44491</v>
-      </c>
-      <c r="F26" s="85">
-        <v>44496</v>
-      </c>
+      <c r="E26" s="85"/>
+      <c r="F26" s="85"/>
       <c r="G26" s="17"/>
-      <c r="H26" s="17">
+      <c r="H26" s="17" t="str">
         <f t="shared" si="6"/>
-        <v>6</v>
+        <v/>
       </c>
       <c r="I26" s="36"/>
       <c r="J26" s="36"/>
@@ -3952,12 +3952,16 @@
       <c r="BL26" s="36"/>
     </row>
     <row r="27" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="76"/>
-      <c r="B27" s="57"/>
-      <c r="C27" s="51"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="85"/>
-      <c r="F27" s="85"/>
+      <c r="A27" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="52"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="86"/>
+      <c r="F27" s="87"/>
       <c r="G27" s="17"/>
       <c r="H27" s="17" t="str">
         <f t="shared" si="6"/>
@@ -3966,43 +3970,43 @@
       <c r="I27" s="36"/>
       <c r="J27" s="36"/>
       <c r="K27" s="36"/>
-      <c r="L27" s="73"/>
-      <c r="M27" s="73"/>
-      <c r="N27" s="73"/>
-      <c r="O27" s="73"/>
-      <c r="P27" s="73"/>
-      <c r="Q27" s="73"/>
-      <c r="R27" s="73"/>
-      <c r="S27" s="73"/>
-      <c r="T27" s="73"/>
-      <c r="U27" s="73"/>
-      <c r="V27" s="73"/>
-      <c r="W27" s="73"/>
-      <c r="X27" s="73"/>
-      <c r="Y27" s="73"/>
-      <c r="Z27" s="73"/>
-      <c r="AA27" s="73"/>
-      <c r="AB27" s="73"/>
-      <c r="AC27" s="73"/>
-      <c r="AD27" s="73"/>
-      <c r="AE27" s="73"/>
-      <c r="AF27" s="73"/>
-      <c r="AG27" s="73"/>
-      <c r="AH27" s="73"/>
-      <c r="AI27" s="73"/>
-      <c r="AJ27" s="73"/>
-      <c r="AK27" s="73"/>
-      <c r="AL27" s="73"/>
-      <c r="AM27" s="73"/>
-      <c r="AN27" s="73"/>
-      <c r="AO27" s="73"/>
-      <c r="AP27" s="73"/>
-      <c r="AQ27" s="73"/>
-      <c r="AR27" s="73"/>
-      <c r="AS27" s="73"/>
-      <c r="AT27" s="73"/>
-      <c r="AU27" s="73"/>
-      <c r="AV27" s="73"/>
+      <c r="L27" s="36"/>
+      <c r="M27" s="36"/>
+      <c r="N27" s="36"/>
+      <c r="O27" s="36"/>
+      <c r="P27" s="36"/>
+      <c r="Q27" s="36"/>
+      <c r="R27" s="36"/>
+      <c r="S27" s="36"/>
+      <c r="T27" s="36"/>
+      <c r="U27" s="36"/>
+      <c r="V27" s="36"/>
+      <c r="W27" s="36"/>
+      <c r="X27" s="36"/>
+      <c r="Y27" s="36"/>
+      <c r="Z27" s="36"/>
+      <c r="AA27" s="36"/>
+      <c r="AB27" s="36"/>
+      <c r="AC27" s="36"/>
+      <c r="AD27" s="36"/>
+      <c r="AE27" s="36"/>
+      <c r="AF27" s="36"/>
+      <c r="AG27" s="36"/>
+      <c r="AH27" s="36"/>
+      <c r="AI27" s="36"/>
+      <c r="AJ27" s="36"/>
+      <c r="AK27" s="36"/>
+      <c r="AL27" s="36"/>
+      <c r="AM27" s="36"/>
+      <c r="AN27" s="36"/>
+      <c r="AO27" s="36"/>
+      <c r="AP27" s="36"/>
+      <c r="AQ27" s="36"/>
+      <c r="AR27" s="36"/>
+      <c r="AS27" s="36"/>
+      <c r="AT27" s="36"/>
+      <c r="AU27" s="36"/>
+      <c r="AV27" s="36"/>
       <c r="AW27" s="36"/>
       <c r="AX27" s="36"/>
       <c r="AY27" s="36"/>
@@ -4022,56 +4026,62 @@
     </row>
     <row r="28" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="76"/>
-      <c r="B28" s="57"/>
-      <c r="C28" s="51"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="85"/>
-      <c r="F28" s="85"/>
+      <c r="B28" s="58" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" s="53"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="88">
+        <v>44497</v>
+      </c>
+      <c r="F28" s="88">
+        <v>44502</v>
+      </c>
       <c r="G28" s="17"/>
-      <c r="H28" s="17" t="str">
+      <c r="H28" s="17">
         <f t="shared" si="6"/>
-        <v/>
+        <v>6</v>
       </c>
       <c r="I28" s="36"/>
       <c r="J28" s="36"/>
       <c r="K28" s="36"/>
-      <c r="L28" s="73"/>
-      <c r="M28" s="73"/>
-      <c r="N28" s="73"/>
-      <c r="O28" s="73"/>
-      <c r="P28" s="73"/>
-      <c r="Q28" s="73"/>
-      <c r="R28" s="73"/>
-      <c r="S28" s="73"/>
-      <c r="T28" s="73"/>
-      <c r="U28" s="73"/>
-      <c r="V28" s="73"/>
-      <c r="W28" s="73"/>
-      <c r="X28" s="73"/>
-      <c r="Y28" s="73"/>
-      <c r="Z28" s="73"/>
-      <c r="AA28" s="73"/>
-      <c r="AB28" s="73"/>
-      <c r="AC28" s="73"/>
-      <c r="AD28" s="73"/>
-      <c r="AE28" s="73"/>
-      <c r="AF28" s="73"/>
-      <c r="AG28" s="73"/>
-      <c r="AH28" s="73"/>
-      <c r="AI28" s="73"/>
-      <c r="AJ28" s="73"/>
-      <c r="AK28" s="73"/>
-      <c r="AL28" s="73"/>
-      <c r="AM28" s="73"/>
-      <c r="AN28" s="73"/>
-      <c r="AO28" s="73"/>
-      <c r="AP28" s="73"/>
-      <c r="AQ28" s="73"/>
-      <c r="AR28" s="73"/>
-      <c r="AS28" s="73"/>
-      <c r="AT28" s="73"/>
-      <c r="AU28" s="73"/>
-      <c r="AV28" s="73"/>
+      <c r="L28" s="36"/>
+      <c r="M28" s="36"/>
+      <c r="N28" s="36"/>
+      <c r="O28" s="36"/>
+      <c r="P28" s="36"/>
+      <c r="Q28" s="36"/>
+      <c r="R28" s="36"/>
+      <c r="S28" s="36"/>
+      <c r="T28" s="36"/>
+      <c r="U28" s="36"/>
+      <c r="V28" s="36"/>
+      <c r="W28" s="36"/>
+      <c r="X28" s="36"/>
+      <c r="Y28" s="36"/>
+      <c r="Z28" s="36"/>
+      <c r="AA28" s="36"/>
+      <c r="AB28" s="36"/>
+      <c r="AC28" s="36"/>
+      <c r="AD28" s="36"/>
+      <c r="AE28" s="36"/>
+      <c r="AF28" s="36"/>
+      <c r="AG28" s="36"/>
+      <c r="AH28" s="36"/>
+      <c r="AI28" s="36"/>
+      <c r="AJ28" s="36"/>
+      <c r="AK28" s="36"/>
+      <c r="AL28" s="36"/>
+      <c r="AM28" s="36"/>
+      <c r="AN28" s="36"/>
+      <c r="AO28" s="36"/>
+      <c r="AP28" s="36"/>
+      <c r="AQ28" s="36"/>
+      <c r="AR28" s="36"/>
+      <c r="AS28" s="36"/>
+      <c r="AT28" s="36"/>
+      <c r="AU28" s="36"/>
+      <c r="AV28" s="36"/>
       <c r="AW28" s="36"/>
       <c r="AX28" s="36"/>
       <c r="AY28" s="36"/>
@@ -4091,56 +4101,62 @@
     </row>
     <row r="29" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="76"/>
-      <c r="B29" s="57"/>
-      <c r="C29" s="51"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="85"/>
-      <c r="F29" s="85"/>
+      <c r="B29" s="58" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" s="53"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="88">
+        <v>44504</v>
+      </c>
+      <c r="F29" s="88">
+        <v>44507</v>
+      </c>
       <c r="G29" s="17"/>
-      <c r="H29" s="17" t="str">
+      <c r="H29" s="17">
         <f t="shared" si="6"/>
-        <v/>
+        <v>4</v>
       </c>
       <c r="I29" s="36"/>
       <c r="J29" s="36"/>
       <c r="K29" s="36"/>
-      <c r="L29" s="73"/>
-      <c r="M29" s="73"/>
-      <c r="N29" s="73"/>
-      <c r="O29" s="73"/>
-      <c r="P29" s="73"/>
-      <c r="Q29" s="73"/>
-      <c r="R29" s="73"/>
-      <c r="S29" s="73"/>
-      <c r="T29" s="73"/>
-      <c r="U29" s="73"/>
-      <c r="V29" s="73"/>
-      <c r="W29" s="73"/>
-      <c r="X29" s="73"/>
-      <c r="Y29" s="73"/>
-      <c r="Z29" s="73"/>
-      <c r="AA29" s="73"/>
-      <c r="AB29" s="73"/>
-      <c r="AC29" s="73"/>
-      <c r="AD29" s="73"/>
-      <c r="AE29" s="73"/>
-      <c r="AF29" s="73"/>
-      <c r="AG29" s="73"/>
-      <c r="AH29" s="73"/>
-      <c r="AI29" s="73"/>
-      <c r="AJ29" s="73"/>
-      <c r="AK29" s="73"/>
-      <c r="AL29" s="73"/>
-      <c r="AM29" s="73"/>
-      <c r="AN29" s="73"/>
-      <c r="AO29" s="73"/>
-      <c r="AP29" s="73"/>
-      <c r="AQ29" s="73"/>
-      <c r="AR29" s="73"/>
-      <c r="AS29" s="73"/>
-      <c r="AT29" s="73"/>
-      <c r="AU29" s="73"/>
-      <c r="AV29" s="73"/>
+      <c r="L29" s="36"/>
+      <c r="M29" s="36"/>
+      <c r="N29" s="36"/>
+      <c r="O29" s="36"/>
+      <c r="P29" s="36"/>
+      <c r="Q29" s="36"/>
+      <c r="R29" s="36"/>
+      <c r="S29" s="36"/>
+      <c r="T29" s="36"/>
+      <c r="U29" s="36"/>
+      <c r="V29" s="36"/>
+      <c r="W29" s="36"/>
+      <c r="X29" s="36"/>
+      <c r="Y29" s="36"/>
+      <c r="Z29" s="36"/>
+      <c r="AA29" s="36"/>
+      <c r="AB29" s="36"/>
+      <c r="AC29" s="36"/>
+      <c r="AD29" s="36"/>
+      <c r="AE29" s="36"/>
+      <c r="AF29" s="36"/>
+      <c r="AG29" s="36"/>
+      <c r="AH29" s="36"/>
+      <c r="AI29" s="36"/>
+      <c r="AJ29" s="36"/>
+      <c r="AK29" s="36"/>
+      <c r="AL29" s="36"/>
+      <c r="AM29" s="36"/>
+      <c r="AN29" s="36"/>
+      <c r="AO29" s="36"/>
+      <c r="AP29" s="36"/>
+      <c r="AQ29" s="36"/>
+      <c r="AR29" s="36"/>
+      <c r="AS29" s="36"/>
+      <c r="AT29" s="36"/>
+      <c r="AU29" s="36"/>
+      <c r="AV29" s="36"/>
       <c r="AW29" s="36"/>
       <c r="AX29" s="36"/>
       <c r="AY29" s="36"/>
@@ -4159,20 +4175,22 @@
       <c r="BL29" s="36"/>
     </row>
     <row r="30" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="76" t="s">
-        <v>38</v>
-      </c>
-      <c r="B30" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="C30" s="52"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="86"/>
-      <c r="F30" s="87"/>
+      <c r="A30" s="76"/>
+      <c r="B30" s="58" t="s">
+        <v>42</v>
+      </c>
+      <c r="C30" s="53"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="88">
+        <v>44504</v>
+      </c>
+      <c r="F30" s="88">
+        <v>44507</v>
+      </c>
       <c r="G30" s="17"/>
-      <c r="H30" s="17" t="str">
+      <c r="H30" s="17">
         <f t="shared" si="6"/>
-        <v/>
+        <v>4</v>
       </c>
       <c r="I30" s="36"/>
       <c r="J30" s="36"/>
@@ -4233,21 +4251,15 @@
     </row>
     <row r="31" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="76"/>
-      <c r="B31" s="58" t="s">
-        <v>42</v>
-      </c>
+      <c r="B31" s="58"/>
       <c r="C31" s="53"/>
       <c r="D31" s="29"/>
-      <c r="E31" s="88">
-        <v>44497</v>
-      </c>
-      <c r="F31" s="88">
-        <v>44502</v>
-      </c>
+      <c r="E31" s="88"/>
+      <c r="F31" s="88"/>
       <c r="G31" s="17"/>
-      <c r="H31" s="17">
+      <c r="H31" s="17" t="str">
         <f t="shared" si="6"/>
-        <v>6</v>
+        <v/>
       </c>
       <c r="I31" s="36"/>
       <c r="J31" s="36"/>
@@ -4308,21 +4320,15 @@
     </row>
     <row r="32" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="76"/>
-      <c r="B32" s="58" t="s">
-        <v>41</v>
-      </c>
+      <c r="B32" s="58"/>
       <c r="C32" s="53"/>
       <c r="D32" s="29"/>
-      <c r="E32" s="88">
-        <v>44504</v>
-      </c>
-      <c r="F32" s="88">
-        <v>44507</v>
-      </c>
+      <c r="E32" s="88"/>
+      <c r="F32" s="88"/>
       <c r="G32" s="17"/>
-      <c r="H32" s="17">
+      <c r="H32" s="17" t="str">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v/>
       </c>
       <c r="I32" s="36"/>
       <c r="J32" s="36"/>
@@ -4382,22 +4388,18 @@
       <c r="BL32" s="36"/>
     </row>
     <row r="33" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="76"/>
-      <c r="B33" s="58" t="s">
+      <c r="A33" s="76" t="s">
         <v>43</v>
       </c>
-      <c r="C33" s="53"/>
-      <c r="D33" s="29"/>
-      <c r="E33" s="88">
-        <v>44504</v>
-      </c>
-      <c r="F33" s="88">
-        <v>44507</v>
-      </c>
+      <c r="B33" s="59"/>
+      <c r="C33" s="54"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="45"/>
+      <c r="F33" s="45"/>
       <c r="G33" s="17"/>
-      <c r="H33" s="17">
+      <c r="H33" s="17" t="str">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v/>
       </c>
       <c r="I33" s="36"/>
       <c r="J33" s="36"/>
@@ -4457,328 +4459,119 @@
       <c r="BL33" s="36"/>
     </row>
     <row r="34" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="76"/>
-      <c r="B34" s="58"/>
-      <c r="C34" s="53"/>
-      <c r="D34" s="29"/>
-      <c r="E34" s="88"/>
-      <c r="F34" s="88"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="17" t="str">
+      <c r="A34" s="75" t="s">
+        <v>44</v>
+      </c>
+      <c r="B34" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34" s="31"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="33"/>
+      <c r="F34" s="34"/>
+      <c r="G34" s="35"/>
+      <c r="H34" s="35" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I34" s="36"/>
-      <c r="J34" s="36"/>
-      <c r="K34" s="36"/>
-      <c r="L34" s="36"/>
-      <c r="M34" s="36"/>
-      <c r="N34" s="36"/>
-      <c r="O34" s="36"/>
-      <c r="P34" s="36"/>
-      <c r="Q34" s="36"/>
-      <c r="R34" s="36"/>
-      <c r="S34" s="36"/>
-      <c r="T34" s="36"/>
-      <c r="U34" s="36"/>
-      <c r="V34" s="36"/>
-      <c r="W34" s="36"/>
-      <c r="X34" s="36"/>
-      <c r="Y34" s="36"/>
-      <c r="Z34" s="36"/>
-      <c r="AA34" s="36"/>
-      <c r="AB34" s="36"/>
-      <c r="AC34" s="36"/>
-      <c r="AD34" s="36"/>
-      <c r="AE34" s="36"/>
-      <c r="AF34" s="36"/>
-      <c r="AG34" s="36"/>
-      <c r="AH34" s="36"/>
-      <c r="AI34" s="36"/>
-      <c r="AJ34" s="36"/>
-      <c r="AK34" s="36"/>
-      <c r="AL34" s="36"/>
-      <c r="AM34" s="36"/>
-      <c r="AN34" s="36"/>
-      <c r="AO34" s="36"/>
-      <c r="AP34" s="36"/>
-      <c r="AQ34" s="36"/>
-      <c r="AR34" s="36"/>
-      <c r="AS34" s="36"/>
-      <c r="AT34" s="36"/>
-      <c r="AU34" s="36"/>
-      <c r="AV34" s="36"/>
-      <c r="AW34" s="36"/>
-      <c r="AX34" s="36"/>
-      <c r="AY34" s="36"/>
-      <c r="AZ34" s="36"/>
-      <c r="BA34" s="36"/>
-      <c r="BB34" s="36"/>
-      <c r="BC34" s="36"/>
-      <c r="BD34" s="36"/>
-      <c r="BE34" s="36"/>
-      <c r="BF34" s="36"/>
-      <c r="BG34" s="36"/>
-      <c r="BH34" s="36"/>
-      <c r="BI34" s="36"/>
-      <c r="BJ34" s="36"/>
-      <c r="BK34" s="36"/>
-      <c r="BL34" s="36"/>
-    </row>
-    <row r="35" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="76"/>
-      <c r="B35" s="58"/>
-      <c r="C35" s="53"/>
-      <c r="D35" s="29"/>
-      <c r="E35" s="88"/>
-      <c r="F35" s="88"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="17" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I35" s="36"/>
-      <c r="J35" s="36"/>
-      <c r="K35" s="36"/>
-      <c r="L35" s="36"/>
-      <c r="M35" s="36"/>
-      <c r="N35" s="36"/>
-      <c r="O35" s="36"/>
-      <c r="P35" s="36"/>
-      <c r="Q35" s="36"/>
-      <c r="R35" s="36"/>
-      <c r="S35" s="36"/>
-      <c r="T35" s="36"/>
-      <c r="U35" s="36"/>
-      <c r="V35" s="36"/>
-      <c r="W35" s="36"/>
-      <c r="X35" s="36"/>
-      <c r="Y35" s="36"/>
-      <c r="Z35" s="36"/>
-      <c r="AA35" s="36"/>
-      <c r="AB35" s="36"/>
-      <c r="AC35" s="36"/>
-      <c r="AD35" s="36"/>
-      <c r="AE35" s="36"/>
-      <c r="AF35" s="36"/>
-      <c r="AG35" s="36"/>
-      <c r="AH35" s="36"/>
-      <c r="AI35" s="36"/>
-      <c r="AJ35" s="36"/>
-      <c r="AK35" s="36"/>
-      <c r="AL35" s="36"/>
-      <c r="AM35" s="36"/>
-      <c r="AN35" s="36"/>
-      <c r="AO35" s="36"/>
-      <c r="AP35" s="36"/>
-      <c r="AQ35" s="36"/>
-      <c r="AR35" s="36"/>
-      <c r="AS35" s="36"/>
-      <c r="AT35" s="36"/>
-      <c r="AU35" s="36"/>
-      <c r="AV35" s="36"/>
-      <c r="AW35" s="36"/>
-      <c r="AX35" s="36"/>
-      <c r="AY35" s="36"/>
-      <c r="AZ35" s="36"/>
-      <c r="BA35" s="36"/>
-      <c r="BB35" s="36"/>
-      <c r="BC35" s="36"/>
-      <c r="BD35" s="36"/>
-      <c r="BE35" s="36"/>
-      <c r="BF35" s="36"/>
-      <c r="BG35" s="36"/>
-      <c r="BH35" s="36"/>
-      <c r="BI35" s="36"/>
-      <c r="BJ35" s="36"/>
-      <c r="BK35" s="36"/>
-      <c r="BL35" s="36"/>
-    </row>
-    <row r="36" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="B36" s="59"/>
-      <c r="C36" s="54"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="45"/>
-      <c r="F36" s="45"/>
-      <c r="G36" s="17"/>
-      <c r="H36" s="17" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I36" s="36"/>
-      <c r="J36" s="36"/>
-      <c r="K36" s="36"/>
-      <c r="L36" s="36"/>
-      <c r="M36" s="36"/>
-      <c r="N36" s="36"/>
-      <c r="O36" s="36"/>
-      <c r="P36" s="36"/>
-      <c r="Q36" s="36"/>
-      <c r="R36" s="36"/>
-      <c r="S36" s="36"/>
-      <c r="T36" s="36"/>
-      <c r="U36" s="36"/>
-      <c r="V36" s="36"/>
-      <c r="W36" s="36"/>
-      <c r="X36" s="36"/>
-      <c r="Y36" s="36"/>
-      <c r="Z36" s="36"/>
-      <c r="AA36" s="36"/>
-      <c r="AB36" s="36"/>
-      <c r="AC36" s="36"/>
-      <c r="AD36" s="36"/>
-      <c r="AE36" s="36"/>
-      <c r="AF36" s="36"/>
-      <c r="AG36" s="36"/>
-      <c r="AH36" s="36"/>
-      <c r="AI36" s="36"/>
-      <c r="AJ36" s="36"/>
-      <c r="AK36" s="36"/>
-      <c r="AL36" s="36"/>
-      <c r="AM36" s="36"/>
-      <c r="AN36" s="36"/>
-      <c r="AO36" s="36"/>
-      <c r="AP36" s="36"/>
-      <c r="AQ36" s="36"/>
-      <c r="AR36" s="36"/>
-      <c r="AS36" s="36"/>
-      <c r="AT36" s="36"/>
-      <c r="AU36" s="36"/>
-      <c r="AV36" s="36"/>
-      <c r="AW36" s="36"/>
-      <c r="AX36" s="36"/>
-      <c r="AY36" s="36"/>
-      <c r="AZ36" s="36"/>
-      <c r="BA36" s="36"/>
-      <c r="BB36" s="36"/>
-      <c r="BC36" s="36"/>
-      <c r="BD36" s="36"/>
-      <c r="BE36" s="36"/>
-      <c r="BF36" s="36"/>
-      <c r="BG36" s="36"/>
-      <c r="BH36" s="36"/>
-      <c r="BI36" s="36"/>
-      <c r="BJ36" s="36"/>
-      <c r="BK36" s="36"/>
-      <c r="BL36" s="36"/>
-    </row>
-    <row r="37" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="75" t="s">
-        <v>45</v>
-      </c>
-      <c r="B37" s="30" t="s">
+      <c r="I34" s="37"/>
+      <c r="J34" s="37"/>
+      <c r="K34" s="37"/>
+      <c r="L34" s="37"/>
+      <c r="M34" s="37"/>
+      <c r="N34" s="37"/>
+      <c r="O34" s="37"/>
+      <c r="P34" s="37"/>
+      <c r="Q34" s="37"/>
+      <c r="R34" s="37"/>
+      <c r="S34" s="37"/>
+      <c r="T34" s="37"/>
+      <c r="U34" s="37"/>
+      <c r="V34" s="37"/>
+      <c r="W34" s="37"/>
+      <c r="X34" s="37"/>
+      <c r="Y34" s="37"/>
+      <c r="Z34" s="37"/>
+      <c r="AA34" s="37"/>
+      <c r="AB34" s="37"/>
+      <c r="AC34" s="37"/>
+      <c r="AD34" s="37"/>
+      <c r="AE34" s="37"/>
+      <c r="AF34" s="37"/>
+      <c r="AG34" s="37"/>
+      <c r="AH34" s="37"/>
+      <c r="AI34" s="37"/>
+      <c r="AJ34" s="37"/>
+      <c r="AK34" s="37"/>
+      <c r="AL34" s="37"/>
+      <c r="AM34" s="37"/>
+      <c r="AN34" s="37"/>
+      <c r="AO34" s="37"/>
+      <c r="AP34" s="37"/>
+      <c r="AQ34" s="37"/>
+      <c r="AR34" s="37"/>
+      <c r="AS34" s="37"/>
+      <c r="AT34" s="37"/>
+      <c r="AU34" s="37"/>
+      <c r="AV34" s="37"/>
+      <c r="AW34" s="37"/>
+      <c r="AX34" s="37"/>
+      <c r="AY34" s="37"/>
+      <c r="AZ34" s="37"/>
+      <c r="BA34" s="37"/>
+      <c r="BB34" s="37"/>
+      <c r="BC34" s="37"/>
+      <c r="BD34" s="37"/>
+      <c r="BE34" s="37"/>
+      <c r="BF34" s="37"/>
+      <c r="BG34" s="37"/>
+      <c r="BH34" s="37"/>
+      <c r="BI34" s="37"/>
+      <c r="BJ34" s="37"/>
+      <c r="BK34" s="37"/>
+      <c r="BL34" s="37"/>
+    </row>
+    <row r="35" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G35" s="6"/>
+    </row>
+    <row r="36" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C36" s="14"/>
+      <c r="F36" s="39"/>
+    </row>
+    <row r="37" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C37" s="15"/>
+    </row>
+    <row r="38" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="C37" s="31"/>
-      <c r="D37" s="32"/>
-      <c r="E37" s="33"/>
-      <c r="F37" s="34"/>
-      <c r="G37" s="35"/>
-      <c r="H37" s="35" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I37" s="37"/>
-      <c r="J37" s="37"/>
-      <c r="K37" s="37"/>
-      <c r="L37" s="37"/>
-      <c r="M37" s="37"/>
-      <c r="N37" s="37"/>
-      <c r="O37" s="37"/>
-      <c r="P37" s="37"/>
-      <c r="Q37" s="37"/>
-      <c r="R37" s="37"/>
-      <c r="S37" s="37"/>
-      <c r="T37" s="37"/>
-      <c r="U37" s="37"/>
-      <c r="V37" s="37"/>
-      <c r="W37" s="37"/>
-      <c r="X37" s="37"/>
-      <c r="Y37" s="37"/>
-      <c r="Z37" s="37"/>
-      <c r="AA37" s="37"/>
-      <c r="AB37" s="37"/>
-      <c r="AC37" s="37"/>
-      <c r="AD37" s="37"/>
-      <c r="AE37" s="37"/>
-      <c r="AF37" s="37"/>
-      <c r="AG37" s="37"/>
-      <c r="AH37" s="37"/>
-      <c r="AI37" s="37"/>
-      <c r="AJ37" s="37"/>
-      <c r="AK37" s="37"/>
-      <c r="AL37" s="37"/>
-      <c r="AM37" s="37"/>
-      <c r="AN37" s="37"/>
-      <c r="AO37" s="37"/>
-      <c r="AP37" s="37"/>
-      <c r="AQ37" s="37"/>
-      <c r="AR37" s="37"/>
-      <c r="AS37" s="37"/>
-      <c r="AT37" s="37"/>
-      <c r="AU37" s="37"/>
-      <c r="AV37" s="37"/>
-      <c r="AW37" s="37"/>
-      <c r="AX37" s="37"/>
-      <c r="AY37" s="37"/>
-      <c r="AZ37" s="37"/>
-      <c r="BA37" s="37"/>
-      <c r="BB37" s="37"/>
-      <c r="BC37" s="37"/>
-      <c r="BD37" s="37"/>
-      <c r="BE37" s="37"/>
-      <c r="BF37" s="37"/>
-      <c r="BG37" s="37"/>
-      <c r="BH37" s="37"/>
-      <c r="BI37" s="37"/>
-      <c r="BJ37" s="37"/>
-      <c r="BK37" s="37"/>
-      <c r="BL37" s="37"/>
-    </row>
-    <row r="38" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G38" s="6"/>
-    </row>
-    <row r="39" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C39" s="14"/>
-      <c r="F39" s="39"/>
+    </row>
+    <row r="39" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="55" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="40" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C40" s="15"/>
+      <c r="B40" s="55" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="41" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B41" s="55" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="42" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B42" s="55" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
     </row>
     <row r="43" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="55" t="s">
-        <v>49</v>
-      </c>
+      <c r="B43" s="55"/>
     </row>
     <row r="44" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B44" s="55" t="s">
         <v>50</v>
-      </c>
-    </row>
-    <row r="45" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="55" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="46" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="55"/>
-    </row>
-    <row r="47" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="55" t="s">
-        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -4796,7 +4589,7 @@
     <mergeCell ref="AK4:AQ4"/>
     <mergeCell ref="AR4:AX4"/>
   </mergeCells>
-  <conditionalFormatting sqref="D18:D37 D7:D16">
+  <conditionalFormatting sqref="D7:D16 D18:D34">
     <cfRule type="dataBar" priority="15">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -4810,12 +4603,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:BL37">
+  <conditionalFormatting sqref="I5:BL34">
     <cfRule type="expression" dxfId="2" priority="34">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I7:BL37">
+  <conditionalFormatting sqref="I7:BL34">
     <cfRule type="expression" dxfId="1" priority="28">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
@@ -4854,7 +4647,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D18:D37 D7:D16</xm:sqref>
+          <xm:sqref>D7:D16 D18:D34</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -4879,212 +4672,212 @@
   <sheetData>
     <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="62" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="62" t="s">
+      <c r="C1" s="62" t="s">
         <v>53</v>
-      </c>
-      <c r="C1" s="62" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="68" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="68" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="68" t="s">
+      <c r="C2" s="66" t="s">
         <v>56</v>
-      </c>
-      <c r="C2" s="66" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="69"/>
       <c r="B3" s="69"/>
       <c r="C3" s="63" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="68"/>
       <c r="B4" s="68" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="64" t="s">
         <v>59</v>
-      </c>
-      <c r="C4" s="64" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="69"/>
       <c r="B5" s="69" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="65" t="s">
         <v>61</v>
-      </c>
-      <c r="C5" s="65" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="68"/>
       <c r="B6" s="68" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="64" t="s">
         <v>63</v>
-      </c>
-      <c r="C6" s="64" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="69"/>
       <c r="B7" s="69"/>
       <c r="C7" s="65" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="68"/>
       <c r="B8" s="68" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="64" t="s">
         <v>66</v>
-      </c>
-      <c r="C8" s="64" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="64" x14ac:dyDescent="0.2">
       <c r="A9" s="69"/>
       <c r="B9" s="69"/>
       <c r="C9" s="65" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="68"/>
       <c r="B10" s="68"/>
       <c r="C10" s="64" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="69" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" s="72" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="65" t="s">
         <v>70</v>
-      </c>
-      <c r="B11" s="72" t="s">
-        <v>56</v>
-      </c>
-      <c r="C11" s="65" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="68"/>
       <c r="B12" s="68" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C12" s="64" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="69"/>
       <c r="B13" s="69" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C13" s="63"/>
     </row>
     <row r="14" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="68"/>
       <c r="B14" s="68" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C14" s="67" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="69"/>
       <c r="B15" s="69" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C15" s="63"/>
     </row>
     <row r="16" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="68" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16" s="68" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="66" t="s">
         <v>74</v>
-      </c>
-      <c r="B16" s="68" t="s">
-        <v>56</v>
-      </c>
-      <c r="C16" s="66" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="69"/>
       <c r="B17" s="69" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C17" s="63"/>
     </row>
     <row r="18" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="68"/>
       <c r="B18" s="68" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C18" s="67" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="69"/>
       <c r="B19" s="69" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C19" s="63"/>
     </row>
     <row r="20" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="68" t="s">
+        <v>75</v>
+      </c>
+      <c r="B20" s="68" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="66" t="s">
         <v>76</v>
-      </c>
-      <c r="B20" s="68" t="s">
-        <v>56</v>
-      </c>
-      <c r="C20" s="66" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="69"/>
       <c r="B21" s="69" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C21" s="63"/>
     </row>
     <row r="22" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="68"/>
       <c r="B22" s="68" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C22" s="67" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="69"/>
       <c r="B23" s="69" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C23" s="63" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="68" t="s">
+        <v>79</v>
+      </c>
+      <c r="B24" s="68" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="66" t="s">
         <v>80</v>
-      </c>
-      <c r="B24" s="68" t="s">
-        <v>61</v>
-      </c>
-      <c r="C24" s="66" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">

--- a/Gantt Chart.xlsx
+++ b/Gantt Chart.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42C16986-5041-204B-9900-F55E5A863473}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BA47FD7-E361-1B49-B954-2B23045EADE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1000" yWindow="500" windowWidth="27800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectSchedule" sheetId="11" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="81">
   <si>
     <t>Create a Project Schedule in this worksheet.
 Enter title of this project in cell B1. 
@@ -113,9 +113,6 @@
 To delete the phase and work only from tasks, simply delete this row.</t>
   </si>
   <si>
-    <t>Plan &amp; PreDevelop</t>
-  </si>
-  <si>
     <t xml:space="preserve">Cell B9 contains the sample task "Task 1." 
 Enter a new task name in cell B9.
 Enter a person to assign the task to in cell C9.
@@ -140,16 +137,7 @@
     <t>Schematic Diagram</t>
   </si>
   <si>
-    <t>Research on object-transport robot</t>
-  </si>
-  <si>
     <t>ME</t>
-  </si>
-  <si>
-    <t>Research on line-tracking robot</t>
-  </si>
-  <si>
-    <t>Software</t>
   </si>
   <si>
     <t>Test all components, provide drive code</t>
@@ -171,37 +159,13 @@
 Repeat the instructions from cells A8 and A9 whenever you need to.</t>
   </si>
   <si>
-    <t>Develop</t>
-  </si>
-  <si>
-    <t>ME development</t>
-  </si>
-  <si>
-    <t>Software development</t>
-  </si>
-  <si>
-    <t>EE development</t>
-  </si>
-  <si>
-    <t>EEE</t>
-  </si>
-  <si>
     <t>Sample phase title block</t>
   </si>
   <si>
     <t>Test</t>
   </si>
   <si>
-    <t>Assemble entire robot</t>
-  </si>
-  <si>
     <t>Final Report</t>
-  </si>
-  <si>
-    <t>Final prez</t>
-  </si>
-  <si>
-    <t>Celebration</t>
   </si>
   <si>
     <t>This is an empty row</t>
@@ -583,6 +547,33 @@
   </si>
   <si>
     <t>TAIPEI101</t>
+  </si>
+  <si>
+    <t>R&amp;D</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Build metal detector</t>
+  </si>
+  <si>
+    <t>Laura</t>
+  </si>
+  <si>
+    <t>Build grab system</t>
+  </si>
+  <si>
+    <t>Build line-follow robot</t>
+  </si>
+  <si>
+    <t>Derek</t>
+  </si>
+  <si>
+    <t>Assemble all parts (consider your own task to assemble robots and add below this task)</t>
+  </si>
+  <si>
+    <t>Draw overall circuit diagram and build circuit on Proto Board</t>
   </si>
 </sst>
 </file>
@@ -767,7 +758,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -861,6 +852,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1031,7 +1028,7 @@
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1286,6 +1283,18 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="12" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="9" fillId="0" borderId="3" xfId="9" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
@@ -1293,17 +1302,8 @@
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="9" fillId="0" borderId="3" xfId="9" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="2" xfId="12" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -1815,11 +1815,11 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BL44"/>
+  <dimension ref="A1:BL48"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P11" sqref="P11"/>
+      <pane ySplit="6" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1841,7 +1841,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="42" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
@@ -1866,117 +1866,117 @@
         <v>4</v>
       </c>
       <c r="B3" s="44"/>
-      <c r="C3" s="90" t="s">
+      <c r="C3" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="91"/>
-      <c r="E3" s="96">
+      <c r="D3" s="95"/>
+      <c r="E3" s="93">
         <v>44476</v>
       </c>
-      <c r="F3" s="96"/>
+      <c r="F3" s="93"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="90" t="s">
+      <c r="C4" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="91"/>
+      <c r="D4" s="95"/>
       <c r="E4" s="7">
         <v>1</v>
       </c>
-      <c r="I4" s="93">
+      <c r="I4" s="90">
         <f>I5</f>
         <v>44473</v>
       </c>
-      <c r="J4" s="94"/>
-      <c r="K4" s="94"/>
-      <c r="L4" s="94"/>
-      <c r="M4" s="94"/>
-      <c r="N4" s="94"/>
-      <c r="O4" s="95"/>
-      <c r="P4" s="93">
+      <c r="J4" s="91"/>
+      <c r="K4" s="91"/>
+      <c r="L4" s="91"/>
+      <c r="M4" s="91"/>
+      <c r="N4" s="91"/>
+      <c r="O4" s="92"/>
+      <c r="P4" s="90">
         <f>P5</f>
         <v>44480</v>
       </c>
-      <c r="Q4" s="94"/>
-      <c r="R4" s="94"/>
-      <c r="S4" s="94"/>
-      <c r="T4" s="94"/>
-      <c r="U4" s="94"/>
-      <c r="V4" s="95"/>
-      <c r="W4" s="93">
+      <c r="Q4" s="91"/>
+      <c r="R4" s="91"/>
+      <c r="S4" s="91"/>
+      <c r="T4" s="91"/>
+      <c r="U4" s="91"/>
+      <c r="V4" s="92"/>
+      <c r="W4" s="90">
         <f>W5</f>
         <v>44487</v>
       </c>
-      <c r="X4" s="94"/>
-      <c r="Y4" s="94"/>
-      <c r="Z4" s="94"/>
-      <c r="AA4" s="94"/>
-      <c r="AB4" s="94"/>
-      <c r="AC4" s="95"/>
-      <c r="AD4" s="93">
+      <c r="X4" s="91"/>
+      <c r="Y4" s="91"/>
+      <c r="Z4" s="91"/>
+      <c r="AA4" s="91"/>
+      <c r="AB4" s="91"/>
+      <c r="AC4" s="92"/>
+      <c r="AD4" s="90">
         <f>AD5</f>
         <v>44494</v>
       </c>
-      <c r="AE4" s="94"/>
-      <c r="AF4" s="94"/>
-      <c r="AG4" s="94"/>
-      <c r="AH4" s="94"/>
-      <c r="AI4" s="94"/>
-      <c r="AJ4" s="95"/>
-      <c r="AK4" s="93">
+      <c r="AE4" s="91"/>
+      <c r="AF4" s="91"/>
+      <c r="AG4" s="91"/>
+      <c r="AH4" s="91"/>
+      <c r="AI4" s="91"/>
+      <c r="AJ4" s="92"/>
+      <c r="AK4" s="90">
         <f>AK5</f>
         <v>44501</v>
       </c>
-      <c r="AL4" s="94"/>
-      <c r="AM4" s="94"/>
-      <c r="AN4" s="94"/>
-      <c r="AO4" s="94"/>
-      <c r="AP4" s="94"/>
-      <c r="AQ4" s="95"/>
-      <c r="AR4" s="93">
+      <c r="AL4" s="91"/>
+      <c r="AM4" s="91"/>
+      <c r="AN4" s="91"/>
+      <c r="AO4" s="91"/>
+      <c r="AP4" s="91"/>
+      <c r="AQ4" s="92"/>
+      <c r="AR4" s="90">
         <f>AR5</f>
         <v>44508</v>
       </c>
-      <c r="AS4" s="94"/>
-      <c r="AT4" s="94"/>
-      <c r="AU4" s="94"/>
-      <c r="AV4" s="94"/>
-      <c r="AW4" s="94"/>
-      <c r="AX4" s="95"/>
-      <c r="AY4" s="93">
+      <c r="AS4" s="91"/>
+      <c r="AT4" s="91"/>
+      <c r="AU4" s="91"/>
+      <c r="AV4" s="91"/>
+      <c r="AW4" s="91"/>
+      <c r="AX4" s="92"/>
+      <c r="AY4" s="90">
         <f>AY5</f>
         <v>44515</v>
       </c>
-      <c r="AZ4" s="94"/>
-      <c r="BA4" s="94"/>
-      <c r="BB4" s="94"/>
-      <c r="BC4" s="94"/>
-      <c r="BD4" s="94"/>
-      <c r="BE4" s="95"/>
-      <c r="BF4" s="93">
+      <c r="AZ4" s="91"/>
+      <c r="BA4" s="91"/>
+      <c r="BB4" s="91"/>
+      <c r="BC4" s="91"/>
+      <c r="BD4" s="91"/>
+      <c r="BE4" s="92"/>
+      <c r="BF4" s="90">
         <f>BF5</f>
         <v>44522</v>
       </c>
-      <c r="BG4" s="94"/>
-      <c r="BH4" s="94"/>
-      <c r="BI4" s="94"/>
-      <c r="BJ4" s="94"/>
-      <c r="BK4" s="94"/>
-      <c r="BL4" s="95"/>
+      <c r="BG4" s="91"/>
+      <c r="BH4" s="91"/>
+      <c r="BI4" s="91"/>
+      <c r="BJ4" s="91"/>
+      <c r="BK4" s="91"/>
+      <c r="BL4" s="92"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="92"/>
-      <c r="C5" s="92"/>
-      <c r="D5" s="92"/>
-      <c r="E5" s="92"/>
-      <c r="F5" s="92"/>
-      <c r="G5" s="92"/>
+      <c r="B5" s="96"/>
+      <c r="C5" s="96"/>
+      <c r="D5" s="96"/>
+      <c r="E5" s="96"/>
+      <c r="F5" s="96"/>
+      <c r="G5" s="96"/>
       <c r="I5" s="11">
         <f>Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
         <v>44473</v>
@@ -2522,7 +2522,7 @@
         <v>17</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="C8" s="46"/>
       <c r="D8" s="19"/>
@@ -2530,7 +2530,7 @@
       <c r="F8" s="79"/>
       <c r="G8" s="17"/>
       <c r="H8" s="17" t="str">
-        <f t="shared" ref="H8:H34" si="6">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <f t="shared" ref="H8:H38" si="6">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
       </c>
       <c r="I8" s="36"/>
@@ -2592,13 +2592,13 @@
     </row>
     <row r="9" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="75" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="89" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="89" t="s">
+      <c r="C9" s="47" t="s">
         <v>20</v>
-      </c>
-      <c r="C9" s="47" t="s">
-        <v>21</v>
       </c>
       <c r="D9" s="20">
         <v>1</v>
@@ -2674,13 +2674,13 @@
     </row>
     <row r="10" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="75" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="89" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="89" t="s">
-        <v>23</v>
-      </c>
       <c r="C10" s="47" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D10" s="20">
         <v>1</v>
@@ -2759,21 +2759,22 @@
         <v>24</v>
       </c>
       <c r="C11" s="47" t="s">
-        <v>25</v>
+        <v>78</v>
       </c>
       <c r="D11" s="20">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="E11" s="77">
         <v>44478</v>
       </c>
       <c r="F11" s="77">
-        <v>44480</v>
+        <f>E11+5</f>
+        <v>44483</v>
       </c>
       <c r="G11" s="17"/>
       <c r="H11" s="17">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I11" s="36"/>
       <c r="J11" s="36"/>
@@ -2835,19 +2836,19 @@
     <row r="12" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="76"/>
       <c r="B12" s="89" t="s">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="C12" s="47" t="s">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="D12" s="20">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="E12" s="77">
-        <v>44478</v>
+        <v>44480</v>
       </c>
       <c r="F12" s="77">
-        <v>44480</v>
+        <v>44482</v>
       </c>
       <c r="G12" s="17"/>
       <c r="H12" s="17">
@@ -2914,20 +2915,19 @@
     <row r="13" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="76"/>
       <c r="B13" s="89" t="s">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="C13" s="47" t="s">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="D13" s="20">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="E13" s="77">
-        <v>44478</v>
+        <v>44480</v>
       </c>
       <c r="F13" s="77">
-        <f>E13+5</f>
-        <v>44483</v>
+        <v>44482</v>
       </c>
       <c r="G13" s="17"/>
       <c r="H13" s="17"/>
@@ -2991,19 +2991,19 @@
     <row r="14" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="76"/>
       <c r="B14" s="89" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C14" s="47" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D14" s="20">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="E14" s="77">
-        <v>44480</v>
+        <v>44481</v>
       </c>
       <c r="F14" s="77">
-        <v>44482</v>
+        <v>44483</v>
       </c>
       <c r="G14" s="17"/>
       <c r="H14" s="17"/>
@@ -3067,19 +3067,19 @@
     <row r="15" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="76"/>
       <c r="B15" s="89" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C15" s="47" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D15" s="20">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="E15" s="77">
-        <v>44480</v>
+        <v>44484</v>
       </c>
       <c r="F15" s="77">
-        <v>44482</v>
+        <v>44486</v>
       </c>
       <c r="G15" s="17"/>
       <c r="H15" s="17"/>
@@ -3143,19 +3143,19 @@
     <row r="16" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="76"/>
       <c r="B16" s="89" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="C16" s="47" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D16" s="20">
         <v>0</v>
       </c>
       <c r="E16" s="77">
-        <v>44481</v>
+        <v>44484</v>
       </c>
       <c r="F16" s="77">
-        <v>44482</v>
+        <v>44486</v>
       </c>
       <c r="G16" s="17"/>
       <c r="H16" s="17"/>
@@ -3218,11 +3218,23 @@
     </row>
     <row r="17" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="76"/>
+      <c r="B17" s="97" t="s">
+        <v>79</v>
+      </c>
+      <c r="C17" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="20">
+        <v>0</v>
+      </c>
+      <c r="E17" s="77">
+        <v>44487</v>
+      </c>
+      <c r="F17" s="77">
+        <v>44489</v>
+      </c>
       <c r="G17" s="17"/>
-      <c r="H17" s="17" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
+      <c r="H17" s="17"/>
       <c r="I17" s="36"/>
       <c r="J17" s="36"/>
       <c r="K17" s="36"/>
@@ -3239,7 +3251,7 @@
       <c r="V17" s="73"/>
       <c r="W17" s="73"/>
       <c r="X17" s="73"/>
-      <c r="Y17" s="73"/>
+      <c r="Y17" s="74"/>
       <c r="Z17" s="73"/>
       <c r="AA17" s="73"/>
       <c r="AB17" s="73"/>
@@ -3281,20 +3293,26 @@
       <c r="BL17" s="36"/>
     </row>
     <row r="18" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="75" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" s="48"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="80"/>
-      <c r="F18" s="81"/>
+      <c r="A18" s="76"/>
+      <c r="B18" s="89" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" s="47" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="20">
+        <v>0</v>
+      </c>
+      <c r="E18" s="77">
+        <v>44487</v>
+      </c>
+      <c r="F18" s="77">
+        <v>44489</v>
+      </c>
       <c r="G18" s="17"/>
-      <c r="H18" s="17" t="str">
+      <c r="H18" s="17">
         <f t="shared" si="6"/>
-        <v/>
+        <v>3</v>
       </c>
       <c r="I18" s="36"/>
       <c r="J18" s="36"/>
@@ -3354,27 +3372,14 @@
       <c r="BL18" s="36"/>
     </row>
     <row r="19" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="75"/>
-      <c r="B19" s="56" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" s="49" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" s="23">
-        <v>0</v>
-      </c>
-      <c r="E19" s="82">
-        <v>44483</v>
-      </c>
-      <c r="F19" s="82">
-        <v>44489</v>
-      </c>
+      <c r="A19" s="76"/>
+      <c r="B19" s="89"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="77"/>
+      <c r="F19" s="77"/>
       <c r="G19" s="17"/>
-      <c r="H19" s="17">
-        <f t="shared" si="6"/>
-        <v>7</v>
-      </c>
+      <c r="H19" s="17"/>
       <c r="I19" s="36"/>
       <c r="J19" s="36"/>
       <c r="K19" s="36"/>
@@ -3434,26 +3439,13 @@
     </row>
     <row r="20" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="76"/>
-      <c r="B20" s="56" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" s="49" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" s="23">
-        <v>0</v>
-      </c>
-      <c r="E20" s="82">
-        <v>44483</v>
-      </c>
-      <c r="F20" s="82">
-        <v>44489</v>
-      </c>
+      <c r="B20" s="89"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="77"/>
+      <c r="F20" s="77"/>
       <c r="G20" s="17"/>
-      <c r="H20" s="17">
-        <f t="shared" si="6"/>
-        <v>7</v>
-      </c>
+      <c r="H20" s="17"/>
       <c r="I20" s="36"/>
       <c r="J20" s="36"/>
       <c r="K20" s="36"/>
@@ -3466,8 +3458,8 @@
       <c r="R20" s="73"/>
       <c r="S20" s="73"/>
       <c r="T20" s="73"/>
-      <c r="U20" s="74"/>
-      <c r="V20" s="74"/>
+      <c r="U20" s="73"/>
+      <c r="V20" s="73"/>
       <c r="W20" s="73"/>
       <c r="X20" s="73"/>
       <c r="Y20" s="73"/>
@@ -3513,26 +3505,13 @@
     </row>
     <row r="21" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="76"/>
-      <c r="B21" s="56" t="s">
-        <v>35</v>
-      </c>
-      <c r="C21" s="49" t="s">
-        <v>36</v>
-      </c>
-      <c r="D21" s="23">
-        <v>0</v>
-      </c>
-      <c r="E21" s="82">
-        <v>44483</v>
-      </c>
-      <c r="F21" s="82">
-        <v>44489</v>
-      </c>
+      <c r="B21" s="89"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="77"/>
+      <c r="F21" s="77"/>
       <c r="G21" s="17"/>
-      <c r="H21" s="17">
-        <f t="shared" si="6"/>
-        <v>7</v>
-      </c>
+      <c r="H21" s="17"/>
       <c r="I21" s="36"/>
       <c r="J21" s="36"/>
       <c r="K21" s="36"/>
@@ -3591,12 +3570,16 @@
       <c r="BL21" s="36"/>
     </row>
     <row r="22" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="76"/>
-      <c r="B22" s="56"/>
-      <c r="C22" s="49"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="82"/>
-      <c r="F22" s="82"/>
+      <c r="A22" s="75" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" s="48"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="80"/>
+      <c r="F22" s="81"/>
       <c r="G22" s="17"/>
       <c r="H22" s="17" t="str">
         <f t="shared" si="6"/>
@@ -3618,7 +3601,7 @@
       <c r="V22" s="73"/>
       <c r="W22" s="73"/>
       <c r="X22" s="73"/>
-      <c r="Y22" s="74"/>
+      <c r="Y22" s="73"/>
       <c r="Z22" s="73"/>
       <c r="AA22" s="73"/>
       <c r="AB22" s="73"/>
@@ -3660,20 +3643,26 @@
       <c r="BL22" s="36"/>
     </row>
     <row r="23" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="76" t="s">
-        <v>37</v>
-      </c>
-      <c r="B23" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="C23" s="50"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="83"/>
-      <c r="F23" s="84"/>
+      <c r="A23" s="75"/>
+      <c r="B23" s="56" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="23">
+        <v>0</v>
+      </c>
+      <c r="E23" s="82">
+        <v>44481</v>
+      </c>
+      <c r="F23" s="82">
+        <v>44482</v>
+      </c>
       <c r="G23" s="17"/>
-      <c r="H23" s="17" t="str">
+      <c r="H23" s="17">
         <f t="shared" si="6"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="I23" s="36"/>
       <c r="J23" s="36"/>
@@ -3734,21 +3723,15 @@
     </row>
     <row r="24" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="76"/>
-      <c r="B24" s="57" t="s">
-        <v>39</v>
-      </c>
-      <c r="C24" s="51"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="85">
-        <v>44490</v>
-      </c>
-      <c r="F24" s="85">
-        <v>44491</v>
-      </c>
+      <c r="B24" s="56"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="82"/>
+      <c r="F24" s="82"/>
       <c r="G24" s="17"/>
-      <c r="H24" s="17">
+      <c r="H24" s="17" t="str">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v/>
       </c>
       <c r="I24" s="36"/>
       <c r="J24" s="36"/>
@@ -3762,8 +3745,8 @@
       <c r="R24" s="73"/>
       <c r="S24" s="73"/>
       <c r="T24" s="73"/>
-      <c r="U24" s="73"/>
-      <c r="V24" s="73"/>
+      <c r="U24" s="74"/>
+      <c r="V24" s="74"/>
       <c r="W24" s="73"/>
       <c r="X24" s="73"/>
       <c r="Y24" s="73"/>
@@ -3809,21 +3792,15 @@
     </row>
     <row r="25" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="76"/>
-      <c r="B25" s="57" t="s">
-        <v>38</v>
-      </c>
-      <c r="C25" s="51"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="85">
-        <v>44491</v>
-      </c>
-      <c r="F25" s="85">
-        <v>44496</v>
-      </c>
+      <c r="B25" s="56"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="82"/>
+      <c r="F25" s="82"/>
       <c r="G25" s="17"/>
-      <c r="H25" s="17">
+      <c r="H25" s="17" t="str">
         <f t="shared" si="6"/>
-        <v>6</v>
+        <v/>
       </c>
       <c r="I25" s="36"/>
       <c r="J25" s="36"/>
@@ -3884,11 +3861,11 @@
     </row>
     <row r="26" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="76"/>
-      <c r="B26" s="57"/>
-      <c r="C26" s="51"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="85"/>
-      <c r="F26" s="85"/>
+      <c r="B26" s="56"/>
+      <c r="C26" s="49"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="82"/>
+      <c r="F26" s="82"/>
       <c r="G26" s="17"/>
       <c r="H26" s="17" t="str">
         <f t="shared" si="6"/>
@@ -3910,7 +3887,7 @@
       <c r="V26" s="73"/>
       <c r="W26" s="73"/>
       <c r="X26" s="73"/>
-      <c r="Y26" s="73"/>
+      <c r="Y26" s="74"/>
       <c r="Z26" s="73"/>
       <c r="AA26" s="73"/>
       <c r="AB26" s="73"/>
@@ -3953,15 +3930,15 @@
     </row>
     <row r="27" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="76" t="s">
-        <v>37</v>
-      </c>
-      <c r="B27" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="C27" s="52"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="86"/>
-      <c r="F27" s="87"/>
+        <v>28</v>
+      </c>
+      <c r="B27" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" s="50"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="83"/>
+      <c r="F27" s="84"/>
       <c r="G27" s="17"/>
       <c r="H27" s="17" t="str">
         <f t="shared" si="6"/>
@@ -3970,43 +3947,43 @@
       <c r="I27" s="36"/>
       <c r="J27" s="36"/>
       <c r="K27" s="36"/>
-      <c r="L27" s="36"/>
-      <c r="M27" s="36"/>
-      <c r="N27" s="36"/>
-      <c r="O27" s="36"/>
-      <c r="P27" s="36"/>
-      <c r="Q27" s="36"/>
-      <c r="R27" s="36"/>
-      <c r="S27" s="36"/>
-      <c r="T27" s="36"/>
-      <c r="U27" s="36"/>
-      <c r="V27" s="36"/>
-      <c r="W27" s="36"/>
-      <c r="X27" s="36"/>
-      <c r="Y27" s="36"/>
-      <c r="Z27" s="36"/>
-      <c r="AA27" s="36"/>
-      <c r="AB27" s="36"/>
-      <c r="AC27" s="36"/>
-      <c r="AD27" s="36"/>
-      <c r="AE27" s="36"/>
-      <c r="AF27" s="36"/>
-      <c r="AG27" s="36"/>
-      <c r="AH27" s="36"/>
-      <c r="AI27" s="36"/>
-      <c r="AJ27" s="36"/>
-      <c r="AK27" s="36"/>
-      <c r="AL27" s="36"/>
-      <c r="AM27" s="36"/>
-      <c r="AN27" s="36"/>
-      <c r="AO27" s="36"/>
-      <c r="AP27" s="36"/>
-      <c r="AQ27" s="36"/>
-      <c r="AR27" s="36"/>
-      <c r="AS27" s="36"/>
-      <c r="AT27" s="36"/>
-      <c r="AU27" s="36"/>
-      <c r="AV27" s="36"/>
+      <c r="L27" s="73"/>
+      <c r="M27" s="73"/>
+      <c r="N27" s="73"/>
+      <c r="O27" s="73"/>
+      <c r="P27" s="73"/>
+      <c r="Q27" s="73"/>
+      <c r="R27" s="73"/>
+      <c r="S27" s="73"/>
+      <c r="T27" s="73"/>
+      <c r="U27" s="73"/>
+      <c r="V27" s="73"/>
+      <c r="W27" s="73"/>
+      <c r="X27" s="73"/>
+      <c r="Y27" s="73"/>
+      <c r="Z27" s="73"/>
+      <c r="AA27" s="73"/>
+      <c r="AB27" s="73"/>
+      <c r="AC27" s="73"/>
+      <c r="AD27" s="73"/>
+      <c r="AE27" s="73"/>
+      <c r="AF27" s="73"/>
+      <c r="AG27" s="73"/>
+      <c r="AH27" s="73"/>
+      <c r="AI27" s="73"/>
+      <c r="AJ27" s="73"/>
+      <c r="AK27" s="73"/>
+      <c r="AL27" s="73"/>
+      <c r="AM27" s="73"/>
+      <c r="AN27" s="73"/>
+      <c r="AO27" s="73"/>
+      <c r="AP27" s="73"/>
+      <c r="AQ27" s="73"/>
+      <c r="AR27" s="73"/>
+      <c r="AS27" s="73"/>
+      <c r="AT27" s="73"/>
+      <c r="AU27" s="73"/>
+      <c r="AV27" s="73"/>
       <c r="AW27" s="36"/>
       <c r="AX27" s="36"/>
       <c r="AY27" s="36"/>
@@ -4026,62 +4003,56 @@
     </row>
     <row r="28" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="76"/>
-      <c r="B28" s="58" t="s">
-        <v>41</v>
-      </c>
-      <c r="C28" s="53"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="88">
-        <v>44497</v>
-      </c>
-      <c r="F28" s="88">
-        <v>44502</v>
-      </c>
+      <c r="B28" s="57"/>
+      <c r="C28" s="51"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="85"/>
+      <c r="F28" s="85"/>
       <c r="G28" s="17"/>
-      <c r="H28" s="17">
+      <c r="H28" s="17" t="str">
         <f t="shared" si="6"/>
-        <v>6</v>
+        <v/>
       </c>
       <c r="I28" s="36"/>
       <c r="J28" s="36"/>
       <c r="K28" s="36"/>
-      <c r="L28" s="36"/>
-      <c r="M28" s="36"/>
-      <c r="N28" s="36"/>
-      <c r="O28" s="36"/>
-      <c r="P28" s="36"/>
-      <c r="Q28" s="36"/>
-      <c r="R28" s="36"/>
-      <c r="S28" s="36"/>
-      <c r="T28" s="36"/>
-      <c r="U28" s="36"/>
-      <c r="V28" s="36"/>
-      <c r="W28" s="36"/>
-      <c r="X28" s="36"/>
-      <c r="Y28" s="36"/>
-      <c r="Z28" s="36"/>
-      <c r="AA28" s="36"/>
-      <c r="AB28" s="36"/>
-      <c r="AC28" s="36"/>
-      <c r="AD28" s="36"/>
-      <c r="AE28" s="36"/>
-      <c r="AF28" s="36"/>
-      <c r="AG28" s="36"/>
-      <c r="AH28" s="36"/>
-      <c r="AI28" s="36"/>
-      <c r="AJ28" s="36"/>
-      <c r="AK28" s="36"/>
-      <c r="AL28" s="36"/>
-      <c r="AM28" s="36"/>
-      <c r="AN28" s="36"/>
-      <c r="AO28" s="36"/>
-      <c r="AP28" s="36"/>
-      <c r="AQ28" s="36"/>
-      <c r="AR28" s="36"/>
-      <c r="AS28" s="36"/>
-      <c r="AT28" s="36"/>
-      <c r="AU28" s="36"/>
-      <c r="AV28" s="36"/>
+      <c r="L28" s="73"/>
+      <c r="M28" s="73"/>
+      <c r="N28" s="73"/>
+      <c r="O28" s="73"/>
+      <c r="P28" s="73"/>
+      <c r="Q28" s="73"/>
+      <c r="R28" s="73"/>
+      <c r="S28" s="73"/>
+      <c r="T28" s="73"/>
+      <c r="U28" s="73"/>
+      <c r="V28" s="73"/>
+      <c r="W28" s="73"/>
+      <c r="X28" s="73"/>
+      <c r="Y28" s="73"/>
+      <c r="Z28" s="73"/>
+      <c r="AA28" s="73"/>
+      <c r="AB28" s="73"/>
+      <c r="AC28" s="73"/>
+      <c r="AD28" s="73"/>
+      <c r="AE28" s="73"/>
+      <c r="AF28" s="73"/>
+      <c r="AG28" s="73"/>
+      <c r="AH28" s="73"/>
+      <c r="AI28" s="73"/>
+      <c r="AJ28" s="73"/>
+      <c r="AK28" s="73"/>
+      <c r="AL28" s="73"/>
+      <c r="AM28" s="73"/>
+      <c r="AN28" s="73"/>
+      <c r="AO28" s="73"/>
+      <c r="AP28" s="73"/>
+      <c r="AQ28" s="73"/>
+      <c r="AR28" s="73"/>
+      <c r="AS28" s="73"/>
+      <c r="AT28" s="73"/>
+      <c r="AU28" s="73"/>
+      <c r="AV28" s="73"/>
       <c r="AW28" s="36"/>
       <c r="AX28" s="36"/>
       <c r="AY28" s="36"/>
@@ -4101,62 +4072,56 @@
     </row>
     <row r="29" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="76"/>
-      <c r="B29" s="58" t="s">
-        <v>40</v>
-      </c>
-      <c r="C29" s="53"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="88">
-        <v>44504</v>
-      </c>
-      <c r="F29" s="88">
-        <v>44507</v>
-      </c>
+      <c r="B29" s="57"/>
+      <c r="C29" s="51"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="85"/>
+      <c r="F29" s="85"/>
       <c r="G29" s="17"/>
-      <c r="H29" s="17">
+      <c r="H29" s="17" t="str">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v/>
       </c>
       <c r="I29" s="36"/>
       <c r="J29" s="36"/>
       <c r="K29" s="36"/>
-      <c r="L29" s="36"/>
-      <c r="M29" s="36"/>
-      <c r="N29" s="36"/>
-      <c r="O29" s="36"/>
-      <c r="P29" s="36"/>
-      <c r="Q29" s="36"/>
-      <c r="R29" s="36"/>
-      <c r="S29" s="36"/>
-      <c r="T29" s="36"/>
-      <c r="U29" s="36"/>
-      <c r="V29" s="36"/>
-      <c r="W29" s="36"/>
-      <c r="X29" s="36"/>
-      <c r="Y29" s="36"/>
-      <c r="Z29" s="36"/>
-      <c r="AA29" s="36"/>
-      <c r="AB29" s="36"/>
-      <c r="AC29" s="36"/>
-      <c r="AD29" s="36"/>
-      <c r="AE29" s="36"/>
-      <c r="AF29" s="36"/>
-      <c r="AG29" s="36"/>
-      <c r="AH29" s="36"/>
-      <c r="AI29" s="36"/>
-      <c r="AJ29" s="36"/>
-      <c r="AK29" s="36"/>
-      <c r="AL29" s="36"/>
-      <c r="AM29" s="36"/>
-      <c r="AN29" s="36"/>
-      <c r="AO29" s="36"/>
-      <c r="AP29" s="36"/>
-      <c r="AQ29" s="36"/>
-      <c r="AR29" s="36"/>
-      <c r="AS29" s="36"/>
-      <c r="AT29" s="36"/>
-      <c r="AU29" s="36"/>
-      <c r="AV29" s="36"/>
+      <c r="L29" s="73"/>
+      <c r="M29" s="73"/>
+      <c r="N29" s="73"/>
+      <c r="O29" s="73"/>
+      <c r="P29" s="73"/>
+      <c r="Q29" s="73"/>
+      <c r="R29" s="73"/>
+      <c r="S29" s="73"/>
+      <c r="T29" s="73"/>
+      <c r="U29" s="73"/>
+      <c r="V29" s="73"/>
+      <c r="W29" s="73"/>
+      <c r="X29" s="73"/>
+      <c r="Y29" s="73"/>
+      <c r="Z29" s="73"/>
+      <c r="AA29" s="73"/>
+      <c r="AB29" s="73"/>
+      <c r="AC29" s="73"/>
+      <c r="AD29" s="73"/>
+      <c r="AE29" s="73"/>
+      <c r="AF29" s="73"/>
+      <c r="AG29" s="73"/>
+      <c r="AH29" s="73"/>
+      <c r="AI29" s="73"/>
+      <c r="AJ29" s="73"/>
+      <c r="AK29" s="73"/>
+      <c r="AL29" s="73"/>
+      <c r="AM29" s="73"/>
+      <c r="AN29" s="73"/>
+      <c r="AO29" s="73"/>
+      <c r="AP29" s="73"/>
+      <c r="AQ29" s="73"/>
+      <c r="AR29" s="73"/>
+      <c r="AS29" s="73"/>
+      <c r="AT29" s="73"/>
+      <c r="AU29" s="73"/>
+      <c r="AV29" s="73"/>
       <c r="AW29" s="36"/>
       <c r="AX29" s="36"/>
       <c r="AY29" s="36"/>
@@ -4176,62 +4141,56 @@
     </row>
     <row r="30" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="76"/>
-      <c r="B30" s="58" t="s">
-        <v>42</v>
-      </c>
-      <c r="C30" s="53"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="88">
-        <v>44504</v>
-      </c>
-      <c r="F30" s="88">
-        <v>44507</v>
-      </c>
+      <c r="B30" s="57"/>
+      <c r="C30" s="51"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="85"/>
+      <c r="F30" s="85"/>
       <c r="G30" s="17"/>
-      <c r="H30" s="17">
+      <c r="H30" s="17" t="str">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v/>
       </c>
       <c r="I30" s="36"/>
       <c r="J30" s="36"/>
       <c r="K30" s="36"/>
-      <c r="L30" s="36"/>
-      <c r="M30" s="36"/>
-      <c r="N30" s="36"/>
-      <c r="O30" s="36"/>
-      <c r="P30" s="36"/>
-      <c r="Q30" s="36"/>
-      <c r="R30" s="36"/>
-      <c r="S30" s="36"/>
-      <c r="T30" s="36"/>
-      <c r="U30" s="36"/>
-      <c r="V30" s="36"/>
-      <c r="W30" s="36"/>
-      <c r="X30" s="36"/>
-      <c r="Y30" s="36"/>
-      <c r="Z30" s="36"/>
-      <c r="AA30" s="36"/>
-      <c r="AB30" s="36"/>
-      <c r="AC30" s="36"/>
-      <c r="AD30" s="36"/>
-      <c r="AE30" s="36"/>
-      <c r="AF30" s="36"/>
-      <c r="AG30" s="36"/>
-      <c r="AH30" s="36"/>
-      <c r="AI30" s="36"/>
-      <c r="AJ30" s="36"/>
-      <c r="AK30" s="36"/>
-      <c r="AL30" s="36"/>
-      <c r="AM30" s="36"/>
-      <c r="AN30" s="36"/>
-      <c r="AO30" s="36"/>
-      <c r="AP30" s="36"/>
-      <c r="AQ30" s="36"/>
-      <c r="AR30" s="36"/>
-      <c r="AS30" s="36"/>
-      <c r="AT30" s="36"/>
-      <c r="AU30" s="36"/>
-      <c r="AV30" s="36"/>
+      <c r="L30" s="73"/>
+      <c r="M30" s="73"/>
+      <c r="N30" s="73"/>
+      <c r="O30" s="73"/>
+      <c r="P30" s="73"/>
+      <c r="Q30" s="73"/>
+      <c r="R30" s="73"/>
+      <c r="S30" s="73"/>
+      <c r="T30" s="73"/>
+      <c r="U30" s="73"/>
+      <c r="V30" s="73"/>
+      <c r="W30" s="73"/>
+      <c r="X30" s="73"/>
+      <c r="Y30" s="73"/>
+      <c r="Z30" s="73"/>
+      <c r="AA30" s="73"/>
+      <c r="AB30" s="73"/>
+      <c r="AC30" s="73"/>
+      <c r="AD30" s="73"/>
+      <c r="AE30" s="73"/>
+      <c r="AF30" s="73"/>
+      <c r="AG30" s="73"/>
+      <c r="AH30" s="73"/>
+      <c r="AI30" s="73"/>
+      <c r="AJ30" s="73"/>
+      <c r="AK30" s="73"/>
+      <c r="AL30" s="73"/>
+      <c r="AM30" s="73"/>
+      <c r="AN30" s="73"/>
+      <c r="AO30" s="73"/>
+      <c r="AP30" s="73"/>
+      <c r="AQ30" s="73"/>
+      <c r="AR30" s="73"/>
+      <c r="AS30" s="73"/>
+      <c r="AT30" s="73"/>
+      <c r="AU30" s="73"/>
+      <c r="AV30" s="73"/>
       <c r="AW30" s="36"/>
       <c r="AX30" s="36"/>
       <c r="AY30" s="36"/>
@@ -4250,12 +4209,16 @@
       <c r="BL30" s="36"/>
     </row>
     <row r="31" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="76"/>
-      <c r="B31" s="58"/>
-      <c r="C31" s="53"/>
-      <c r="D31" s="29"/>
-      <c r="E31" s="88"/>
-      <c r="F31" s="88"/>
+      <c r="A31" s="76" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" s="52"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="86"/>
+      <c r="F31" s="87"/>
       <c r="G31" s="17"/>
       <c r="H31" s="17" t="str">
         <f t="shared" si="6"/>
@@ -4326,10 +4289,7 @@
       <c r="E32" s="88"/>
       <c r="F32" s="88"/>
       <c r="G32" s="17"/>
-      <c r="H32" s="17" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
+      <c r="H32" s="17"/>
       <c r="I32" s="36"/>
       <c r="J32" s="36"/>
       <c r="K32" s="36"/>
@@ -4388,19 +4348,14 @@
       <c r="BL32" s="36"/>
     </row>
     <row r="33" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="76" t="s">
-        <v>43</v>
-      </c>
-      <c r="B33" s="59"/>
-      <c r="C33" s="54"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="45"/>
-      <c r="F33" s="45"/>
+      <c r="A33" s="76"/>
+      <c r="B33" s="58"/>
+      <c r="C33" s="53"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="88"/>
+      <c r="F33" s="88"/>
       <c r="G33" s="17"/>
-      <c r="H33" s="17" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
+      <c r="H33" s="17"/>
       <c r="I33" s="36"/>
       <c r="J33" s="36"/>
       <c r="K33" s="36"/>
@@ -4459,123 +4414,394 @@
       <c r="BL33" s="36"/>
     </row>
     <row r="34" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="75" t="s">
-        <v>44</v>
-      </c>
-      <c r="B34" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="C34" s="31"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="33"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="35"/>
-      <c r="H34" s="35" t="str">
+      <c r="A34" s="76"/>
+      <c r="B34" s="58"/>
+      <c r="C34" s="53"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="88"/>
+      <c r="F34" s="88"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="36"/>
+      <c r="J34" s="36"/>
+      <c r="K34" s="36"/>
+      <c r="L34" s="36"/>
+      <c r="M34" s="36"/>
+      <c r="N34" s="36"/>
+      <c r="O34" s="36"/>
+      <c r="P34" s="36"/>
+      <c r="Q34" s="36"/>
+      <c r="R34" s="36"/>
+      <c r="S34" s="36"/>
+      <c r="T34" s="36"/>
+      <c r="U34" s="36"/>
+      <c r="V34" s="36"/>
+      <c r="W34" s="36"/>
+      <c r="X34" s="36"/>
+      <c r="Y34" s="36"/>
+      <c r="Z34" s="36"/>
+      <c r="AA34" s="36"/>
+      <c r="AB34" s="36"/>
+      <c r="AC34" s="36"/>
+      <c r="AD34" s="36"/>
+      <c r="AE34" s="36"/>
+      <c r="AF34" s="36"/>
+      <c r="AG34" s="36"/>
+      <c r="AH34" s="36"/>
+      <c r="AI34" s="36"/>
+      <c r="AJ34" s="36"/>
+      <c r="AK34" s="36"/>
+      <c r="AL34" s="36"/>
+      <c r="AM34" s="36"/>
+      <c r="AN34" s="36"/>
+      <c r="AO34" s="36"/>
+      <c r="AP34" s="36"/>
+      <c r="AQ34" s="36"/>
+      <c r="AR34" s="36"/>
+      <c r="AS34" s="36"/>
+      <c r="AT34" s="36"/>
+      <c r="AU34" s="36"/>
+      <c r="AV34" s="36"/>
+      <c r="AW34" s="36"/>
+      <c r="AX34" s="36"/>
+      <c r="AY34" s="36"/>
+      <c r="AZ34" s="36"/>
+      <c r="BA34" s="36"/>
+      <c r="BB34" s="36"/>
+      <c r="BC34" s="36"/>
+      <c r="BD34" s="36"/>
+      <c r="BE34" s="36"/>
+      <c r="BF34" s="36"/>
+      <c r="BG34" s="36"/>
+      <c r="BH34" s="36"/>
+      <c r="BI34" s="36"/>
+      <c r="BJ34" s="36"/>
+      <c r="BK34" s="36"/>
+      <c r="BL34" s="36"/>
+    </row>
+    <row r="35" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="76"/>
+      <c r="B35" s="58"/>
+      <c r="C35" s="53"/>
+      <c r="D35" s="29"/>
+      <c r="E35" s="88"/>
+      <c r="F35" s="88"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="36"/>
+      <c r="J35" s="36"/>
+      <c r="K35" s="36"/>
+      <c r="L35" s="36"/>
+      <c r="M35" s="36"/>
+      <c r="N35" s="36"/>
+      <c r="O35" s="36"/>
+      <c r="P35" s="36"/>
+      <c r="Q35" s="36"/>
+      <c r="R35" s="36"/>
+      <c r="S35" s="36"/>
+      <c r="T35" s="36"/>
+      <c r="U35" s="36"/>
+      <c r="V35" s="36"/>
+      <c r="W35" s="36"/>
+      <c r="X35" s="36"/>
+      <c r="Y35" s="36"/>
+      <c r="Z35" s="36"/>
+      <c r="AA35" s="36"/>
+      <c r="AB35" s="36"/>
+      <c r="AC35" s="36"/>
+      <c r="AD35" s="36"/>
+      <c r="AE35" s="36"/>
+      <c r="AF35" s="36"/>
+      <c r="AG35" s="36"/>
+      <c r="AH35" s="36"/>
+      <c r="AI35" s="36"/>
+      <c r="AJ35" s="36"/>
+      <c r="AK35" s="36"/>
+      <c r="AL35" s="36"/>
+      <c r="AM35" s="36"/>
+      <c r="AN35" s="36"/>
+      <c r="AO35" s="36"/>
+      <c r="AP35" s="36"/>
+      <c r="AQ35" s="36"/>
+      <c r="AR35" s="36"/>
+      <c r="AS35" s="36"/>
+      <c r="AT35" s="36"/>
+      <c r="AU35" s="36"/>
+      <c r="AV35" s="36"/>
+      <c r="AW35" s="36"/>
+      <c r="AX35" s="36"/>
+      <c r="AY35" s="36"/>
+      <c r="AZ35" s="36"/>
+      <c r="BA35" s="36"/>
+      <c r="BB35" s="36"/>
+      <c r="BC35" s="36"/>
+      <c r="BD35" s="36"/>
+      <c r="BE35" s="36"/>
+      <c r="BF35" s="36"/>
+      <c r="BG35" s="36"/>
+      <c r="BH35" s="36"/>
+      <c r="BI35" s="36"/>
+      <c r="BJ35" s="36"/>
+      <c r="BK35" s="36"/>
+      <c r="BL35" s="36"/>
+    </row>
+    <row r="36" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="76"/>
+      <c r="B36" s="58"/>
+      <c r="C36" s="53"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="88"/>
+      <c r="F36" s="88"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="36"/>
+      <c r="J36" s="36"/>
+      <c r="K36" s="36"/>
+      <c r="L36" s="36"/>
+      <c r="M36" s="36"/>
+      <c r="N36" s="36"/>
+      <c r="O36" s="36"/>
+      <c r="P36" s="36"/>
+      <c r="Q36" s="36"/>
+      <c r="R36" s="36"/>
+      <c r="S36" s="36"/>
+      <c r="T36" s="36"/>
+      <c r="U36" s="36"/>
+      <c r="V36" s="36"/>
+      <c r="W36" s="36"/>
+      <c r="X36" s="36"/>
+      <c r="Y36" s="36"/>
+      <c r="Z36" s="36"/>
+      <c r="AA36" s="36"/>
+      <c r="AB36" s="36"/>
+      <c r="AC36" s="36"/>
+      <c r="AD36" s="36"/>
+      <c r="AE36" s="36"/>
+      <c r="AF36" s="36"/>
+      <c r="AG36" s="36"/>
+      <c r="AH36" s="36"/>
+      <c r="AI36" s="36"/>
+      <c r="AJ36" s="36"/>
+      <c r="AK36" s="36"/>
+      <c r="AL36" s="36"/>
+      <c r="AM36" s="36"/>
+      <c r="AN36" s="36"/>
+      <c r="AO36" s="36"/>
+      <c r="AP36" s="36"/>
+      <c r="AQ36" s="36"/>
+      <c r="AR36" s="36"/>
+      <c r="AS36" s="36"/>
+      <c r="AT36" s="36"/>
+      <c r="AU36" s="36"/>
+      <c r="AV36" s="36"/>
+      <c r="AW36" s="36"/>
+      <c r="AX36" s="36"/>
+      <c r="AY36" s="36"/>
+      <c r="AZ36" s="36"/>
+      <c r="BA36" s="36"/>
+      <c r="BB36" s="36"/>
+      <c r="BC36" s="36"/>
+      <c r="BD36" s="36"/>
+      <c r="BE36" s="36"/>
+      <c r="BF36" s="36"/>
+      <c r="BG36" s="36"/>
+      <c r="BH36" s="36"/>
+      <c r="BI36" s="36"/>
+      <c r="BJ36" s="36"/>
+      <c r="BK36" s="36"/>
+      <c r="BL36" s="36"/>
+    </row>
+    <row r="37" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="76" t="s">
+        <v>31</v>
+      </c>
+      <c r="B37" s="59"/>
+      <c r="C37" s="54"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="45"/>
+      <c r="F37" s="45"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="36"/>
+      <c r="J37" s="36"/>
+      <c r="K37" s="36"/>
+      <c r="L37" s="36"/>
+      <c r="M37" s="36"/>
+      <c r="N37" s="36"/>
+      <c r="O37" s="36"/>
+      <c r="P37" s="36"/>
+      <c r="Q37" s="36"/>
+      <c r="R37" s="36"/>
+      <c r="S37" s="36"/>
+      <c r="T37" s="36"/>
+      <c r="U37" s="36"/>
+      <c r="V37" s="36"/>
+      <c r="W37" s="36"/>
+      <c r="X37" s="36"/>
+      <c r="Y37" s="36"/>
+      <c r="Z37" s="36"/>
+      <c r="AA37" s="36"/>
+      <c r="AB37" s="36"/>
+      <c r="AC37" s="36"/>
+      <c r="AD37" s="36"/>
+      <c r="AE37" s="36"/>
+      <c r="AF37" s="36"/>
+      <c r="AG37" s="36"/>
+      <c r="AH37" s="36"/>
+      <c r="AI37" s="36"/>
+      <c r="AJ37" s="36"/>
+      <c r="AK37" s="36"/>
+      <c r="AL37" s="36"/>
+      <c r="AM37" s="36"/>
+      <c r="AN37" s="36"/>
+      <c r="AO37" s="36"/>
+      <c r="AP37" s="36"/>
+      <c r="AQ37" s="36"/>
+      <c r="AR37" s="36"/>
+      <c r="AS37" s="36"/>
+      <c r="AT37" s="36"/>
+      <c r="AU37" s="36"/>
+      <c r="AV37" s="36"/>
+      <c r="AW37" s="36"/>
+      <c r="AX37" s="36"/>
+      <c r="AY37" s="36"/>
+      <c r="AZ37" s="36"/>
+      <c r="BA37" s="36"/>
+      <c r="BB37" s="36"/>
+      <c r="BC37" s="36"/>
+      <c r="BD37" s="36"/>
+      <c r="BE37" s="36"/>
+      <c r="BF37" s="36"/>
+      <c r="BG37" s="36"/>
+      <c r="BH37" s="36"/>
+      <c r="BI37" s="36"/>
+      <c r="BJ37" s="36"/>
+      <c r="BK37" s="36"/>
+      <c r="BL37" s="36"/>
+    </row>
+    <row r="38" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="75" t="s">
+        <v>32</v>
+      </c>
+      <c r="B38" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="C38" s="31"/>
+      <c r="D38" s="32"/>
+      <c r="E38" s="33"/>
+      <c r="F38" s="34"/>
+      <c r="G38" s="35"/>
+      <c r="H38" s="35" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I34" s="37"/>
-      <c r="J34" s="37"/>
-      <c r="K34" s="37"/>
-      <c r="L34" s="37"/>
-      <c r="M34" s="37"/>
-      <c r="N34" s="37"/>
-      <c r="O34" s="37"/>
-      <c r="P34" s="37"/>
-      <c r="Q34" s="37"/>
-      <c r="R34" s="37"/>
-      <c r="S34" s="37"/>
-      <c r="T34" s="37"/>
-      <c r="U34" s="37"/>
-      <c r="V34" s="37"/>
-      <c r="W34" s="37"/>
-      <c r="X34" s="37"/>
-      <c r="Y34" s="37"/>
-      <c r="Z34" s="37"/>
-      <c r="AA34" s="37"/>
-      <c r="AB34" s="37"/>
-      <c r="AC34" s="37"/>
-      <c r="AD34" s="37"/>
-      <c r="AE34" s="37"/>
-      <c r="AF34" s="37"/>
-      <c r="AG34" s="37"/>
-      <c r="AH34" s="37"/>
-      <c r="AI34" s="37"/>
-      <c r="AJ34" s="37"/>
-      <c r="AK34" s="37"/>
-      <c r="AL34" s="37"/>
-      <c r="AM34" s="37"/>
-      <c r="AN34" s="37"/>
-      <c r="AO34" s="37"/>
-      <c r="AP34" s="37"/>
-      <c r="AQ34" s="37"/>
-      <c r="AR34" s="37"/>
-      <c r="AS34" s="37"/>
-      <c r="AT34" s="37"/>
-      <c r="AU34" s="37"/>
-      <c r="AV34" s="37"/>
-      <c r="AW34" s="37"/>
-      <c r="AX34" s="37"/>
-      <c r="AY34" s="37"/>
-      <c r="AZ34" s="37"/>
-      <c r="BA34" s="37"/>
-      <c r="BB34" s="37"/>
-      <c r="BC34" s="37"/>
-      <c r="BD34" s="37"/>
-      <c r="BE34" s="37"/>
-      <c r="BF34" s="37"/>
-      <c r="BG34" s="37"/>
-      <c r="BH34" s="37"/>
-      <c r="BI34" s="37"/>
-      <c r="BJ34" s="37"/>
-      <c r="BK34" s="37"/>
-      <c r="BL34" s="37"/>
-    </row>
-    <row r="35" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G35" s="6"/>
-    </row>
-    <row r="36" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C36" s="14"/>
-      <c r="F36" s="39"/>
-    </row>
-    <row r="37" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C37" s="15"/>
-    </row>
-    <row r="38" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="55" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="39" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="55" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="40" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="55" t="s">
-        <v>48</v>
-      </c>
+      <c r="I38" s="37"/>
+      <c r="J38" s="37"/>
+      <c r="K38" s="37"/>
+      <c r="L38" s="37"/>
+      <c r="M38" s="37"/>
+      <c r="N38" s="37"/>
+      <c r="O38" s="37"/>
+      <c r="P38" s="37"/>
+      <c r="Q38" s="37"/>
+      <c r="R38" s="37"/>
+      <c r="S38" s="37"/>
+      <c r="T38" s="37"/>
+      <c r="U38" s="37"/>
+      <c r="V38" s="37"/>
+      <c r="W38" s="37"/>
+      <c r="X38" s="37"/>
+      <c r="Y38" s="37"/>
+      <c r="Z38" s="37"/>
+      <c r="AA38" s="37"/>
+      <c r="AB38" s="37"/>
+      <c r="AC38" s="37"/>
+      <c r="AD38" s="37"/>
+      <c r="AE38" s="37"/>
+      <c r="AF38" s="37"/>
+      <c r="AG38" s="37"/>
+      <c r="AH38" s="37"/>
+      <c r="AI38" s="37"/>
+      <c r="AJ38" s="37"/>
+      <c r="AK38" s="37"/>
+      <c r="AL38" s="37"/>
+      <c r="AM38" s="37"/>
+      <c r="AN38" s="37"/>
+      <c r="AO38" s="37"/>
+      <c r="AP38" s="37"/>
+      <c r="AQ38" s="37"/>
+      <c r="AR38" s="37"/>
+      <c r="AS38" s="37"/>
+      <c r="AT38" s="37"/>
+      <c r="AU38" s="37"/>
+      <c r="AV38" s="37"/>
+      <c r="AW38" s="37"/>
+      <c r="AX38" s="37"/>
+      <c r="AY38" s="37"/>
+      <c r="AZ38" s="37"/>
+      <c r="BA38" s="37"/>
+      <c r="BB38" s="37"/>
+      <c r="BC38" s="37"/>
+      <c r="BD38" s="37"/>
+      <c r="BE38" s="37"/>
+      <c r="BF38" s="37"/>
+      <c r="BG38" s="37"/>
+      <c r="BH38" s="37"/>
+      <c r="BI38" s="37"/>
+      <c r="BJ38" s="37"/>
+      <c r="BK38" s="37"/>
+      <c r="BL38" s="37"/>
+    </row>
+    <row r="39" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G39" s="6"/>
+    </row>
+    <row r="40" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C40" s="14"/>
+      <c r="F40" s="39"/>
     </row>
     <row r="41" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="55" t="s">
-        <v>49</v>
-      </c>
+      <c r="C41" s="15"/>
     </row>
     <row r="42" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B42" s="55" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="43" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="55"/>
+      <c r="B43" s="55" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="44" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B44" s="55" t="s">
-        <v>50</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="45" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="55" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="46" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="55" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="47" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="55"/>
+    </row>
+    <row r="48" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="55" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
@@ -4583,14 +4809,9 @@
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
   </mergeCells>
-  <conditionalFormatting sqref="D7:D16 D18:D34">
-    <cfRule type="dataBar" priority="15">
+  <conditionalFormatting sqref="D22:D38 D7:D14">
+    <cfRule type="dataBar" priority="18">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -4603,17 +4824,59 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:BL34">
-    <cfRule type="expression" dxfId="2" priority="34">
+  <conditionalFormatting sqref="I5:BL38">
+    <cfRule type="expression" dxfId="2" priority="37">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I7:BL34">
-    <cfRule type="expression" dxfId="1" priority="28">
+  <conditionalFormatting sqref="I7:BL38">
+    <cfRule type="expression" dxfId="1" priority="31">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="32" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D18:D21">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{D13E1797-F8B6-4241-9FBC-9074A55E5511}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D15:D16">
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{FE7C0A31-7B3A-534A-91C0-5BC01C3C6546}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{DE25D6E0-AD7C-C54F-90DC-0E8CB25971C9}</x14:id>
+        </ext>
+      </extLst>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -4647,7 +4910,52 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D7:D16 D18:D34</xm:sqref>
+          <xm:sqref>D22:D38 D7:D14</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{D13E1797-F8B6-4241-9FBC-9074A55E5511}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D18:D21</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{FE7C0A31-7B3A-534A-91C0-5BC01C3C6546}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D15:D16</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{DE25D6E0-AD7C-C54F-90DC-0E8CB25971C9}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D17</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -4660,7 +4968,7 @@
   <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView zoomScale="112" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4672,212 +4980,212 @@
   <sheetData>
     <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="62" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="B1" s="62" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C1" s="62" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="68" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="B2" s="68" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="C2" s="66" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="69"/>
       <c r="B3" s="69"/>
       <c r="C3" s="63" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="68"/>
       <c r="B4" s="68" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="C4" s="64" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="69"/>
       <c r="B5" s="69" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="C5" s="65" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="68"/>
       <c r="B6" s="68" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="C6" s="64" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="69"/>
       <c r="B7" s="69"/>
       <c r="C7" s="65" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="68"/>
       <c r="B8" s="68" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="C8" s="64" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="64" x14ac:dyDescent="0.2">
       <c r="A9" s="69"/>
       <c r="B9" s="69"/>
       <c r="C9" s="65" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="68"/>
       <c r="B10" s="68"/>
       <c r="C10" s="64" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="69" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="B11" s="72" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="C11" s="65" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="68"/>
       <c r="B12" s="68" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="C12" s="64" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="69"/>
       <c r="B13" s="69" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="C13" s="63"/>
     </row>
     <row r="14" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="68"/>
       <c r="B14" s="68" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="C14" s="67" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="69"/>
       <c r="B15" s="69" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="C15" s="63"/>
     </row>
     <row r="16" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="68" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="B16" s="68" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="C16" s="66" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="69"/>
       <c r="B17" s="69" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="C17" s="63"/>
     </row>
     <row r="18" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="68"/>
       <c r="B18" s="68" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="C18" s="67" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="69"/>
       <c r="B19" s="69" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="C19" s="63"/>
     </row>
     <row r="20" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="68" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="B20" s="68" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="C20" s="66" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="69"/>
       <c r="B21" s="69" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="C21" s="63"/>
     </row>
     <row r="22" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="68"/>
       <c r="B22" s="68" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="C22" s="67" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="69"/>
       <c r="B23" s="69" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="C23" s="63" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="68" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="B24" s="68" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="C24" s="66" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">

--- a/Gantt Chart.xlsx
+++ b/Gantt Chart.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BA47FD7-E361-1B49-B954-2B23045EADE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F33DF01F-072A-8F41-8041-62F27E603C95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1000" yWindow="500" windowWidth="27800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="85">
   <si>
     <t>Create a Project Schedule in this worksheet.
 Enter title of this project in cell B1. 
@@ -574,6 +574,18 @@
   </si>
   <si>
     <t>Draw overall circuit diagram and build circuit on Proto Board</t>
+  </si>
+  <si>
+    <t>Calculate arm dynamics</t>
+  </si>
+  <si>
+    <t>Calculate metal detector circuit parameters</t>
+  </si>
+  <si>
+    <t>Calculate parameters in line-follow circuit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calculate sensor location https://www.vle.cam.ac.uk/mod/page/view.php?id=13564051 </t>
   </si>
 </sst>
 </file>
@@ -1028,7 +1040,7 @@
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1283,6 +1295,19 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="12" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="2" xfId="12" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="12" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="166" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1294,16 +1319,6 @@
     </xf>
     <xf numFmtId="168" fontId="9" fillId="0" borderId="3" xfId="9" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="2" xfId="12" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -1815,11 +1830,11 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BL48"/>
+  <dimension ref="A1:BL51"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
+      <pane ySplit="6" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1866,117 +1881,117 @@
         <v>4</v>
       </c>
       <c r="B3" s="44"/>
-      <c r="C3" s="94" t="s">
+      <c r="C3" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="95"/>
-      <c r="E3" s="93">
+      <c r="D3" s="93"/>
+      <c r="E3" s="98">
         <v>44476</v>
       </c>
-      <c r="F3" s="93"/>
+      <c r="F3" s="98"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="94" t="s">
+      <c r="C4" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="95"/>
+      <c r="D4" s="93"/>
       <c r="E4" s="7">
         <v>1</v>
       </c>
-      <c r="I4" s="90">
+      <c r="I4" s="95">
         <f>I5</f>
         <v>44473</v>
       </c>
-      <c r="J4" s="91"/>
-      <c r="K4" s="91"/>
-      <c r="L4" s="91"/>
-      <c r="M4" s="91"/>
-      <c r="N4" s="91"/>
-      <c r="O4" s="92"/>
-      <c r="P4" s="90">
+      <c r="J4" s="96"/>
+      <c r="K4" s="96"/>
+      <c r="L4" s="96"/>
+      <c r="M4" s="96"/>
+      <c r="N4" s="96"/>
+      <c r="O4" s="97"/>
+      <c r="P4" s="95">
         <f>P5</f>
         <v>44480</v>
       </c>
-      <c r="Q4" s="91"/>
-      <c r="R4" s="91"/>
-      <c r="S4" s="91"/>
-      <c r="T4" s="91"/>
-      <c r="U4" s="91"/>
-      <c r="V4" s="92"/>
-      <c r="W4" s="90">
+      <c r="Q4" s="96"/>
+      <c r="R4" s="96"/>
+      <c r="S4" s="96"/>
+      <c r="T4" s="96"/>
+      <c r="U4" s="96"/>
+      <c r="V4" s="97"/>
+      <c r="W4" s="95">
         <f>W5</f>
         <v>44487</v>
       </c>
-      <c r="X4" s="91"/>
-      <c r="Y4" s="91"/>
-      <c r="Z4" s="91"/>
-      <c r="AA4" s="91"/>
-      <c r="AB4" s="91"/>
-      <c r="AC4" s="92"/>
-      <c r="AD4" s="90">
+      <c r="X4" s="96"/>
+      <c r="Y4" s="96"/>
+      <c r="Z4" s="96"/>
+      <c r="AA4" s="96"/>
+      <c r="AB4" s="96"/>
+      <c r="AC4" s="97"/>
+      <c r="AD4" s="95">
         <f>AD5</f>
         <v>44494</v>
       </c>
-      <c r="AE4" s="91"/>
-      <c r="AF4" s="91"/>
-      <c r="AG4" s="91"/>
-      <c r="AH4" s="91"/>
-      <c r="AI4" s="91"/>
-      <c r="AJ4" s="92"/>
-      <c r="AK4" s="90">
+      <c r="AE4" s="96"/>
+      <c r="AF4" s="96"/>
+      <c r="AG4" s="96"/>
+      <c r="AH4" s="96"/>
+      <c r="AI4" s="96"/>
+      <c r="AJ4" s="97"/>
+      <c r="AK4" s="95">
         <f>AK5</f>
         <v>44501</v>
       </c>
-      <c r="AL4" s="91"/>
-      <c r="AM4" s="91"/>
-      <c r="AN4" s="91"/>
-      <c r="AO4" s="91"/>
-      <c r="AP4" s="91"/>
-      <c r="AQ4" s="92"/>
-      <c r="AR4" s="90">
+      <c r="AL4" s="96"/>
+      <c r="AM4" s="96"/>
+      <c r="AN4" s="96"/>
+      <c r="AO4" s="96"/>
+      <c r="AP4" s="96"/>
+      <c r="AQ4" s="97"/>
+      <c r="AR4" s="95">
         <f>AR5</f>
         <v>44508</v>
       </c>
-      <c r="AS4" s="91"/>
-      <c r="AT4" s="91"/>
-      <c r="AU4" s="91"/>
-      <c r="AV4" s="91"/>
-      <c r="AW4" s="91"/>
-      <c r="AX4" s="92"/>
-      <c r="AY4" s="90">
+      <c r="AS4" s="96"/>
+      <c r="AT4" s="96"/>
+      <c r="AU4" s="96"/>
+      <c r="AV4" s="96"/>
+      <c r="AW4" s="96"/>
+      <c r="AX4" s="97"/>
+      <c r="AY4" s="95">
         <f>AY5</f>
         <v>44515</v>
       </c>
-      <c r="AZ4" s="91"/>
-      <c r="BA4" s="91"/>
-      <c r="BB4" s="91"/>
-      <c r="BC4" s="91"/>
-      <c r="BD4" s="91"/>
-      <c r="BE4" s="92"/>
-      <c r="BF4" s="90">
+      <c r="AZ4" s="96"/>
+      <c r="BA4" s="96"/>
+      <c r="BB4" s="96"/>
+      <c r="BC4" s="96"/>
+      <c r="BD4" s="96"/>
+      <c r="BE4" s="97"/>
+      <c r="BF4" s="95">
         <f>BF5</f>
         <v>44522</v>
       </c>
-      <c r="BG4" s="91"/>
-      <c r="BH4" s="91"/>
-      <c r="BI4" s="91"/>
-      <c r="BJ4" s="91"/>
-      <c r="BK4" s="91"/>
-      <c r="BL4" s="92"/>
+      <c r="BG4" s="96"/>
+      <c r="BH4" s="96"/>
+      <c r="BI4" s="96"/>
+      <c r="BJ4" s="96"/>
+      <c r="BK4" s="96"/>
+      <c r="BL4" s="97"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="96"/>
-      <c r="C5" s="96"/>
-      <c r="D5" s="96"/>
-      <c r="E5" s="96"/>
-      <c r="F5" s="96"/>
-      <c r="G5" s="96"/>
+      <c r="B5" s="94"/>
+      <c r="C5" s="94"/>
+      <c r="D5" s="94"/>
+      <c r="E5" s="94"/>
+      <c r="F5" s="94"/>
+      <c r="G5" s="94"/>
       <c r="I5" s="11">
         <f>Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
         <v>44473</v>
@@ -2530,7 +2545,7 @@
       <c r="F8" s="79"/>
       <c r="G8" s="17"/>
       <c r="H8" s="17" t="str">
-        <f t="shared" ref="H8:H38" si="6">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <f t="shared" ref="H8:H41" si="6">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
       </c>
       <c r="I8" s="36"/>
@@ -3218,7 +3233,7 @@
     </row>
     <row r="17" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="76"/>
-      <c r="B17" s="97" t="s">
+      <c r="B17" s="90" t="s">
         <v>79</v>
       </c>
       <c r="C17" s="47" t="s">
@@ -3723,15 +3738,23 @@
     </row>
     <row r="24" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="76"/>
-      <c r="B24" s="56"/>
-      <c r="C24" s="49"/>
+      <c r="B24" s="91" t="s">
+        <v>84</v>
+      </c>
+      <c r="C24" s="49" t="s">
+        <v>78</v>
+      </c>
       <c r="D24" s="23"/>
-      <c r="E24" s="82"/>
-      <c r="F24" s="82"/>
+      <c r="E24" s="82">
+        <v>44481</v>
+      </c>
+      <c r="F24" s="82">
+        <v>44482</v>
+      </c>
       <c r="G24" s="17"/>
-      <c r="H24" s="17" t="str">
+      <c r="H24" s="17">
         <f t="shared" si="6"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="I24" s="36"/>
       <c r="J24" s="36"/>
@@ -3792,15 +3815,23 @@
     </row>
     <row r="25" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="76"/>
-      <c r="B25" s="56"/>
-      <c r="C25" s="49"/>
+      <c r="B25" s="56" t="s">
+        <v>83</v>
+      </c>
+      <c r="C25" s="49" t="s">
+        <v>78</v>
+      </c>
       <c r="D25" s="23"/>
-      <c r="E25" s="82"/>
-      <c r="F25" s="82"/>
+      <c r="E25" s="82">
+        <v>44481</v>
+      </c>
+      <c r="F25" s="82">
+        <v>44482</v>
+      </c>
       <c r="G25" s="17"/>
-      <c r="H25" s="17" t="str">
+      <c r="H25" s="17">
         <f t="shared" si="6"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="I25" s="36"/>
       <c r="J25" s="36"/>
@@ -3861,16 +3892,21 @@
     </row>
     <row r="26" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="76"/>
-      <c r="B26" s="56"/>
-      <c r="C26" s="49"/>
+      <c r="B26" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C26" s="49" t="s">
+        <v>23</v>
+      </c>
       <c r="D26" s="23"/>
-      <c r="E26" s="82"/>
-      <c r="F26" s="82"/>
+      <c r="E26" s="82">
+        <v>44481</v>
+      </c>
+      <c r="F26" s="82">
+        <v>44482</v>
+      </c>
       <c r="G26" s="17"/>
-      <c r="H26" s="17" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
+      <c r="H26" s="17"/>
       <c r="I26" s="36"/>
       <c r="J26" s="36"/>
       <c r="K26" s="36"/>
@@ -3887,7 +3923,7 @@
       <c r="V26" s="73"/>
       <c r="W26" s="73"/>
       <c r="X26" s="73"/>
-      <c r="Y26" s="74"/>
+      <c r="Y26" s="73"/>
       <c r="Z26" s="73"/>
       <c r="AA26" s="73"/>
       <c r="AB26" s="73"/>
@@ -3929,21 +3965,22 @@
       <c r="BL26" s="36"/>
     </row>
     <row r="27" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="76" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="C27" s="50"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="83"/>
-      <c r="F27" s="84"/>
+      <c r="A27" s="76"/>
+      <c r="B27" s="56" t="s">
+        <v>82</v>
+      </c>
+      <c r="C27" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="D27" s="23"/>
+      <c r="E27" s="82">
+        <v>44481</v>
+      </c>
+      <c r="F27" s="82">
+        <v>44482</v>
+      </c>
       <c r="G27" s="17"/>
-      <c r="H27" s="17" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
+      <c r="H27" s="17"/>
       <c r="I27" s="36"/>
       <c r="J27" s="36"/>
       <c r="K27" s="36"/>
@@ -4003,16 +4040,13 @@
     </row>
     <row r="28" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="76"/>
-      <c r="B28" s="57"/>
-      <c r="C28" s="51"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="85"/>
-      <c r="F28" s="85"/>
+      <c r="B28" s="56"/>
+      <c r="C28" s="49"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="82"/>
+      <c r="F28" s="82"/>
       <c r="G28" s="17"/>
-      <c r="H28" s="17" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
+      <c r="H28" s="17"/>
       <c r="I28" s="36"/>
       <c r="J28" s="36"/>
       <c r="K28" s="36"/>
@@ -4072,11 +4106,11 @@
     </row>
     <row r="29" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="76"/>
-      <c r="B29" s="57"/>
-      <c r="C29" s="51"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="85"/>
-      <c r="F29" s="85"/>
+      <c r="B29" s="56"/>
+      <c r="C29" s="49"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="82"/>
+      <c r="F29" s="82"/>
       <c r="G29" s="17"/>
       <c r="H29" s="17" t="str">
         <f t="shared" si="6"/>
@@ -4098,7 +4132,7 @@
       <c r="V29" s="73"/>
       <c r="W29" s="73"/>
       <c r="X29" s="73"/>
-      <c r="Y29" s="73"/>
+      <c r="Y29" s="74"/>
       <c r="Z29" s="73"/>
       <c r="AA29" s="73"/>
       <c r="AB29" s="73"/>
@@ -4140,12 +4174,16 @@
       <c r="BL29" s="36"/>
     </row>
     <row r="30" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="76"/>
-      <c r="B30" s="57"/>
-      <c r="C30" s="51"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="85"/>
-      <c r="F30" s="85"/>
+      <c r="A30" s="76" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" s="50"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="83"/>
+      <c r="F30" s="84"/>
       <c r="G30" s="17"/>
       <c r="H30" s="17" t="str">
         <f t="shared" si="6"/>
@@ -4209,16 +4247,12 @@
       <c r="BL30" s="36"/>
     </row>
     <row r="31" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="76" t="s">
-        <v>28</v>
-      </c>
-      <c r="B31" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="C31" s="52"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="86"/>
-      <c r="F31" s="87"/>
+      <c r="A31" s="76"/>
+      <c r="B31" s="57"/>
+      <c r="C31" s="51"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="85"/>
+      <c r="F31" s="85"/>
       <c r="G31" s="17"/>
       <c r="H31" s="17" t="str">
         <f t="shared" si="6"/>
@@ -4227,43 +4261,43 @@
       <c r="I31" s="36"/>
       <c r="J31" s="36"/>
       <c r="K31" s="36"/>
-      <c r="L31" s="36"/>
-      <c r="M31" s="36"/>
-      <c r="N31" s="36"/>
-      <c r="O31" s="36"/>
-      <c r="P31" s="36"/>
-      <c r="Q31" s="36"/>
-      <c r="R31" s="36"/>
-      <c r="S31" s="36"/>
-      <c r="T31" s="36"/>
-      <c r="U31" s="36"/>
-      <c r="V31" s="36"/>
-      <c r="W31" s="36"/>
-      <c r="X31" s="36"/>
-      <c r="Y31" s="36"/>
-      <c r="Z31" s="36"/>
-      <c r="AA31" s="36"/>
-      <c r="AB31" s="36"/>
-      <c r="AC31" s="36"/>
-      <c r="AD31" s="36"/>
-      <c r="AE31" s="36"/>
-      <c r="AF31" s="36"/>
-      <c r="AG31" s="36"/>
-      <c r="AH31" s="36"/>
-      <c r="AI31" s="36"/>
-      <c r="AJ31" s="36"/>
-      <c r="AK31" s="36"/>
-      <c r="AL31" s="36"/>
-      <c r="AM31" s="36"/>
-      <c r="AN31" s="36"/>
-      <c r="AO31" s="36"/>
-      <c r="AP31" s="36"/>
-      <c r="AQ31" s="36"/>
-      <c r="AR31" s="36"/>
-      <c r="AS31" s="36"/>
-      <c r="AT31" s="36"/>
-      <c r="AU31" s="36"/>
-      <c r="AV31" s="36"/>
+      <c r="L31" s="73"/>
+      <c r="M31" s="73"/>
+      <c r="N31" s="73"/>
+      <c r="O31" s="73"/>
+      <c r="P31" s="73"/>
+      <c r="Q31" s="73"/>
+      <c r="R31" s="73"/>
+      <c r="S31" s="73"/>
+      <c r="T31" s="73"/>
+      <c r="U31" s="73"/>
+      <c r="V31" s="73"/>
+      <c r="W31" s="73"/>
+      <c r="X31" s="73"/>
+      <c r="Y31" s="73"/>
+      <c r="Z31" s="73"/>
+      <c r="AA31" s="73"/>
+      <c r="AB31" s="73"/>
+      <c r="AC31" s="73"/>
+      <c r="AD31" s="73"/>
+      <c r="AE31" s="73"/>
+      <c r="AF31" s="73"/>
+      <c r="AG31" s="73"/>
+      <c r="AH31" s="73"/>
+      <c r="AI31" s="73"/>
+      <c r="AJ31" s="73"/>
+      <c r="AK31" s="73"/>
+      <c r="AL31" s="73"/>
+      <c r="AM31" s="73"/>
+      <c r="AN31" s="73"/>
+      <c r="AO31" s="73"/>
+      <c r="AP31" s="73"/>
+      <c r="AQ31" s="73"/>
+      <c r="AR31" s="73"/>
+      <c r="AS31" s="73"/>
+      <c r="AT31" s="73"/>
+      <c r="AU31" s="73"/>
+      <c r="AV31" s="73"/>
       <c r="AW31" s="36"/>
       <c r="AX31" s="36"/>
       <c r="AY31" s="36"/>
@@ -4283,53 +4317,56 @@
     </row>
     <row r="32" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="76"/>
-      <c r="B32" s="58"/>
-      <c r="C32" s="53"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="88"/>
-      <c r="F32" s="88"/>
+      <c r="B32" s="57"/>
+      <c r="C32" s="51"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="85"/>
+      <c r="F32" s="85"/>
       <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
+      <c r="H32" s="17" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
       <c r="I32" s="36"/>
       <c r="J32" s="36"/>
       <c r="K32" s="36"/>
-      <c r="L32" s="36"/>
-      <c r="M32" s="36"/>
-      <c r="N32" s="36"/>
-      <c r="O32" s="36"/>
-      <c r="P32" s="36"/>
-      <c r="Q32" s="36"/>
-      <c r="R32" s="36"/>
-      <c r="S32" s="36"/>
-      <c r="T32" s="36"/>
-      <c r="U32" s="36"/>
-      <c r="V32" s="36"/>
-      <c r="W32" s="36"/>
-      <c r="X32" s="36"/>
-      <c r="Y32" s="36"/>
-      <c r="Z32" s="36"/>
-      <c r="AA32" s="36"/>
-      <c r="AB32" s="36"/>
-      <c r="AC32" s="36"/>
-      <c r="AD32" s="36"/>
-      <c r="AE32" s="36"/>
-      <c r="AF32" s="36"/>
-      <c r="AG32" s="36"/>
-      <c r="AH32" s="36"/>
-      <c r="AI32" s="36"/>
-      <c r="AJ32" s="36"/>
-      <c r="AK32" s="36"/>
-      <c r="AL32" s="36"/>
-      <c r="AM32" s="36"/>
-      <c r="AN32" s="36"/>
-      <c r="AO32" s="36"/>
-      <c r="AP32" s="36"/>
-      <c r="AQ32" s="36"/>
-      <c r="AR32" s="36"/>
-      <c r="AS32" s="36"/>
-      <c r="AT32" s="36"/>
-      <c r="AU32" s="36"/>
-      <c r="AV32" s="36"/>
+      <c r="L32" s="73"/>
+      <c r="M32" s="73"/>
+      <c r="N32" s="73"/>
+      <c r="O32" s="73"/>
+      <c r="P32" s="73"/>
+      <c r="Q32" s="73"/>
+      <c r="R32" s="73"/>
+      <c r="S32" s="73"/>
+      <c r="T32" s="73"/>
+      <c r="U32" s="73"/>
+      <c r="V32" s="73"/>
+      <c r="W32" s="73"/>
+      <c r="X32" s="73"/>
+      <c r="Y32" s="73"/>
+      <c r="Z32" s="73"/>
+      <c r="AA32" s="73"/>
+      <c r="AB32" s="73"/>
+      <c r="AC32" s="73"/>
+      <c r="AD32" s="73"/>
+      <c r="AE32" s="73"/>
+      <c r="AF32" s="73"/>
+      <c r="AG32" s="73"/>
+      <c r="AH32" s="73"/>
+      <c r="AI32" s="73"/>
+      <c r="AJ32" s="73"/>
+      <c r="AK32" s="73"/>
+      <c r="AL32" s="73"/>
+      <c r="AM32" s="73"/>
+      <c r="AN32" s="73"/>
+      <c r="AO32" s="73"/>
+      <c r="AP32" s="73"/>
+      <c r="AQ32" s="73"/>
+      <c r="AR32" s="73"/>
+      <c r="AS32" s="73"/>
+      <c r="AT32" s="73"/>
+      <c r="AU32" s="73"/>
+      <c r="AV32" s="73"/>
       <c r="AW32" s="36"/>
       <c r="AX32" s="36"/>
       <c r="AY32" s="36"/>
@@ -4349,53 +4386,56 @@
     </row>
     <row r="33" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="76"/>
-      <c r="B33" s="58"/>
-      <c r="C33" s="53"/>
-      <c r="D33" s="29"/>
-      <c r="E33" s="88"/>
-      <c r="F33" s="88"/>
+      <c r="B33" s="57"/>
+      <c r="C33" s="51"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="85"/>
+      <c r="F33" s="85"/>
       <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
+      <c r="H33" s="17" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
       <c r="I33" s="36"/>
       <c r="J33" s="36"/>
       <c r="K33" s="36"/>
-      <c r="L33" s="36"/>
-      <c r="M33" s="36"/>
-      <c r="N33" s="36"/>
-      <c r="O33" s="36"/>
-      <c r="P33" s="36"/>
-      <c r="Q33" s="36"/>
-      <c r="R33" s="36"/>
-      <c r="S33" s="36"/>
-      <c r="T33" s="36"/>
-      <c r="U33" s="36"/>
-      <c r="V33" s="36"/>
-      <c r="W33" s="36"/>
-      <c r="X33" s="36"/>
-      <c r="Y33" s="36"/>
-      <c r="Z33" s="36"/>
-      <c r="AA33" s="36"/>
-      <c r="AB33" s="36"/>
-      <c r="AC33" s="36"/>
-      <c r="AD33" s="36"/>
-      <c r="AE33" s="36"/>
-      <c r="AF33" s="36"/>
-      <c r="AG33" s="36"/>
-      <c r="AH33" s="36"/>
-      <c r="AI33" s="36"/>
-      <c r="AJ33" s="36"/>
-      <c r="AK33" s="36"/>
-      <c r="AL33" s="36"/>
-      <c r="AM33" s="36"/>
-      <c r="AN33" s="36"/>
-      <c r="AO33" s="36"/>
-      <c r="AP33" s="36"/>
-      <c r="AQ33" s="36"/>
-      <c r="AR33" s="36"/>
-      <c r="AS33" s="36"/>
-      <c r="AT33" s="36"/>
-      <c r="AU33" s="36"/>
-      <c r="AV33" s="36"/>
+      <c r="L33" s="73"/>
+      <c r="M33" s="73"/>
+      <c r="N33" s="73"/>
+      <c r="O33" s="73"/>
+      <c r="P33" s="73"/>
+      <c r="Q33" s="73"/>
+      <c r="R33" s="73"/>
+      <c r="S33" s="73"/>
+      <c r="T33" s="73"/>
+      <c r="U33" s="73"/>
+      <c r="V33" s="73"/>
+      <c r="W33" s="73"/>
+      <c r="X33" s="73"/>
+      <c r="Y33" s="73"/>
+      <c r="Z33" s="73"/>
+      <c r="AA33" s="73"/>
+      <c r="AB33" s="73"/>
+      <c r="AC33" s="73"/>
+      <c r="AD33" s="73"/>
+      <c r="AE33" s="73"/>
+      <c r="AF33" s="73"/>
+      <c r="AG33" s="73"/>
+      <c r="AH33" s="73"/>
+      <c r="AI33" s="73"/>
+      <c r="AJ33" s="73"/>
+      <c r="AK33" s="73"/>
+      <c r="AL33" s="73"/>
+      <c r="AM33" s="73"/>
+      <c r="AN33" s="73"/>
+      <c r="AO33" s="73"/>
+      <c r="AP33" s="73"/>
+      <c r="AQ33" s="73"/>
+      <c r="AR33" s="73"/>
+      <c r="AS33" s="73"/>
+      <c r="AT33" s="73"/>
+      <c r="AU33" s="73"/>
+      <c r="AV33" s="73"/>
       <c r="AW33" s="36"/>
       <c r="AX33" s="36"/>
       <c r="AY33" s="36"/>
@@ -4414,14 +4454,21 @@
       <c r="BL33" s="36"/>
     </row>
     <row r="34" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="76"/>
-      <c r="B34" s="58"/>
-      <c r="C34" s="53"/>
-      <c r="D34" s="29"/>
-      <c r="E34" s="88"/>
-      <c r="F34" s="88"/>
+      <c r="A34" s="76" t="s">
+        <v>28</v>
+      </c>
+      <c r="B34" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="52"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="86"/>
+      <c r="F34" s="87"/>
       <c r="G34" s="17"/>
-      <c r="H34" s="17"/>
+      <c r="H34" s="17" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
       <c r="I34" s="36"/>
       <c r="J34" s="36"/>
       <c r="K34" s="36"/>
@@ -4612,14 +4659,12 @@
       <c r="BL36" s="36"/>
     </row>
     <row r="37" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="76" t="s">
-        <v>31</v>
-      </c>
-      <c r="B37" s="59"/>
-      <c r="C37" s="54"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="45"/>
-      <c r="F37" s="45"/>
+      <c r="A37" s="76"/>
+      <c r="B37" s="58"/>
+      <c r="C37" s="53"/>
+      <c r="D37" s="29"/>
+      <c r="E37" s="88"/>
+      <c r="F37" s="88"/>
       <c r="G37" s="17"/>
       <c r="H37" s="17"/>
       <c r="I37" s="36"/>
@@ -4680,128 +4725,323 @@
       <c r="BL37" s="36"/>
     </row>
     <row r="38" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="75" t="s">
+      <c r="A38" s="76"/>
+      <c r="B38" s="58"/>
+      <c r="C38" s="53"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="88"/>
+      <c r="F38" s="88"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="36"/>
+      <c r="J38" s="36"/>
+      <c r="K38" s="36"/>
+      <c r="L38" s="36"/>
+      <c r="M38" s="36"/>
+      <c r="N38" s="36"/>
+      <c r="O38" s="36"/>
+      <c r="P38" s="36"/>
+      <c r="Q38" s="36"/>
+      <c r="R38" s="36"/>
+      <c r="S38" s="36"/>
+      <c r="T38" s="36"/>
+      <c r="U38" s="36"/>
+      <c r="V38" s="36"/>
+      <c r="W38" s="36"/>
+      <c r="X38" s="36"/>
+      <c r="Y38" s="36"/>
+      <c r="Z38" s="36"/>
+      <c r="AA38" s="36"/>
+      <c r="AB38" s="36"/>
+      <c r="AC38" s="36"/>
+      <c r="AD38" s="36"/>
+      <c r="AE38" s="36"/>
+      <c r="AF38" s="36"/>
+      <c r="AG38" s="36"/>
+      <c r="AH38" s="36"/>
+      <c r="AI38" s="36"/>
+      <c r="AJ38" s="36"/>
+      <c r="AK38" s="36"/>
+      <c r="AL38" s="36"/>
+      <c r="AM38" s="36"/>
+      <c r="AN38" s="36"/>
+      <c r="AO38" s="36"/>
+      <c r="AP38" s="36"/>
+      <c r="AQ38" s="36"/>
+      <c r="AR38" s="36"/>
+      <c r="AS38" s="36"/>
+      <c r="AT38" s="36"/>
+      <c r="AU38" s="36"/>
+      <c r="AV38" s="36"/>
+      <c r="AW38" s="36"/>
+      <c r="AX38" s="36"/>
+      <c r="AY38" s="36"/>
+      <c r="AZ38" s="36"/>
+      <c r="BA38" s="36"/>
+      <c r="BB38" s="36"/>
+      <c r="BC38" s="36"/>
+      <c r="BD38" s="36"/>
+      <c r="BE38" s="36"/>
+      <c r="BF38" s="36"/>
+      <c r="BG38" s="36"/>
+      <c r="BH38" s="36"/>
+      <c r="BI38" s="36"/>
+      <c r="BJ38" s="36"/>
+      <c r="BK38" s="36"/>
+      <c r="BL38" s="36"/>
+    </row>
+    <row r="39" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="76"/>
+      <c r="B39" s="58"/>
+      <c r="C39" s="53"/>
+      <c r="D39" s="29"/>
+      <c r="E39" s="88"/>
+      <c r="F39" s="88"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="17"/>
+      <c r="I39" s="36"/>
+      <c r="J39" s="36"/>
+      <c r="K39" s="36"/>
+      <c r="L39" s="36"/>
+      <c r="M39" s="36"/>
+      <c r="N39" s="36"/>
+      <c r="O39" s="36"/>
+      <c r="P39" s="36"/>
+      <c r="Q39" s="36"/>
+      <c r="R39" s="36"/>
+      <c r="S39" s="36"/>
+      <c r="T39" s="36"/>
+      <c r="U39" s="36"/>
+      <c r="V39" s="36"/>
+      <c r="W39" s="36"/>
+      <c r="X39" s="36"/>
+      <c r="Y39" s="36"/>
+      <c r="Z39" s="36"/>
+      <c r="AA39" s="36"/>
+      <c r="AB39" s="36"/>
+      <c r="AC39" s="36"/>
+      <c r="AD39" s="36"/>
+      <c r="AE39" s="36"/>
+      <c r="AF39" s="36"/>
+      <c r="AG39" s="36"/>
+      <c r="AH39" s="36"/>
+      <c r="AI39" s="36"/>
+      <c r="AJ39" s="36"/>
+      <c r="AK39" s="36"/>
+      <c r="AL39" s="36"/>
+      <c r="AM39" s="36"/>
+      <c r="AN39" s="36"/>
+      <c r="AO39" s="36"/>
+      <c r="AP39" s="36"/>
+      <c r="AQ39" s="36"/>
+      <c r="AR39" s="36"/>
+      <c r="AS39" s="36"/>
+      <c r="AT39" s="36"/>
+      <c r="AU39" s="36"/>
+      <c r="AV39" s="36"/>
+      <c r="AW39" s="36"/>
+      <c r="AX39" s="36"/>
+      <c r="AY39" s="36"/>
+      <c r="AZ39" s="36"/>
+      <c r="BA39" s="36"/>
+      <c r="BB39" s="36"/>
+      <c r="BC39" s="36"/>
+      <c r="BD39" s="36"/>
+      <c r="BE39" s="36"/>
+      <c r="BF39" s="36"/>
+      <c r="BG39" s="36"/>
+      <c r="BH39" s="36"/>
+      <c r="BI39" s="36"/>
+      <c r="BJ39" s="36"/>
+      <c r="BK39" s="36"/>
+      <c r="BL39" s="36"/>
+    </row>
+    <row r="40" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="76" t="s">
+        <v>31</v>
+      </c>
+      <c r="B40" s="59"/>
+      <c r="C40" s="54"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="45"/>
+      <c r="F40" s="45"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="36"/>
+      <c r="J40" s="36"/>
+      <c r="K40" s="36"/>
+      <c r="L40" s="36"/>
+      <c r="M40" s="36"/>
+      <c r="N40" s="36"/>
+      <c r="O40" s="36"/>
+      <c r="P40" s="36"/>
+      <c r="Q40" s="36"/>
+      <c r="R40" s="36"/>
+      <c r="S40" s="36"/>
+      <c r="T40" s="36"/>
+      <c r="U40" s="36"/>
+      <c r="V40" s="36"/>
+      <c r="W40" s="36"/>
+      <c r="X40" s="36"/>
+      <c r="Y40" s="36"/>
+      <c r="Z40" s="36"/>
+      <c r="AA40" s="36"/>
+      <c r="AB40" s="36"/>
+      <c r="AC40" s="36"/>
+      <c r="AD40" s="36"/>
+      <c r="AE40" s="36"/>
+      <c r="AF40" s="36"/>
+      <c r="AG40" s="36"/>
+      <c r="AH40" s="36"/>
+      <c r="AI40" s="36"/>
+      <c r="AJ40" s="36"/>
+      <c r="AK40" s="36"/>
+      <c r="AL40" s="36"/>
+      <c r="AM40" s="36"/>
+      <c r="AN40" s="36"/>
+      <c r="AO40" s="36"/>
+      <c r="AP40" s="36"/>
+      <c r="AQ40" s="36"/>
+      <c r="AR40" s="36"/>
+      <c r="AS40" s="36"/>
+      <c r="AT40" s="36"/>
+      <c r="AU40" s="36"/>
+      <c r="AV40" s="36"/>
+      <c r="AW40" s="36"/>
+      <c r="AX40" s="36"/>
+      <c r="AY40" s="36"/>
+      <c r="AZ40" s="36"/>
+      <c r="BA40" s="36"/>
+      <c r="BB40" s="36"/>
+      <c r="BC40" s="36"/>
+      <c r="BD40" s="36"/>
+      <c r="BE40" s="36"/>
+      <c r="BF40" s="36"/>
+      <c r="BG40" s="36"/>
+      <c r="BH40" s="36"/>
+      <c r="BI40" s="36"/>
+      <c r="BJ40" s="36"/>
+      <c r="BK40" s="36"/>
+      <c r="BL40" s="36"/>
+    </row>
+    <row r="41" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="75" t="s">
         <v>32</v>
       </c>
-      <c r="B38" s="30" t="s">
+      <c r="B41" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="C38" s="31"/>
-      <c r="D38" s="32"/>
-      <c r="E38" s="33"/>
-      <c r="F38" s="34"/>
-      <c r="G38" s="35"/>
-      <c r="H38" s="35" t="str">
+      <c r="C41" s="31"/>
+      <c r="D41" s="32"/>
+      <c r="E41" s="33"/>
+      <c r="F41" s="34"/>
+      <c r="G41" s="35"/>
+      <c r="H41" s="35" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I38" s="37"/>
-      <c r="J38" s="37"/>
-      <c r="K38" s="37"/>
-      <c r="L38" s="37"/>
-      <c r="M38" s="37"/>
-      <c r="N38" s="37"/>
-      <c r="O38" s="37"/>
-      <c r="P38" s="37"/>
-      <c r="Q38" s="37"/>
-      <c r="R38" s="37"/>
-      <c r="S38" s="37"/>
-      <c r="T38" s="37"/>
-      <c r="U38" s="37"/>
-      <c r="V38" s="37"/>
-      <c r="W38" s="37"/>
-      <c r="X38" s="37"/>
-      <c r="Y38" s="37"/>
-      <c r="Z38" s="37"/>
-      <c r="AA38" s="37"/>
-      <c r="AB38" s="37"/>
-      <c r="AC38" s="37"/>
-      <c r="AD38" s="37"/>
-      <c r="AE38" s="37"/>
-      <c r="AF38" s="37"/>
-      <c r="AG38" s="37"/>
-      <c r="AH38" s="37"/>
-      <c r="AI38" s="37"/>
-      <c r="AJ38" s="37"/>
-      <c r="AK38" s="37"/>
-      <c r="AL38" s="37"/>
-      <c r="AM38" s="37"/>
-      <c r="AN38" s="37"/>
-      <c r="AO38" s="37"/>
-      <c r="AP38" s="37"/>
-      <c r="AQ38" s="37"/>
-      <c r="AR38" s="37"/>
-      <c r="AS38" s="37"/>
-      <c r="AT38" s="37"/>
-      <c r="AU38" s="37"/>
-      <c r="AV38" s="37"/>
-      <c r="AW38" s="37"/>
-      <c r="AX38" s="37"/>
-      <c r="AY38" s="37"/>
-      <c r="AZ38" s="37"/>
-      <c r="BA38" s="37"/>
-      <c r="BB38" s="37"/>
-      <c r="BC38" s="37"/>
-      <c r="BD38" s="37"/>
-      <c r="BE38" s="37"/>
-      <c r="BF38" s="37"/>
-      <c r="BG38" s="37"/>
-      <c r="BH38" s="37"/>
-      <c r="BI38" s="37"/>
-      <c r="BJ38" s="37"/>
-      <c r="BK38" s="37"/>
-      <c r="BL38" s="37"/>
-    </row>
-    <row r="39" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G39" s="6"/>
-    </row>
-    <row r="40" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C40" s="14"/>
-      <c r="F40" s="39"/>
-    </row>
-    <row r="41" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C41" s="15"/>
-    </row>
-    <row r="42" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="55" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="43" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="55" t="s">
-        <v>35</v>
-      </c>
+      <c r="I41" s="37"/>
+      <c r="J41" s="37"/>
+      <c r="K41" s="37"/>
+      <c r="L41" s="37"/>
+      <c r="M41" s="37"/>
+      <c r="N41" s="37"/>
+      <c r="O41" s="37"/>
+      <c r="P41" s="37"/>
+      <c r="Q41" s="37"/>
+      <c r="R41" s="37"/>
+      <c r="S41" s="37"/>
+      <c r="T41" s="37"/>
+      <c r="U41" s="37"/>
+      <c r="V41" s="37"/>
+      <c r="W41" s="37"/>
+      <c r="X41" s="37"/>
+      <c r="Y41" s="37"/>
+      <c r="Z41" s="37"/>
+      <c r="AA41" s="37"/>
+      <c r="AB41" s="37"/>
+      <c r="AC41" s="37"/>
+      <c r="AD41" s="37"/>
+      <c r="AE41" s="37"/>
+      <c r="AF41" s="37"/>
+      <c r="AG41" s="37"/>
+      <c r="AH41" s="37"/>
+      <c r="AI41" s="37"/>
+      <c r="AJ41" s="37"/>
+      <c r="AK41" s="37"/>
+      <c r="AL41" s="37"/>
+      <c r="AM41" s="37"/>
+      <c r="AN41" s="37"/>
+      <c r="AO41" s="37"/>
+      <c r="AP41" s="37"/>
+      <c r="AQ41" s="37"/>
+      <c r="AR41" s="37"/>
+      <c r="AS41" s="37"/>
+      <c r="AT41" s="37"/>
+      <c r="AU41" s="37"/>
+      <c r="AV41" s="37"/>
+      <c r="AW41" s="37"/>
+      <c r="AX41" s="37"/>
+      <c r="AY41" s="37"/>
+      <c r="AZ41" s="37"/>
+      <c r="BA41" s="37"/>
+      <c r="BB41" s="37"/>
+      <c r="BC41" s="37"/>
+      <c r="BD41" s="37"/>
+      <c r="BE41" s="37"/>
+      <c r="BF41" s="37"/>
+      <c r="BG41" s="37"/>
+      <c r="BH41" s="37"/>
+      <c r="BI41" s="37"/>
+      <c r="BJ41" s="37"/>
+      <c r="BK41" s="37"/>
+      <c r="BL41" s="37"/>
+    </row>
+    <row r="42" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G42" s="6"/>
+    </row>
+    <row r="43" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C43" s="14"/>
+      <c r="F43" s="39"/>
     </row>
     <row r="44" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="55" t="s">
-        <v>36</v>
-      </c>
+      <c r="C44" s="15"/>
     </row>
     <row r="45" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B45" s="55" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="46" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B46" s="55" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="47" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="55"/>
+      <c r="B47" s="55" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="48" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B48" s="55" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="55" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="55"/>
+    </row>
+    <row r="51" spans="2:2" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="55" t="s">
         <v>38</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
@@ -4809,8 +5049,13 @@
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
   </mergeCells>
-  <conditionalFormatting sqref="D22:D38 D7:D14">
+  <conditionalFormatting sqref="D22:D41 D7:D14">
     <cfRule type="dataBar" priority="18">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -4824,12 +5069,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:BL38">
+  <conditionalFormatting sqref="I5:BL41">
     <cfRule type="expression" dxfId="2" priority="37">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I7:BL38">
+  <conditionalFormatting sqref="I7:BL41">
     <cfRule type="expression" dxfId="1" priority="31">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
@@ -4910,7 +5155,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D22:D38 D7:D14</xm:sqref>
+          <xm:sqref>D22:D41 D7:D14</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{D13E1797-F8B6-4241-9FBC-9074A55E5511}">

--- a/Gantt Chart.xlsx
+++ b/Gantt Chart.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F33DF01F-072A-8F41-8041-62F27E603C95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76174797-D8CC-5B43-9F4C-CB7940947E00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1000" yWindow="500" windowWidth="27800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectSchedule" sheetId="11" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="89">
   <si>
     <t>Create a Project Schedule in this worksheet.
 Enter title of this project in cell B1. 
@@ -586,6 +586,18 @@
   </si>
   <si>
     <t xml:space="preserve">Calculate sensor location https://www.vle.cam.ac.uk/mod/page/view.php?id=13564051 </t>
+  </si>
+  <si>
+    <t>Start test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Distance sensor </t>
+  </si>
+  <si>
+    <t>EE &amp; Software</t>
+  </si>
+  <si>
+    <t>Block searching mechanism</t>
   </si>
 </sst>
 </file>
@@ -1301,6 +1313,18 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="12" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="9" fillId="0" borderId="3" xfId="9" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
@@ -1308,18 +1332,6 @@
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="9" fillId="0" borderId="3" xfId="9" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Comma" xfId="4" builtinId="3" customBuiltin="1"/>
@@ -1830,11 +1842,11 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BL51"/>
+  <dimension ref="A1:BL52"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B26" sqref="B26"/>
+      <pane ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1881,117 +1893,117 @@
         <v>4</v>
       </c>
       <c r="B3" s="44"/>
-      <c r="C3" s="92" t="s">
+      <c r="C3" s="96" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="93"/>
-      <c r="E3" s="98">
+      <c r="D3" s="97"/>
+      <c r="E3" s="95">
         <v>44476</v>
       </c>
-      <c r="F3" s="98"/>
+      <c r="F3" s="95"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="92" t="s">
+      <c r="C4" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="93"/>
+      <c r="D4" s="97"/>
       <c r="E4" s="7">
         <v>1</v>
       </c>
-      <c r="I4" s="95">
+      <c r="I4" s="92">
         <f>I5</f>
         <v>44473</v>
       </c>
-      <c r="J4" s="96"/>
-      <c r="K4" s="96"/>
-      <c r="L4" s="96"/>
-      <c r="M4" s="96"/>
-      <c r="N4" s="96"/>
-      <c r="O4" s="97"/>
-      <c r="P4" s="95">
+      <c r="J4" s="93"/>
+      <c r="K4" s="93"/>
+      <c r="L4" s="93"/>
+      <c r="M4" s="93"/>
+      <c r="N4" s="93"/>
+      <c r="O4" s="94"/>
+      <c r="P4" s="92">
         <f>P5</f>
         <v>44480</v>
       </c>
-      <c r="Q4" s="96"/>
-      <c r="R4" s="96"/>
-      <c r="S4" s="96"/>
-      <c r="T4" s="96"/>
-      <c r="U4" s="96"/>
-      <c r="V4" s="97"/>
-      <c r="W4" s="95">
+      <c r="Q4" s="93"/>
+      <c r="R4" s="93"/>
+      <c r="S4" s="93"/>
+      <c r="T4" s="93"/>
+      <c r="U4" s="93"/>
+      <c r="V4" s="94"/>
+      <c r="W4" s="92">
         <f>W5</f>
         <v>44487</v>
       </c>
-      <c r="X4" s="96"/>
-      <c r="Y4" s="96"/>
-      <c r="Z4" s="96"/>
-      <c r="AA4" s="96"/>
-      <c r="AB4" s="96"/>
-      <c r="AC4" s="97"/>
-      <c r="AD4" s="95">
+      <c r="X4" s="93"/>
+      <c r="Y4" s="93"/>
+      <c r="Z4" s="93"/>
+      <c r="AA4" s="93"/>
+      <c r="AB4" s="93"/>
+      <c r="AC4" s="94"/>
+      <c r="AD4" s="92">
         <f>AD5</f>
         <v>44494</v>
       </c>
-      <c r="AE4" s="96"/>
-      <c r="AF4" s="96"/>
-      <c r="AG4" s="96"/>
-      <c r="AH4" s="96"/>
-      <c r="AI4" s="96"/>
-      <c r="AJ4" s="97"/>
-      <c r="AK4" s="95">
+      <c r="AE4" s="93"/>
+      <c r="AF4" s="93"/>
+      <c r="AG4" s="93"/>
+      <c r="AH4" s="93"/>
+      <c r="AI4" s="93"/>
+      <c r="AJ4" s="94"/>
+      <c r="AK4" s="92">
         <f>AK5</f>
         <v>44501</v>
       </c>
-      <c r="AL4" s="96"/>
-      <c r="AM4" s="96"/>
-      <c r="AN4" s="96"/>
-      <c r="AO4" s="96"/>
-      <c r="AP4" s="96"/>
-      <c r="AQ4" s="97"/>
-      <c r="AR4" s="95">
+      <c r="AL4" s="93"/>
+      <c r="AM4" s="93"/>
+      <c r="AN4" s="93"/>
+      <c r="AO4" s="93"/>
+      <c r="AP4" s="93"/>
+      <c r="AQ4" s="94"/>
+      <c r="AR4" s="92">
         <f>AR5</f>
         <v>44508</v>
       </c>
-      <c r="AS4" s="96"/>
-      <c r="AT4" s="96"/>
-      <c r="AU4" s="96"/>
-      <c r="AV4" s="96"/>
-      <c r="AW4" s="96"/>
-      <c r="AX4" s="97"/>
-      <c r="AY4" s="95">
+      <c r="AS4" s="93"/>
+      <c r="AT4" s="93"/>
+      <c r="AU4" s="93"/>
+      <c r="AV4" s="93"/>
+      <c r="AW4" s="93"/>
+      <c r="AX4" s="94"/>
+      <c r="AY4" s="92">
         <f>AY5</f>
         <v>44515</v>
       </c>
-      <c r="AZ4" s="96"/>
-      <c r="BA4" s="96"/>
-      <c r="BB4" s="96"/>
-      <c r="BC4" s="96"/>
-      <c r="BD4" s="96"/>
-      <c r="BE4" s="97"/>
-      <c r="BF4" s="95">
+      <c r="AZ4" s="93"/>
+      <c r="BA4" s="93"/>
+      <c r="BB4" s="93"/>
+      <c r="BC4" s="93"/>
+      <c r="BD4" s="93"/>
+      <c r="BE4" s="94"/>
+      <c r="BF4" s="92">
         <f>BF5</f>
         <v>44522</v>
       </c>
-      <c r="BG4" s="96"/>
-      <c r="BH4" s="96"/>
-      <c r="BI4" s="96"/>
-      <c r="BJ4" s="96"/>
-      <c r="BK4" s="96"/>
-      <c r="BL4" s="97"/>
+      <c r="BG4" s="93"/>
+      <c r="BH4" s="93"/>
+      <c r="BI4" s="93"/>
+      <c r="BJ4" s="93"/>
+      <c r="BK4" s="93"/>
+      <c r="BL4" s="94"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="94"/>
-      <c r="C5" s="94"/>
-      <c r="D5" s="94"/>
-      <c r="E5" s="94"/>
-      <c r="F5" s="94"/>
-      <c r="G5" s="94"/>
+      <c r="B5" s="98"/>
+      <c r="C5" s="98"/>
+      <c r="D5" s="98"/>
+      <c r="E5" s="98"/>
+      <c r="F5" s="98"/>
+      <c r="G5" s="98"/>
       <c r="I5" s="11">
         <f>Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
         <v>44473</v>
@@ -2545,7 +2557,7 @@
       <c r="F8" s="79"/>
       <c r="G8" s="17"/>
       <c r="H8" s="17" t="str">
-        <f t="shared" ref="H8:H41" si="6">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <f t="shared" ref="H8:H42" si="6">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
       </c>
       <c r="I8" s="36"/>
@@ -2777,7 +2789,7 @@
         <v>78</v>
       </c>
       <c r="D11" s="20">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="E11" s="77">
         <v>44478</v>
@@ -3012,7 +3024,7 @@
         <v>20</v>
       </c>
       <c r="D14" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" s="77">
         <v>44481</v>
@@ -3091,10 +3103,10 @@
         <v>0</v>
       </c>
       <c r="E15" s="77">
-        <v>44484</v>
+        <v>44485</v>
       </c>
       <c r="F15" s="77">
-        <v>44486</v>
+        <v>44487</v>
       </c>
       <c r="G15" s="17"/>
       <c r="H15" s="17"/>
@@ -3157,20 +3169,20 @@
     </row>
     <row r="16" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="76"/>
-      <c r="B16" s="89" t="s">
-        <v>76</v>
+      <c r="B16" s="90" t="s">
+        <v>88</v>
       </c>
       <c r="C16" s="47" t="s">
-        <v>23</v>
+        <v>87</v>
       </c>
       <c r="D16" s="20">
         <v>0</v>
       </c>
       <c r="E16" s="77">
-        <v>44484</v>
+        <v>44485</v>
       </c>
       <c r="F16" s="77">
-        <v>44486</v>
+        <v>44487</v>
       </c>
       <c r="G16" s="17"/>
       <c r="H16" s="17"/>
@@ -3233,20 +3245,20 @@
     </row>
     <row r="17" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="76"/>
-      <c r="B17" s="90" t="s">
-        <v>79</v>
+      <c r="B17" s="89" t="s">
+        <v>76</v>
       </c>
       <c r="C17" s="47" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D17" s="20">
         <v>0</v>
       </c>
       <c r="E17" s="77">
+        <v>44485</v>
+      </c>
+      <c r="F17" s="77">
         <v>44487</v>
-      </c>
-      <c r="F17" s="77">
-        <v>44489</v>
       </c>
       <c r="G17" s="17"/>
       <c r="H17" s="17"/>
@@ -3310,25 +3322,22 @@
     <row r="18" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="76"/>
       <c r="B18" s="89" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C18" s="47" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D18" s="20">
         <v>0</v>
       </c>
       <c r="E18" s="77">
-        <v>44487</v>
+        <v>44488</v>
       </c>
       <c r="F18" s="77">
         <v>44489</v>
       </c>
       <c r="G18" s="17"/>
-      <c r="H18" s="17">
-        <f t="shared" si="6"/>
-        <v>3</v>
-      </c>
+      <c r="H18" s="17"/>
       <c r="I18" s="36"/>
       <c r="J18" s="36"/>
       <c r="K18" s="36"/>
@@ -3345,7 +3354,7 @@
       <c r="V18" s="73"/>
       <c r="W18" s="73"/>
       <c r="X18" s="73"/>
-      <c r="Y18" s="73"/>
+      <c r="Y18" s="74"/>
       <c r="Z18" s="73"/>
       <c r="AA18" s="73"/>
       <c r="AB18" s="73"/>
@@ -3388,13 +3397,26 @@
     </row>
     <row r="19" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="76"/>
-      <c r="B19" s="89"/>
-      <c r="C19" s="47"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="77"/>
-      <c r="F19" s="77"/>
+      <c r="B19" s="89" t="s">
+        <v>80</v>
+      </c>
+      <c r="C19" s="47" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="20">
+        <v>0</v>
+      </c>
+      <c r="E19" s="77">
+        <v>44488</v>
+      </c>
+      <c r="F19" s="77">
+        <v>44489</v>
+      </c>
       <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
+      <c r="H19" s="17">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
       <c r="I19" s="36"/>
       <c r="J19" s="36"/>
       <c r="K19" s="36"/>
@@ -3454,11 +3476,19 @@
     </row>
     <row r="20" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="76"/>
-      <c r="B20" s="89"/>
-      <c r="C20" s="47"/>
+      <c r="B20" s="89" t="s">
+        <v>85</v>
+      </c>
+      <c r="C20" s="47" t="s">
+        <v>20</v>
+      </c>
       <c r="D20" s="20"/>
-      <c r="E20" s="77"/>
-      <c r="F20" s="77"/>
+      <c r="E20" s="77">
+        <v>44490</v>
+      </c>
+      <c r="F20" s="77">
+        <v>44496</v>
+      </c>
       <c r="G20" s="17"/>
       <c r="H20" s="17"/>
       <c r="I20" s="36"/>
@@ -3520,7 +3550,9 @@
     </row>
     <row r="21" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="76"/>
-      <c r="B21" s="89"/>
+      <c r="B21" s="89" t="s">
+        <v>86</v>
+      </c>
       <c r="C21" s="47"/>
       <c r="D21" s="20"/>
       <c r="E21" s="77"/>
@@ -3585,21 +3617,14 @@
       <c r="BL21" s="36"/>
     </row>
     <row r="22" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="75" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="C22" s="48"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="80"/>
-      <c r="F22" s="81"/>
+      <c r="A22" s="76"/>
+      <c r="B22" s="89"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="77"/>
+      <c r="F22" s="77"/>
       <c r="G22" s="17"/>
-      <c r="H22" s="17" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
+      <c r="H22" s="17"/>
       <c r="I22" s="36"/>
       <c r="J22" s="36"/>
       <c r="K22" s="36"/>
@@ -3658,26 +3683,20 @@
       <c r="BL22" s="36"/>
     </row>
     <row r="23" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="75"/>
-      <c r="B23" s="56" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" s="49" t="s">
-        <v>20</v>
-      </c>
-      <c r="D23" s="23">
-        <v>0</v>
-      </c>
-      <c r="E23" s="82">
-        <v>44481</v>
-      </c>
-      <c r="F23" s="82">
-        <v>44482</v>
-      </c>
+      <c r="A23" s="75" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="C23" s="48"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="80"/>
+      <c r="F23" s="81"/>
       <c r="G23" s="17"/>
-      <c r="H23" s="17">
+      <c r="H23" s="17" t="str">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v/>
       </c>
       <c r="I23" s="36"/>
       <c r="J23" s="36"/>
@@ -3737,14 +3756,16 @@
       <c r="BL23" s="36"/>
     </row>
     <row r="24" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="76"/>
-      <c r="B24" s="91" t="s">
-        <v>84</v>
+      <c r="A24" s="75"/>
+      <c r="B24" s="56" t="s">
+        <v>26</v>
       </c>
       <c r="C24" s="49" t="s">
-        <v>78</v>
-      </c>
-      <c r="D24" s="23"/>
+        <v>20</v>
+      </c>
+      <c r="D24" s="23">
+        <v>0.8</v>
+      </c>
       <c r="E24" s="82">
         <v>44481</v>
       </c>
@@ -3768,8 +3789,8 @@
       <c r="R24" s="73"/>
       <c r="S24" s="73"/>
       <c r="T24" s="73"/>
-      <c r="U24" s="74"/>
-      <c r="V24" s="74"/>
+      <c r="U24" s="73"/>
+      <c r="V24" s="73"/>
       <c r="W24" s="73"/>
       <c r="X24" s="73"/>
       <c r="Y24" s="73"/>
@@ -3815,12 +3836,10 @@
     </row>
     <row r="25" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="76"/>
-      <c r="B25" s="56" t="s">
-        <v>83</v>
-      </c>
-      <c r="C25" s="49" t="s">
-        <v>78</v>
-      </c>
+      <c r="B25" s="91" t="s">
+        <v>84</v>
+      </c>
+      <c r="C25" s="49"/>
       <c r="D25" s="23"/>
       <c r="E25" s="82">
         <v>44481</v>
@@ -3845,8 +3864,8 @@
       <c r="R25" s="73"/>
       <c r="S25" s="73"/>
       <c r="T25" s="73"/>
-      <c r="U25" s="73"/>
-      <c r="V25" s="73"/>
+      <c r="U25" s="74"/>
+      <c r="V25" s="74"/>
       <c r="W25" s="73"/>
       <c r="X25" s="73"/>
       <c r="Y25" s="73"/>
@@ -3893,12 +3912,14 @@
     <row r="26" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="76"/>
       <c r="B26" s="56" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C26" s="49" t="s">
-        <v>23</v>
-      </c>
-      <c r="D26" s="23"/>
+        <v>78</v>
+      </c>
+      <c r="D26" s="23">
+        <v>1</v>
+      </c>
       <c r="E26" s="82">
         <v>44481</v>
       </c>
@@ -3906,7 +3927,10 @@
         <v>44482</v>
       </c>
       <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
+      <c r="H26" s="17">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
       <c r="I26" s="36"/>
       <c r="J26" s="36"/>
       <c r="K26" s="36"/>
@@ -3967,10 +3991,10 @@
     <row r="27" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="76"/>
       <c r="B27" s="56" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C27" s="49" t="s">
-        <v>75</v>
+        <v>23</v>
       </c>
       <c r="D27" s="23"/>
       <c r="E27" s="82">
@@ -4040,11 +4064,19 @@
     </row>
     <row r="28" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="76"/>
-      <c r="B28" s="56"/>
-      <c r="C28" s="49"/>
+      <c r="B28" s="56" t="s">
+        <v>82</v>
+      </c>
+      <c r="C28" s="49" t="s">
+        <v>75</v>
+      </c>
       <c r="D28" s="23"/>
-      <c r="E28" s="82"/>
-      <c r="F28" s="82"/>
+      <c r="E28" s="82">
+        <v>44481</v>
+      </c>
+      <c r="F28" s="82">
+        <v>44482</v>
+      </c>
       <c r="G28" s="17"/>
       <c r="H28" s="17"/>
       <c r="I28" s="36"/>
@@ -4112,10 +4144,7 @@
       <c r="E29" s="82"/>
       <c r="F29" s="82"/>
       <c r="G29" s="17"/>
-      <c r="H29" s="17" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
+      <c r="H29" s="17"/>
       <c r="I29" s="36"/>
       <c r="J29" s="36"/>
       <c r="K29" s="36"/>
@@ -4132,7 +4161,7 @@
       <c r="V29" s="73"/>
       <c r="W29" s="73"/>
       <c r="X29" s="73"/>
-      <c r="Y29" s="74"/>
+      <c r="Y29" s="73"/>
       <c r="Z29" s="73"/>
       <c r="AA29" s="73"/>
       <c r="AB29" s="73"/>
@@ -4174,16 +4203,12 @@
       <c r="BL29" s="36"/>
     </row>
     <row r="30" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="76" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="C30" s="50"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="83"/>
-      <c r="F30" s="84"/>
+      <c r="A30" s="76"/>
+      <c r="B30" s="56"/>
+      <c r="C30" s="49"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="82"/>
+      <c r="F30" s="82"/>
       <c r="G30" s="17"/>
       <c r="H30" s="17" t="str">
         <f t="shared" si="6"/>
@@ -4205,7 +4230,7 @@
       <c r="V30" s="73"/>
       <c r="W30" s="73"/>
       <c r="X30" s="73"/>
-      <c r="Y30" s="73"/>
+      <c r="Y30" s="74"/>
       <c r="Z30" s="73"/>
       <c r="AA30" s="73"/>
       <c r="AB30" s="73"/>
@@ -4247,12 +4272,16 @@
       <c r="BL30" s="36"/>
     </row>
     <row r="31" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="76"/>
-      <c r="B31" s="57"/>
-      <c r="C31" s="51"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="85"/>
-      <c r="F31" s="85"/>
+      <c r="A31" s="76" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31" s="50"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="83"/>
+      <c r="F31" s="84"/>
       <c r="G31" s="17"/>
       <c r="H31" s="17" t="str">
         <f t="shared" si="6"/>
@@ -4454,16 +4483,12 @@
       <c r="BL33" s="36"/>
     </row>
     <row r="34" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="76" t="s">
-        <v>28</v>
-      </c>
-      <c r="B34" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="C34" s="52"/>
-      <c r="D34" s="28"/>
-      <c r="E34" s="86"/>
-      <c r="F34" s="87"/>
+      <c r="A34" s="76"/>
+      <c r="B34" s="57"/>
+      <c r="C34" s="51"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="85"/>
+      <c r="F34" s="85"/>
       <c r="G34" s="17"/>
       <c r="H34" s="17" t="str">
         <f t="shared" si="6"/>
@@ -4472,43 +4497,43 @@
       <c r="I34" s="36"/>
       <c r="J34" s="36"/>
       <c r="K34" s="36"/>
-      <c r="L34" s="36"/>
-      <c r="M34" s="36"/>
-      <c r="N34" s="36"/>
-      <c r="O34" s="36"/>
-      <c r="P34" s="36"/>
-      <c r="Q34" s="36"/>
-      <c r="R34" s="36"/>
-      <c r="S34" s="36"/>
-      <c r="T34" s="36"/>
-      <c r="U34" s="36"/>
-      <c r="V34" s="36"/>
-      <c r="W34" s="36"/>
-      <c r="X34" s="36"/>
-      <c r="Y34" s="36"/>
-      <c r="Z34" s="36"/>
-      <c r="AA34" s="36"/>
-      <c r="AB34" s="36"/>
-      <c r="AC34" s="36"/>
-      <c r="AD34" s="36"/>
-      <c r="AE34" s="36"/>
-      <c r="AF34" s="36"/>
-      <c r="AG34" s="36"/>
-      <c r="AH34" s="36"/>
-      <c r="AI34" s="36"/>
-      <c r="AJ34" s="36"/>
-      <c r="AK34" s="36"/>
-      <c r="AL34" s="36"/>
-      <c r="AM34" s="36"/>
-      <c r="AN34" s="36"/>
-      <c r="AO34" s="36"/>
-      <c r="AP34" s="36"/>
-      <c r="AQ34" s="36"/>
-      <c r="AR34" s="36"/>
-      <c r="AS34" s="36"/>
-      <c r="AT34" s="36"/>
-      <c r="AU34" s="36"/>
-      <c r="AV34" s="36"/>
+      <c r="L34" s="73"/>
+      <c r="M34" s="73"/>
+      <c r="N34" s="73"/>
+      <c r="O34" s="73"/>
+      <c r="P34" s="73"/>
+      <c r="Q34" s="73"/>
+      <c r="R34" s="73"/>
+      <c r="S34" s="73"/>
+      <c r="T34" s="73"/>
+      <c r="U34" s="73"/>
+      <c r="V34" s="73"/>
+      <c r="W34" s="73"/>
+      <c r="X34" s="73"/>
+      <c r="Y34" s="73"/>
+      <c r="Z34" s="73"/>
+      <c r="AA34" s="73"/>
+      <c r="AB34" s="73"/>
+      <c r="AC34" s="73"/>
+      <c r="AD34" s="73"/>
+      <c r="AE34" s="73"/>
+      <c r="AF34" s="73"/>
+      <c r="AG34" s="73"/>
+      <c r="AH34" s="73"/>
+      <c r="AI34" s="73"/>
+      <c r="AJ34" s="73"/>
+      <c r="AK34" s="73"/>
+      <c r="AL34" s="73"/>
+      <c r="AM34" s="73"/>
+      <c r="AN34" s="73"/>
+      <c r="AO34" s="73"/>
+      <c r="AP34" s="73"/>
+      <c r="AQ34" s="73"/>
+      <c r="AR34" s="73"/>
+      <c r="AS34" s="73"/>
+      <c r="AT34" s="73"/>
+      <c r="AU34" s="73"/>
+      <c r="AV34" s="73"/>
       <c r="AW34" s="36"/>
       <c r="AX34" s="36"/>
       <c r="AY34" s="36"/>
@@ -4527,14 +4552,21 @@
       <c r="BL34" s="36"/>
     </row>
     <row r="35" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="76"/>
-      <c r="B35" s="58"/>
-      <c r="C35" s="53"/>
-      <c r="D35" s="29"/>
-      <c r="E35" s="88"/>
-      <c r="F35" s="88"/>
+      <c r="A35" s="76" t="s">
+        <v>28</v>
+      </c>
+      <c r="B35" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35" s="52"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="86"/>
+      <c r="F35" s="87"/>
       <c r="G35" s="17"/>
-      <c r="H35" s="17"/>
+      <c r="H35" s="17" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
       <c r="I35" s="36"/>
       <c r="J35" s="36"/>
       <c r="K35" s="36"/>
@@ -4857,14 +4889,12 @@
       <c r="BL39" s="36"/>
     </row>
     <row r="40" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="76" t="s">
-        <v>31</v>
-      </c>
-      <c r="B40" s="59"/>
-      <c r="C40" s="54"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="45"/>
-      <c r="F40" s="45"/>
+      <c r="A40" s="76"/>
+      <c r="B40" s="58"/>
+      <c r="C40" s="53"/>
+      <c r="D40" s="29"/>
+      <c r="E40" s="88"/>
+      <c r="F40" s="88"/>
       <c r="G40" s="17"/>
       <c r="H40" s="17"/>
       <c r="I40" s="36"/>
@@ -4925,123 +4955,196 @@
       <c r="BL40" s="36"/>
     </row>
     <row r="41" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="75" t="s">
+      <c r="A41" s="76" t="s">
+        <v>31</v>
+      </c>
+      <c r="B41" s="59"/>
+      <c r="C41" s="54"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="45"/>
+      <c r="F41" s="45"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="17"/>
+      <c r="I41" s="36"/>
+      <c r="J41" s="36"/>
+      <c r="K41" s="36"/>
+      <c r="L41" s="36"/>
+      <c r="M41" s="36"/>
+      <c r="N41" s="36"/>
+      <c r="O41" s="36"/>
+      <c r="P41" s="36"/>
+      <c r="Q41" s="36"/>
+      <c r="R41" s="36"/>
+      <c r="S41" s="36"/>
+      <c r="T41" s="36"/>
+      <c r="U41" s="36"/>
+      <c r="V41" s="36"/>
+      <c r="W41" s="36"/>
+      <c r="X41" s="36"/>
+      <c r="Y41" s="36"/>
+      <c r="Z41" s="36"/>
+      <c r="AA41" s="36"/>
+      <c r="AB41" s="36"/>
+      <c r="AC41" s="36"/>
+      <c r="AD41" s="36"/>
+      <c r="AE41" s="36"/>
+      <c r="AF41" s="36"/>
+      <c r="AG41" s="36"/>
+      <c r="AH41" s="36"/>
+      <c r="AI41" s="36"/>
+      <c r="AJ41" s="36"/>
+      <c r="AK41" s="36"/>
+      <c r="AL41" s="36"/>
+      <c r="AM41" s="36"/>
+      <c r="AN41" s="36"/>
+      <c r="AO41" s="36"/>
+      <c r="AP41" s="36"/>
+      <c r="AQ41" s="36"/>
+      <c r="AR41" s="36"/>
+      <c r="AS41" s="36"/>
+      <c r="AT41" s="36"/>
+      <c r="AU41" s="36"/>
+      <c r="AV41" s="36"/>
+      <c r="AW41" s="36"/>
+      <c r="AX41" s="36"/>
+      <c r="AY41" s="36"/>
+      <c r="AZ41" s="36"/>
+      <c r="BA41" s="36"/>
+      <c r="BB41" s="36"/>
+      <c r="BC41" s="36"/>
+      <c r="BD41" s="36"/>
+      <c r="BE41" s="36"/>
+      <c r="BF41" s="36"/>
+      <c r="BG41" s="36"/>
+      <c r="BH41" s="36"/>
+      <c r="BI41" s="36"/>
+      <c r="BJ41" s="36"/>
+      <c r="BK41" s="36"/>
+      <c r="BL41" s="36"/>
+    </row>
+    <row r="42" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="75" t="s">
         <v>32</v>
       </c>
-      <c r="B41" s="30" t="s">
+      <c r="B42" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="C41" s="31"/>
-      <c r="D41" s="32"/>
-      <c r="E41" s="33"/>
-      <c r="F41" s="34"/>
-      <c r="G41" s="35"/>
-      <c r="H41" s="35" t="str">
+      <c r="C42" s="31"/>
+      <c r="D42" s="32"/>
+      <c r="E42" s="33"/>
+      <c r="F42" s="34"/>
+      <c r="G42" s="35"/>
+      <c r="H42" s="35" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I41" s="37"/>
-      <c r="J41" s="37"/>
-      <c r="K41" s="37"/>
-      <c r="L41" s="37"/>
-      <c r="M41" s="37"/>
-      <c r="N41" s="37"/>
-      <c r="O41" s="37"/>
-      <c r="P41" s="37"/>
-      <c r="Q41" s="37"/>
-      <c r="R41" s="37"/>
-      <c r="S41" s="37"/>
-      <c r="T41" s="37"/>
-      <c r="U41" s="37"/>
-      <c r="V41" s="37"/>
-      <c r="W41" s="37"/>
-      <c r="X41" s="37"/>
-      <c r="Y41" s="37"/>
-      <c r="Z41" s="37"/>
-      <c r="AA41" s="37"/>
-      <c r="AB41" s="37"/>
-      <c r="AC41" s="37"/>
-      <c r="AD41" s="37"/>
-      <c r="AE41" s="37"/>
-      <c r="AF41" s="37"/>
-      <c r="AG41" s="37"/>
-      <c r="AH41" s="37"/>
-      <c r="AI41" s="37"/>
-      <c r="AJ41" s="37"/>
-      <c r="AK41" s="37"/>
-      <c r="AL41" s="37"/>
-      <c r="AM41" s="37"/>
-      <c r="AN41" s="37"/>
-      <c r="AO41" s="37"/>
-      <c r="AP41" s="37"/>
-      <c r="AQ41" s="37"/>
-      <c r="AR41" s="37"/>
-      <c r="AS41" s="37"/>
-      <c r="AT41" s="37"/>
-      <c r="AU41" s="37"/>
-      <c r="AV41" s="37"/>
-      <c r="AW41" s="37"/>
-      <c r="AX41" s="37"/>
-      <c r="AY41" s="37"/>
-      <c r="AZ41" s="37"/>
-      <c r="BA41" s="37"/>
-      <c r="BB41" s="37"/>
-      <c r="BC41" s="37"/>
-      <c r="BD41" s="37"/>
-      <c r="BE41" s="37"/>
-      <c r="BF41" s="37"/>
-      <c r="BG41" s="37"/>
-      <c r="BH41" s="37"/>
-      <c r="BI41" s="37"/>
-      <c r="BJ41" s="37"/>
-      <c r="BK41" s="37"/>
-      <c r="BL41" s="37"/>
-    </row>
-    <row r="42" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G42" s="6"/>
+      <c r="I42" s="37"/>
+      <c r="J42" s="37"/>
+      <c r="K42" s="37"/>
+      <c r="L42" s="37"/>
+      <c r="M42" s="37"/>
+      <c r="N42" s="37"/>
+      <c r="O42" s="37"/>
+      <c r="P42" s="37"/>
+      <c r="Q42" s="37"/>
+      <c r="R42" s="37"/>
+      <c r="S42" s="37"/>
+      <c r="T42" s="37"/>
+      <c r="U42" s="37"/>
+      <c r="V42" s="37"/>
+      <c r="W42" s="37"/>
+      <c r="X42" s="37"/>
+      <c r="Y42" s="37"/>
+      <c r="Z42" s="37"/>
+      <c r="AA42" s="37"/>
+      <c r="AB42" s="37"/>
+      <c r="AC42" s="37"/>
+      <c r="AD42" s="37"/>
+      <c r="AE42" s="37"/>
+      <c r="AF42" s="37"/>
+      <c r="AG42" s="37"/>
+      <c r="AH42" s="37"/>
+      <c r="AI42" s="37"/>
+      <c r="AJ42" s="37"/>
+      <c r="AK42" s="37"/>
+      <c r="AL42" s="37"/>
+      <c r="AM42" s="37"/>
+      <c r="AN42" s="37"/>
+      <c r="AO42" s="37"/>
+      <c r="AP42" s="37"/>
+      <c r="AQ42" s="37"/>
+      <c r="AR42" s="37"/>
+      <c r="AS42" s="37"/>
+      <c r="AT42" s="37"/>
+      <c r="AU42" s="37"/>
+      <c r="AV42" s="37"/>
+      <c r="AW42" s="37"/>
+      <c r="AX42" s="37"/>
+      <c r="AY42" s="37"/>
+      <c r="AZ42" s="37"/>
+      <c r="BA42" s="37"/>
+      <c r="BB42" s="37"/>
+      <c r="BC42" s="37"/>
+      <c r="BD42" s="37"/>
+      <c r="BE42" s="37"/>
+      <c r="BF42" s="37"/>
+      <c r="BG42" s="37"/>
+      <c r="BH42" s="37"/>
+      <c r="BI42" s="37"/>
+      <c r="BJ42" s="37"/>
+      <c r="BK42" s="37"/>
+      <c r="BL42" s="37"/>
     </row>
     <row r="43" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C43" s="14"/>
-      <c r="F43" s="39"/>
-    </row>
-    <row r="44" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C44" s="15"/>
+      <c r="G43" s="6"/>
+    </row>
+    <row r="44" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C44" s="14"/>
+      <c r="F44" s="39"/>
     </row>
     <row r="45" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="55" t="s">
-        <v>34</v>
-      </c>
+      <c r="C45" s="15"/>
     </row>
     <row r="46" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B46" s="55" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="47" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B47" s="55" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="48" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B48" s="55" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="49" spans="2:2" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B49" s="55" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="55" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="50" spans="2:2" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="55"/>
-    </row>
     <row r="51" spans="2:2" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="55" t="s">
+      <c r="B51" s="55"/>
+    </row>
+    <row r="52" spans="2:2" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="55" t="s">
         <v>38</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
@@ -5049,13 +5152,8 @@
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
   </mergeCells>
-  <conditionalFormatting sqref="D22:D41 D7:D14">
+  <conditionalFormatting sqref="D23:D42 D7:D14">
     <cfRule type="dataBar" priority="18">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -5069,12 +5167,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:BL41">
+  <conditionalFormatting sqref="I5:BL42">
     <cfRule type="expression" dxfId="2" priority="37">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I7:BL41">
+  <conditionalFormatting sqref="I7:BL42">
     <cfRule type="expression" dxfId="1" priority="31">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
@@ -5082,7 +5180,7 @@
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D18:D21">
+  <conditionalFormatting sqref="D19:D22">
     <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -5096,7 +5194,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D15:D16">
+  <conditionalFormatting sqref="D15:D17">
     <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -5110,7 +5208,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D17">
+  <conditionalFormatting sqref="D18">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -5155,7 +5253,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D22:D41 D7:D14</xm:sqref>
+          <xm:sqref>D23:D42 D7:D14</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{D13E1797-F8B6-4241-9FBC-9074A55E5511}">
@@ -5170,7 +5268,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D18:D21</xm:sqref>
+          <xm:sqref>D19:D22</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{FE7C0A31-7B3A-534A-91C0-5BC01C3C6546}">
@@ -5185,7 +5283,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D15:D16</xm:sqref>
+          <xm:sqref>D15:D17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{DE25D6E0-AD7C-C54F-90DC-0E8CB25971C9}">
@@ -5200,7 +5298,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D17</xm:sqref>
+          <xm:sqref>D18</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/Gantt Chart.xlsx
+++ b/Gantt Chart.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76174797-D8CC-5B43-9F4C-CB7940947E00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ADE0C96-B2F9-C644-BEA9-CD43EF7123C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1020" yWindow="500" windowWidth="27780" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectSchedule" sheetId="11" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="13" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="Display_Week">ProjectSchedule!$E$4</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">ProjectSchedule!$4:$6</definedName>
-    <definedName name="Project_Start">ProjectSchedule!$E$3</definedName>
+    <definedName name="Display_Week">ProjectSchedule!$E$3</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">ProjectSchedule!$3:$5</definedName>
+    <definedName name="Project_Start">ProjectSchedule!$E$2</definedName>
     <definedName name="task_end" localSheetId="0">ProjectSchedule!$F1</definedName>
     <definedName name="task_progress" localSheetId="0">ProjectSchedule!$D1</definedName>
     <definedName name="task_start" localSheetId="0">ProjectSchedule!$E1</definedName>
@@ -39,21 +39,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="81">
   <si>
     <t>Create a Project Schedule in this worksheet.
 Enter title of this project in cell B1. 
 Information about how to use this worksheet, including instructions for screen readers and the author of this workbook is in the About worksheet.
 Continue navigating down column A to hear further instructions.</t>
-  </si>
-  <si>
-    <t>SIMPLE GANTT CHART by Vertex42.com</t>
-  </si>
-  <si>
-    <t>Enter Company Name in cell B2.</t>
-  </si>
-  <si>
-    <t>https://www.vertex42.com/ExcelTemplates/simple-gantt-chart.html</t>
   </si>
   <si>
     <t>Enter the name of the Project Lead in cell B3. Enter the Project Start date in cell E3. Pooject Start: label is in cell C3.</t>
@@ -576,22 +567,7 @@
     <t>Draw overall circuit diagram and build circuit on Proto Board</t>
   </si>
   <si>
-    <t>Calculate arm dynamics</t>
-  </si>
-  <si>
-    <t>Calculate metal detector circuit parameters</t>
-  </si>
-  <si>
-    <t>Calculate parameters in line-follow circuit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calculate sensor location https://www.vle.cam.ac.uk/mod/page/view.php?id=13564051 </t>
-  </si>
-  <si>
     <t>Start test</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Distance sensor </t>
   </si>
   <si>
     <t>EE &amp; Software</t>
@@ -782,7 +758,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -876,12 +852,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1052,7 +1022,7 @@
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1165,16 +1135,12 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyProtection="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="6"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="7">
       <alignment vertical="top"/>
     </xf>
@@ -1307,12 +1273,16 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="12" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="2" xfId="12" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="12" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="166" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1325,13 +1295,6 @@
     <xf numFmtId="168" fontId="9" fillId="0" borderId="3" xfId="9" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Comma" xfId="4" builtinId="3" customBuiltin="1"/>
@@ -1842,16 +1805,16 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BL52"/>
+  <dimension ref="A1:BL51"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="119" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.33203125" style="76" customWidth="1"/>
+    <col min="1" max="1" width="2.33203125" style="74" customWidth="1"/>
     <col min="2" max="2" width="36" customWidth="1"/>
     <col min="3" max="3" width="15.83203125" customWidth="1"/>
     <col min="4" max="4" width="10.6640625" customWidth="1"/>
@@ -1864,627 +1827,689 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42" t="s">
-        <v>71</v>
+      <c r="B1" s="41" t="s">
+        <v>68</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
       <c r="E1" s="4"/>
       <c r="F1" s="38"/>
       <c r="H1" s="2"/>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="14"/>
+    </row>
+    <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="74" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="76" t="s">
+      <c r="B2" s="42"/>
+      <c r="C2" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="I2" s="40" t="s">
+      <c r="D2" s="90"/>
+      <c r="E2" s="95">
+        <v>44476</v>
+      </c>
+      <c r="F2" s="95"/>
+    </row>
+    <row r="3" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="73" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="76" t="s">
+      <c r="C3" s="89" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="96" t="s">
+      <c r="D3" s="90"/>
+      <c r="E3" s="7">
+        <v>1</v>
+      </c>
+      <c r="I3" s="92">
+        <f>I4</f>
+        <v>44473</v>
+      </c>
+      <c r="J3" s="93"/>
+      <c r="K3" s="93"/>
+      <c r="L3" s="93"/>
+      <c r="M3" s="93"/>
+      <c r="N3" s="93"/>
+      <c r="O3" s="94"/>
+      <c r="P3" s="92">
+        <f>P4</f>
+        <v>44480</v>
+      </c>
+      <c r="Q3" s="93"/>
+      <c r="R3" s="93"/>
+      <c r="S3" s="93"/>
+      <c r="T3" s="93"/>
+      <c r="U3" s="93"/>
+      <c r="V3" s="94"/>
+      <c r="W3" s="92">
+        <f>W4</f>
+        <v>44487</v>
+      </c>
+      <c r="X3" s="93"/>
+      <c r="Y3" s="93"/>
+      <c r="Z3" s="93"/>
+      <c r="AA3" s="93"/>
+      <c r="AB3" s="93"/>
+      <c r="AC3" s="94"/>
+      <c r="AD3" s="92">
+        <f>AD4</f>
+        <v>44494</v>
+      </c>
+      <c r="AE3" s="93"/>
+      <c r="AF3" s="93"/>
+      <c r="AG3" s="93"/>
+      <c r="AH3" s="93"/>
+      <c r="AI3" s="93"/>
+      <c r="AJ3" s="94"/>
+      <c r="AK3" s="92">
+        <f>AK4</f>
+        <v>44501</v>
+      </c>
+      <c r="AL3" s="93"/>
+      <c r="AM3" s="93"/>
+      <c r="AN3" s="93"/>
+      <c r="AO3" s="93"/>
+      <c r="AP3" s="93"/>
+      <c r="AQ3" s="94"/>
+      <c r="AR3" s="92">
+        <f>AR4</f>
+        <v>44508</v>
+      </c>
+      <c r="AS3" s="93"/>
+      <c r="AT3" s="93"/>
+      <c r="AU3" s="93"/>
+      <c r="AV3" s="93"/>
+      <c r="AW3" s="93"/>
+      <c r="AX3" s="94"/>
+      <c r="AY3" s="92">
+        <f>AY4</f>
+        <v>44515</v>
+      </c>
+      <c r="AZ3" s="93"/>
+      <c r="BA3" s="93"/>
+      <c r="BB3" s="93"/>
+      <c r="BC3" s="93"/>
+      <c r="BD3" s="93"/>
+      <c r="BE3" s="94"/>
+      <c r="BF3" s="92">
+        <f>BF4</f>
+        <v>44522</v>
+      </c>
+      <c r="BG3" s="93"/>
+      <c r="BH3" s="93"/>
+      <c r="BI3" s="93"/>
+      <c r="BJ3" s="93"/>
+      <c r="BK3" s="93"/>
+      <c r="BL3" s="94"/>
+    </row>
+    <row r="4" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="97"/>
-      <c r="E3" s="95">
-        <v>44476</v>
-      </c>
-      <c r="F3" s="95"/>
-    </row>
-    <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="75" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="96" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="97"/>
-      <c r="E4" s="7">
-        <v>1</v>
-      </c>
-      <c r="I4" s="92">
-        <f>I5</f>
-        <v>44473</v>
-      </c>
-      <c r="J4" s="93"/>
-      <c r="K4" s="93"/>
-      <c r="L4" s="93"/>
-      <c r="M4" s="93"/>
-      <c r="N4" s="93"/>
-      <c r="O4" s="94"/>
-      <c r="P4" s="92">
-        <f>P5</f>
-        <v>44480</v>
-      </c>
-      <c r="Q4" s="93"/>
-      <c r="R4" s="93"/>
-      <c r="S4" s="93"/>
-      <c r="T4" s="93"/>
-      <c r="U4" s="93"/>
-      <c r="V4" s="94"/>
-      <c r="W4" s="92">
-        <f>W5</f>
-        <v>44487</v>
-      </c>
-      <c r="X4" s="93"/>
-      <c r="Y4" s="93"/>
-      <c r="Z4" s="93"/>
-      <c r="AA4" s="93"/>
-      <c r="AB4" s="93"/>
-      <c r="AC4" s="94"/>
-      <c r="AD4" s="92">
-        <f>AD5</f>
-        <v>44494</v>
-      </c>
-      <c r="AE4" s="93"/>
-      <c r="AF4" s="93"/>
-      <c r="AG4" s="93"/>
-      <c r="AH4" s="93"/>
-      <c r="AI4" s="93"/>
-      <c r="AJ4" s="94"/>
-      <c r="AK4" s="92">
-        <f>AK5</f>
-        <v>44501</v>
-      </c>
-      <c r="AL4" s="93"/>
-      <c r="AM4" s="93"/>
-      <c r="AN4" s="93"/>
-      <c r="AO4" s="93"/>
-      <c r="AP4" s="93"/>
-      <c r="AQ4" s="94"/>
-      <c r="AR4" s="92">
-        <f>AR5</f>
-        <v>44508</v>
-      </c>
-      <c r="AS4" s="93"/>
-      <c r="AT4" s="93"/>
-      <c r="AU4" s="93"/>
-      <c r="AV4" s="93"/>
-      <c r="AW4" s="93"/>
-      <c r="AX4" s="94"/>
-      <c r="AY4" s="92">
-        <f>AY5</f>
-        <v>44515</v>
-      </c>
-      <c r="AZ4" s="93"/>
-      <c r="BA4" s="93"/>
-      <c r="BB4" s="93"/>
-      <c r="BC4" s="93"/>
-      <c r="BD4" s="93"/>
-      <c r="BE4" s="94"/>
-      <c r="BF4" s="92">
-        <f>BF5</f>
-        <v>44522</v>
-      </c>
-      <c r="BG4" s="93"/>
-      <c r="BH4" s="93"/>
-      <c r="BI4" s="93"/>
-      <c r="BJ4" s="93"/>
-      <c r="BK4" s="93"/>
-      <c r="BL4" s="94"/>
-    </row>
-    <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="75" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="98"/>
-      <c r="C5" s="98"/>
-      <c r="D5" s="98"/>
-      <c r="E5" s="98"/>
-      <c r="F5" s="98"/>
-      <c r="G5" s="98"/>
-      <c r="I5" s="11">
+      <c r="B4" s="91"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="91"/>
+      <c r="I4" s="11">
         <f>Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
         <v>44473</v>
       </c>
-      <c r="J5" s="10">
-        <f>I5+1</f>
+      <c r="J4" s="10">
+        <f>I4+1</f>
         <v>44474</v>
       </c>
-      <c r="K5" s="10">
-        <f t="shared" ref="K5:AX5" si="0">J5+1</f>
+      <c r="K4" s="10">
+        <f t="shared" ref="K4:AX4" si="0">J4+1</f>
         <v>44475</v>
       </c>
-      <c r="L5" s="10">
+      <c r="L4" s="10">
         <f t="shared" si="0"/>
         <v>44476</v>
       </c>
-      <c r="M5" s="10">
+      <c r="M4" s="10">
         <f t="shared" si="0"/>
         <v>44477</v>
       </c>
-      <c r="N5" s="10">
+      <c r="N4" s="10">
         <f t="shared" si="0"/>
         <v>44478</v>
       </c>
-      <c r="O5" s="12">
+      <c r="O4" s="12">
         <f t="shared" si="0"/>
         <v>44479</v>
       </c>
-      <c r="P5" s="11">
-        <f>O5+1</f>
+      <c r="P4" s="11">
+        <f>O4+1</f>
         <v>44480</v>
       </c>
-      <c r="Q5" s="10">
-        <f>P5+1</f>
+      <c r="Q4" s="10">
+        <f>P4+1</f>
         <v>44481</v>
       </c>
-      <c r="R5" s="10">
+      <c r="R4" s="10">
         <f t="shared" si="0"/>
         <v>44482</v>
       </c>
-      <c r="S5" s="10">
+      <c r="S4" s="10">
         <f t="shared" si="0"/>
         <v>44483</v>
       </c>
-      <c r="T5" s="10">
+      <c r="T4" s="10">
         <f t="shared" si="0"/>
         <v>44484</v>
       </c>
-      <c r="U5" s="10">
+      <c r="U4" s="10">
         <f t="shared" si="0"/>
         <v>44485</v>
       </c>
-      <c r="V5" s="12">
+      <c r="V4" s="12">
         <f t="shared" si="0"/>
         <v>44486</v>
       </c>
-      <c r="W5" s="11">
-        <f>V5+1</f>
+      <c r="W4" s="11">
+        <f>V4+1</f>
         <v>44487</v>
       </c>
-      <c r="X5" s="10">
-        <f>W5+1</f>
+      <c r="X4" s="10">
+        <f>W4+1</f>
         <v>44488</v>
       </c>
-      <c r="Y5" s="10">
+      <c r="Y4" s="10">
         <f t="shared" si="0"/>
         <v>44489</v>
       </c>
-      <c r="Z5" s="10">
+      <c r="Z4" s="10">
         <f t="shared" si="0"/>
         <v>44490</v>
       </c>
-      <c r="AA5" s="10">
+      <c r="AA4" s="10">
         <f t="shared" si="0"/>
         <v>44491</v>
       </c>
-      <c r="AB5" s="10">
+      <c r="AB4" s="10">
         <f t="shared" si="0"/>
         <v>44492</v>
       </c>
-      <c r="AC5" s="12">
+      <c r="AC4" s="12">
         <f t="shared" si="0"/>
         <v>44493</v>
       </c>
-      <c r="AD5" s="11">
-        <f>AC5+1</f>
+      <c r="AD4" s="11">
+        <f>AC4+1</f>
         <v>44494</v>
       </c>
-      <c r="AE5" s="10">
-        <f>AD5+1</f>
+      <c r="AE4" s="10">
+        <f>AD4+1</f>
         <v>44495</v>
       </c>
-      <c r="AF5" s="10">
+      <c r="AF4" s="10">
         <f t="shared" si="0"/>
         <v>44496</v>
       </c>
-      <c r="AG5" s="10">
+      <c r="AG4" s="10">
         <f t="shared" si="0"/>
         <v>44497</v>
       </c>
-      <c r="AH5" s="10">
+      <c r="AH4" s="10">
         <f t="shared" si="0"/>
         <v>44498</v>
       </c>
-      <c r="AI5" s="10">
+      <c r="AI4" s="10">
         <f t="shared" si="0"/>
         <v>44499</v>
       </c>
-      <c r="AJ5" s="12">
+      <c r="AJ4" s="12">
         <f t="shared" si="0"/>
         <v>44500</v>
       </c>
-      <c r="AK5" s="11">
-        <f>AJ5+1</f>
+      <c r="AK4" s="11">
+        <f>AJ4+1</f>
         <v>44501</v>
       </c>
-      <c r="AL5" s="10">
-        <f>AK5+1</f>
+      <c r="AL4" s="10">
+        <f>AK4+1</f>
         <v>44502</v>
       </c>
-      <c r="AM5" s="10">
+      <c r="AM4" s="10">
         <f t="shared" si="0"/>
         <v>44503</v>
       </c>
-      <c r="AN5" s="10">
+      <c r="AN4" s="10">
         <f t="shared" si="0"/>
         <v>44504</v>
       </c>
-      <c r="AO5" s="10">
+      <c r="AO4" s="10">
         <f t="shared" si="0"/>
         <v>44505</v>
       </c>
-      <c r="AP5" s="10">
+      <c r="AP4" s="10">
         <f t="shared" si="0"/>
         <v>44506</v>
       </c>
-      <c r="AQ5" s="12">
+      <c r="AQ4" s="12">
         <f t="shared" si="0"/>
         <v>44507</v>
       </c>
-      <c r="AR5" s="11">
-        <f>AQ5+1</f>
+      <c r="AR4" s="11">
+        <f>AQ4+1</f>
         <v>44508</v>
       </c>
-      <c r="AS5" s="10">
-        <f>AR5+1</f>
+      <c r="AS4" s="10">
+        <f>AR4+1</f>
         <v>44509</v>
       </c>
-      <c r="AT5" s="10">
+      <c r="AT4" s="10">
         <f t="shared" si="0"/>
         <v>44510</v>
       </c>
-      <c r="AU5" s="10">
+      <c r="AU4" s="10">
         <f t="shared" si="0"/>
         <v>44511</v>
       </c>
-      <c r="AV5" s="10">
+      <c r="AV4" s="10">
         <f t="shared" si="0"/>
         <v>44512</v>
       </c>
-      <c r="AW5" s="10">
+      <c r="AW4" s="10">
         <f t="shared" si="0"/>
         <v>44513</v>
       </c>
-      <c r="AX5" s="12">
+      <c r="AX4" s="12">
         <f t="shared" si="0"/>
         <v>44514</v>
       </c>
-      <c r="AY5" s="11">
-        <f>AX5+1</f>
+      <c r="AY4" s="11">
+        <f>AX4+1</f>
         <v>44515</v>
       </c>
-      <c r="AZ5" s="10">
-        <f>AY5+1</f>
+      <c r="AZ4" s="10">
+        <f>AY4+1</f>
         <v>44516</v>
       </c>
-      <c r="BA5" s="10">
-        <f t="shared" ref="BA5:BE5" si="1">AZ5+1</f>
+      <c r="BA4" s="10">
+        <f t="shared" ref="BA4:BE4" si="1">AZ4+1</f>
         <v>44517</v>
       </c>
-      <c r="BB5" s="10">
+      <c r="BB4" s="10">
         <f t="shared" si="1"/>
         <v>44518</v>
       </c>
-      <c r="BC5" s="10">
+      <c r="BC4" s="10">
         <f t="shared" si="1"/>
         <v>44519</v>
       </c>
-      <c r="BD5" s="10">
+      <c r="BD4" s="10">
         <f t="shared" si="1"/>
         <v>44520</v>
       </c>
-      <c r="BE5" s="12">
+      <c r="BE4" s="12">
         <f t="shared" si="1"/>
         <v>44521</v>
       </c>
-      <c r="BF5" s="11">
-        <f>BE5+1</f>
+      <c r="BF4" s="11">
+        <f>BE4+1</f>
         <v>44522</v>
       </c>
-      <c r="BG5" s="10">
-        <f>BF5+1</f>
+      <c r="BG4" s="10">
+        <f>BF4+1</f>
         <v>44523</v>
       </c>
-      <c r="BH5" s="10">
-        <f t="shared" ref="BH5:BL5" si="2">BG5+1</f>
+      <c r="BH4" s="10">
+        <f t="shared" ref="BH4:BL4" si="2">BG4+1</f>
         <v>44524</v>
       </c>
-      <c r="BI5" s="10">
+      <c r="BI4" s="10">
         <f t="shared" si="2"/>
         <v>44525</v>
       </c>
-      <c r="BJ5" s="10">
+      <c r="BJ4" s="10">
         <f t="shared" si="2"/>
         <v>44526</v>
       </c>
-      <c r="BK5" s="10">
+      <c r="BK4" s="10">
         <f t="shared" si="2"/>
         <v>44527</v>
       </c>
-      <c r="BL5" s="12">
+      <c r="BL4" s="12">
         <f t="shared" si="2"/>
         <v>44528</v>
       </c>
     </row>
-    <row r="6" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="75" t="s">
+    <row r="5" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="E5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="F5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="G5" s="9"/>
+      <c r="H5" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="13" t="str">
-        <f t="shared" ref="I6" si="3">LEFT(TEXT(I5,"ddd"),1)</f>
+      <c r="I5" s="13" t="str">
+        <f t="shared" ref="I5" si="3">LEFT(TEXT(I4,"ddd"),1)</f>
         <v>M</v>
       </c>
-      <c r="J6" s="13" t="str">
-        <f t="shared" ref="J6:AR6" si="4">LEFT(TEXT(J5,"ddd"),1)</f>
+      <c r="J5" s="13" t="str">
+        <f t="shared" ref="J5:AR5" si="4">LEFT(TEXT(J4,"ddd"),1)</f>
         <v>T</v>
       </c>
-      <c r="K6" s="13" t="str">
+      <c r="K5" s="13" t="str">
         <f t="shared" si="4"/>
         <v>W</v>
       </c>
-      <c r="L6" s="13" t="str">
+      <c r="L5" s="13" t="str">
         <f t="shared" si="4"/>
         <v>T</v>
       </c>
-      <c r="M6" s="13" t="str">
+      <c r="M5" s="13" t="str">
         <f t="shared" si="4"/>
         <v>F</v>
       </c>
-      <c r="N6" s="13" t="str">
+      <c r="N5" s="13" t="str">
         <f t="shared" si="4"/>
         <v>S</v>
       </c>
-      <c r="O6" s="13" t="str">
+      <c r="O5" s="13" t="str">
         <f t="shared" si="4"/>
         <v>S</v>
       </c>
-      <c r="P6" s="13" t="str">
+      <c r="P5" s="13" t="str">
         <f t="shared" si="4"/>
         <v>M</v>
       </c>
-      <c r="Q6" s="13" t="str">
+      <c r="Q5" s="13" t="str">
         <f t="shared" si="4"/>
         <v>T</v>
       </c>
-      <c r="R6" s="13" t="str">
+      <c r="R5" s="13" t="str">
         <f t="shared" si="4"/>
         <v>W</v>
       </c>
-      <c r="S6" s="13" t="str">
+      <c r="S5" s="13" t="str">
         <f t="shared" si="4"/>
         <v>T</v>
       </c>
-      <c r="T6" s="13" t="str">
+      <c r="T5" s="13" t="str">
         <f t="shared" si="4"/>
         <v>F</v>
       </c>
-      <c r="U6" s="13" t="str">
+      <c r="U5" s="13" t="str">
         <f t="shared" si="4"/>
         <v>S</v>
       </c>
-      <c r="V6" s="13" t="str">
+      <c r="V5" s="13" t="str">
         <f t="shared" si="4"/>
         <v>S</v>
       </c>
-      <c r="W6" s="13" t="str">
+      <c r="W5" s="13" t="str">
         <f t="shared" si="4"/>
         <v>M</v>
       </c>
-      <c r="X6" s="13" t="str">
+      <c r="X5" s="13" t="str">
         <f t="shared" si="4"/>
         <v>T</v>
       </c>
-      <c r="Y6" s="13" t="str">
+      <c r="Y5" s="13" t="str">
         <f t="shared" si="4"/>
         <v>W</v>
       </c>
-      <c r="Z6" s="13" t="str">
+      <c r="Z5" s="13" t="str">
         <f t="shared" si="4"/>
         <v>T</v>
       </c>
-      <c r="AA6" s="13" t="str">
+      <c r="AA5" s="13" t="str">
         <f t="shared" si="4"/>
         <v>F</v>
       </c>
-      <c r="AB6" s="13" t="str">
+      <c r="AB5" s="13" t="str">
         <f t="shared" si="4"/>
         <v>S</v>
       </c>
-      <c r="AC6" s="13" t="str">
+      <c r="AC5" s="13" t="str">
         <f t="shared" si="4"/>
         <v>S</v>
       </c>
-      <c r="AD6" s="13" t="str">
+      <c r="AD5" s="13" t="str">
         <f t="shared" si="4"/>
         <v>M</v>
       </c>
-      <c r="AE6" s="13" t="str">
+      <c r="AE5" s="13" t="str">
         <f t="shared" si="4"/>
         <v>T</v>
       </c>
-      <c r="AF6" s="13" t="str">
+      <c r="AF5" s="13" t="str">
         <f t="shared" si="4"/>
         <v>W</v>
       </c>
-      <c r="AG6" s="13" t="str">
+      <c r="AG5" s="13" t="str">
         <f t="shared" si="4"/>
         <v>T</v>
       </c>
-      <c r="AH6" s="13" t="str">
+      <c r="AH5" s="13" t="str">
         <f t="shared" si="4"/>
         <v>F</v>
       </c>
-      <c r="AI6" s="13" t="str">
+      <c r="AI5" s="13" t="str">
         <f t="shared" si="4"/>
         <v>S</v>
       </c>
-      <c r="AJ6" s="13" t="str">
+      <c r="AJ5" s="13" t="str">
         <f t="shared" si="4"/>
         <v>S</v>
       </c>
-      <c r="AK6" s="13" t="str">
+      <c r="AK5" s="13" t="str">
         <f t="shared" si="4"/>
         <v>M</v>
       </c>
-      <c r="AL6" s="13" t="str">
+      <c r="AL5" s="13" t="str">
         <f t="shared" si="4"/>
         <v>T</v>
       </c>
-      <c r="AM6" s="13" t="str">
+      <c r="AM5" s="13" t="str">
         <f t="shared" si="4"/>
         <v>W</v>
       </c>
-      <c r="AN6" s="13" t="str">
+      <c r="AN5" s="13" t="str">
         <f t="shared" si="4"/>
         <v>T</v>
       </c>
-      <c r="AO6" s="13" t="str">
+      <c r="AO5" s="13" t="str">
         <f t="shared" si="4"/>
         <v>F</v>
       </c>
-      <c r="AP6" s="13" t="str">
+      <c r="AP5" s="13" t="str">
         <f t="shared" si="4"/>
         <v>S</v>
       </c>
-      <c r="AQ6" s="13" t="str">
+      <c r="AQ5" s="13" t="str">
         <f t="shared" si="4"/>
         <v>S</v>
       </c>
-      <c r="AR6" s="13" t="str">
+      <c r="AR5" s="13" t="str">
         <f t="shared" si="4"/>
         <v>M</v>
       </c>
-      <c r="AS6" s="13" t="str">
-        <f t="shared" ref="AS6:BL6" si="5">LEFT(TEXT(AS5,"ddd"),1)</f>
+      <c r="AS5" s="13" t="str">
+        <f t="shared" ref="AS5:BL5" si="5">LEFT(TEXT(AS4,"ddd"),1)</f>
         <v>T</v>
       </c>
-      <c r="AT6" s="13" t="str">
+      <c r="AT5" s="13" t="str">
         <f t="shared" si="5"/>
         <v>W</v>
       </c>
-      <c r="AU6" s="13" t="str">
+      <c r="AU5" s="13" t="str">
         <f t="shared" si="5"/>
         <v>T</v>
       </c>
-      <c r="AV6" s="13" t="str">
+      <c r="AV5" s="13" t="str">
         <f t="shared" si="5"/>
         <v>F</v>
       </c>
-      <c r="AW6" s="13" t="str">
+      <c r="AW5" s="13" t="str">
         <f t="shared" si="5"/>
         <v>S</v>
       </c>
-      <c r="AX6" s="13" t="str">
+      <c r="AX5" s="13" t="str">
         <f t="shared" si="5"/>
         <v>S</v>
       </c>
-      <c r="AY6" s="13" t="str">
+      <c r="AY5" s="13" t="str">
         <f t="shared" si="5"/>
         <v>M</v>
       </c>
-      <c r="AZ6" s="13" t="str">
+      <c r="AZ5" s="13" t="str">
         <f t="shared" si="5"/>
         <v>T</v>
       </c>
-      <c r="BA6" s="13" t="str">
+      <c r="BA5" s="13" t="str">
         <f t="shared" si="5"/>
         <v>W</v>
       </c>
-      <c r="BB6" s="13" t="str">
+      <c r="BB5" s="13" t="str">
         <f t="shared" si="5"/>
         <v>T</v>
       </c>
-      <c r="BC6" s="13" t="str">
+      <c r="BC5" s="13" t="str">
         <f t="shared" si="5"/>
         <v>F</v>
       </c>
-      <c r="BD6" s="13" t="str">
+      <c r="BD5" s="13" t="str">
         <f t="shared" si="5"/>
         <v>S</v>
       </c>
-      <c r="BE6" s="13" t="str">
+      <c r="BE5" s="13" t="str">
         <f t="shared" si="5"/>
         <v>S</v>
       </c>
-      <c r="BF6" s="13" t="str">
+      <c r="BF5" s="13" t="str">
         <f t="shared" si="5"/>
         <v>M</v>
       </c>
-      <c r="BG6" s="13" t="str">
+      <c r="BG5" s="13" t="str">
         <f t="shared" si="5"/>
         <v>T</v>
       </c>
-      <c r="BH6" s="13" t="str">
+      <c r="BH5" s="13" t="str">
         <f t="shared" si="5"/>
         <v>W</v>
       </c>
-      <c r="BI6" s="13" t="str">
+      <c r="BI5" s="13" t="str">
         <f t="shared" si="5"/>
         <v>T</v>
       </c>
-      <c r="BJ6" s="13" t="str">
+      <c r="BJ5" s="13" t="str">
         <f t="shared" si="5"/>
         <v>F</v>
       </c>
-      <c r="BK6" s="13" t="str">
+      <c r="BK5" s="13" t="str">
         <f t="shared" si="5"/>
         <v>S</v>
       </c>
-      <c r="BL6" s="13" t="str">
+      <c r="BL5" s="13" t="str">
         <f t="shared" si="5"/>
         <v>S</v>
       </c>
     </row>
-    <row r="7" spans="1:64" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="76" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="41"/>
-      <c r="E7"/>
-      <c r="H7" t="str">
+    <row r="6" spans="1:64" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="74" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="40"/>
+      <c r="E6"/>
+      <c r="H6" t="str">
         <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <v/>
+      </c>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="36"/>
+      <c r="O6" s="36"/>
+      <c r="P6" s="36"/>
+      <c r="Q6" s="36"/>
+      <c r="R6" s="36"/>
+      <c r="S6" s="36"/>
+      <c r="T6" s="36"/>
+      <c r="U6" s="36"/>
+      <c r="V6" s="36"/>
+      <c r="W6" s="36"/>
+      <c r="X6" s="36"/>
+      <c r="Y6" s="36"/>
+      <c r="Z6" s="36"/>
+      <c r="AA6" s="36"/>
+      <c r="AB6" s="36"/>
+      <c r="AC6" s="36"/>
+      <c r="AD6" s="36"/>
+      <c r="AE6" s="36"/>
+      <c r="AF6" s="36"/>
+      <c r="AG6" s="36"/>
+      <c r="AH6" s="36"/>
+      <c r="AI6" s="36"/>
+      <c r="AJ6" s="36"/>
+      <c r="AK6" s="36"/>
+      <c r="AL6" s="36"/>
+      <c r="AM6" s="36"/>
+      <c r="AN6" s="36"/>
+      <c r="AO6" s="36"/>
+      <c r="AP6" s="36"/>
+      <c r="AQ6" s="36"/>
+      <c r="AR6" s="36"/>
+      <c r="AS6" s="36"/>
+      <c r="AT6" s="36"/>
+      <c r="AU6" s="36"/>
+      <c r="AV6" s="36"/>
+      <c r="AW6" s="36"/>
+      <c r="AX6" s="36"/>
+      <c r="AY6" s="36"/>
+      <c r="AZ6" s="36"/>
+      <c r="BA6" s="36"/>
+      <c r="BB6" s="36"/>
+      <c r="BC6" s="36"/>
+      <c r="BD6" s="36"/>
+      <c r="BE6" s="36"/>
+      <c r="BF6" s="36"/>
+      <c r="BG6" s="36"/>
+      <c r="BH6" s="36"/>
+      <c r="BI6" s="36"/>
+      <c r="BJ6" s="36"/>
+      <c r="BK6" s="36"/>
+      <c r="BL6" s="36"/>
+    </row>
+    <row r="7" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="73" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="44"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17" t="str">
+        <f t="shared" ref="H7:H41" si="6">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
       </c>
       <c r="I7" s="36"/>
@@ -2545,61 +2570,70 @@
       <c r="BL7" s="36"/>
     </row>
     <row r="8" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="75" t="s">
+      <c r="A8" s="73" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="87" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="C8" s="46"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="78"/>
-      <c r="F8" s="79"/>
+      <c r="D8" s="20">
+        <v>1</v>
+      </c>
+      <c r="E8" s="75">
+        <f>Project_Start</f>
+        <v>44476</v>
+      </c>
+      <c r="F8" s="75">
+        <v>44477</v>
+      </c>
       <c r="G8" s="17"/>
-      <c r="H8" s="17" t="str">
-        <f t="shared" ref="H8:H42" si="6">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
-        <v/>
+      <c r="H8" s="17">
+        <f t="shared" si="6"/>
+        <v>2</v>
       </c>
       <c r="I8" s="36"/>
       <c r="J8" s="36"/>
       <c r="K8" s="36"/>
-      <c r="L8" s="36"/>
-      <c r="M8" s="36"/>
-      <c r="N8" s="36"/>
-      <c r="O8" s="36"/>
-      <c r="P8" s="36"/>
-      <c r="Q8" s="36"/>
-      <c r="R8" s="36"/>
-      <c r="S8" s="36"/>
-      <c r="T8" s="36"/>
-      <c r="U8" s="36"/>
-      <c r="V8" s="36"/>
-      <c r="W8" s="36"/>
-      <c r="X8" s="36"/>
-      <c r="Y8" s="36"/>
-      <c r="Z8" s="36"/>
-      <c r="AA8" s="36"/>
-      <c r="AB8" s="36"/>
-      <c r="AC8" s="36"/>
-      <c r="AD8" s="36"/>
-      <c r="AE8" s="36"/>
-      <c r="AF8" s="36"/>
-      <c r="AG8" s="36"/>
-      <c r="AH8" s="36"/>
-      <c r="AI8" s="36"/>
-      <c r="AJ8" s="36"/>
-      <c r="AK8" s="36"/>
-      <c r="AL8" s="36"/>
-      <c r="AM8" s="36"/>
-      <c r="AN8" s="36"/>
-      <c r="AO8" s="36"/>
-      <c r="AP8" s="36"/>
-      <c r="AQ8" s="36"/>
-      <c r="AR8" s="36"/>
-      <c r="AS8" s="36"/>
-      <c r="AT8" s="36"/>
-      <c r="AU8" s="36"/>
-      <c r="AV8" s="36"/>
+      <c r="L8" s="71"/>
+      <c r="M8" s="71"/>
+      <c r="N8" s="71"/>
+      <c r="O8" s="71"/>
+      <c r="P8" s="71"/>
+      <c r="Q8" s="71"/>
+      <c r="R8" s="71"/>
+      <c r="S8" s="71"/>
+      <c r="T8" s="71"/>
+      <c r="U8" s="71"/>
+      <c r="V8" s="71"/>
+      <c r="W8" s="71"/>
+      <c r="X8" s="71"/>
+      <c r="Y8" s="71"/>
+      <c r="Z8" s="71"/>
+      <c r="AA8" s="71"/>
+      <c r="AB8" s="71"/>
+      <c r="AC8" s="71"/>
+      <c r="AD8" s="71"/>
+      <c r="AE8" s="71"/>
+      <c r="AF8" s="71"/>
+      <c r="AG8" s="71"/>
+      <c r="AH8" s="71"/>
+      <c r="AI8" s="71"/>
+      <c r="AJ8" s="71"/>
+      <c r="AK8" s="71"/>
+      <c r="AL8" s="71"/>
+      <c r="AM8" s="71"/>
+      <c r="AN8" s="71"/>
+      <c r="AO8" s="71"/>
+      <c r="AP8" s="71"/>
+      <c r="AQ8" s="71"/>
+      <c r="AR8" s="71"/>
+      <c r="AS8" s="71"/>
+      <c r="AT8" s="71"/>
+      <c r="AU8" s="71"/>
+      <c r="AV8" s="71"/>
       <c r="AW8" s="36"/>
       <c r="AX8" s="36"/>
       <c r="AY8" s="36"/>
@@ -2618,70 +2652,69 @@
       <c r="BL8" s="36"/>
     </row>
     <row r="9" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="75" t="s">
+      <c r="A9" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="89" t="s">
+      <c r="B9" s="87" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="47" t="s">
-        <v>20</v>
+      <c r="C9" s="45" t="s">
+        <v>17</v>
       </c>
       <c r="D9" s="20">
         <v>1</v>
       </c>
-      <c r="E9" s="77">
-        <f>Project_Start</f>
-        <v>44476</v>
-      </c>
-      <c r="F9" s="77">
-        <v>44477</v>
+      <c r="E9" s="75">
+        <v>44478</v>
+      </c>
+      <c r="F9" s="75">
+        <v>44480</v>
       </c>
       <c r="G9" s="17"/>
       <c r="H9" s="17">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I9" s="36"/>
       <c r="J9" s="36"/>
       <c r="K9" s="36"/>
-      <c r="L9" s="73"/>
-      <c r="M9" s="73"/>
-      <c r="N9" s="73"/>
-      <c r="O9" s="73"/>
-      <c r="P9" s="73"/>
-      <c r="Q9" s="73"/>
-      <c r="R9" s="73"/>
-      <c r="S9" s="73"/>
-      <c r="T9" s="73"/>
-      <c r="U9" s="73"/>
-      <c r="V9" s="73"/>
-      <c r="W9" s="73"/>
-      <c r="X9" s="73"/>
-      <c r="Y9" s="73"/>
-      <c r="Z9" s="73"/>
-      <c r="AA9" s="73"/>
-      <c r="AB9" s="73"/>
-      <c r="AC9" s="73"/>
-      <c r="AD9" s="73"/>
-      <c r="AE9" s="73"/>
-      <c r="AF9" s="73"/>
-      <c r="AG9" s="73"/>
-      <c r="AH9" s="73"/>
-      <c r="AI9" s="73"/>
-      <c r="AJ9" s="73"/>
-      <c r="AK9" s="73"/>
-      <c r="AL9" s="73"/>
-      <c r="AM9" s="73"/>
-      <c r="AN9" s="73"/>
-      <c r="AO9" s="73"/>
-      <c r="AP9" s="73"/>
-      <c r="AQ9" s="73"/>
-      <c r="AR9" s="73"/>
-      <c r="AS9" s="73"/>
-      <c r="AT9" s="73"/>
-      <c r="AU9" s="73"/>
-      <c r="AV9" s="73"/>
+      <c r="L9" s="71"/>
+      <c r="M9" s="71"/>
+      <c r="N9" s="71"/>
+      <c r="O9" s="71"/>
+      <c r="P9" s="71"/>
+      <c r="Q9" s="71"/>
+      <c r="R9" s="71"/>
+      <c r="S9" s="71"/>
+      <c r="T9" s="71"/>
+      <c r="U9" s="71"/>
+      <c r="V9" s="71"/>
+      <c r="W9" s="71"/>
+      <c r="X9" s="71"/>
+      <c r="Y9" s="71"/>
+      <c r="Z9" s="71"/>
+      <c r="AA9" s="71"/>
+      <c r="AB9" s="71"/>
+      <c r="AC9" s="71"/>
+      <c r="AD9" s="71"/>
+      <c r="AE9" s="71"/>
+      <c r="AF9" s="71"/>
+      <c r="AG9" s="71"/>
+      <c r="AH9" s="71"/>
+      <c r="AI9" s="71"/>
+      <c r="AJ9" s="71"/>
+      <c r="AK9" s="71"/>
+      <c r="AL9" s="71"/>
+      <c r="AM9" s="71"/>
+      <c r="AN9" s="71"/>
+      <c r="AO9" s="71"/>
+      <c r="AP9" s="71"/>
+      <c r="AQ9" s="71"/>
+      <c r="AR9" s="71"/>
+      <c r="AS9" s="71"/>
+      <c r="AT9" s="71"/>
+      <c r="AU9" s="71"/>
+      <c r="AV9" s="71"/>
       <c r="AW9" s="36"/>
       <c r="AX9" s="36"/>
       <c r="AY9" s="36"/>
@@ -2700,69 +2733,68 @@
       <c r="BL9" s="36"/>
     </row>
     <row r="10" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="75" t="s">
+      <c r="A10" s="74"/>
+      <c r="B10" s="87" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="89" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="47" t="s">
-        <v>20</v>
+      <c r="C10" s="45" t="s">
+        <v>75</v>
       </c>
       <c r="D10" s="20">
-        <v>1</v>
-      </c>
-      <c r="E10" s="77">
+        <v>0.9</v>
+      </c>
+      <c r="E10" s="75">
         <v>44478</v>
       </c>
-      <c r="F10" s="77">
-        <v>44480</v>
+      <c r="F10" s="75">
+        <f>E10+5</f>
+        <v>44483</v>
       </c>
       <c r="G10" s="17"/>
       <c r="H10" s="17">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I10" s="36"/>
       <c r="J10" s="36"/>
       <c r="K10" s="36"/>
-      <c r="L10" s="73"/>
-      <c r="M10" s="73"/>
-      <c r="N10" s="73"/>
-      <c r="O10" s="73"/>
-      <c r="P10" s="73"/>
-      <c r="Q10" s="73"/>
-      <c r="R10" s="73"/>
-      <c r="S10" s="73"/>
-      <c r="T10" s="73"/>
-      <c r="U10" s="73"/>
-      <c r="V10" s="73"/>
-      <c r="W10" s="73"/>
-      <c r="X10" s="73"/>
-      <c r="Y10" s="73"/>
-      <c r="Z10" s="73"/>
-      <c r="AA10" s="73"/>
-      <c r="AB10" s="73"/>
-      <c r="AC10" s="73"/>
-      <c r="AD10" s="73"/>
-      <c r="AE10" s="73"/>
-      <c r="AF10" s="73"/>
-      <c r="AG10" s="73"/>
-      <c r="AH10" s="73"/>
-      <c r="AI10" s="73"/>
-      <c r="AJ10" s="73"/>
-      <c r="AK10" s="73"/>
-      <c r="AL10" s="73"/>
-      <c r="AM10" s="73"/>
-      <c r="AN10" s="73"/>
-      <c r="AO10" s="73"/>
-      <c r="AP10" s="73"/>
-      <c r="AQ10" s="73"/>
-      <c r="AR10" s="73"/>
-      <c r="AS10" s="73"/>
-      <c r="AT10" s="73"/>
-      <c r="AU10" s="73"/>
-      <c r="AV10" s="73"/>
+      <c r="L10" s="71"/>
+      <c r="M10" s="71"/>
+      <c r="N10" s="71"/>
+      <c r="O10" s="71"/>
+      <c r="P10" s="71"/>
+      <c r="Q10" s="71"/>
+      <c r="R10" s="71"/>
+      <c r="S10" s="71"/>
+      <c r="T10" s="71"/>
+      <c r="U10" s="71"/>
+      <c r="V10" s="71"/>
+      <c r="W10" s="71"/>
+      <c r="X10" s="71"/>
+      <c r="Y10" s="71"/>
+      <c r="Z10" s="71"/>
+      <c r="AA10" s="71"/>
+      <c r="AB10" s="71"/>
+      <c r="AC10" s="71"/>
+      <c r="AD10" s="71"/>
+      <c r="AE10" s="71"/>
+      <c r="AF10" s="71"/>
+      <c r="AG10" s="71"/>
+      <c r="AH10" s="71"/>
+      <c r="AI10" s="71"/>
+      <c r="AJ10" s="71"/>
+      <c r="AK10" s="71"/>
+      <c r="AL10" s="71"/>
+      <c r="AM10" s="71"/>
+      <c r="AN10" s="71"/>
+      <c r="AO10" s="71"/>
+      <c r="AP10" s="71"/>
+      <c r="AQ10" s="71"/>
+      <c r="AR10" s="71"/>
+      <c r="AS10" s="71"/>
+      <c r="AT10" s="71"/>
+      <c r="AU10" s="71"/>
+      <c r="AV10" s="71"/>
       <c r="AW10" s="36"/>
       <c r="AX10" s="36"/>
       <c r="AY10" s="36"/>
@@ -2781,68 +2813,67 @@
       <c r="BL10" s="36"/>
     </row>
     <row r="11" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="76"/>
-      <c r="B11" s="89" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="47" t="s">
-        <v>78</v>
+      <c r="A11" s="74"/>
+      <c r="B11" s="87" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="45" t="s">
+        <v>75</v>
       </c>
       <c r="D11" s="20">
-        <v>0.9</v>
-      </c>
-      <c r="E11" s="77">
-        <v>44478</v>
-      </c>
-      <c r="F11" s="77">
-        <f>E11+5</f>
-        <v>44483</v>
+        <v>1</v>
+      </c>
+      <c r="E11" s="75">
+        <v>44480</v>
+      </c>
+      <c r="F11" s="75">
+        <v>44482</v>
       </c>
       <c r="G11" s="17"/>
       <c r="H11" s="17">
         <f t="shared" si="6"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I11" s="36"/>
       <c r="J11" s="36"/>
       <c r="K11" s="36"/>
-      <c r="L11" s="73"/>
-      <c r="M11" s="73"/>
-      <c r="N11" s="73"/>
-      <c r="O11" s="73"/>
-      <c r="P11" s="73"/>
-      <c r="Q11" s="73"/>
-      <c r="R11" s="73"/>
-      <c r="S11" s="73"/>
-      <c r="T11" s="73"/>
-      <c r="U11" s="73"/>
-      <c r="V11" s="73"/>
-      <c r="W11" s="73"/>
-      <c r="X11" s="73"/>
-      <c r="Y11" s="73"/>
-      <c r="Z11" s="73"/>
-      <c r="AA11" s="73"/>
-      <c r="AB11" s="73"/>
-      <c r="AC11" s="73"/>
-      <c r="AD11" s="73"/>
-      <c r="AE11" s="73"/>
-      <c r="AF11" s="73"/>
-      <c r="AG11" s="73"/>
-      <c r="AH11" s="73"/>
-      <c r="AI11" s="73"/>
-      <c r="AJ11" s="73"/>
-      <c r="AK11" s="73"/>
-      <c r="AL11" s="73"/>
-      <c r="AM11" s="73"/>
-      <c r="AN11" s="73"/>
-      <c r="AO11" s="73"/>
-      <c r="AP11" s="73"/>
-      <c r="AQ11" s="73"/>
-      <c r="AR11" s="73"/>
-      <c r="AS11" s="73"/>
-      <c r="AT11" s="73"/>
-      <c r="AU11" s="73"/>
-      <c r="AV11" s="73"/>
+      <c r="L11" s="71"/>
+      <c r="M11" s="71"/>
+      <c r="N11" s="71"/>
+      <c r="O11" s="71"/>
+      <c r="P11" s="71"/>
+      <c r="Q11" s="71"/>
+      <c r="R11" s="71"/>
+      <c r="S11" s="71"/>
+      <c r="T11" s="71"/>
+      <c r="U11" s="71"/>
+      <c r="V11" s="71"/>
+      <c r="W11" s="71"/>
+      <c r="X11" s="71"/>
+      <c r="Y11" s="72"/>
+      <c r="Z11" s="71"/>
+      <c r="AA11" s="71"/>
+      <c r="AB11" s="71"/>
+      <c r="AC11" s="71"/>
+      <c r="AD11" s="71"/>
+      <c r="AE11" s="71"/>
+      <c r="AF11" s="71"/>
+      <c r="AG11" s="71"/>
+      <c r="AH11" s="71"/>
+      <c r="AI11" s="71"/>
+      <c r="AJ11" s="71"/>
+      <c r="AK11" s="71"/>
+      <c r="AL11" s="71"/>
+      <c r="AM11" s="71"/>
+      <c r="AN11" s="71"/>
+      <c r="AO11" s="71"/>
+      <c r="AP11" s="71"/>
+      <c r="AQ11" s="71"/>
+      <c r="AR11" s="71"/>
+      <c r="AS11" s="71"/>
+      <c r="AT11" s="71"/>
+      <c r="AU11" s="71"/>
+      <c r="AV11" s="71"/>
       <c r="AW11" s="36"/>
       <c r="AX11" s="36"/>
       <c r="AY11" s="36"/>
@@ -2861,67 +2892,64 @@
       <c r="BL11" s="36"/>
     </row>
     <row r="12" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="76"/>
-      <c r="B12" s="89" t="s">
-        <v>69</v>
-      </c>
-      <c r="C12" s="47" t="s">
-        <v>78</v>
+      <c r="A12" s="74"/>
+      <c r="B12" s="87" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" s="45" t="s">
+        <v>72</v>
       </c>
       <c r="D12" s="20">
         <v>1</v>
       </c>
-      <c r="E12" s="77">
+      <c r="E12" s="75">
         <v>44480</v>
       </c>
-      <c r="F12" s="77">
+      <c r="F12" s="75">
         <v>44482</v>
       </c>
       <c r="G12" s="17"/>
-      <c r="H12" s="17">
-        <f t="shared" si="6"/>
-        <v>3</v>
-      </c>
+      <c r="H12" s="17"/>
       <c r="I12" s="36"/>
       <c r="J12" s="36"/>
       <c r="K12" s="36"/>
-      <c r="L12" s="73"/>
-      <c r="M12" s="73"/>
-      <c r="N12" s="73"/>
-      <c r="O12" s="73"/>
-      <c r="P12" s="73"/>
-      <c r="Q12" s="73"/>
-      <c r="R12" s="73"/>
-      <c r="S12" s="73"/>
-      <c r="T12" s="73"/>
-      <c r="U12" s="73"/>
-      <c r="V12" s="73"/>
-      <c r="W12" s="73"/>
-      <c r="X12" s="73"/>
-      <c r="Y12" s="74"/>
-      <c r="Z12" s="73"/>
-      <c r="AA12" s="73"/>
-      <c r="AB12" s="73"/>
-      <c r="AC12" s="73"/>
-      <c r="AD12" s="73"/>
-      <c r="AE12" s="73"/>
-      <c r="AF12" s="73"/>
-      <c r="AG12" s="73"/>
-      <c r="AH12" s="73"/>
-      <c r="AI12" s="73"/>
-      <c r="AJ12" s="73"/>
-      <c r="AK12" s="73"/>
-      <c r="AL12" s="73"/>
-      <c r="AM12" s="73"/>
-      <c r="AN12" s="73"/>
-      <c r="AO12" s="73"/>
-      <c r="AP12" s="73"/>
-      <c r="AQ12" s="73"/>
-      <c r="AR12" s="73"/>
-      <c r="AS12" s="73"/>
-      <c r="AT12" s="73"/>
-      <c r="AU12" s="73"/>
-      <c r="AV12" s="73"/>
+      <c r="L12" s="71"/>
+      <c r="M12" s="71"/>
+      <c r="N12" s="71"/>
+      <c r="O12" s="71"/>
+      <c r="P12" s="71"/>
+      <c r="Q12" s="71"/>
+      <c r="R12" s="71"/>
+      <c r="S12" s="71"/>
+      <c r="T12" s="71"/>
+      <c r="U12" s="71"/>
+      <c r="V12" s="71"/>
+      <c r="W12" s="71"/>
+      <c r="X12" s="71"/>
+      <c r="Y12" s="72"/>
+      <c r="Z12" s="71"/>
+      <c r="AA12" s="71"/>
+      <c r="AB12" s="71"/>
+      <c r="AC12" s="71"/>
+      <c r="AD12" s="71"/>
+      <c r="AE12" s="71"/>
+      <c r="AF12" s="71"/>
+      <c r="AG12" s="71"/>
+      <c r="AH12" s="71"/>
+      <c r="AI12" s="71"/>
+      <c r="AJ12" s="71"/>
+      <c r="AK12" s="71"/>
+      <c r="AL12" s="71"/>
+      <c r="AM12" s="71"/>
+      <c r="AN12" s="71"/>
+      <c r="AO12" s="71"/>
+      <c r="AP12" s="71"/>
+      <c r="AQ12" s="71"/>
+      <c r="AR12" s="71"/>
+      <c r="AS12" s="71"/>
+      <c r="AT12" s="71"/>
+      <c r="AU12" s="71"/>
+      <c r="AV12" s="71"/>
       <c r="AW12" s="36"/>
       <c r="AX12" s="36"/>
       <c r="AY12" s="36"/>
@@ -2940,64 +2968,64 @@
       <c r="BL12" s="36"/>
     </row>
     <row r="13" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="76"/>
-      <c r="B13" s="89" t="s">
-        <v>70</v>
-      </c>
-      <c r="C13" s="47" t="s">
-        <v>75</v>
+      <c r="A13" s="74"/>
+      <c r="B13" s="87" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" s="45" t="s">
+        <v>17</v>
       </c>
       <c r="D13" s="20">
-        <v>0.8</v>
-      </c>
-      <c r="E13" s="77">
-        <v>44480</v>
-      </c>
-      <c r="F13" s="77">
-        <v>44482</v>
+        <v>1</v>
+      </c>
+      <c r="E13" s="75">
+        <v>44481</v>
+      </c>
+      <c r="F13" s="75">
+        <v>44483</v>
       </c>
       <c r="G13" s="17"/>
       <c r="H13" s="17"/>
       <c r="I13" s="36"/>
       <c r="J13" s="36"/>
       <c r="K13" s="36"/>
-      <c r="L13" s="73"/>
-      <c r="M13" s="73"/>
-      <c r="N13" s="73"/>
-      <c r="O13" s="73"/>
-      <c r="P13" s="73"/>
-      <c r="Q13" s="73"/>
-      <c r="R13" s="73"/>
-      <c r="S13" s="73"/>
-      <c r="T13" s="73"/>
-      <c r="U13" s="73"/>
-      <c r="V13" s="73"/>
-      <c r="W13" s="73"/>
-      <c r="X13" s="73"/>
-      <c r="Y13" s="74"/>
-      <c r="Z13" s="73"/>
-      <c r="AA13" s="73"/>
-      <c r="AB13" s="73"/>
-      <c r="AC13" s="73"/>
-      <c r="AD13" s="73"/>
-      <c r="AE13" s="73"/>
-      <c r="AF13" s="73"/>
-      <c r="AG13" s="73"/>
-      <c r="AH13" s="73"/>
-      <c r="AI13" s="73"/>
-      <c r="AJ13" s="73"/>
-      <c r="AK13" s="73"/>
-      <c r="AL13" s="73"/>
-      <c r="AM13" s="73"/>
-      <c r="AN13" s="73"/>
-      <c r="AO13" s="73"/>
-      <c r="AP13" s="73"/>
-      <c r="AQ13" s="73"/>
-      <c r="AR13" s="73"/>
-      <c r="AS13" s="73"/>
-      <c r="AT13" s="73"/>
-      <c r="AU13" s="73"/>
-      <c r="AV13" s="73"/>
+      <c r="L13" s="71"/>
+      <c r="M13" s="71"/>
+      <c r="N13" s="71"/>
+      <c r="O13" s="71"/>
+      <c r="P13" s="71"/>
+      <c r="Q13" s="71"/>
+      <c r="R13" s="71"/>
+      <c r="S13" s="71"/>
+      <c r="T13" s="71"/>
+      <c r="U13" s="71"/>
+      <c r="V13" s="71"/>
+      <c r="W13" s="71"/>
+      <c r="X13" s="71"/>
+      <c r="Y13" s="72"/>
+      <c r="Z13" s="71"/>
+      <c r="AA13" s="71"/>
+      <c r="AB13" s="71"/>
+      <c r="AC13" s="71"/>
+      <c r="AD13" s="71"/>
+      <c r="AE13" s="71"/>
+      <c r="AF13" s="71"/>
+      <c r="AG13" s="71"/>
+      <c r="AH13" s="71"/>
+      <c r="AI13" s="71"/>
+      <c r="AJ13" s="71"/>
+      <c r="AK13" s="71"/>
+      <c r="AL13" s="71"/>
+      <c r="AM13" s="71"/>
+      <c r="AN13" s="71"/>
+      <c r="AO13" s="71"/>
+      <c r="AP13" s="71"/>
+      <c r="AQ13" s="71"/>
+      <c r="AR13" s="71"/>
+      <c r="AS13" s="71"/>
+      <c r="AT13" s="71"/>
+      <c r="AU13" s="71"/>
+      <c r="AV13" s="71"/>
       <c r="AW13" s="36"/>
       <c r="AX13" s="36"/>
       <c r="AY13" s="36"/>
@@ -3016,64 +3044,64 @@
       <c r="BL13" s="36"/>
     </row>
     <row r="14" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="76"/>
-      <c r="B14" s="89" t="s">
-        <v>77</v>
-      </c>
-      <c r="C14" s="47" t="s">
-        <v>20</v>
+      <c r="A14" s="74"/>
+      <c r="B14" s="87" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" s="45" t="s">
+        <v>22</v>
       </c>
       <c r="D14" s="20">
-        <v>1</v>
-      </c>
-      <c r="E14" s="77">
-        <v>44481</v>
-      </c>
-      <c r="F14" s="77">
-        <v>44483</v>
+        <v>0</v>
+      </c>
+      <c r="E14" s="75">
+        <v>44485</v>
+      </c>
+      <c r="F14" s="75">
+        <v>44488</v>
       </c>
       <c r="G14" s="17"/>
       <c r="H14" s="17"/>
       <c r="I14" s="36"/>
       <c r="J14" s="36"/>
       <c r="K14" s="36"/>
-      <c r="L14" s="73"/>
-      <c r="M14" s="73"/>
-      <c r="N14" s="73"/>
-      <c r="O14" s="73"/>
-      <c r="P14" s="73"/>
-      <c r="Q14" s="73"/>
-      <c r="R14" s="73"/>
-      <c r="S14" s="73"/>
-      <c r="T14" s="73"/>
-      <c r="U14" s="73"/>
-      <c r="V14" s="73"/>
-      <c r="W14" s="73"/>
-      <c r="X14" s="73"/>
-      <c r="Y14" s="74"/>
-      <c r="Z14" s="73"/>
-      <c r="AA14" s="73"/>
-      <c r="AB14" s="73"/>
-      <c r="AC14" s="73"/>
-      <c r="AD14" s="73"/>
-      <c r="AE14" s="73"/>
-      <c r="AF14" s="73"/>
-      <c r="AG14" s="73"/>
-      <c r="AH14" s="73"/>
-      <c r="AI14" s="73"/>
-      <c r="AJ14" s="73"/>
-      <c r="AK14" s="73"/>
-      <c r="AL14" s="73"/>
-      <c r="AM14" s="73"/>
-      <c r="AN14" s="73"/>
-      <c r="AO14" s="73"/>
-      <c r="AP14" s="73"/>
-      <c r="AQ14" s="73"/>
-      <c r="AR14" s="73"/>
-      <c r="AS14" s="73"/>
-      <c r="AT14" s="73"/>
-      <c r="AU14" s="73"/>
-      <c r="AV14" s="73"/>
+      <c r="L14" s="71"/>
+      <c r="M14" s="71"/>
+      <c r="N14" s="71"/>
+      <c r="O14" s="71"/>
+      <c r="P14" s="71"/>
+      <c r="Q14" s="71"/>
+      <c r="R14" s="71"/>
+      <c r="S14" s="71"/>
+      <c r="T14" s="71"/>
+      <c r="U14" s="71"/>
+      <c r="V14" s="71"/>
+      <c r="W14" s="71"/>
+      <c r="X14" s="71"/>
+      <c r="Y14" s="72"/>
+      <c r="Z14" s="71"/>
+      <c r="AA14" s="71"/>
+      <c r="AB14" s="71"/>
+      <c r="AC14" s="71"/>
+      <c r="AD14" s="71"/>
+      <c r="AE14" s="71"/>
+      <c r="AF14" s="71"/>
+      <c r="AG14" s="71"/>
+      <c r="AH14" s="71"/>
+      <c r="AI14" s="71"/>
+      <c r="AJ14" s="71"/>
+      <c r="AK14" s="71"/>
+      <c r="AL14" s="71"/>
+      <c r="AM14" s="71"/>
+      <c r="AN14" s="71"/>
+      <c r="AO14" s="71"/>
+      <c r="AP14" s="71"/>
+      <c r="AQ14" s="71"/>
+      <c r="AR14" s="71"/>
+      <c r="AS14" s="71"/>
+      <c r="AT14" s="71"/>
+      <c r="AU14" s="71"/>
+      <c r="AV14" s="71"/>
       <c r="AW14" s="36"/>
       <c r="AX14" s="36"/>
       <c r="AY14" s="36"/>
@@ -3092,64 +3120,64 @@
       <c r="BL14" s="36"/>
     </row>
     <row r="15" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="76"/>
-      <c r="B15" s="89" t="s">
-        <v>74</v>
-      </c>
-      <c r="C15" s="47" t="s">
-        <v>25</v>
+      <c r="A15" s="74"/>
+      <c r="B15" s="87" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" s="45" t="s">
+        <v>79</v>
       </c>
       <c r="D15" s="20">
         <v>0</v>
       </c>
-      <c r="E15" s="77">
+      <c r="E15" s="75">
         <v>44485</v>
       </c>
-      <c r="F15" s="77">
-        <v>44487</v>
+      <c r="F15" s="75">
+        <v>44488</v>
       </c>
       <c r="G15" s="17"/>
       <c r="H15" s="17"/>
       <c r="I15" s="36"/>
       <c r="J15" s="36"/>
       <c r="K15" s="36"/>
-      <c r="L15" s="73"/>
-      <c r="M15" s="73"/>
-      <c r="N15" s="73"/>
-      <c r="O15" s="73"/>
-      <c r="P15" s="73"/>
-      <c r="Q15" s="73"/>
-      <c r="R15" s="73"/>
-      <c r="S15" s="73"/>
-      <c r="T15" s="73"/>
-      <c r="U15" s="73"/>
-      <c r="V15" s="73"/>
-      <c r="W15" s="73"/>
-      <c r="X15" s="73"/>
-      <c r="Y15" s="74"/>
-      <c r="Z15" s="73"/>
-      <c r="AA15" s="73"/>
-      <c r="AB15" s="73"/>
-      <c r="AC15" s="73"/>
-      <c r="AD15" s="73"/>
-      <c r="AE15" s="73"/>
-      <c r="AF15" s="73"/>
-      <c r="AG15" s="73"/>
-      <c r="AH15" s="73"/>
-      <c r="AI15" s="73"/>
-      <c r="AJ15" s="73"/>
-      <c r="AK15" s="73"/>
-      <c r="AL15" s="73"/>
-      <c r="AM15" s="73"/>
-      <c r="AN15" s="73"/>
-      <c r="AO15" s="73"/>
-      <c r="AP15" s="73"/>
-      <c r="AQ15" s="73"/>
-      <c r="AR15" s="73"/>
-      <c r="AS15" s="73"/>
-      <c r="AT15" s="73"/>
-      <c r="AU15" s="73"/>
-      <c r="AV15" s="73"/>
+      <c r="L15" s="71"/>
+      <c r="M15" s="71"/>
+      <c r="N15" s="71"/>
+      <c r="O15" s="71"/>
+      <c r="P15" s="71"/>
+      <c r="Q15" s="71"/>
+      <c r="R15" s="71"/>
+      <c r="S15" s="71"/>
+      <c r="T15" s="71"/>
+      <c r="U15" s="71"/>
+      <c r="V15" s="71"/>
+      <c r="W15" s="71"/>
+      <c r="X15" s="71"/>
+      <c r="Y15" s="72"/>
+      <c r="Z15" s="71"/>
+      <c r="AA15" s="71"/>
+      <c r="AB15" s="71"/>
+      <c r="AC15" s="71"/>
+      <c r="AD15" s="71"/>
+      <c r="AE15" s="71"/>
+      <c r="AF15" s="71"/>
+      <c r="AG15" s="71"/>
+      <c r="AH15" s="71"/>
+      <c r="AI15" s="71"/>
+      <c r="AJ15" s="71"/>
+      <c r="AK15" s="71"/>
+      <c r="AL15" s="71"/>
+      <c r="AM15" s="71"/>
+      <c r="AN15" s="71"/>
+      <c r="AO15" s="71"/>
+      <c r="AP15" s="71"/>
+      <c r="AQ15" s="71"/>
+      <c r="AR15" s="71"/>
+      <c r="AS15" s="71"/>
+      <c r="AT15" s="71"/>
+      <c r="AU15" s="71"/>
+      <c r="AV15" s="71"/>
       <c r="AW15" s="36"/>
       <c r="AX15" s="36"/>
       <c r="AY15" s="36"/>
@@ -3168,64 +3196,64 @@
       <c r="BL15" s="36"/>
     </row>
     <row r="16" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="76"/>
-      <c r="B16" s="90" t="s">
-        <v>88</v>
-      </c>
-      <c r="C16" s="47" t="s">
-        <v>87</v>
+      <c r="A16" s="74"/>
+      <c r="B16" s="87" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" s="45" t="s">
+        <v>20</v>
       </c>
       <c r="D16" s="20">
         <v>0</v>
       </c>
-      <c r="E16" s="77">
+      <c r="E16" s="75">
         <v>44485</v>
       </c>
-      <c r="F16" s="77">
-        <v>44487</v>
+      <c r="F16" s="75">
+        <v>44488</v>
       </c>
       <c r="G16" s="17"/>
       <c r="H16" s="17"/>
       <c r="I16" s="36"/>
       <c r="J16" s="36"/>
       <c r="K16" s="36"/>
-      <c r="L16" s="73"/>
-      <c r="M16" s="73"/>
-      <c r="N16" s="73"/>
-      <c r="O16" s="73"/>
-      <c r="P16" s="73"/>
-      <c r="Q16" s="73"/>
-      <c r="R16" s="73"/>
-      <c r="S16" s="73"/>
-      <c r="T16" s="73"/>
-      <c r="U16" s="73"/>
-      <c r="V16" s="73"/>
-      <c r="W16" s="73"/>
-      <c r="X16" s="73"/>
-      <c r="Y16" s="74"/>
-      <c r="Z16" s="73"/>
-      <c r="AA16" s="73"/>
-      <c r="AB16" s="73"/>
-      <c r="AC16" s="73"/>
-      <c r="AD16" s="73"/>
-      <c r="AE16" s="73"/>
-      <c r="AF16" s="73"/>
-      <c r="AG16" s="73"/>
-      <c r="AH16" s="73"/>
-      <c r="AI16" s="73"/>
-      <c r="AJ16" s="73"/>
-      <c r="AK16" s="73"/>
-      <c r="AL16" s="73"/>
-      <c r="AM16" s="73"/>
-      <c r="AN16" s="73"/>
-      <c r="AO16" s="73"/>
-      <c r="AP16" s="73"/>
-      <c r="AQ16" s="73"/>
-      <c r="AR16" s="73"/>
-      <c r="AS16" s="73"/>
-      <c r="AT16" s="73"/>
-      <c r="AU16" s="73"/>
-      <c r="AV16" s="73"/>
+      <c r="L16" s="71"/>
+      <c r="M16" s="71"/>
+      <c r="N16" s="71"/>
+      <c r="O16" s="71"/>
+      <c r="P16" s="71"/>
+      <c r="Q16" s="71"/>
+      <c r="R16" s="71"/>
+      <c r="S16" s="71"/>
+      <c r="T16" s="71"/>
+      <c r="U16" s="71"/>
+      <c r="V16" s="71"/>
+      <c r="W16" s="71"/>
+      <c r="X16" s="71"/>
+      <c r="Y16" s="72"/>
+      <c r="Z16" s="71"/>
+      <c r="AA16" s="71"/>
+      <c r="AB16" s="71"/>
+      <c r="AC16" s="71"/>
+      <c r="AD16" s="71"/>
+      <c r="AE16" s="71"/>
+      <c r="AF16" s="71"/>
+      <c r="AG16" s="71"/>
+      <c r="AH16" s="71"/>
+      <c r="AI16" s="71"/>
+      <c r="AJ16" s="71"/>
+      <c r="AK16" s="71"/>
+      <c r="AL16" s="71"/>
+      <c r="AM16" s="71"/>
+      <c r="AN16" s="71"/>
+      <c r="AO16" s="71"/>
+      <c r="AP16" s="71"/>
+      <c r="AQ16" s="71"/>
+      <c r="AR16" s="71"/>
+      <c r="AS16" s="71"/>
+      <c r="AT16" s="71"/>
+      <c r="AU16" s="71"/>
+      <c r="AV16" s="71"/>
       <c r="AW16" s="36"/>
       <c r="AX16" s="36"/>
       <c r="AY16" s="36"/>
@@ -3244,64 +3272,64 @@
       <c r="BL16" s="36"/>
     </row>
     <row r="17" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="76"/>
-      <c r="B17" s="89" t="s">
+      <c r="A17" s="74"/>
+      <c r="B17" s="87" t="s">
         <v>76</v>
       </c>
-      <c r="C17" s="47" t="s">
-        <v>23</v>
+      <c r="C17" s="45" t="s">
+        <v>17</v>
       </c>
       <c r="D17" s="20">
         <v>0</v>
       </c>
-      <c r="E17" s="77">
-        <v>44485</v>
-      </c>
-      <c r="F17" s="77">
-        <v>44487</v>
+      <c r="E17" s="75">
+        <v>44488</v>
+      </c>
+      <c r="F17" s="75">
+        <v>44490</v>
       </c>
       <c r="G17" s="17"/>
       <c r="H17" s="17"/>
       <c r="I17" s="36"/>
       <c r="J17" s="36"/>
       <c r="K17" s="36"/>
-      <c r="L17" s="73"/>
-      <c r="M17" s="73"/>
-      <c r="N17" s="73"/>
-      <c r="O17" s="73"/>
-      <c r="P17" s="73"/>
-      <c r="Q17" s="73"/>
-      <c r="R17" s="73"/>
-      <c r="S17" s="73"/>
-      <c r="T17" s="73"/>
-      <c r="U17" s="73"/>
-      <c r="V17" s="73"/>
-      <c r="W17" s="73"/>
-      <c r="X17" s="73"/>
-      <c r="Y17" s="74"/>
-      <c r="Z17" s="73"/>
-      <c r="AA17" s="73"/>
-      <c r="AB17" s="73"/>
-      <c r="AC17" s="73"/>
-      <c r="AD17" s="73"/>
-      <c r="AE17" s="73"/>
-      <c r="AF17" s="73"/>
-      <c r="AG17" s="73"/>
-      <c r="AH17" s="73"/>
-      <c r="AI17" s="73"/>
-      <c r="AJ17" s="73"/>
-      <c r="AK17" s="73"/>
-      <c r="AL17" s="73"/>
-      <c r="AM17" s="73"/>
-      <c r="AN17" s="73"/>
-      <c r="AO17" s="73"/>
-      <c r="AP17" s="73"/>
-      <c r="AQ17" s="73"/>
-      <c r="AR17" s="73"/>
-      <c r="AS17" s="73"/>
-      <c r="AT17" s="73"/>
-      <c r="AU17" s="73"/>
-      <c r="AV17" s="73"/>
+      <c r="L17" s="71"/>
+      <c r="M17" s="71"/>
+      <c r="N17" s="71"/>
+      <c r="O17" s="71"/>
+      <c r="P17" s="71"/>
+      <c r="Q17" s="71"/>
+      <c r="R17" s="71"/>
+      <c r="S17" s="71"/>
+      <c r="T17" s="71"/>
+      <c r="U17" s="71"/>
+      <c r="V17" s="71"/>
+      <c r="W17" s="71"/>
+      <c r="X17" s="71"/>
+      <c r="Y17" s="72"/>
+      <c r="Z17" s="71"/>
+      <c r="AA17" s="71"/>
+      <c r="AB17" s="71"/>
+      <c r="AC17" s="71"/>
+      <c r="AD17" s="71"/>
+      <c r="AE17" s="71"/>
+      <c r="AF17" s="71"/>
+      <c r="AG17" s="71"/>
+      <c r="AH17" s="71"/>
+      <c r="AI17" s="71"/>
+      <c r="AJ17" s="71"/>
+      <c r="AK17" s="71"/>
+      <c r="AL17" s="71"/>
+      <c r="AM17" s="71"/>
+      <c r="AN17" s="71"/>
+      <c r="AO17" s="71"/>
+      <c r="AP17" s="71"/>
+      <c r="AQ17" s="71"/>
+      <c r="AR17" s="71"/>
+      <c r="AS17" s="71"/>
+      <c r="AT17" s="71"/>
+      <c r="AU17" s="71"/>
+      <c r="AV17" s="71"/>
       <c r="AW17" s="36"/>
       <c r="AX17" s="36"/>
       <c r="AY17" s="36"/>
@@ -3320,64 +3348,67 @@
       <c r="BL17" s="36"/>
     </row>
     <row r="18" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="76"/>
-      <c r="B18" s="89" t="s">
-        <v>79</v>
-      </c>
-      <c r="C18" s="47" t="s">
-        <v>20</v>
+      <c r="A18" s="74"/>
+      <c r="B18" s="87" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" s="45" t="s">
+        <v>22</v>
       </c>
       <c r="D18" s="20">
         <v>0</v>
       </c>
-      <c r="E18" s="77">
+      <c r="E18" s="75">
         <v>44488</v>
       </c>
-      <c r="F18" s="77">
-        <v>44489</v>
+      <c r="F18" s="75">
+        <v>44490</v>
       </c>
       <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
+      <c r="H18" s="17">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
       <c r="I18" s="36"/>
       <c r="J18" s="36"/>
       <c r="K18" s="36"/>
-      <c r="L18" s="73"/>
-      <c r="M18" s="73"/>
-      <c r="N18" s="73"/>
-      <c r="O18" s="73"/>
-      <c r="P18" s="73"/>
-      <c r="Q18" s="73"/>
-      <c r="R18" s="73"/>
-      <c r="S18" s="73"/>
-      <c r="T18" s="73"/>
-      <c r="U18" s="73"/>
-      <c r="V18" s="73"/>
-      <c r="W18" s="73"/>
-      <c r="X18" s="73"/>
-      <c r="Y18" s="74"/>
-      <c r="Z18" s="73"/>
-      <c r="AA18" s="73"/>
-      <c r="AB18" s="73"/>
-      <c r="AC18" s="73"/>
-      <c r="AD18" s="73"/>
-      <c r="AE18" s="73"/>
-      <c r="AF18" s="73"/>
-      <c r="AG18" s="73"/>
-      <c r="AH18" s="73"/>
-      <c r="AI18" s="73"/>
-      <c r="AJ18" s="73"/>
-      <c r="AK18" s="73"/>
-      <c r="AL18" s="73"/>
-      <c r="AM18" s="73"/>
-      <c r="AN18" s="73"/>
-      <c r="AO18" s="73"/>
-      <c r="AP18" s="73"/>
-      <c r="AQ18" s="73"/>
-      <c r="AR18" s="73"/>
-      <c r="AS18" s="73"/>
-      <c r="AT18" s="73"/>
-      <c r="AU18" s="73"/>
-      <c r="AV18" s="73"/>
+      <c r="L18" s="71"/>
+      <c r="M18" s="71"/>
+      <c r="N18" s="71"/>
+      <c r="O18" s="71"/>
+      <c r="P18" s="71"/>
+      <c r="Q18" s="71"/>
+      <c r="R18" s="71"/>
+      <c r="S18" s="71"/>
+      <c r="T18" s="71"/>
+      <c r="U18" s="71"/>
+      <c r="V18" s="71"/>
+      <c r="W18" s="71"/>
+      <c r="X18" s="71"/>
+      <c r="Y18" s="71"/>
+      <c r="Z18" s="71"/>
+      <c r="AA18" s="71"/>
+      <c r="AB18" s="71"/>
+      <c r="AC18" s="71"/>
+      <c r="AD18" s="71"/>
+      <c r="AE18" s="71"/>
+      <c r="AF18" s="71"/>
+      <c r="AG18" s="71"/>
+      <c r="AH18" s="71"/>
+      <c r="AI18" s="71"/>
+      <c r="AJ18" s="71"/>
+      <c r="AK18" s="71"/>
+      <c r="AL18" s="71"/>
+      <c r="AM18" s="71"/>
+      <c r="AN18" s="71"/>
+      <c r="AO18" s="71"/>
+      <c r="AP18" s="71"/>
+      <c r="AQ18" s="71"/>
+      <c r="AR18" s="71"/>
+      <c r="AS18" s="71"/>
+      <c r="AT18" s="71"/>
+      <c r="AU18" s="71"/>
+      <c r="AV18" s="71"/>
       <c r="AW18" s="36"/>
       <c r="AX18" s="36"/>
       <c r="AY18" s="36"/>
@@ -3396,67 +3427,62 @@
       <c r="BL18" s="36"/>
     </row>
     <row r="19" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="76"/>
-      <c r="B19" s="89" t="s">
-        <v>80</v>
-      </c>
-      <c r="C19" s="47" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" s="20">
-        <v>0</v>
-      </c>
-      <c r="E19" s="77">
-        <v>44488</v>
-      </c>
-      <c r="F19" s="77">
-        <v>44489</v>
+      <c r="A19" s="74"/>
+      <c r="B19" s="87" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="20"/>
+      <c r="E19" s="75">
+        <v>44490</v>
+      </c>
+      <c r="F19" s="75">
+        <v>44496</v>
       </c>
       <c r="G19" s="17"/>
-      <c r="H19" s="17">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
+      <c r="H19" s="17"/>
       <c r="I19" s="36"/>
       <c r="J19" s="36"/>
       <c r="K19" s="36"/>
-      <c r="L19" s="73"/>
-      <c r="M19" s="73"/>
-      <c r="N19" s="73"/>
-      <c r="O19" s="73"/>
-      <c r="P19" s="73"/>
-      <c r="Q19" s="73"/>
-      <c r="R19" s="73"/>
-      <c r="S19" s="73"/>
-      <c r="T19" s="73"/>
-      <c r="U19" s="73"/>
-      <c r="V19" s="73"/>
-      <c r="W19" s="73"/>
-      <c r="X19" s="73"/>
-      <c r="Y19" s="73"/>
-      <c r="Z19" s="73"/>
-      <c r="AA19" s="73"/>
-      <c r="AB19" s="73"/>
-      <c r="AC19" s="73"/>
-      <c r="AD19" s="73"/>
-      <c r="AE19" s="73"/>
-      <c r="AF19" s="73"/>
-      <c r="AG19" s="73"/>
-      <c r="AH19" s="73"/>
-      <c r="AI19" s="73"/>
-      <c r="AJ19" s="73"/>
-      <c r="AK19" s="73"/>
-      <c r="AL19" s="73"/>
-      <c r="AM19" s="73"/>
-      <c r="AN19" s="73"/>
-      <c r="AO19" s="73"/>
-      <c r="AP19" s="73"/>
-      <c r="AQ19" s="73"/>
-      <c r="AR19" s="73"/>
-      <c r="AS19" s="73"/>
-      <c r="AT19" s="73"/>
-      <c r="AU19" s="73"/>
-      <c r="AV19" s="73"/>
+      <c r="L19" s="71"/>
+      <c r="M19" s="71"/>
+      <c r="N19" s="71"/>
+      <c r="O19" s="71"/>
+      <c r="P19" s="71"/>
+      <c r="Q19" s="71"/>
+      <c r="R19" s="71"/>
+      <c r="S19" s="71"/>
+      <c r="T19" s="71"/>
+      <c r="U19" s="71"/>
+      <c r="V19" s="71"/>
+      <c r="W19" s="71"/>
+      <c r="X19" s="71"/>
+      <c r="Y19" s="71"/>
+      <c r="Z19" s="71"/>
+      <c r="AA19" s="71"/>
+      <c r="AB19" s="71"/>
+      <c r="AC19" s="71"/>
+      <c r="AD19" s="71"/>
+      <c r="AE19" s="71"/>
+      <c r="AF19" s="71"/>
+      <c r="AG19" s="71"/>
+      <c r="AH19" s="71"/>
+      <c r="AI19" s="71"/>
+      <c r="AJ19" s="71"/>
+      <c r="AK19" s="71"/>
+      <c r="AL19" s="71"/>
+      <c r="AM19" s="71"/>
+      <c r="AN19" s="71"/>
+      <c r="AO19" s="71"/>
+      <c r="AP19" s="71"/>
+      <c r="AQ19" s="71"/>
+      <c r="AR19" s="71"/>
+      <c r="AS19" s="71"/>
+      <c r="AT19" s="71"/>
+      <c r="AU19" s="71"/>
+      <c r="AV19" s="71"/>
       <c r="AW19" s="36"/>
       <c r="AX19" s="36"/>
       <c r="AY19" s="36"/>
@@ -3475,62 +3501,54 @@
       <c r="BL19" s="36"/>
     </row>
     <row r="20" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="76"/>
-      <c r="B20" s="89" t="s">
-        <v>85</v>
-      </c>
-      <c r="C20" s="47" t="s">
-        <v>20</v>
-      </c>
+      <c r="A20" s="74"/>
+      <c r="B20" s="87"/>
+      <c r="C20" s="45"/>
       <c r="D20" s="20"/>
-      <c r="E20" s="77">
-        <v>44490</v>
-      </c>
-      <c r="F20" s="77">
-        <v>44496</v>
-      </c>
+      <c r="E20" s="75"/>
+      <c r="F20" s="75"/>
       <c r="G20" s="17"/>
       <c r="H20" s="17"/>
       <c r="I20" s="36"/>
       <c r="J20" s="36"/>
       <c r="K20" s="36"/>
-      <c r="L20" s="73"/>
-      <c r="M20" s="73"/>
-      <c r="N20" s="73"/>
-      <c r="O20" s="73"/>
-      <c r="P20" s="73"/>
-      <c r="Q20" s="73"/>
-      <c r="R20" s="73"/>
-      <c r="S20" s="73"/>
-      <c r="T20" s="73"/>
-      <c r="U20" s="73"/>
-      <c r="V20" s="73"/>
-      <c r="W20" s="73"/>
-      <c r="X20" s="73"/>
-      <c r="Y20" s="73"/>
-      <c r="Z20" s="73"/>
-      <c r="AA20" s="73"/>
-      <c r="AB20" s="73"/>
-      <c r="AC20" s="73"/>
-      <c r="AD20" s="73"/>
-      <c r="AE20" s="73"/>
-      <c r="AF20" s="73"/>
-      <c r="AG20" s="73"/>
-      <c r="AH20" s="73"/>
-      <c r="AI20" s="73"/>
-      <c r="AJ20" s="73"/>
-      <c r="AK20" s="73"/>
-      <c r="AL20" s="73"/>
-      <c r="AM20" s="73"/>
-      <c r="AN20" s="73"/>
-      <c r="AO20" s="73"/>
-      <c r="AP20" s="73"/>
-      <c r="AQ20" s="73"/>
-      <c r="AR20" s="73"/>
-      <c r="AS20" s="73"/>
-      <c r="AT20" s="73"/>
-      <c r="AU20" s="73"/>
-      <c r="AV20" s="73"/>
+      <c r="L20" s="71"/>
+      <c r="M20" s="71"/>
+      <c r="N20" s="71"/>
+      <c r="O20" s="71"/>
+      <c r="P20" s="71"/>
+      <c r="Q20" s="71"/>
+      <c r="R20" s="71"/>
+      <c r="S20" s="71"/>
+      <c r="T20" s="71"/>
+      <c r="U20" s="71"/>
+      <c r="V20" s="71"/>
+      <c r="W20" s="71"/>
+      <c r="X20" s="71"/>
+      <c r="Y20" s="71"/>
+      <c r="Z20" s="71"/>
+      <c r="AA20" s="71"/>
+      <c r="AB20" s="71"/>
+      <c r="AC20" s="71"/>
+      <c r="AD20" s="71"/>
+      <c r="AE20" s="71"/>
+      <c r="AF20" s="71"/>
+      <c r="AG20" s="71"/>
+      <c r="AH20" s="71"/>
+      <c r="AI20" s="71"/>
+      <c r="AJ20" s="71"/>
+      <c r="AK20" s="71"/>
+      <c r="AL20" s="71"/>
+      <c r="AM20" s="71"/>
+      <c r="AN20" s="71"/>
+      <c r="AO20" s="71"/>
+      <c r="AP20" s="71"/>
+      <c r="AQ20" s="71"/>
+      <c r="AR20" s="71"/>
+      <c r="AS20" s="71"/>
+      <c r="AT20" s="71"/>
+      <c r="AU20" s="71"/>
+      <c r="AV20" s="71"/>
       <c r="AW20" s="36"/>
       <c r="AX20" s="36"/>
       <c r="AY20" s="36"/>
@@ -3549,56 +3567,54 @@
       <c r="BL20" s="36"/>
     </row>
     <row r="21" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="76"/>
-      <c r="B21" s="89" t="s">
-        <v>86</v>
-      </c>
-      <c r="C21" s="47"/>
+      <c r="A21" s="74"/>
+      <c r="B21" s="87"/>
+      <c r="C21" s="45"/>
       <c r="D21" s="20"/>
-      <c r="E21" s="77"/>
-      <c r="F21" s="77"/>
+      <c r="E21" s="75"/>
+      <c r="F21" s="75"/>
       <c r="G21" s="17"/>
       <c r="H21" s="17"/>
       <c r="I21" s="36"/>
       <c r="J21" s="36"/>
       <c r="K21" s="36"/>
-      <c r="L21" s="73"/>
-      <c r="M21" s="73"/>
-      <c r="N21" s="73"/>
-      <c r="O21" s="73"/>
-      <c r="P21" s="73"/>
-      <c r="Q21" s="73"/>
-      <c r="R21" s="73"/>
-      <c r="S21" s="73"/>
-      <c r="T21" s="73"/>
-      <c r="U21" s="73"/>
-      <c r="V21" s="73"/>
-      <c r="W21" s="73"/>
-      <c r="X21" s="73"/>
-      <c r="Y21" s="73"/>
-      <c r="Z21" s="73"/>
-      <c r="AA21" s="73"/>
-      <c r="AB21" s="73"/>
-      <c r="AC21" s="73"/>
-      <c r="AD21" s="73"/>
-      <c r="AE21" s="73"/>
-      <c r="AF21" s="73"/>
-      <c r="AG21" s="73"/>
-      <c r="AH21" s="73"/>
-      <c r="AI21" s="73"/>
-      <c r="AJ21" s="73"/>
-      <c r="AK21" s="73"/>
-      <c r="AL21" s="73"/>
-      <c r="AM21" s="73"/>
-      <c r="AN21" s="73"/>
-      <c r="AO21" s="73"/>
-      <c r="AP21" s="73"/>
-      <c r="AQ21" s="73"/>
-      <c r="AR21" s="73"/>
-      <c r="AS21" s="73"/>
-      <c r="AT21" s="73"/>
-      <c r="AU21" s="73"/>
-      <c r="AV21" s="73"/>
+      <c r="L21" s="71"/>
+      <c r="M21" s="71"/>
+      <c r="N21" s="71"/>
+      <c r="O21" s="71"/>
+      <c r="P21" s="71"/>
+      <c r="Q21" s="71"/>
+      <c r="R21" s="71"/>
+      <c r="S21" s="71"/>
+      <c r="T21" s="71"/>
+      <c r="U21" s="71"/>
+      <c r="V21" s="71"/>
+      <c r="W21" s="71"/>
+      <c r="X21" s="71"/>
+      <c r="Y21" s="71"/>
+      <c r="Z21" s="71"/>
+      <c r="AA21" s="71"/>
+      <c r="AB21" s="71"/>
+      <c r="AC21" s="71"/>
+      <c r="AD21" s="71"/>
+      <c r="AE21" s="71"/>
+      <c r="AF21" s="71"/>
+      <c r="AG21" s="71"/>
+      <c r="AH21" s="71"/>
+      <c r="AI21" s="71"/>
+      <c r="AJ21" s="71"/>
+      <c r="AK21" s="71"/>
+      <c r="AL21" s="71"/>
+      <c r="AM21" s="71"/>
+      <c r="AN21" s="71"/>
+      <c r="AO21" s="71"/>
+      <c r="AP21" s="71"/>
+      <c r="AQ21" s="71"/>
+      <c r="AR21" s="71"/>
+      <c r="AS21" s="71"/>
+      <c r="AT21" s="71"/>
+      <c r="AU21" s="71"/>
+      <c r="AV21" s="71"/>
       <c r="AW21" s="36"/>
       <c r="AX21" s="36"/>
       <c r="AY21" s="36"/>
@@ -3617,54 +3633,61 @@
       <c r="BL21" s="36"/>
     </row>
     <row r="22" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="76"/>
-      <c r="B22" s="89"/>
-      <c r="C22" s="47"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="77"/>
-      <c r="F22" s="77"/>
+      <c r="A22" s="73" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" s="46"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="78"/>
+      <c r="F22" s="79"/>
       <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
+      <c r="H22" s="17" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
       <c r="I22" s="36"/>
       <c r="J22" s="36"/>
       <c r="K22" s="36"/>
-      <c r="L22" s="73"/>
-      <c r="M22" s="73"/>
-      <c r="N22" s="73"/>
-      <c r="O22" s="73"/>
-      <c r="P22" s="73"/>
-      <c r="Q22" s="73"/>
-      <c r="R22" s="73"/>
-      <c r="S22" s="73"/>
-      <c r="T22" s="73"/>
-      <c r="U22" s="73"/>
-      <c r="V22" s="73"/>
-      <c r="W22" s="73"/>
-      <c r="X22" s="73"/>
-      <c r="Y22" s="73"/>
-      <c r="Z22" s="73"/>
-      <c r="AA22" s="73"/>
-      <c r="AB22" s="73"/>
-      <c r="AC22" s="73"/>
-      <c r="AD22" s="73"/>
-      <c r="AE22" s="73"/>
-      <c r="AF22" s="73"/>
-      <c r="AG22" s="73"/>
-      <c r="AH22" s="73"/>
-      <c r="AI22" s="73"/>
-      <c r="AJ22" s="73"/>
-      <c r="AK22" s="73"/>
-      <c r="AL22" s="73"/>
-      <c r="AM22" s="73"/>
-      <c r="AN22" s="73"/>
-      <c r="AO22" s="73"/>
-      <c r="AP22" s="73"/>
-      <c r="AQ22" s="73"/>
-      <c r="AR22" s="73"/>
-      <c r="AS22" s="73"/>
-      <c r="AT22" s="73"/>
-      <c r="AU22" s="73"/>
-      <c r="AV22" s="73"/>
+      <c r="L22" s="71"/>
+      <c r="M22" s="71"/>
+      <c r="N22" s="71"/>
+      <c r="O22" s="71"/>
+      <c r="P22" s="71"/>
+      <c r="Q22" s="71"/>
+      <c r="R22" s="71"/>
+      <c r="S22" s="71"/>
+      <c r="T22" s="71"/>
+      <c r="U22" s="71"/>
+      <c r="V22" s="71"/>
+      <c r="W22" s="71"/>
+      <c r="X22" s="71"/>
+      <c r="Y22" s="71"/>
+      <c r="Z22" s="71"/>
+      <c r="AA22" s="71"/>
+      <c r="AB22" s="71"/>
+      <c r="AC22" s="71"/>
+      <c r="AD22" s="71"/>
+      <c r="AE22" s="71"/>
+      <c r="AF22" s="71"/>
+      <c r="AG22" s="71"/>
+      <c r="AH22" s="71"/>
+      <c r="AI22" s="71"/>
+      <c r="AJ22" s="71"/>
+      <c r="AK22" s="71"/>
+      <c r="AL22" s="71"/>
+      <c r="AM22" s="71"/>
+      <c r="AN22" s="71"/>
+      <c r="AO22" s="71"/>
+      <c r="AP22" s="71"/>
+      <c r="AQ22" s="71"/>
+      <c r="AR22" s="71"/>
+      <c r="AS22" s="71"/>
+      <c r="AT22" s="71"/>
+      <c r="AU22" s="71"/>
+      <c r="AV22" s="71"/>
       <c r="AW22" s="36"/>
       <c r="AX22" s="36"/>
       <c r="AY22" s="36"/>
@@ -3683,61 +3706,67 @@
       <c r="BL22" s="36"/>
     </row>
     <row r="23" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="75" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="C23" s="48"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="80"/>
-      <c r="F23" s="81"/>
+      <c r="A23" s="73"/>
+      <c r="B23" s="54" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="23">
+        <v>1</v>
+      </c>
+      <c r="E23" s="80">
+        <v>44481</v>
+      </c>
+      <c r="F23" s="80">
+        <v>44482</v>
+      </c>
       <c r="G23" s="17"/>
-      <c r="H23" s="17" t="str">
+      <c r="H23" s="17">
         <f t="shared" si="6"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="I23" s="36"/>
       <c r="J23" s="36"/>
       <c r="K23" s="36"/>
-      <c r="L23" s="73"/>
-      <c r="M23" s="73"/>
-      <c r="N23" s="73"/>
-      <c r="O23" s="73"/>
-      <c r="P23" s="73"/>
-      <c r="Q23" s="73"/>
-      <c r="R23" s="73"/>
-      <c r="S23" s="73"/>
-      <c r="T23" s="73"/>
-      <c r="U23" s="73"/>
-      <c r="V23" s="73"/>
-      <c r="W23" s="73"/>
-      <c r="X23" s="73"/>
-      <c r="Y23" s="73"/>
-      <c r="Z23" s="73"/>
-      <c r="AA23" s="73"/>
-      <c r="AB23" s="73"/>
-      <c r="AC23" s="73"/>
-      <c r="AD23" s="73"/>
-      <c r="AE23" s="73"/>
-      <c r="AF23" s="73"/>
-      <c r="AG23" s="73"/>
-      <c r="AH23" s="73"/>
-      <c r="AI23" s="73"/>
-      <c r="AJ23" s="73"/>
-      <c r="AK23" s="73"/>
-      <c r="AL23" s="73"/>
-      <c r="AM23" s="73"/>
-      <c r="AN23" s="73"/>
-      <c r="AO23" s="73"/>
-      <c r="AP23" s="73"/>
-      <c r="AQ23" s="73"/>
-      <c r="AR23" s="73"/>
-      <c r="AS23" s="73"/>
-      <c r="AT23" s="73"/>
-      <c r="AU23" s="73"/>
-      <c r="AV23" s="73"/>
+      <c r="L23" s="71"/>
+      <c r="M23" s="71"/>
+      <c r="N23" s="71"/>
+      <c r="O23" s="71"/>
+      <c r="P23" s="71"/>
+      <c r="Q23" s="71"/>
+      <c r="R23" s="71"/>
+      <c r="S23" s="71"/>
+      <c r="T23" s="71"/>
+      <c r="U23" s="71"/>
+      <c r="V23" s="71"/>
+      <c r="W23" s="71"/>
+      <c r="X23" s="71"/>
+      <c r="Y23" s="71"/>
+      <c r="Z23" s="71"/>
+      <c r="AA23" s="71"/>
+      <c r="AB23" s="71"/>
+      <c r="AC23" s="71"/>
+      <c r="AD23" s="71"/>
+      <c r="AE23" s="71"/>
+      <c r="AF23" s="71"/>
+      <c r="AG23" s="71"/>
+      <c r="AH23" s="71"/>
+      <c r="AI23" s="71"/>
+      <c r="AJ23" s="71"/>
+      <c r="AK23" s="71"/>
+      <c r="AL23" s="71"/>
+      <c r="AM23" s="71"/>
+      <c r="AN23" s="71"/>
+      <c r="AO23" s="71"/>
+      <c r="AP23" s="71"/>
+      <c r="AQ23" s="71"/>
+      <c r="AR23" s="71"/>
+      <c r="AS23" s="71"/>
+      <c r="AT23" s="71"/>
+      <c r="AU23" s="71"/>
+      <c r="AV23" s="71"/>
       <c r="AW23" s="36"/>
       <c r="AX23" s="36"/>
       <c r="AY23" s="36"/>
@@ -3756,67 +3785,57 @@
       <c r="BL23" s="36"/>
     </row>
     <row r="24" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="75"/>
-      <c r="B24" s="56" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" s="49" t="s">
-        <v>20</v>
-      </c>
-      <c r="D24" s="23">
-        <v>0.8</v>
-      </c>
-      <c r="E24" s="82">
-        <v>44481</v>
-      </c>
-      <c r="F24" s="82">
-        <v>44482</v>
-      </c>
+      <c r="A24" s="74"/>
+      <c r="B24" s="88"/>
+      <c r="C24" s="47"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="80"/>
+      <c r="F24" s="80"/>
       <c r="G24" s="17"/>
-      <c r="H24" s="17">
+      <c r="H24" s="17" t="str">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v/>
       </c>
       <c r="I24" s="36"/>
       <c r="J24" s="36"/>
       <c r="K24" s="36"/>
-      <c r="L24" s="73"/>
-      <c r="M24" s="73"/>
-      <c r="N24" s="73"/>
-      <c r="O24" s="73"/>
-      <c r="P24" s="73"/>
-      <c r="Q24" s="73"/>
-      <c r="R24" s="73"/>
-      <c r="S24" s="73"/>
-      <c r="T24" s="73"/>
-      <c r="U24" s="73"/>
-      <c r="V24" s="73"/>
-      <c r="W24" s="73"/>
-      <c r="X24" s="73"/>
-      <c r="Y24" s="73"/>
-      <c r="Z24" s="73"/>
-      <c r="AA24" s="73"/>
-      <c r="AB24" s="73"/>
-      <c r="AC24" s="73"/>
-      <c r="AD24" s="73"/>
-      <c r="AE24" s="73"/>
-      <c r="AF24" s="73"/>
-      <c r="AG24" s="73"/>
-      <c r="AH24" s="73"/>
-      <c r="AI24" s="73"/>
-      <c r="AJ24" s="73"/>
-      <c r="AK24" s="73"/>
-      <c r="AL24" s="73"/>
-      <c r="AM24" s="73"/>
-      <c r="AN24" s="73"/>
-      <c r="AO24" s="73"/>
-      <c r="AP24" s="73"/>
-      <c r="AQ24" s="73"/>
-      <c r="AR24" s="73"/>
-      <c r="AS24" s="73"/>
-      <c r="AT24" s="73"/>
-      <c r="AU24" s="73"/>
-      <c r="AV24" s="73"/>
+      <c r="L24" s="71"/>
+      <c r="M24" s="71"/>
+      <c r="N24" s="71"/>
+      <c r="O24" s="71"/>
+      <c r="P24" s="71"/>
+      <c r="Q24" s="71"/>
+      <c r="R24" s="71"/>
+      <c r="S24" s="71"/>
+      <c r="T24" s="71"/>
+      <c r="U24" s="72"/>
+      <c r="V24" s="72"/>
+      <c r="W24" s="71"/>
+      <c r="X24" s="71"/>
+      <c r="Y24" s="71"/>
+      <c r="Z24" s="71"/>
+      <c r="AA24" s="71"/>
+      <c r="AB24" s="71"/>
+      <c r="AC24" s="71"/>
+      <c r="AD24" s="71"/>
+      <c r="AE24" s="71"/>
+      <c r="AF24" s="71"/>
+      <c r="AG24" s="71"/>
+      <c r="AH24" s="71"/>
+      <c r="AI24" s="71"/>
+      <c r="AJ24" s="71"/>
+      <c r="AK24" s="71"/>
+      <c r="AL24" s="71"/>
+      <c r="AM24" s="71"/>
+      <c r="AN24" s="71"/>
+      <c r="AO24" s="71"/>
+      <c r="AP24" s="71"/>
+      <c r="AQ24" s="71"/>
+      <c r="AR24" s="71"/>
+      <c r="AS24" s="71"/>
+      <c r="AT24" s="71"/>
+      <c r="AU24" s="71"/>
+      <c r="AV24" s="71"/>
       <c r="AW24" s="36"/>
       <c r="AX24" s="36"/>
       <c r="AY24" s="36"/>
@@ -3835,63 +3854,57 @@
       <c r="BL24" s="36"/>
     </row>
     <row r="25" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="76"/>
-      <c r="B25" s="91" t="s">
-        <v>84</v>
-      </c>
-      <c r="C25" s="49"/>
+      <c r="A25" s="74"/>
+      <c r="B25" s="54"/>
+      <c r="C25" s="47"/>
       <c r="D25" s="23"/>
-      <c r="E25" s="82">
-        <v>44481</v>
-      </c>
-      <c r="F25" s="82">
-        <v>44482</v>
-      </c>
+      <c r="E25" s="80"/>
+      <c r="F25" s="80"/>
       <c r="G25" s="17"/>
-      <c r="H25" s="17">
+      <c r="H25" s="17" t="str">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v/>
       </c>
       <c r="I25" s="36"/>
       <c r="J25" s="36"/>
       <c r="K25" s="36"/>
-      <c r="L25" s="73"/>
-      <c r="M25" s="73"/>
-      <c r="N25" s="73"/>
-      <c r="O25" s="73"/>
-      <c r="P25" s="73"/>
-      <c r="Q25" s="73"/>
-      <c r="R25" s="73"/>
-      <c r="S25" s="73"/>
-      <c r="T25" s="73"/>
-      <c r="U25" s="74"/>
-      <c r="V25" s="74"/>
-      <c r="W25" s="73"/>
-      <c r="X25" s="73"/>
-      <c r="Y25" s="73"/>
-      <c r="Z25" s="73"/>
-      <c r="AA25" s="73"/>
-      <c r="AB25" s="73"/>
-      <c r="AC25" s="73"/>
-      <c r="AD25" s="73"/>
-      <c r="AE25" s="73"/>
-      <c r="AF25" s="73"/>
-      <c r="AG25" s="73"/>
-      <c r="AH25" s="73"/>
-      <c r="AI25" s="73"/>
-      <c r="AJ25" s="73"/>
-      <c r="AK25" s="73"/>
-      <c r="AL25" s="73"/>
-      <c r="AM25" s="73"/>
-      <c r="AN25" s="73"/>
-      <c r="AO25" s="73"/>
-      <c r="AP25" s="73"/>
-      <c r="AQ25" s="73"/>
-      <c r="AR25" s="73"/>
-      <c r="AS25" s="73"/>
-      <c r="AT25" s="73"/>
-      <c r="AU25" s="73"/>
-      <c r="AV25" s="73"/>
+      <c r="L25" s="71"/>
+      <c r="M25" s="71"/>
+      <c r="N25" s="71"/>
+      <c r="O25" s="71"/>
+      <c r="P25" s="71"/>
+      <c r="Q25" s="71"/>
+      <c r="R25" s="71"/>
+      <c r="S25" s="71"/>
+      <c r="T25" s="71"/>
+      <c r="U25" s="71"/>
+      <c r="V25" s="71"/>
+      <c r="W25" s="71"/>
+      <c r="X25" s="71"/>
+      <c r="Y25" s="71"/>
+      <c r="Z25" s="71"/>
+      <c r="AA25" s="71"/>
+      <c r="AB25" s="71"/>
+      <c r="AC25" s="71"/>
+      <c r="AD25" s="71"/>
+      <c r="AE25" s="71"/>
+      <c r="AF25" s="71"/>
+      <c r="AG25" s="71"/>
+      <c r="AH25" s="71"/>
+      <c r="AI25" s="71"/>
+      <c r="AJ25" s="71"/>
+      <c r="AK25" s="71"/>
+      <c r="AL25" s="71"/>
+      <c r="AM25" s="71"/>
+      <c r="AN25" s="71"/>
+      <c r="AO25" s="71"/>
+      <c r="AP25" s="71"/>
+      <c r="AQ25" s="71"/>
+      <c r="AR25" s="71"/>
+      <c r="AS25" s="71"/>
+      <c r="AT25" s="71"/>
+      <c r="AU25" s="71"/>
+      <c r="AV25" s="71"/>
       <c r="AW25" s="36"/>
       <c r="AX25" s="36"/>
       <c r="AY25" s="36"/>
@@ -3910,67 +3923,54 @@
       <c r="BL25" s="36"/>
     </row>
     <row r="26" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="76"/>
-      <c r="B26" s="56" t="s">
-        <v>83</v>
-      </c>
-      <c r="C26" s="49" t="s">
-        <v>78</v>
-      </c>
-      <c r="D26" s="23">
-        <v>1</v>
-      </c>
-      <c r="E26" s="82">
-        <v>44481</v>
-      </c>
-      <c r="F26" s="82">
-        <v>44482</v>
-      </c>
+      <c r="A26" s="74"/>
+      <c r="B26" s="54"/>
+      <c r="C26" s="47"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="80"/>
+      <c r="F26" s="80"/>
       <c r="G26" s="17"/>
-      <c r="H26" s="17">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
+      <c r="H26" s="17"/>
       <c r="I26" s="36"/>
       <c r="J26" s="36"/>
       <c r="K26" s="36"/>
-      <c r="L26" s="73"/>
-      <c r="M26" s="73"/>
-      <c r="N26" s="73"/>
-      <c r="O26" s="73"/>
-      <c r="P26" s="73"/>
-      <c r="Q26" s="73"/>
-      <c r="R26" s="73"/>
-      <c r="S26" s="73"/>
-      <c r="T26" s="73"/>
-      <c r="U26" s="73"/>
-      <c r="V26" s="73"/>
-      <c r="W26" s="73"/>
-      <c r="X26" s="73"/>
-      <c r="Y26" s="73"/>
-      <c r="Z26" s="73"/>
-      <c r="AA26" s="73"/>
-      <c r="AB26" s="73"/>
-      <c r="AC26" s="73"/>
-      <c r="AD26" s="73"/>
-      <c r="AE26" s="73"/>
-      <c r="AF26" s="73"/>
-      <c r="AG26" s="73"/>
-      <c r="AH26" s="73"/>
-      <c r="AI26" s="73"/>
-      <c r="AJ26" s="73"/>
-      <c r="AK26" s="73"/>
-      <c r="AL26" s="73"/>
-      <c r="AM26" s="73"/>
-      <c r="AN26" s="73"/>
-      <c r="AO26" s="73"/>
-      <c r="AP26" s="73"/>
-      <c r="AQ26" s="73"/>
-      <c r="AR26" s="73"/>
-      <c r="AS26" s="73"/>
-      <c r="AT26" s="73"/>
-      <c r="AU26" s="73"/>
-      <c r="AV26" s="73"/>
+      <c r="L26" s="71"/>
+      <c r="M26" s="71"/>
+      <c r="N26" s="71"/>
+      <c r="O26" s="71"/>
+      <c r="P26" s="71"/>
+      <c r="Q26" s="71"/>
+      <c r="R26" s="71"/>
+      <c r="S26" s="71"/>
+      <c r="T26" s="71"/>
+      <c r="U26" s="71"/>
+      <c r="V26" s="71"/>
+      <c r="W26" s="71"/>
+      <c r="X26" s="71"/>
+      <c r="Y26" s="71"/>
+      <c r="Z26" s="71"/>
+      <c r="AA26" s="71"/>
+      <c r="AB26" s="71"/>
+      <c r="AC26" s="71"/>
+      <c r="AD26" s="71"/>
+      <c r="AE26" s="71"/>
+      <c r="AF26" s="71"/>
+      <c r="AG26" s="71"/>
+      <c r="AH26" s="71"/>
+      <c r="AI26" s="71"/>
+      <c r="AJ26" s="71"/>
+      <c r="AK26" s="71"/>
+      <c r="AL26" s="71"/>
+      <c r="AM26" s="71"/>
+      <c r="AN26" s="71"/>
+      <c r="AO26" s="71"/>
+      <c r="AP26" s="71"/>
+      <c r="AQ26" s="71"/>
+      <c r="AR26" s="71"/>
+      <c r="AS26" s="71"/>
+      <c r="AT26" s="71"/>
+      <c r="AU26" s="71"/>
+      <c r="AV26" s="71"/>
       <c r="AW26" s="36"/>
       <c r="AX26" s="36"/>
       <c r="AY26" s="36"/>
@@ -3989,62 +3989,54 @@
       <c r="BL26" s="36"/>
     </row>
     <row r="27" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="76"/>
-      <c r="B27" s="56" t="s">
-        <v>81</v>
-      </c>
-      <c r="C27" s="49" t="s">
-        <v>23</v>
-      </c>
+      <c r="A27" s="74"/>
+      <c r="B27" s="54"/>
+      <c r="C27" s="47"/>
       <c r="D27" s="23"/>
-      <c r="E27" s="82">
-        <v>44481</v>
-      </c>
-      <c r="F27" s="82">
-        <v>44482</v>
-      </c>
+      <c r="E27" s="80"/>
+      <c r="F27" s="80"/>
       <c r="G27" s="17"/>
       <c r="H27" s="17"/>
       <c r="I27" s="36"/>
       <c r="J27" s="36"/>
       <c r="K27" s="36"/>
-      <c r="L27" s="73"/>
-      <c r="M27" s="73"/>
-      <c r="N27" s="73"/>
-      <c r="O27" s="73"/>
-      <c r="P27" s="73"/>
-      <c r="Q27" s="73"/>
-      <c r="R27" s="73"/>
-      <c r="S27" s="73"/>
-      <c r="T27" s="73"/>
-      <c r="U27" s="73"/>
-      <c r="V27" s="73"/>
-      <c r="W27" s="73"/>
-      <c r="X27" s="73"/>
-      <c r="Y27" s="73"/>
-      <c r="Z27" s="73"/>
-      <c r="AA27" s="73"/>
-      <c r="AB27" s="73"/>
-      <c r="AC27" s="73"/>
-      <c r="AD27" s="73"/>
-      <c r="AE27" s="73"/>
-      <c r="AF27" s="73"/>
-      <c r="AG27" s="73"/>
-      <c r="AH27" s="73"/>
-      <c r="AI27" s="73"/>
-      <c r="AJ27" s="73"/>
-      <c r="AK27" s="73"/>
-      <c r="AL27" s="73"/>
-      <c r="AM27" s="73"/>
-      <c r="AN27" s="73"/>
-      <c r="AO27" s="73"/>
-      <c r="AP27" s="73"/>
-      <c r="AQ27" s="73"/>
-      <c r="AR27" s="73"/>
-      <c r="AS27" s="73"/>
-      <c r="AT27" s="73"/>
-      <c r="AU27" s="73"/>
-      <c r="AV27" s="73"/>
+      <c r="L27" s="71"/>
+      <c r="M27" s="71"/>
+      <c r="N27" s="71"/>
+      <c r="O27" s="71"/>
+      <c r="P27" s="71"/>
+      <c r="Q27" s="71"/>
+      <c r="R27" s="71"/>
+      <c r="S27" s="71"/>
+      <c r="T27" s="71"/>
+      <c r="U27" s="71"/>
+      <c r="V27" s="71"/>
+      <c r="W27" s="71"/>
+      <c r="X27" s="71"/>
+      <c r="Y27" s="71"/>
+      <c r="Z27" s="71"/>
+      <c r="AA27" s="71"/>
+      <c r="AB27" s="71"/>
+      <c r="AC27" s="71"/>
+      <c r="AD27" s="71"/>
+      <c r="AE27" s="71"/>
+      <c r="AF27" s="71"/>
+      <c r="AG27" s="71"/>
+      <c r="AH27" s="71"/>
+      <c r="AI27" s="71"/>
+      <c r="AJ27" s="71"/>
+      <c r="AK27" s="71"/>
+      <c r="AL27" s="71"/>
+      <c r="AM27" s="71"/>
+      <c r="AN27" s="71"/>
+      <c r="AO27" s="71"/>
+      <c r="AP27" s="71"/>
+      <c r="AQ27" s="71"/>
+      <c r="AR27" s="71"/>
+      <c r="AS27" s="71"/>
+      <c r="AT27" s="71"/>
+      <c r="AU27" s="71"/>
+      <c r="AV27" s="71"/>
       <c r="AW27" s="36"/>
       <c r="AX27" s="36"/>
       <c r="AY27" s="36"/>
@@ -4063,62 +4055,54 @@
       <c r="BL27" s="36"/>
     </row>
     <row r="28" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="76"/>
-      <c r="B28" s="56" t="s">
-        <v>82</v>
-      </c>
-      <c r="C28" s="49" t="s">
-        <v>75</v>
-      </c>
+      <c r="A28" s="74"/>
+      <c r="B28" s="54"/>
+      <c r="C28" s="47"/>
       <c r="D28" s="23"/>
-      <c r="E28" s="82">
-        <v>44481</v>
-      </c>
-      <c r="F28" s="82">
-        <v>44482</v>
-      </c>
+      <c r="E28" s="80"/>
+      <c r="F28" s="80"/>
       <c r="G28" s="17"/>
       <c r="H28" s="17"/>
       <c r="I28" s="36"/>
       <c r="J28" s="36"/>
       <c r="K28" s="36"/>
-      <c r="L28" s="73"/>
-      <c r="M28" s="73"/>
-      <c r="N28" s="73"/>
-      <c r="O28" s="73"/>
-      <c r="P28" s="73"/>
-      <c r="Q28" s="73"/>
-      <c r="R28" s="73"/>
-      <c r="S28" s="73"/>
-      <c r="T28" s="73"/>
-      <c r="U28" s="73"/>
-      <c r="V28" s="73"/>
-      <c r="W28" s="73"/>
-      <c r="X28" s="73"/>
-      <c r="Y28" s="73"/>
-      <c r="Z28" s="73"/>
-      <c r="AA28" s="73"/>
-      <c r="AB28" s="73"/>
-      <c r="AC28" s="73"/>
-      <c r="AD28" s="73"/>
-      <c r="AE28" s="73"/>
-      <c r="AF28" s="73"/>
-      <c r="AG28" s="73"/>
-      <c r="AH28" s="73"/>
-      <c r="AI28" s="73"/>
-      <c r="AJ28" s="73"/>
-      <c r="AK28" s="73"/>
-      <c r="AL28" s="73"/>
-      <c r="AM28" s="73"/>
-      <c r="AN28" s="73"/>
-      <c r="AO28" s="73"/>
-      <c r="AP28" s="73"/>
-      <c r="AQ28" s="73"/>
-      <c r="AR28" s="73"/>
-      <c r="AS28" s="73"/>
-      <c r="AT28" s="73"/>
-      <c r="AU28" s="73"/>
-      <c r="AV28" s="73"/>
+      <c r="L28" s="71"/>
+      <c r="M28" s="71"/>
+      <c r="N28" s="71"/>
+      <c r="O28" s="71"/>
+      <c r="P28" s="71"/>
+      <c r="Q28" s="71"/>
+      <c r="R28" s="71"/>
+      <c r="S28" s="71"/>
+      <c r="T28" s="71"/>
+      <c r="U28" s="71"/>
+      <c r="V28" s="71"/>
+      <c r="W28" s="71"/>
+      <c r="X28" s="71"/>
+      <c r="Y28" s="71"/>
+      <c r="Z28" s="71"/>
+      <c r="AA28" s="71"/>
+      <c r="AB28" s="71"/>
+      <c r="AC28" s="71"/>
+      <c r="AD28" s="71"/>
+      <c r="AE28" s="71"/>
+      <c r="AF28" s="71"/>
+      <c r="AG28" s="71"/>
+      <c r="AH28" s="71"/>
+      <c r="AI28" s="71"/>
+      <c r="AJ28" s="71"/>
+      <c r="AK28" s="71"/>
+      <c r="AL28" s="71"/>
+      <c r="AM28" s="71"/>
+      <c r="AN28" s="71"/>
+      <c r="AO28" s="71"/>
+      <c r="AP28" s="71"/>
+      <c r="AQ28" s="71"/>
+      <c r="AR28" s="71"/>
+      <c r="AS28" s="71"/>
+      <c r="AT28" s="71"/>
+      <c r="AU28" s="71"/>
+      <c r="AV28" s="71"/>
       <c r="AW28" s="36"/>
       <c r="AX28" s="36"/>
       <c r="AY28" s="36"/>
@@ -4137,54 +4121,57 @@
       <c r="BL28" s="36"/>
     </row>
     <row r="29" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="76"/>
-      <c r="B29" s="56"/>
-      <c r="C29" s="49"/>
+      <c r="A29" s="74"/>
+      <c r="B29" s="54"/>
+      <c r="C29" s="47"/>
       <c r="D29" s="23"/>
-      <c r="E29" s="82"/>
-      <c r="F29" s="82"/>
+      <c r="E29" s="80"/>
+      <c r="F29" s="80"/>
       <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
+      <c r="H29" s="17" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
       <c r="I29" s="36"/>
       <c r="J29" s="36"/>
       <c r="K29" s="36"/>
-      <c r="L29" s="73"/>
-      <c r="M29" s="73"/>
-      <c r="N29" s="73"/>
-      <c r="O29" s="73"/>
-      <c r="P29" s="73"/>
-      <c r="Q29" s="73"/>
-      <c r="R29" s="73"/>
-      <c r="S29" s="73"/>
-      <c r="T29" s="73"/>
-      <c r="U29" s="73"/>
-      <c r="V29" s="73"/>
-      <c r="W29" s="73"/>
-      <c r="X29" s="73"/>
-      <c r="Y29" s="73"/>
-      <c r="Z29" s="73"/>
-      <c r="AA29" s="73"/>
-      <c r="AB29" s="73"/>
-      <c r="AC29" s="73"/>
-      <c r="AD29" s="73"/>
-      <c r="AE29" s="73"/>
-      <c r="AF29" s="73"/>
-      <c r="AG29" s="73"/>
-      <c r="AH29" s="73"/>
-      <c r="AI29" s="73"/>
-      <c r="AJ29" s="73"/>
-      <c r="AK29" s="73"/>
-      <c r="AL29" s="73"/>
-      <c r="AM29" s="73"/>
-      <c r="AN29" s="73"/>
-      <c r="AO29" s="73"/>
-      <c r="AP29" s="73"/>
-      <c r="AQ29" s="73"/>
-      <c r="AR29" s="73"/>
-      <c r="AS29" s="73"/>
-      <c r="AT29" s="73"/>
-      <c r="AU29" s="73"/>
-      <c r="AV29" s="73"/>
+      <c r="L29" s="71"/>
+      <c r="M29" s="71"/>
+      <c r="N29" s="71"/>
+      <c r="O29" s="71"/>
+      <c r="P29" s="71"/>
+      <c r="Q29" s="71"/>
+      <c r="R29" s="71"/>
+      <c r="S29" s="71"/>
+      <c r="T29" s="71"/>
+      <c r="U29" s="71"/>
+      <c r="V29" s="71"/>
+      <c r="W29" s="71"/>
+      <c r="X29" s="71"/>
+      <c r="Y29" s="72"/>
+      <c r="Z29" s="71"/>
+      <c r="AA29" s="71"/>
+      <c r="AB29" s="71"/>
+      <c r="AC29" s="71"/>
+      <c r="AD29" s="71"/>
+      <c r="AE29" s="71"/>
+      <c r="AF29" s="71"/>
+      <c r="AG29" s="71"/>
+      <c r="AH29" s="71"/>
+      <c r="AI29" s="71"/>
+      <c r="AJ29" s="71"/>
+      <c r="AK29" s="71"/>
+      <c r="AL29" s="71"/>
+      <c r="AM29" s="71"/>
+      <c r="AN29" s="71"/>
+      <c r="AO29" s="71"/>
+      <c r="AP29" s="71"/>
+      <c r="AQ29" s="71"/>
+      <c r="AR29" s="71"/>
+      <c r="AS29" s="71"/>
+      <c r="AT29" s="71"/>
+      <c r="AU29" s="71"/>
+      <c r="AV29" s="71"/>
       <c r="AW29" s="36"/>
       <c r="AX29" s="36"/>
       <c r="AY29" s="36"/>
@@ -4203,11 +4190,15 @@
       <c r="BL29" s="36"/>
     </row>
     <row r="30" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="76"/>
-      <c r="B30" s="56"/>
-      <c r="C30" s="49"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="82"/>
+      <c r="A30" s="74" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" s="48"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="81"/>
       <c r="F30" s="82"/>
       <c r="G30" s="17"/>
       <c r="H30" s="17" t="str">
@@ -4217,43 +4208,43 @@
       <c r="I30" s="36"/>
       <c r="J30" s="36"/>
       <c r="K30" s="36"/>
-      <c r="L30" s="73"/>
-      <c r="M30" s="73"/>
-      <c r="N30" s="73"/>
-      <c r="O30" s="73"/>
-      <c r="P30" s="73"/>
-      <c r="Q30" s="73"/>
-      <c r="R30" s="73"/>
-      <c r="S30" s="73"/>
-      <c r="T30" s="73"/>
-      <c r="U30" s="73"/>
-      <c r="V30" s="73"/>
-      <c r="W30" s="73"/>
-      <c r="X30" s="73"/>
-      <c r="Y30" s="74"/>
-      <c r="Z30" s="73"/>
-      <c r="AA30" s="73"/>
-      <c r="AB30" s="73"/>
-      <c r="AC30" s="73"/>
-      <c r="AD30" s="73"/>
-      <c r="AE30" s="73"/>
-      <c r="AF30" s="73"/>
-      <c r="AG30" s="73"/>
-      <c r="AH30" s="73"/>
-      <c r="AI30" s="73"/>
-      <c r="AJ30" s="73"/>
-      <c r="AK30" s="73"/>
-      <c r="AL30" s="73"/>
-      <c r="AM30" s="73"/>
-      <c r="AN30" s="73"/>
-      <c r="AO30" s="73"/>
-      <c r="AP30" s="73"/>
-      <c r="AQ30" s="73"/>
-      <c r="AR30" s="73"/>
-      <c r="AS30" s="73"/>
-      <c r="AT30" s="73"/>
-      <c r="AU30" s="73"/>
-      <c r="AV30" s="73"/>
+      <c r="L30" s="71"/>
+      <c r="M30" s="71"/>
+      <c r="N30" s="71"/>
+      <c r="O30" s="71"/>
+      <c r="P30" s="71"/>
+      <c r="Q30" s="71"/>
+      <c r="R30" s="71"/>
+      <c r="S30" s="71"/>
+      <c r="T30" s="71"/>
+      <c r="U30" s="71"/>
+      <c r="V30" s="71"/>
+      <c r="W30" s="71"/>
+      <c r="X30" s="71"/>
+      <c r="Y30" s="71"/>
+      <c r="Z30" s="71"/>
+      <c r="AA30" s="71"/>
+      <c r="AB30" s="71"/>
+      <c r="AC30" s="71"/>
+      <c r="AD30" s="71"/>
+      <c r="AE30" s="71"/>
+      <c r="AF30" s="71"/>
+      <c r="AG30" s="71"/>
+      <c r="AH30" s="71"/>
+      <c r="AI30" s="71"/>
+      <c r="AJ30" s="71"/>
+      <c r="AK30" s="71"/>
+      <c r="AL30" s="71"/>
+      <c r="AM30" s="71"/>
+      <c r="AN30" s="71"/>
+      <c r="AO30" s="71"/>
+      <c r="AP30" s="71"/>
+      <c r="AQ30" s="71"/>
+      <c r="AR30" s="71"/>
+      <c r="AS30" s="71"/>
+      <c r="AT30" s="71"/>
+      <c r="AU30" s="71"/>
+      <c r="AV30" s="71"/>
       <c r="AW30" s="36"/>
       <c r="AX30" s="36"/>
       <c r="AY30" s="36"/>
@@ -4272,16 +4263,12 @@
       <c r="BL30" s="36"/>
     </row>
     <row r="31" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="76" t="s">
-        <v>28</v>
-      </c>
-      <c r="B31" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="C31" s="50"/>
-      <c r="D31" s="25"/>
+      <c r="A31" s="74"/>
+      <c r="B31" s="55"/>
+      <c r="C31" s="49"/>
+      <c r="D31" s="26"/>
       <c r="E31" s="83"/>
-      <c r="F31" s="84"/>
+      <c r="F31" s="83"/>
       <c r="G31" s="17"/>
       <c r="H31" s="17" t="str">
         <f t="shared" si="6"/>
@@ -4290,43 +4277,43 @@
       <c r="I31" s="36"/>
       <c r="J31" s="36"/>
       <c r="K31" s="36"/>
-      <c r="L31" s="73"/>
-      <c r="M31" s="73"/>
-      <c r="N31" s="73"/>
-      <c r="O31" s="73"/>
-      <c r="P31" s="73"/>
-      <c r="Q31" s="73"/>
-      <c r="R31" s="73"/>
-      <c r="S31" s="73"/>
-      <c r="T31" s="73"/>
-      <c r="U31" s="73"/>
-      <c r="V31" s="73"/>
-      <c r="W31" s="73"/>
-      <c r="X31" s="73"/>
-      <c r="Y31" s="73"/>
-      <c r="Z31" s="73"/>
-      <c r="AA31" s="73"/>
-      <c r="AB31" s="73"/>
-      <c r="AC31" s="73"/>
-      <c r="AD31" s="73"/>
-      <c r="AE31" s="73"/>
-      <c r="AF31" s="73"/>
-      <c r="AG31" s="73"/>
-      <c r="AH31" s="73"/>
-      <c r="AI31" s="73"/>
-      <c r="AJ31" s="73"/>
-      <c r="AK31" s="73"/>
-      <c r="AL31" s="73"/>
-      <c r="AM31" s="73"/>
-      <c r="AN31" s="73"/>
-      <c r="AO31" s="73"/>
-      <c r="AP31" s="73"/>
-      <c r="AQ31" s="73"/>
-      <c r="AR31" s="73"/>
-      <c r="AS31" s="73"/>
-      <c r="AT31" s="73"/>
-      <c r="AU31" s="73"/>
-      <c r="AV31" s="73"/>
+      <c r="L31" s="71"/>
+      <c r="M31" s="71"/>
+      <c r="N31" s="71"/>
+      <c r="O31" s="71"/>
+      <c r="P31" s="71"/>
+      <c r="Q31" s="71"/>
+      <c r="R31" s="71"/>
+      <c r="S31" s="71"/>
+      <c r="T31" s="71"/>
+      <c r="U31" s="71"/>
+      <c r="V31" s="71"/>
+      <c r="W31" s="71"/>
+      <c r="X31" s="71"/>
+      <c r="Y31" s="71"/>
+      <c r="Z31" s="71"/>
+      <c r="AA31" s="71"/>
+      <c r="AB31" s="71"/>
+      <c r="AC31" s="71"/>
+      <c r="AD31" s="71"/>
+      <c r="AE31" s="71"/>
+      <c r="AF31" s="71"/>
+      <c r="AG31" s="71"/>
+      <c r="AH31" s="71"/>
+      <c r="AI31" s="71"/>
+      <c r="AJ31" s="71"/>
+      <c r="AK31" s="71"/>
+      <c r="AL31" s="71"/>
+      <c r="AM31" s="71"/>
+      <c r="AN31" s="71"/>
+      <c r="AO31" s="71"/>
+      <c r="AP31" s="71"/>
+      <c r="AQ31" s="71"/>
+      <c r="AR31" s="71"/>
+      <c r="AS31" s="71"/>
+      <c r="AT31" s="71"/>
+      <c r="AU31" s="71"/>
+      <c r="AV31" s="71"/>
       <c r="AW31" s="36"/>
       <c r="AX31" s="36"/>
       <c r="AY31" s="36"/>
@@ -4345,12 +4332,12 @@
       <c r="BL31" s="36"/>
     </row>
     <row r="32" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="76"/>
-      <c r="B32" s="57"/>
-      <c r="C32" s="51"/>
+      <c r="A32" s="74"/>
+      <c r="B32" s="55"/>
+      <c r="C32" s="49"/>
       <c r="D32" s="26"/>
-      <c r="E32" s="85"/>
-      <c r="F32" s="85"/>
+      <c r="E32" s="83"/>
+      <c r="F32" s="83"/>
       <c r="G32" s="17"/>
       <c r="H32" s="17" t="str">
         <f t="shared" si="6"/>
@@ -4359,43 +4346,43 @@
       <c r="I32" s="36"/>
       <c r="J32" s="36"/>
       <c r="K32" s="36"/>
-      <c r="L32" s="73"/>
-      <c r="M32" s="73"/>
-      <c r="N32" s="73"/>
-      <c r="O32" s="73"/>
-      <c r="P32" s="73"/>
-      <c r="Q32" s="73"/>
-      <c r="R32" s="73"/>
-      <c r="S32" s="73"/>
-      <c r="T32" s="73"/>
-      <c r="U32" s="73"/>
-      <c r="V32" s="73"/>
-      <c r="W32" s="73"/>
-      <c r="X32" s="73"/>
-      <c r="Y32" s="73"/>
-      <c r="Z32" s="73"/>
-      <c r="AA32" s="73"/>
-      <c r="AB32" s="73"/>
-      <c r="AC32" s="73"/>
-      <c r="AD32" s="73"/>
-      <c r="AE32" s="73"/>
-      <c r="AF32" s="73"/>
-      <c r="AG32" s="73"/>
-      <c r="AH32" s="73"/>
-      <c r="AI32" s="73"/>
-      <c r="AJ32" s="73"/>
-      <c r="AK32" s="73"/>
-      <c r="AL32" s="73"/>
-      <c r="AM32" s="73"/>
-      <c r="AN32" s="73"/>
-      <c r="AO32" s="73"/>
-      <c r="AP32" s="73"/>
-      <c r="AQ32" s="73"/>
-      <c r="AR32" s="73"/>
-      <c r="AS32" s="73"/>
-      <c r="AT32" s="73"/>
-      <c r="AU32" s="73"/>
-      <c r="AV32" s="73"/>
+      <c r="L32" s="71"/>
+      <c r="M32" s="71"/>
+      <c r="N32" s="71"/>
+      <c r="O32" s="71"/>
+      <c r="P32" s="71"/>
+      <c r="Q32" s="71"/>
+      <c r="R32" s="71"/>
+      <c r="S32" s="71"/>
+      <c r="T32" s="71"/>
+      <c r="U32" s="71"/>
+      <c r="V32" s="71"/>
+      <c r="W32" s="71"/>
+      <c r="X32" s="71"/>
+      <c r="Y32" s="71"/>
+      <c r="Z32" s="71"/>
+      <c r="AA32" s="71"/>
+      <c r="AB32" s="71"/>
+      <c r="AC32" s="71"/>
+      <c r="AD32" s="71"/>
+      <c r="AE32" s="71"/>
+      <c r="AF32" s="71"/>
+      <c r="AG32" s="71"/>
+      <c r="AH32" s="71"/>
+      <c r="AI32" s="71"/>
+      <c r="AJ32" s="71"/>
+      <c r="AK32" s="71"/>
+      <c r="AL32" s="71"/>
+      <c r="AM32" s="71"/>
+      <c r="AN32" s="71"/>
+      <c r="AO32" s="71"/>
+      <c r="AP32" s="71"/>
+      <c r="AQ32" s="71"/>
+      <c r="AR32" s="71"/>
+      <c r="AS32" s="71"/>
+      <c r="AT32" s="71"/>
+      <c r="AU32" s="71"/>
+      <c r="AV32" s="71"/>
       <c r="AW32" s="36"/>
       <c r="AX32" s="36"/>
       <c r="AY32" s="36"/>
@@ -4414,12 +4401,12 @@
       <c r="BL32" s="36"/>
     </row>
     <row r="33" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="76"/>
-      <c r="B33" s="57"/>
-      <c r="C33" s="51"/>
+      <c r="A33" s="74"/>
+      <c r="B33" s="55"/>
+      <c r="C33" s="49"/>
       <c r="D33" s="26"/>
-      <c r="E33" s="85"/>
-      <c r="F33" s="85"/>
+      <c r="E33" s="83"/>
+      <c r="F33" s="83"/>
       <c r="G33" s="17"/>
       <c r="H33" s="17" t="str">
         <f t="shared" si="6"/>
@@ -4428,43 +4415,43 @@
       <c r="I33" s="36"/>
       <c r="J33" s="36"/>
       <c r="K33" s="36"/>
-      <c r="L33" s="73"/>
-      <c r="M33" s="73"/>
-      <c r="N33" s="73"/>
-      <c r="O33" s="73"/>
-      <c r="P33" s="73"/>
-      <c r="Q33" s="73"/>
-      <c r="R33" s="73"/>
-      <c r="S33" s="73"/>
-      <c r="T33" s="73"/>
-      <c r="U33" s="73"/>
-      <c r="V33" s="73"/>
-      <c r="W33" s="73"/>
-      <c r="X33" s="73"/>
-      <c r="Y33" s="73"/>
-      <c r="Z33" s="73"/>
-      <c r="AA33" s="73"/>
-      <c r="AB33" s="73"/>
-      <c r="AC33" s="73"/>
-      <c r="AD33" s="73"/>
-      <c r="AE33" s="73"/>
-      <c r="AF33" s="73"/>
-      <c r="AG33" s="73"/>
-      <c r="AH33" s="73"/>
-      <c r="AI33" s="73"/>
-      <c r="AJ33" s="73"/>
-      <c r="AK33" s="73"/>
-      <c r="AL33" s="73"/>
-      <c r="AM33" s="73"/>
-      <c r="AN33" s="73"/>
-      <c r="AO33" s="73"/>
-      <c r="AP33" s="73"/>
-      <c r="AQ33" s="73"/>
-      <c r="AR33" s="73"/>
-      <c r="AS33" s="73"/>
-      <c r="AT33" s="73"/>
-      <c r="AU33" s="73"/>
-      <c r="AV33" s="73"/>
+      <c r="L33" s="71"/>
+      <c r="M33" s="71"/>
+      <c r="N33" s="71"/>
+      <c r="O33" s="71"/>
+      <c r="P33" s="71"/>
+      <c r="Q33" s="71"/>
+      <c r="R33" s="71"/>
+      <c r="S33" s="71"/>
+      <c r="T33" s="71"/>
+      <c r="U33" s="71"/>
+      <c r="V33" s="71"/>
+      <c r="W33" s="71"/>
+      <c r="X33" s="71"/>
+      <c r="Y33" s="71"/>
+      <c r="Z33" s="71"/>
+      <c r="AA33" s="71"/>
+      <c r="AB33" s="71"/>
+      <c r="AC33" s="71"/>
+      <c r="AD33" s="71"/>
+      <c r="AE33" s="71"/>
+      <c r="AF33" s="71"/>
+      <c r="AG33" s="71"/>
+      <c r="AH33" s="71"/>
+      <c r="AI33" s="71"/>
+      <c r="AJ33" s="71"/>
+      <c r="AK33" s="71"/>
+      <c r="AL33" s="71"/>
+      <c r="AM33" s="71"/>
+      <c r="AN33" s="71"/>
+      <c r="AO33" s="71"/>
+      <c r="AP33" s="71"/>
+      <c r="AQ33" s="71"/>
+      <c r="AR33" s="71"/>
+      <c r="AS33" s="71"/>
+      <c r="AT33" s="71"/>
+      <c r="AU33" s="71"/>
+      <c r="AV33" s="71"/>
       <c r="AW33" s="36"/>
       <c r="AX33" s="36"/>
       <c r="AY33" s="36"/>
@@ -4483,11 +4470,15 @@
       <c r="BL33" s="36"/>
     </row>
     <row r="34" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="76"/>
-      <c r="B34" s="57"/>
-      <c r="C34" s="51"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="85"/>
+      <c r="A34" s="74" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C34" s="50"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="84"/>
       <c r="F34" s="85"/>
       <c r="G34" s="17"/>
       <c r="H34" s="17" t="str">
@@ -4497,43 +4488,43 @@
       <c r="I34" s="36"/>
       <c r="J34" s="36"/>
       <c r="K34" s="36"/>
-      <c r="L34" s="73"/>
-      <c r="M34" s="73"/>
-      <c r="N34" s="73"/>
-      <c r="O34" s="73"/>
-      <c r="P34" s="73"/>
-      <c r="Q34" s="73"/>
-      <c r="R34" s="73"/>
-      <c r="S34" s="73"/>
-      <c r="T34" s="73"/>
-      <c r="U34" s="73"/>
-      <c r="V34" s="73"/>
-      <c r="W34" s="73"/>
-      <c r="X34" s="73"/>
-      <c r="Y34" s="73"/>
-      <c r="Z34" s="73"/>
-      <c r="AA34" s="73"/>
-      <c r="AB34" s="73"/>
-      <c r="AC34" s="73"/>
-      <c r="AD34" s="73"/>
-      <c r="AE34" s="73"/>
-      <c r="AF34" s="73"/>
-      <c r="AG34" s="73"/>
-      <c r="AH34" s="73"/>
-      <c r="AI34" s="73"/>
-      <c r="AJ34" s="73"/>
-      <c r="AK34" s="73"/>
-      <c r="AL34" s="73"/>
-      <c r="AM34" s="73"/>
-      <c r="AN34" s="73"/>
-      <c r="AO34" s="73"/>
-      <c r="AP34" s="73"/>
-      <c r="AQ34" s="73"/>
-      <c r="AR34" s="73"/>
-      <c r="AS34" s="73"/>
-      <c r="AT34" s="73"/>
-      <c r="AU34" s="73"/>
-      <c r="AV34" s="73"/>
+      <c r="L34" s="36"/>
+      <c r="M34" s="36"/>
+      <c r="N34" s="36"/>
+      <c r="O34" s="36"/>
+      <c r="P34" s="36"/>
+      <c r="Q34" s="36"/>
+      <c r="R34" s="36"/>
+      <c r="S34" s="36"/>
+      <c r="T34" s="36"/>
+      <c r="U34" s="36"/>
+      <c r="V34" s="36"/>
+      <c r="W34" s="36"/>
+      <c r="X34" s="36"/>
+      <c r="Y34" s="36"/>
+      <c r="Z34" s="36"/>
+      <c r="AA34" s="36"/>
+      <c r="AB34" s="36"/>
+      <c r="AC34" s="36"/>
+      <c r="AD34" s="36"/>
+      <c r="AE34" s="36"/>
+      <c r="AF34" s="36"/>
+      <c r="AG34" s="36"/>
+      <c r="AH34" s="36"/>
+      <c r="AI34" s="36"/>
+      <c r="AJ34" s="36"/>
+      <c r="AK34" s="36"/>
+      <c r="AL34" s="36"/>
+      <c r="AM34" s="36"/>
+      <c r="AN34" s="36"/>
+      <c r="AO34" s="36"/>
+      <c r="AP34" s="36"/>
+      <c r="AQ34" s="36"/>
+      <c r="AR34" s="36"/>
+      <c r="AS34" s="36"/>
+      <c r="AT34" s="36"/>
+      <c r="AU34" s="36"/>
+      <c r="AV34" s="36"/>
       <c r="AW34" s="36"/>
       <c r="AX34" s="36"/>
       <c r="AY34" s="36"/>
@@ -4552,21 +4543,14 @@
       <c r="BL34" s="36"/>
     </row>
     <row r="35" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="76" t="s">
-        <v>28</v>
-      </c>
-      <c r="B35" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="C35" s="52"/>
-      <c r="D35" s="28"/>
+      <c r="A35" s="74"/>
+      <c r="B35" s="56"/>
+      <c r="C35" s="51"/>
+      <c r="D35" s="29"/>
       <c r="E35" s="86"/>
-      <c r="F35" s="87"/>
+      <c r="F35" s="86"/>
       <c r="G35" s="17"/>
-      <c r="H35" s="17" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
+      <c r="H35" s="17"/>
       <c r="I35" s="36"/>
       <c r="J35" s="36"/>
       <c r="K35" s="36"/>
@@ -4625,12 +4609,12 @@
       <c r="BL35" s="36"/>
     </row>
     <row r="36" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="76"/>
-      <c r="B36" s="58"/>
-      <c r="C36" s="53"/>
+      <c r="A36" s="74"/>
+      <c r="B36" s="56"/>
+      <c r="C36" s="51"/>
       <c r="D36" s="29"/>
-      <c r="E36" s="88"/>
-      <c r="F36" s="88"/>
+      <c r="E36" s="86"/>
+      <c r="F36" s="86"/>
       <c r="G36" s="17"/>
       <c r="H36" s="17"/>
       <c r="I36" s="36"/>
@@ -4691,12 +4675,12 @@
       <c r="BL36" s="36"/>
     </row>
     <row r="37" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="76"/>
-      <c r="B37" s="58"/>
-      <c r="C37" s="53"/>
+      <c r="A37" s="74"/>
+      <c r="B37" s="56"/>
+      <c r="C37" s="51"/>
       <c r="D37" s="29"/>
-      <c r="E37" s="88"/>
-      <c r="F37" s="88"/>
+      <c r="E37" s="86"/>
+      <c r="F37" s="86"/>
       <c r="G37" s="17"/>
       <c r="H37" s="17"/>
       <c r="I37" s="36"/>
@@ -4757,12 +4741,12 @@
       <c r="BL37" s="36"/>
     </row>
     <row r="38" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="76"/>
-      <c r="B38" s="58"/>
-      <c r="C38" s="53"/>
+      <c r="A38" s="74"/>
+      <c r="B38" s="56"/>
+      <c r="C38" s="51"/>
       <c r="D38" s="29"/>
-      <c r="E38" s="88"/>
-      <c r="F38" s="88"/>
+      <c r="E38" s="86"/>
+      <c r="F38" s="86"/>
       <c r="G38" s="17"/>
       <c r="H38" s="17"/>
       <c r="I38" s="36"/>
@@ -4823,12 +4807,12 @@
       <c r="BL38" s="36"/>
     </row>
     <row r="39" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="76"/>
-      <c r="B39" s="58"/>
-      <c r="C39" s="53"/>
+      <c r="A39" s="74"/>
+      <c r="B39" s="56"/>
+      <c r="C39" s="51"/>
       <c r="D39" s="29"/>
-      <c r="E39" s="88"/>
-      <c r="F39" s="88"/>
+      <c r="E39" s="86"/>
+      <c r="F39" s="86"/>
       <c r="G39" s="17"/>
       <c r="H39" s="17"/>
       <c r="I39" s="36"/>
@@ -4889,12 +4873,14 @@
       <c r="BL39" s="36"/>
     </row>
     <row r="40" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="76"/>
-      <c r="B40" s="58"/>
-      <c r="C40" s="53"/>
-      <c r="D40" s="29"/>
-      <c r="E40" s="88"/>
-      <c r="F40" s="88"/>
+      <c r="A40" s="74" t="s">
+        <v>28</v>
+      </c>
+      <c r="B40" s="57"/>
+      <c r="C40" s="52"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="43"/>
+      <c r="F40" s="43"/>
       <c r="G40" s="17"/>
       <c r="H40" s="17"/>
       <c r="I40" s="36"/>
@@ -4955,205 +4941,137 @@
       <c r="BL40" s="36"/>
     </row>
     <row r="41" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="76" t="s">
-        <v>31</v>
-      </c>
-      <c r="B41" s="59"/>
-      <c r="C41" s="54"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="45"/>
-      <c r="F41" s="45"/>
-      <c r="G41" s="17"/>
-      <c r="H41" s="17"/>
-      <c r="I41" s="36"/>
-      <c r="J41" s="36"/>
-      <c r="K41" s="36"/>
-      <c r="L41" s="36"/>
-      <c r="M41" s="36"/>
-      <c r="N41" s="36"/>
-      <c r="O41" s="36"/>
-      <c r="P41" s="36"/>
-      <c r="Q41" s="36"/>
-      <c r="R41" s="36"/>
-      <c r="S41" s="36"/>
-      <c r="T41" s="36"/>
-      <c r="U41" s="36"/>
-      <c r="V41" s="36"/>
-      <c r="W41" s="36"/>
-      <c r="X41" s="36"/>
-      <c r="Y41" s="36"/>
-      <c r="Z41" s="36"/>
-      <c r="AA41" s="36"/>
-      <c r="AB41" s="36"/>
-      <c r="AC41" s="36"/>
-      <c r="AD41" s="36"/>
-      <c r="AE41" s="36"/>
-      <c r="AF41" s="36"/>
-      <c r="AG41" s="36"/>
-      <c r="AH41" s="36"/>
-      <c r="AI41" s="36"/>
-      <c r="AJ41" s="36"/>
-      <c r="AK41" s="36"/>
-      <c r="AL41" s="36"/>
-      <c r="AM41" s="36"/>
-      <c r="AN41" s="36"/>
-      <c r="AO41" s="36"/>
-      <c r="AP41" s="36"/>
-      <c r="AQ41" s="36"/>
-      <c r="AR41" s="36"/>
-      <c r="AS41" s="36"/>
-      <c r="AT41" s="36"/>
-      <c r="AU41" s="36"/>
-      <c r="AV41" s="36"/>
-      <c r="AW41" s="36"/>
-      <c r="AX41" s="36"/>
-      <c r="AY41" s="36"/>
-      <c r="AZ41" s="36"/>
-      <c r="BA41" s="36"/>
-      <c r="BB41" s="36"/>
-      <c r="BC41" s="36"/>
-      <c r="BD41" s="36"/>
-      <c r="BE41" s="36"/>
-      <c r="BF41" s="36"/>
-      <c r="BG41" s="36"/>
-      <c r="BH41" s="36"/>
-      <c r="BI41" s="36"/>
-      <c r="BJ41" s="36"/>
-      <c r="BK41" s="36"/>
-      <c r="BL41" s="36"/>
-    </row>
-    <row r="42" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="75" t="s">
-        <v>32</v>
-      </c>
-      <c r="B42" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="C42" s="31"/>
-      <c r="D42" s="32"/>
-      <c r="E42" s="33"/>
-      <c r="F42" s="34"/>
-      <c r="G42" s="35"/>
-      <c r="H42" s="35" t="str">
+      <c r="A41" s="73" t="s">
+        <v>29</v>
+      </c>
+      <c r="B41" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C41" s="31"/>
+      <c r="D41" s="32"/>
+      <c r="E41" s="33"/>
+      <c r="F41" s="34"/>
+      <c r="G41" s="35"/>
+      <c r="H41" s="35" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I42" s="37"/>
-      <c r="J42" s="37"/>
-      <c r="K42" s="37"/>
-      <c r="L42" s="37"/>
-      <c r="M42" s="37"/>
-      <c r="N42" s="37"/>
-      <c r="O42" s="37"/>
-      <c r="P42" s="37"/>
-      <c r="Q42" s="37"/>
-      <c r="R42" s="37"/>
-      <c r="S42" s="37"/>
-      <c r="T42" s="37"/>
-      <c r="U42" s="37"/>
-      <c r="V42" s="37"/>
-      <c r="W42" s="37"/>
-      <c r="X42" s="37"/>
-      <c r="Y42" s="37"/>
-      <c r="Z42" s="37"/>
-      <c r="AA42" s="37"/>
-      <c r="AB42" s="37"/>
-      <c r="AC42" s="37"/>
-      <c r="AD42" s="37"/>
-      <c r="AE42" s="37"/>
-      <c r="AF42" s="37"/>
-      <c r="AG42" s="37"/>
-      <c r="AH42" s="37"/>
-      <c r="AI42" s="37"/>
-      <c r="AJ42" s="37"/>
-      <c r="AK42" s="37"/>
-      <c r="AL42" s="37"/>
-      <c r="AM42" s="37"/>
-      <c r="AN42" s="37"/>
-      <c r="AO42" s="37"/>
-      <c r="AP42" s="37"/>
-      <c r="AQ42" s="37"/>
-      <c r="AR42" s="37"/>
-      <c r="AS42" s="37"/>
-      <c r="AT42" s="37"/>
-      <c r="AU42" s="37"/>
-      <c r="AV42" s="37"/>
-      <c r="AW42" s="37"/>
-      <c r="AX42" s="37"/>
-      <c r="AY42" s="37"/>
-      <c r="AZ42" s="37"/>
-      <c r="BA42" s="37"/>
-      <c r="BB42" s="37"/>
-      <c r="BC42" s="37"/>
-      <c r="BD42" s="37"/>
-      <c r="BE42" s="37"/>
-      <c r="BF42" s="37"/>
-      <c r="BG42" s="37"/>
-      <c r="BH42" s="37"/>
-      <c r="BI42" s="37"/>
-      <c r="BJ42" s="37"/>
-      <c r="BK42" s="37"/>
-      <c r="BL42" s="37"/>
+      <c r="I41" s="37"/>
+      <c r="J41" s="37"/>
+      <c r="K41" s="37"/>
+      <c r="L41" s="37"/>
+      <c r="M41" s="37"/>
+      <c r="N41" s="37"/>
+      <c r="O41" s="37"/>
+      <c r="P41" s="37"/>
+      <c r="Q41" s="37"/>
+      <c r="R41" s="37"/>
+      <c r="S41" s="37"/>
+      <c r="T41" s="37"/>
+      <c r="U41" s="37"/>
+      <c r="V41" s="37"/>
+      <c r="W41" s="37"/>
+      <c r="X41" s="37"/>
+      <c r="Y41" s="37"/>
+      <c r="Z41" s="37"/>
+      <c r="AA41" s="37"/>
+      <c r="AB41" s="37"/>
+      <c r="AC41" s="37"/>
+      <c r="AD41" s="37"/>
+      <c r="AE41" s="37"/>
+      <c r="AF41" s="37"/>
+      <c r="AG41" s="37"/>
+      <c r="AH41" s="37"/>
+      <c r="AI41" s="37"/>
+      <c r="AJ41" s="37"/>
+      <c r="AK41" s="37"/>
+      <c r="AL41" s="37"/>
+      <c r="AM41" s="37"/>
+      <c r="AN41" s="37"/>
+      <c r="AO41" s="37"/>
+      <c r="AP41" s="37"/>
+      <c r="AQ41" s="37"/>
+      <c r="AR41" s="37"/>
+      <c r="AS41" s="37"/>
+      <c r="AT41" s="37"/>
+      <c r="AU41" s="37"/>
+      <c r="AV41" s="37"/>
+      <c r="AW41" s="37"/>
+      <c r="AX41" s="37"/>
+      <c r="AY41" s="37"/>
+      <c r="AZ41" s="37"/>
+      <c r="BA41" s="37"/>
+      <c r="BB41" s="37"/>
+      <c r="BC41" s="37"/>
+      <c r="BD41" s="37"/>
+      <c r="BE41" s="37"/>
+      <c r="BF41" s="37"/>
+      <c r="BG41" s="37"/>
+      <c r="BH41" s="37"/>
+      <c r="BI41" s="37"/>
+      <c r="BJ41" s="37"/>
+      <c r="BK41" s="37"/>
+      <c r="BL41" s="37"/>
+    </row>
+    <row r="42" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G42" s="6"/>
     </row>
     <row r="43" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G43" s="6"/>
-    </row>
-    <row r="44" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C44" s="14"/>
-      <c r="F44" s="39"/>
+      <c r="C43" s="14"/>
+      <c r="F43" s="39"/>
+    </row>
+    <row r="44" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C44" s="15"/>
     </row>
     <row r="45" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C45" s="15"/>
+      <c r="B45" s="53" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="46" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="55" t="s">
+      <c r="B46" s="53" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="47" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="53" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="48" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="53" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="47" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="55" t="s">
+    <row r="49" spans="2:2" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="53" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="53"/>
+    </row>
+    <row r="51" spans="2:2" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="53" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="48" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="55" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="49" spans="2:2" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="55" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="50" spans="2:2" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="55" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="51" spans="2:2" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="55"/>
-    </row>
-    <row r="52" spans="2:2" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="55" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="AY3:BE3"/>
+    <mergeCell ref="BF3:BL3"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="I3:O3"/>
+    <mergeCell ref="P3:V3"/>
+    <mergeCell ref="W3:AC3"/>
+    <mergeCell ref="AD3:AJ3"/>
+    <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
-    <mergeCell ref="AY4:BE4"/>
-    <mergeCell ref="BF4:BL4"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="I4:O4"/>
-    <mergeCell ref="P4:V4"/>
-    <mergeCell ref="W4:AC4"/>
-    <mergeCell ref="AD4:AJ4"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="AK3:AQ3"/>
+    <mergeCell ref="AR3:AX3"/>
   </mergeCells>
-  <conditionalFormatting sqref="D23:D42 D7:D14">
+  <conditionalFormatting sqref="D22:D41 D6:D13">
     <cfRule type="dataBar" priority="18">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -5167,20 +5085,20 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:BL42">
+  <conditionalFormatting sqref="I4:BL41">
     <cfRule type="expression" dxfId="2" priority="37">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
+      <formula>AND(TODAY()&gt;=I$4,TODAY()&lt;J$4)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I7:BL42">
+  <conditionalFormatting sqref="I6:BL41">
     <cfRule type="expression" dxfId="1" priority="31">
-      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
+      <formula>AND(task_start&lt;=I$4,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$4)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="0" priority="32" stopIfTrue="1">
-      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
+      <formula>AND(task_end&gt;=I$4,task_start&lt;J$4)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D19:D22">
+  <conditionalFormatting sqref="D18:D21">
     <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -5194,7 +5112,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D15:D17">
+  <conditionalFormatting sqref="D14:D16">
     <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -5208,7 +5126,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D18">
+  <conditionalFormatting sqref="D17">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -5223,17 +5141,13 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="Display Week" prompt="Changing this number will scroll the Gantt Chart view." sqref="E4" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="Display Week" prompt="Changing this number will scroll the Gantt Chart view." sqref="E3" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>1</formula1>
     </dataValidation>
   </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="I1" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-  </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.35" right="0.35" top="0.35" bottom="0.5" header="0.3" footer="0.3"/>
-  <pageSetup scale="57" fitToHeight="0" orientation="landscape" r:id="rId3"/>
+  <pageSetup scale="57" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter differentFirst="1" scaleWithDoc="0">
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
@@ -5253,7 +5167,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D23:D42 D7:D14</xm:sqref>
+          <xm:sqref>D22:D41 D6:D13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{D13E1797-F8B6-4241-9FBC-9074A55E5511}">
@@ -5268,7 +5182,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D19:D22</xm:sqref>
+          <xm:sqref>D18:D21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{FE7C0A31-7B3A-534A-91C0-5BC01C3C6546}">
@@ -5283,7 +5197,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D15:D17</xm:sqref>
+          <xm:sqref>D14:D16</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{DE25D6E0-AD7C-C54F-90DC-0E8CB25971C9}">
@@ -5298,7 +5212,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D18</xm:sqref>
+          <xm:sqref>D17</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -5322,229 +5236,229 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="60" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="60" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="60" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="62" t="s">
+      <c r="B2" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="62" t="s">
+      <c r="C2" s="64" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="68" t="s">
+    <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="67"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="68" t="s">
+    </row>
+    <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="66"/>
+      <c r="B4" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="66" t="s">
+      <c r="C4" s="62" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="69"/>
-      <c r="B3" s="69"/>
-      <c r="C3" s="63" t="s">
+    <row r="5" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="67"/>
+      <c r="B5" s="67" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="68"/>
-      <c r="B4" s="68" t="s">
+      <c r="C5" s="63" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="64" t="s">
+    </row>
+    <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="66"/>
+      <c r="B6" s="66" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="69"/>
-      <c r="B5" s="69" t="s">
+      <c r="C6" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="65" t="s">
+    </row>
+    <row r="7" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="67"/>
+      <c r="B7" s="67"/>
+      <c r="C7" s="63" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="68"/>
-      <c r="B6" s="68" t="s">
+    <row r="8" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="66"/>
+      <c r="B8" s="66" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="64" t="s">
+      <c r="C8" s="62" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="69"/>
-      <c r="B7" s="69"/>
-      <c r="C7" s="65" t="s">
+    <row r="9" spans="1:3" ht="64" x14ac:dyDescent="0.2">
+      <c r="A9" s="67"/>
+      <c r="B9" s="67"/>
+      <c r="C9" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="68"/>
-      <c r="B8" s="68" t="s">
+    <row r="10" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="66"/>
+      <c r="B10" s="66"/>
+      <c r="C10" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="C8" s="64" t="s">
+    </row>
+    <row r="11" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="67" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="64" x14ac:dyDescent="0.2">
-      <c r="A9" s="69"/>
-      <c r="B9" s="69"/>
-      <c r="C9" s="65" t="s">
+      <c r="B11" s="70" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="63" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="68"/>
-      <c r="B10" s="68"/>
-      <c r="C10" s="64" t="s">
+    <row r="12" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="66"/>
+      <c r="B12" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="62" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="69" t="s">
+    <row r="13" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="67"/>
+      <c r="B13" s="67" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="61"/>
+    </row>
+    <row r="14" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="66"/>
+      <c r="B14" s="66" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="B11" s="72" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="65" t="s">
+    </row>
+    <row r="15" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="67"/>
+      <c r="B15" s="67" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="61"/>
+    </row>
+    <row r="16" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="66" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="68"/>
-      <c r="B12" s="68" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" s="64" t="s">
+      <c r="B16" s="66" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="64" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="69"/>
-      <c r="B13" s="69" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" s="63"/>
-    </row>
-    <row r="14" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="68"/>
-      <c r="B14" s="68" t="s">
+    <row r="17" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="67"/>
+      <c r="B17" s="67" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="61"/>
+    </row>
+    <row r="18" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="66"/>
+      <c r="B18" s="66" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="65" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="67"/>
+      <c r="B19" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="67" t="s">
+      <c r="C19" s="61"/>
+    </row>
+    <row r="20" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="66" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="69"/>
-      <c r="B15" s="69" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" s="63"/>
-    </row>
-    <row r="16" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="68" t="s">
+      <c r="B20" s="66" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="64" t="s">
         <v>61</v>
       </c>
-      <c r="B16" s="68" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" s="66" t="s">
+    </row>
+    <row r="21" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="67"/>
+      <c r="B21" s="67" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="61"/>
+    </row>
+    <row r="22" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="66"/>
+      <c r="B22" s="66" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="65" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="69"/>
-      <c r="B17" s="69" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" s="63"/>
-    </row>
-    <row r="18" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="68"/>
-      <c r="B18" s="68" t="s">
+    <row r="23" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="67"/>
+      <c r="B23" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="67" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="69"/>
-      <c r="B19" s="69" t="s">
-        <v>53</v>
-      </c>
-      <c r="C19" s="63"/>
-    </row>
-    <row r="20" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="68" t="s">
+      <c r="C23" s="61" t="s">
         <v>63</v>
       </c>
-      <c r="B20" s="68" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" s="66" t="s">
+    </row>
+    <row r="24" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" s="66" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="69"/>
-      <c r="B21" s="69" t="s">
-        <v>48</v>
-      </c>
-      <c r="C21" s="63"/>
-    </row>
-    <row r="22" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="68"/>
-      <c r="B22" s="68" t="s">
-        <v>50</v>
-      </c>
-      <c r="C22" s="67" t="s">
+      <c r="B24" s="66" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="64" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="69"/>
-      <c r="B23" s="69" t="s">
-        <v>53</v>
-      </c>
-      <c r="C23" s="63" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="68" t="s">
-        <v>67</v>
-      </c>
-      <c r="B24" s="68" t="s">
-        <v>48</v>
-      </c>
-      <c r="C24" s="66" t="s">
-        <v>68</v>
-      </c>
-    </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="70"/>
-      <c r="B25" s="70"/>
-      <c r="C25" s="60"/>
+      <c r="A25" s="68"/>
+      <c r="B25" s="68"/>
+      <c r="C25" s="58"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="71"/>
-      <c r="B26" s="71"/>
-      <c r="C26" s="61"/>
+      <c r="A26" s="69"/>
+      <c r="B26" s="69"/>
+      <c r="C26" s="59"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="70"/>
-      <c r="B27" s="70"/>
-      <c r="C27" s="60"/>
+      <c r="A27" s="68"/>
+      <c r="B27" s="68"/>
+      <c r="C27" s="58"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/Gantt Chart.xlsx
+++ b/Gantt Chart.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F33DF01F-072A-8F41-8041-62F27E603C95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCBBF35F-CCEF-854E-86CC-BC39323425D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1000" yWindow="500" windowWidth="27800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1020" yWindow="500" windowWidth="27780" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectSchedule" sheetId="11" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="13" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="Display_Week">ProjectSchedule!$E$4</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">ProjectSchedule!$4:$6</definedName>
-    <definedName name="Project_Start">ProjectSchedule!$E$3</definedName>
+    <definedName name="Display_Week">ProjectSchedule!$E$3</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">ProjectSchedule!$3:$5</definedName>
+    <definedName name="Project_Start">ProjectSchedule!$E$2</definedName>
     <definedName name="task_end" localSheetId="0">ProjectSchedule!$F1</definedName>
     <definedName name="task_progress" localSheetId="0">ProjectSchedule!$D1</definedName>
     <definedName name="task_start" localSheetId="0">ProjectSchedule!$E1</definedName>
@@ -39,21 +39,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="81">
   <si>
     <t>Create a Project Schedule in this worksheet.
 Enter title of this project in cell B1. 
 Information about how to use this worksheet, including instructions for screen readers and the author of this workbook is in the About worksheet.
 Continue navigating down column A to hear further instructions.</t>
-  </si>
-  <si>
-    <t>SIMPLE GANTT CHART by Vertex42.com</t>
-  </si>
-  <si>
-    <t>Enter Company Name in cell B2.</t>
-  </si>
-  <si>
-    <t>https://www.vertex42.com/ExcelTemplates/simple-gantt-chart.html</t>
   </si>
   <si>
     <t>Enter the name of the Project Lead in cell B3. Enter the Project Start date in cell E3. Pooject Start: label is in cell C3.</t>
@@ -576,16 +567,13 @@
     <t>Draw overall circuit diagram and build circuit on Proto Board</t>
   </si>
   <si>
-    <t>Calculate arm dynamics</t>
-  </si>
-  <si>
-    <t>Calculate metal detector circuit parameters</t>
-  </si>
-  <si>
-    <t>Calculate parameters in line-follow circuit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calculate sensor location https://www.vle.cam.ac.uk/mod/page/view.php?id=13564051 </t>
+    <t>Start test</t>
+  </si>
+  <si>
+    <t>EE &amp; Software</t>
+  </si>
+  <si>
+    <t>Block searching mechanism</t>
   </si>
 </sst>
 </file>
@@ -770,7 +758,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -864,12 +852,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1040,7 +1022,7 @@
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1153,16 +1135,12 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyProtection="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="6"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="7">
       <alignment vertical="top"/>
     </xf>
@@ -1293,9 +1271,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="12" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="2" xfId="12" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="12" applyFill="1" applyAlignment="1">
@@ -1832,14 +1807,14 @@
   </sheetPr>
   <dimension ref="A1:BL51"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B26" sqref="B26"/>
+    <sheetView showGridLines="0" showRuler="0" zoomScale="119" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.33203125" style="76" customWidth="1"/>
+    <col min="1" max="1" width="2.33203125" style="74" customWidth="1"/>
     <col min="2" max="2" width="36" customWidth="1"/>
     <col min="3" max="3" width="15.83203125" customWidth="1"/>
     <col min="4" max="4" width="10.6640625" customWidth="1"/>
@@ -1852,627 +1827,689 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42" t="s">
-        <v>71</v>
+      <c r="B1" s="41" t="s">
+        <v>68</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
       <c r="E1" s="4"/>
       <c r="F1" s="38"/>
       <c r="H1" s="2"/>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="14"/>
+    </row>
+    <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="74" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="76" t="s">
+      <c r="B2" s="42"/>
+      <c r="C2" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="I2" s="40" t="s">
+      <c r="D2" s="90"/>
+      <c r="E2" s="95">
+        <v>44476</v>
+      </c>
+      <c r="F2" s="95"/>
+    </row>
+    <row r="3" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="73" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="76" t="s">
+      <c r="C3" s="89" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="92" t="s">
+      <c r="D3" s="90"/>
+      <c r="E3" s="7">
+        <v>1</v>
+      </c>
+      <c r="I3" s="92">
+        <f>I4</f>
+        <v>44473</v>
+      </c>
+      <c r="J3" s="93"/>
+      <c r="K3" s="93"/>
+      <c r="L3" s="93"/>
+      <c r="M3" s="93"/>
+      <c r="N3" s="93"/>
+      <c r="O3" s="94"/>
+      <c r="P3" s="92">
+        <f>P4</f>
+        <v>44480</v>
+      </c>
+      <c r="Q3" s="93"/>
+      <c r="R3" s="93"/>
+      <c r="S3" s="93"/>
+      <c r="T3" s="93"/>
+      <c r="U3" s="93"/>
+      <c r="V3" s="94"/>
+      <c r="W3" s="92">
+        <f>W4</f>
+        <v>44487</v>
+      </c>
+      <c r="X3" s="93"/>
+      <c r="Y3" s="93"/>
+      <c r="Z3" s="93"/>
+      <c r="AA3" s="93"/>
+      <c r="AB3" s="93"/>
+      <c r="AC3" s="94"/>
+      <c r="AD3" s="92">
+        <f>AD4</f>
+        <v>44494</v>
+      </c>
+      <c r="AE3" s="93"/>
+      <c r="AF3" s="93"/>
+      <c r="AG3" s="93"/>
+      <c r="AH3" s="93"/>
+      <c r="AI3" s="93"/>
+      <c r="AJ3" s="94"/>
+      <c r="AK3" s="92">
+        <f>AK4</f>
+        <v>44501</v>
+      </c>
+      <c r="AL3" s="93"/>
+      <c r="AM3" s="93"/>
+      <c r="AN3" s="93"/>
+      <c r="AO3" s="93"/>
+      <c r="AP3" s="93"/>
+      <c r="AQ3" s="94"/>
+      <c r="AR3" s="92">
+        <f>AR4</f>
+        <v>44508</v>
+      </c>
+      <c r="AS3" s="93"/>
+      <c r="AT3" s="93"/>
+      <c r="AU3" s="93"/>
+      <c r="AV3" s="93"/>
+      <c r="AW3" s="93"/>
+      <c r="AX3" s="94"/>
+      <c r="AY3" s="92">
+        <f>AY4</f>
+        <v>44515</v>
+      </c>
+      <c r="AZ3" s="93"/>
+      <c r="BA3" s="93"/>
+      <c r="BB3" s="93"/>
+      <c r="BC3" s="93"/>
+      <c r="BD3" s="93"/>
+      <c r="BE3" s="94"/>
+      <c r="BF3" s="92">
+        <f>BF4</f>
+        <v>44522</v>
+      </c>
+      <c r="BG3" s="93"/>
+      <c r="BH3" s="93"/>
+      <c r="BI3" s="93"/>
+      <c r="BJ3" s="93"/>
+      <c r="BK3" s="93"/>
+      <c r="BL3" s="94"/>
+    </row>
+    <row r="4" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="93"/>
-      <c r="E3" s="98">
-        <v>44476</v>
-      </c>
-      <c r="F3" s="98"/>
-    </row>
-    <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="75" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="92" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="93"/>
-      <c r="E4" s="7">
-        <v>1</v>
-      </c>
-      <c r="I4" s="95">
-        <f>I5</f>
-        <v>44473</v>
-      </c>
-      <c r="J4" s="96"/>
-      <c r="K4" s="96"/>
-      <c r="L4" s="96"/>
-      <c r="M4" s="96"/>
-      <c r="N4" s="96"/>
-      <c r="O4" s="97"/>
-      <c r="P4" s="95">
-        <f>P5</f>
-        <v>44480</v>
-      </c>
-      <c r="Q4" s="96"/>
-      <c r="R4" s="96"/>
-      <c r="S4" s="96"/>
-      <c r="T4" s="96"/>
-      <c r="U4" s="96"/>
-      <c r="V4" s="97"/>
-      <c r="W4" s="95">
-        <f>W5</f>
-        <v>44487</v>
-      </c>
-      <c r="X4" s="96"/>
-      <c r="Y4" s="96"/>
-      <c r="Z4" s="96"/>
-      <c r="AA4" s="96"/>
-      <c r="AB4" s="96"/>
-      <c r="AC4" s="97"/>
-      <c r="AD4" s="95">
-        <f>AD5</f>
-        <v>44494</v>
-      </c>
-      <c r="AE4" s="96"/>
-      <c r="AF4" s="96"/>
-      <c r="AG4" s="96"/>
-      <c r="AH4" s="96"/>
-      <c r="AI4" s="96"/>
-      <c r="AJ4" s="97"/>
-      <c r="AK4" s="95">
-        <f>AK5</f>
-        <v>44501</v>
-      </c>
-      <c r="AL4" s="96"/>
-      <c r="AM4" s="96"/>
-      <c r="AN4" s="96"/>
-      <c r="AO4" s="96"/>
-      <c r="AP4" s="96"/>
-      <c r="AQ4" s="97"/>
-      <c r="AR4" s="95">
-        <f>AR5</f>
-        <v>44508</v>
-      </c>
-      <c r="AS4" s="96"/>
-      <c r="AT4" s="96"/>
-      <c r="AU4" s="96"/>
-      <c r="AV4" s="96"/>
-      <c r="AW4" s="96"/>
-      <c r="AX4" s="97"/>
-      <c r="AY4" s="95">
-        <f>AY5</f>
-        <v>44515</v>
-      </c>
-      <c r="AZ4" s="96"/>
-      <c r="BA4" s="96"/>
-      <c r="BB4" s="96"/>
-      <c r="BC4" s="96"/>
-      <c r="BD4" s="96"/>
-      <c r="BE4" s="97"/>
-      <c r="BF4" s="95">
-        <f>BF5</f>
-        <v>44522</v>
-      </c>
-      <c r="BG4" s="96"/>
-      <c r="BH4" s="96"/>
-      <c r="BI4" s="96"/>
-      <c r="BJ4" s="96"/>
-      <c r="BK4" s="96"/>
-      <c r="BL4" s="97"/>
-    </row>
-    <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="75" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="94"/>
-      <c r="C5" s="94"/>
-      <c r="D5" s="94"/>
-      <c r="E5" s="94"/>
-      <c r="F5" s="94"/>
-      <c r="G5" s="94"/>
-      <c r="I5" s="11">
+      <c r="B4" s="91"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="91"/>
+      <c r="I4" s="11">
         <f>Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
         <v>44473</v>
       </c>
-      <c r="J5" s="10">
-        <f>I5+1</f>
+      <c r="J4" s="10">
+        <f>I4+1</f>
         <v>44474</v>
       </c>
-      <c r="K5" s="10">
-        <f t="shared" ref="K5:AX5" si="0">J5+1</f>
+      <c r="K4" s="10">
+        <f t="shared" ref="K4:AX4" si="0">J4+1</f>
         <v>44475</v>
       </c>
-      <c r="L5" s="10">
+      <c r="L4" s="10">
         <f t="shared" si="0"/>
         <v>44476</v>
       </c>
-      <c r="M5" s="10">
+      <c r="M4" s="10">
         <f t="shared" si="0"/>
         <v>44477</v>
       </c>
-      <c r="N5" s="10">
+      <c r="N4" s="10">
         <f t="shared" si="0"/>
         <v>44478</v>
       </c>
-      <c r="O5" s="12">
+      <c r="O4" s="12">
         <f t="shared" si="0"/>
         <v>44479</v>
       </c>
-      <c r="P5" s="11">
-        <f>O5+1</f>
+      <c r="P4" s="11">
+        <f>O4+1</f>
         <v>44480</v>
       </c>
-      <c r="Q5" s="10">
-        <f>P5+1</f>
+      <c r="Q4" s="10">
+        <f>P4+1</f>
         <v>44481</v>
       </c>
-      <c r="R5" s="10">
+      <c r="R4" s="10">
         <f t="shared" si="0"/>
         <v>44482</v>
       </c>
-      <c r="S5" s="10">
+      <c r="S4" s="10">
         <f t="shared" si="0"/>
         <v>44483</v>
       </c>
-      <c r="T5" s="10">
+      <c r="T4" s="10">
         <f t="shared" si="0"/>
         <v>44484</v>
       </c>
-      <c r="U5" s="10">
+      <c r="U4" s="10">
         <f t="shared" si="0"/>
         <v>44485</v>
       </c>
-      <c r="V5" s="12">
+      <c r="V4" s="12">
         <f t="shared" si="0"/>
         <v>44486</v>
       </c>
-      <c r="W5" s="11">
-        <f>V5+1</f>
+      <c r="W4" s="11">
+        <f>V4+1</f>
         <v>44487</v>
       </c>
-      <c r="X5" s="10">
-        <f>W5+1</f>
+      <c r="X4" s="10">
+        <f>W4+1</f>
         <v>44488</v>
       </c>
-      <c r="Y5" s="10">
+      <c r="Y4" s="10">
         <f t="shared" si="0"/>
         <v>44489</v>
       </c>
-      <c r="Z5" s="10">
+      <c r="Z4" s="10">
         <f t="shared" si="0"/>
         <v>44490</v>
       </c>
-      <c r="AA5" s="10">
+      <c r="AA4" s="10">
         <f t="shared" si="0"/>
         <v>44491</v>
       </c>
-      <c r="AB5" s="10">
+      <c r="AB4" s="10">
         <f t="shared" si="0"/>
         <v>44492</v>
       </c>
-      <c r="AC5" s="12">
+      <c r="AC4" s="12">
         <f t="shared" si="0"/>
         <v>44493</v>
       </c>
-      <c r="AD5" s="11">
-        <f>AC5+1</f>
+      <c r="AD4" s="11">
+        <f>AC4+1</f>
         <v>44494</v>
       </c>
-      <c r="AE5" s="10">
-        <f>AD5+1</f>
+      <c r="AE4" s="10">
+        <f>AD4+1</f>
         <v>44495</v>
       </c>
-      <c r="AF5" s="10">
+      <c r="AF4" s="10">
         <f t="shared" si="0"/>
         <v>44496</v>
       </c>
-      <c r="AG5" s="10">
+      <c r="AG4" s="10">
         <f t="shared" si="0"/>
         <v>44497</v>
       </c>
-      <c r="AH5" s="10">
+      <c r="AH4" s="10">
         <f t="shared" si="0"/>
         <v>44498</v>
       </c>
-      <c r="AI5" s="10">
+      <c r="AI4" s="10">
         <f t="shared" si="0"/>
         <v>44499</v>
       </c>
-      <c r="AJ5" s="12">
+      <c r="AJ4" s="12">
         <f t="shared" si="0"/>
         <v>44500</v>
       </c>
-      <c r="AK5" s="11">
-        <f>AJ5+1</f>
+      <c r="AK4" s="11">
+        <f>AJ4+1</f>
         <v>44501</v>
       </c>
-      <c r="AL5" s="10">
-        <f>AK5+1</f>
+      <c r="AL4" s="10">
+        <f>AK4+1</f>
         <v>44502</v>
       </c>
-      <c r="AM5" s="10">
+      <c r="AM4" s="10">
         <f t="shared" si="0"/>
         <v>44503</v>
       </c>
-      <c r="AN5" s="10">
+      <c r="AN4" s="10">
         <f t="shared" si="0"/>
         <v>44504</v>
       </c>
-      <c r="AO5" s="10">
+      <c r="AO4" s="10">
         <f t="shared" si="0"/>
         <v>44505</v>
       </c>
-      <c r="AP5" s="10">
+      <c r="AP4" s="10">
         <f t="shared" si="0"/>
         <v>44506</v>
       </c>
-      <c r="AQ5" s="12">
+      <c r="AQ4" s="12">
         <f t="shared" si="0"/>
         <v>44507</v>
       </c>
-      <c r="AR5" s="11">
-        <f>AQ5+1</f>
+      <c r="AR4" s="11">
+        <f>AQ4+1</f>
         <v>44508</v>
       </c>
-      <c r="AS5" s="10">
-        <f>AR5+1</f>
+      <c r="AS4" s="10">
+        <f>AR4+1</f>
         <v>44509</v>
       </c>
-      <c r="AT5" s="10">
+      <c r="AT4" s="10">
         <f t="shared" si="0"/>
         <v>44510</v>
       </c>
-      <c r="AU5" s="10">
+      <c r="AU4" s="10">
         <f t="shared" si="0"/>
         <v>44511</v>
       </c>
-      <c r="AV5" s="10">
+      <c r="AV4" s="10">
         <f t="shared" si="0"/>
         <v>44512</v>
       </c>
-      <c r="AW5" s="10">
+      <c r="AW4" s="10">
         <f t="shared" si="0"/>
         <v>44513</v>
       </c>
-      <c r="AX5" s="12">
+      <c r="AX4" s="12">
         <f t="shared" si="0"/>
         <v>44514</v>
       </c>
-      <c r="AY5" s="11">
-        <f>AX5+1</f>
+      <c r="AY4" s="11">
+        <f>AX4+1</f>
         <v>44515</v>
       </c>
-      <c r="AZ5" s="10">
-        <f>AY5+1</f>
+      <c r="AZ4" s="10">
+        <f>AY4+1</f>
         <v>44516</v>
       </c>
-      <c r="BA5" s="10">
-        <f t="shared" ref="BA5:BE5" si="1">AZ5+1</f>
+      <c r="BA4" s="10">
+        <f t="shared" ref="BA4:BE4" si="1">AZ4+1</f>
         <v>44517</v>
       </c>
-      <c r="BB5" s="10">
+      <c r="BB4" s="10">
         <f t="shared" si="1"/>
         <v>44518</v>
       </c>
-      <c r="BC5" s="10">
+      <c r="BC4" s="10">
         <f t="shared" si="1"/>
         <v>44519</v>
       </c>
-      <c r="BD5" s="10">
+      <c r="BD4" s="10">
         <f t="shared" si="1"/>
         <v>44520</v>
       </c>
-      <c r="BE5" s="12">
+      <c r="BE4" s="12">
         <f t="shared" si="1"/>
         <v>44521</v>
       </c>
-      <c r="BF5" s="11">
-        <f>BE5+1</f>
+      <c r="BF4" s="11">
+        <f>BE4+1</f>
         <v>44522</v>
       </c>
-      <c r="BG5" s="10">
-        <f>BF5+1</f>
+      <c r="BG4" s="10">
+        <f>BF4+1</f>
         <v>44523</v>
       </c>
-      <c r="BH5" s="10">
-        <f t="shared" ref="BH5:BL5" si="2">BG5+1</f>
+      <c r="BH4" s="10">
+        <f t="shared" ref="BH4:BL4" si="2">BG4+1</f>
         <v>44524</v>
       </c>
-      <c r="BI5" s="10">
+      <c r="BI4" s="10">
         <f t="shared" si="2"/>
         <v>44525</v>
       </c>
-      <c r="BJ5" s="10">
+      <c r="BJ4" s="10">
         <f t="shared" si="2"/>
         <v>44526</v>
       </c>
-      <c r="BK5" s="10">
+      <c r="BK4" s="10">
         <f t="shared" si="2"/>
         <v>44527</v>
       </c>
-      <c r="BL5" s="12">
+      <c r="BL4" s="12">
         <f t="shared" si="2"/>
         <v>44528</v>
       </c>
     </row>
-    <row r="6" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="75" t="s">
+    <row r="5" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="E5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="F5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="G5" s="9"/>
+      <c r="H5" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="13" t="str">
-        <f t="shared" ref="I6" si="3">LEFT(TEXT(I5,"ddd"),1)</f>
+      <c r="I5" s="13" t="str">
+        <f t="shared" ref="I5" si="3">LEFT(TEXT(I4,"ddd"),1)</f>
         <v>M</v>
       </c>
-      <c r="J6" s="13" t="str">
-        <f t="shared" ref="J6:AR6" si="4">LEFT(TEXT(J5,"ddd"),1)</f>
+      <c r="J5" s="13" t="str">
+        <f t="shared" ref="J5:AR5" si="4">LEFT(TEXT(J4,"ddd"),1)</f>
         <v>T</v>
       </c>
-      <c r="K6" s="13" t="str">
+      <c r="K5" s="13" t="str">
         <f t="shared" si="4"/>
         <v>W</v>
       </c>
-      <c r="L6" s="13" t="str">
+      <c r="L5" s="13" t="str">
         <f t="shared" si="4"/>
         <v>T</v>
       </c>
-      <c r="M6" s="13" t="str">
+      <c r="M5" s="13" t="str">
         <f t="shared" si="4"/>
         <v>F</v>
       </c>
-      <c r="N6" s="13" t="str">
+      <c r="N5" s="13" t="str">
         <f t="shared" si="4"/>
         <v>S</v>
       </c>
-      <c r="O6" s="13" t="str">
+      <c r="O5" s="13" t="str">
         <f t="shared" si="4"/>
         <v>S</v>
       </c>
-      <c r="P6" s="13" t="str">
+      <c r="P5" s="13" t="str">
         <f t="shared" si="4"/>
         <v>M</v>
       </c>
-      <c r="Q6" s="13" t="str">
+      <c r="Q5" s="13" t="str">
         <f t="shared" si="4"/>
         <v>T</v>
       </c>
-      <c r="R6" s="13" t="str">
+      <c r="R5" s="13" t="str">
         <f t="shared" si="4"/>
         <v>W</v>
       </c>
-      <c r="S6" s="13" t="str">
+      <c r="S5" s="13" t="str">
         <f t="shared" si="4"/>
         <v>T</v>
       </c>
-      <c r="T6" s="13" t="str">
+      <c r="T5" s="13" t="str">
         <f t="shared" si="4"/>
         <v>F</v>
       </c>
-      <c r="U6" s="13" t="str">
+      <c r="U5" s="13" t="str">
         <f t="shared" si="4"/>
         <v>S</v>
       </c>
-      <c r="V6" s="13" t="str">
+      <c r="V5" s="13" t="str">
         <f t="shared" si="4"/>
         <v>S</v>
       </c>
-      <c r="W6" s="13" t="str">
+      <c r="W5" s="13" t="str">
         <f t="shared" si="4"/>
         <v>M</v>
       </c>
-      <c r="X6" s="13" t="str">
+      <c r="X5" s="13" t="str">
         <f t="shared" si="4"/>
         <v>T</v>
       </c>
-      <c r="Y6" s="13" t="str">
+      <c r="Y5" s="13" t="str">
         <f t="shared" si="4"/>
         <v>W</v>
       </c>
-      <c r="Z6" s="13" t="str">
+      <c r="Z5" s="13" t="str">
         <f t="shared" si="4"/>
         <v>T</v>
       </c>
-      <c r="AA6" s="13" t="str">
+      <c r="AA5" s="13" t="str">
         <f t="shared" si="4"/>
         <v>F</v>
       </c>
-      <c r="AB6" s="13" t="str">
+      <c r="AB5" s="13" t="str">
         <f t="shared" si="4"/>
         <v>S</v>
       </c>
-      <c r="AC6" s="13" t="str">
+      <c r="AC5" s="13" t="str">
         <f t="shared" si="4"/>
         <v>S</v>
       </c>
-      <c r="AD6" s="13" t="str">
+      <c r="AD5" s="13" t="str">
         <f t="shared" si="4"/>
         <v>M</v>
       </c>
-      <c r="AE6" s="13" t="str">
+      <c r="AE5" s="13" t="str">
         <f t="shared" si="4"/>
         <v>T</v>
       </c>
-      <c r="AF6" s="13" t="str">
+      <c r="AF5" s="13" t="str">
         <f t="shared" si="4"/>
         <v>W</v>
       </c>
-      <c r="AG6" s="13" t="str">
+      <c r="AG5" s="13" t="str">
         <f t="shared" si="4"/>
         <v>T</v>
       </c>
-      <c r="AH6" s="13" t="str">
+      <c r="AH5" s="13" t="str">
         <f t="shared" si="4"/>
         <v>F</v>
       </c>
-      <c r="AI6" s="13" t="str">
+      <c r="AI5" s="13" t="str">
         <f t="shared" si="4"/>
         <v>S</v>
       </c>
-      <c r="AJ6" s="13" t="str">
+      <c r="AJ5" s="13" t="str">
         <f t="shared" si="4"/>
         <v>S</v>
       </c>
-      <c r="AK6" s="13" t="str">
+      <c r="AK5" s="13" t="str">
         <f t="shared" si="4"/>
         <v>M</v>
       </c>
-      <c r="AL6" s="13" t="str">
+      <c r="AL5" s="13" t="str">
         <f t="shared" si="4"/>
         <v>T</v>
       </c>
-      <c r="AM6" s="13" t="str">
+      <c r="AM5" s="13" t="str">
         <f t="shared" si="4"/>
         <v>W</v>
       </c>
-      <c r="AN6" s="13" t="str">
+      <c r="AN5" s="13" t="str">
         <f t="shared" si="4"/>
         <v>T</v>
       </c>
-      <c r="AO6" s="13" t="str">
+      <c r="AO5" s="13" t="str">
         <f t="shared" si="4"/>
         <v>F</v>
       </c>
-      <c r="AP6" s="13" t="str">
+      <c r="AP5" s="13" t="str">
         <f t="shared" si="4"/>
         <v>S</v>
       </c>
-      <c r="AQ6" s="13" t="str">
+      <c r="AQ5" s="13" t="str">
         <f t="shared" si="4"/>
         <v>S</v>
       </c>
-      <c r="AR6" s="13" t="str">
+      <c r="AR5" s="13" t="str">
         <f t="shared" si="4"/>
         <v>M</v>
       </c>
-      <c r="AS6" s="13" t="str">
-        <f t="shared" ref="AS6:BL6" si="5">LEFT(TEXT(AS5,"ddd"),1)</f>
+      <c r="AS5" s="13" t="str">
+        <f t="shared" ref="AS5:BL5" si="5">LEFT(TEXT(AS4,"ddd"),1)</f>
         <v>T</v>
       </c>
-      <c r="AT6" s="13" t="str">
+      <c r="AT5" s="13" t="str">
         <f t="shared" si="5"/>
         <v>W</v>
       </c>
-      <c r="AU6" s="13" t="str">
+      <c r="AU5" s="13" t="str">
         <f t="shared" si="5"/>
         <v>T</v>
       </c>
-      <c r="AV6" s="13" t="str">
+      <c r="AV5" s="13" t="str">
         <f t="shared" si="5"/>
         <v>F</v>
       </c>
-      <c r="AW6" s="13" t="str">
+      <c r="AW5" s="13" t="str">
         <f t="shared" si="5"/>
         <v>S</v>
       </c>
-      <c r="AX6" s="13" t="str">
+      <c r="AX5" s="13" t="str">
         <f t="shared" si="5"/>
         <v>S</v>
       </c>
-      <c r="AY6" s="13" t="str">
+      <c r="AY5" s="13" t="str">
         <f t="shared" si="5"/>
         <v>M</v>
       </c>
-      <c r="AZ6" s="13" t="str">
+      <c r="AZ5" s="13" t="str">
         <f t="shared" si="5"/>
         <v>T</v>
       </c>
-      <c r="BA6" s="13" t="str">
+      <c r="BA5" s="13" t="str">
         <f t="shared" si="5"/>
         <v>W</v>
       </c>
-      <c r="BB6" s="13" t="str">
+      <c r="BB5" s="13" t="str">
         <f t="shared" si="5"/>
         <v>T</v>
       </c>
-      <c r="BC6" s="13" t="str">
+      <c r="BC5" s="13" t="str">
         <f t="shared" si="5"/>
         <v>F</v>
       </c>
-      <c r="BD6" s="13" t="str">
+      <c r="BD5" s="13" t="str">
         <f t="shared" si="5"/>
         <v>S</v>
       </c>
-      <c r="BE6" s="13" t="str">
+      <c r="BE5" s="13" t="str">
         <f t="shared" si="5"/>
         <v>S</v>
       </c>
-      <c r="BF6" s="13" t="str">
+      <c r="BF5" s="13" t="str">
         <f t="shared" si="5"/>
         <v>M</v>
       </c>
-      <c r="BG6" s="13" t="str">
+      <c r="BG5" s="13" t="str">
         <f t="shared" si="5"/>
         <v>T</v>
       </c>
-      <c r="BH6" s="13" t="str">
+      <c r="BH5" s="13" t="str">
         <f t="shared" si="5"/>
         <v>W</v>
       </c>
-      <c r="BI6" s="13" t="str">
+      <c r="BI5" s="13" t="str">
         <f t="shared" si="5"/>
         <v>T</v>
       </c>
-      <c r="BJ6" s="13" t="str">
+      <c r="BJ5" s="13" t="str">
         <f t="shared" si="5"/>
         <v>F</v>
       </c>
-      <c r="BK6" s="13" t="str">
+      <c r="BK5" s="13" t="str">
         <f t="shared" si="5"/>
         <v>S</v>
       </c>
-      <c r="BL6" s="13" t="str">
+      <c r="BL5" s="13" t="str">
         <f t="shared" si="5"/>
         <v>S</v>
       </c>
     </row>
-    <row r="7" spans="1:64" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="76" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="41"/>
-      <c r="E7"/>
-      <c r="H7" t="str">
+    <row r="6" spans="1:64" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="74" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="40"/>
+      <c r="E6"/>
+      <c r="H6" t="str">
         <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <v/>
+      </c>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="36"/>
+      <c r="O6" s="36"/>
+      <c r="P6" s="36"/>
+      <c r="Q6" s="36"/>
+      <c r="R6" s="36"/>
+      <c r="S6" s="36"/>
+      <c r="T6" s="36"/>
+      <c r="U6" s="36"/>
+      <c r="V6" s="36"/>
+      <c r="W6" s="36"/>
+      <c r="X6" s="36"/>
+      <c r="Y6" s="36"/>
+      <c r="Z6" s="36"/>
+      <c r="AA6" s="36"/>
+      <c r="AB6" s="36"/>
+      <c r="AC6" s="36"/>
+      <c r="AD6" s="36"/>
+      <c r="AE6" s="36"/>
+      <c r="AF6" s="36"/>
+      <c r="AG6" s="36"/>
+      <c r="AH6" s="36"/>
+      <c r="AI6" s="36"/>
+      <c r="AJ6" s="36"/>
+      <c r="AK6" s="36"/>
+      <c r="AL6" s="36"/>
+      <c r="AM6" s="36"/>
+      <c r="AN6" s="36"/>
+      <c r="AO6" s="36"/>
+      <c r="AP6" s="36"/>
+      <c r="AQ6" s="36"/>
+      <c r="AR6" s="36"/>
+      <c r="AS6" s="36"/>
+      <c r="AT6" s="36"/>
+      <c r="AU6" s="36"/>
+      <c r="AV6" s="36"/>
+      <c r="AW6" s="36"/>
+      <c r="AX6" s="36"/>
+      <c r="AY6" s="36"/>
+      <c r="AZ6" s="36"/>
+      <c r="BA6" s="36"/>
+      <c r="BB6" s="36"/>
+      <c r="BC6" s="36"/>
+      <c r="BD6" s="36"/>
+      <c r="BE6" s="36"/>
+      <c r="BF6" s="36"/>
+      <c r="BG6" s="36"/>
+      <c r="BH6" s="36"/>
+      <c r="BI6" s="36"/>
+      <c r="BJ6" s="36"/>
+      <c r="BK6" s="36"/>
+      <c r="BL6" s="36"/>
+    </row>
+    <row r="7" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="73" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="44"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17" t="str">
+        <f t="shared" ref="H7:H41" si="6">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
       </c>
       <c r="I7" s="36"/>
@@ -2533,61 +2570,70 @@
       <c r="BL7" s="36"/>
     </row>
     <row r="8" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="75" t="s">
+      <c r="A8" s="73" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="87" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="C8" s="46"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="78"/>
-      <c r="F8" s="79"/>
+      <c r="D8" s="20">
+        <v>1</v>
+      </c>
+      <c r="E8" s="75">
+        <f>Project_Start</f>
+        <v>44476</v>
+      </c>
+      <c r="F8" s="75">
+        <v>44477</v>
+      </c>
       <c r="G8" s="17"/>
-      <c r="H8" s="17" t="str">
-        <f t="shared" ref="H8:H41" si="6">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
-        <v/>
+      <c r="H8" s="17">
+        <f t="shared" si="6"/>
+        <v>2</v>
       </c>
       <c r="I8" s="36"/>
       <c r="J8" s="36"/>
       <c r="K8" s="36"/>
-      <c r="L8" s="36"/>
-      <c r="M8" s="36"/>
-      <c r="N8" s="36"/>
-      <c r="O8" s="36"/>
-      <c r="P8" s="36"/>
-      <c r="Q8" s="36"/>
-      <c r="R8" s="36"/>
-      <c r="S8" s="36"/>
-      <c r="T8" s="36"/>
-      <c r="U8" s="36"/>
-      <c r="V8" s="36"/>
-      <c r="W8" s="36"/>
-      <c r="X8" s="36"/>
-      <c r="Y8" s="36"/>
-      <c r="Z8" s="36"/>
-      <c r="AA8" s="36"/>
-      <c r="AB8" s="36"/>
-      <c r="AC8" s="36"/>
-      <c r="AD8" s="36"/>
-      <c r="AE8" s="36"/>
-      <c r="AF8" s="36"/>
-      <c r="AG8" s="36"/>
-      <c r="AH8" s="36"/>
-      <c r="AI8" s="36"/>
-      <c r="AJ8" s="36"/>
-      <c r="AK8" s="36"/>
-      <c r="AL8" s="36"/>
-      <c r="AM8" s="36"/>
-      <c r="AN8" s="36"/>
-      <c r="AO8" s="36"/>
-      <c r="AP8" s="36"/>
-      <c r="AQ8" s="36"/>
-      <c r="AR8" s="36"/>
-      <c r="AS8" s="36"/>
-      <c r="AT8" s="36"/>
-      <c r="AU8" s="36"/>
-      <c r="AV8" s="36"/>
+      <c r="L8" s="71"/>
+      <c r="M8" s="71"/>
+      <c r="N8" s="71"/>
+      <c r="O8" s="71"/>
+      <c r="P8" s="71"/>
+      <c r="Q8" s="71"/>
+      <c r="R8" s="71"/>
+      <c r="S8" s="71"/>
+      <c r="T8" s="71"/>
+      <c r="U8" s="71"/>
+      <c r="V8" s="71"/>
+      <c r="W8" s="71"/>
+      <c r="X8" s="71"/>
+      <c r="Y8" s="71"/>
+      <c r="Z8" s="71"/>
+      <c r="AA8" s="71"/>
+      <c r="AB8" s="71"/>
+      <c r="AC8" s="71"/>
+      <c r="AD8" s="71"/>
+      <c r="AE8" s="71"/>
+      <c r="AF8" s="71"/>
+      <c r="AG8" s="71"/>
+      <c r="AH8" s="71"/>
+      <c r="AI8" s="71"/>
+      <c r="AJ8" s="71"/>
+      <c r="AK8" s="71"/>
+      <c r="AL8" s="71"/>
+      <c r="AM8" s="71"/>
+      <c r="AN8" s="71"/>
+      <c r="AO8" s="71"/>
+      <c r="AP8" s="71"/>
+      <c r="AQ8" s="71"/>
+      <c r="AR8" s="71"/>
+      <c r="AS8" s="71"/>
+      <c r="AT8" s="71"/>
+      <c r="AU8" s="71"/>
+      <c r="AV8" s="71"/>
       <c r="AW8" s="36"/>
       <c r="AX8" s="36"/>
       <c r="AY8" s="36"/>
@@ -2606,70 +2652,69 @@
       <c r="BL8" s="36"/>
     </row>
     <row r="9" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="75" t="s">
+      <c r="A9" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="89" t="s">
+      <c r="B9" s="87" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="47" t="s">
-        <v>20</v>
+      <c r="C9" s="45" t="s">
+        <v>17</v>
       </c>
       <c r="D9" s="20">
         <v>1</v>
       </c>
-      <c r="E9" s="77">
-        <f>Project_Start</f>
-        <v>44476</v>
-      </c>
-      <c r="F9" s="77">
-        <v>44477</v>
+      <c r="E9" s="75">
+        <v>44478</v>
+      </c>
+      <c r="F9" s="75">
+        <v>44480</v>
       </c>
       <c r="G9" s="17"/>
       <c r="H9" s="17">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I9" s="36"/>
       <c r="J9" s="36"/>
       <c r="K9" s="36"/>
-      <c r="L9" s="73"/>
-      <c r="M9" s="73"/>
-      <c r="N9" s="73"/>
-      <c r="O9" s="73"/>
-      <c r="P9" s="73"/>
-      <c r="Q9" s="73"/>
-      <c r="R9" s="73"/>
-      <c r="S9" s="73"/>
-      <c r="T9" s="73"/>
-      <c r="U9" s="73"/>
-      <c r="V9" s="73"/>
-      <c r="W9" s="73"/>
-      <c r="X9" s="73"/>
-      <c r="Y9" s="73"/>
-      <c r="Z9" s="73"/>
-      <c r="AA9" s="73"/>
-      <c r="AB9" s="73"/>
-      <c r="AC9" s="73"/>
-      <c r="AD9" s="73"/>
-      <c r="AE9" s="73"/>
-      <c r="AF9" s="73"/>
-      <c r="AG9" s="73"/>
-      <c r="AH9" s="73"/>
-      <c r="AI9" s="73"/>
-      <c r="AJ9" s="73"/>
-      <c r="AK9" s="73"/>
-      <c r="AL9" s="73"/>
-      <c r="AM9" s="73"/>
-      <c r="AN9" s="73"/>
-      <c r="AO9" s="73"/>
-      <c r="AP9" s="73"/>
-      <c r="AQ9" s="73"/>
-      <c r="AR9" s="73"/>
-      <c r="AS9" s="73"/>
-      <c r="AT9" s="73"/>
-      <c r="AU9" s="73"/>
-      <c r="AV9" s="73"/>
+      <c r="L9" s="71"/>
+      <c r="M9" s="71"/>
+      <c r="N9" s="71"/>
+      <c r="O9" s="71"/>
+      <c r="P9" s="71"/>
+      <c r="Q9" s="71"/>
+      <c r="R9" s="71"/>
+      <c r="S9" s="71"/>
+      <c r="T9" s="71"/>
+      <c r="U9" s="71"/>
+      <c r="V9" s="71"/>
+      <c r="W9" s="71"/>
+      <c r="X9" s="71"/>
+      <c r="Y9" s="71"/>
+      <c r="Z9" s="71"/>
+      <c r="AA9" s="71"/>
+      <c r="AB9" s="71"/>
+      <c r="AC9" s="71"/>
+      <c r="AD9" s="71"/>
+      <c r="AE9" s="71"/>
+      <c r="AF9" s="71"/>
+      <c r="AG9" s="71"/>
+      <c r="AH9" s="71"/>
+      <c r="AI9" s="71"/>
+      <c r="AJ9" s="71"/>
+      <c r="AK9" s="71"/>
+      <c r="AL9" s="71"/>
+      <c r="AM9" s="71"/>
+      <c r="AN9" s="71"/>
+      <c r="AO9" s="71"/>
+      <c r="AP9" s="71"/>
+      <c r="AQ9" s="71"/>
+      <c r="AR9" s="71"/>
+      <c r="AS9" s="71"/>
+      <c r="AT9" s="71"/>
+      <c r="AU9" s="71"/>
+      <c r="AV9" s="71"/>
       <c r="AW9" s="36"/>
       <c r="AX9" s="36"/>
       <c r="AY9" s="36"/>
@@ -2688,69 +2733,68 @@
       <c r="BL9" s="36"/>
     </row>
     <row r="10" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="75" t="s">
+      <c r="A10" s="74"/>
+      <c r="B10" s="87" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="89" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="47" t="s">
-        <v>20</v>
+      <c r="C10" s="45" t="s">
+        <v>75</v>
       </c>
       <c r="D10" s="20">
-        <v>1</v>
-      </c>
-      <c r="E10" s="77">
+        <v>0.9</v>
+      </c>
+      <c r="E10" s="75">
         <v>44478</v>
       </c>
-      <c r="F10" s="77">
-        <v>44480</v>
+      <c r="F10" s="75">
+        <f>E10+5</f>
+        <v>44483</v>
       </c>
       <c r="G10" s="17"/>
       <c r="H10" s="17">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I10" s="36"/>
       <c r="J10" s="36"/>
       <c r="K10" s="36"/>
-      <c r="L10" s="73"/>
-      <c r="M10" s="73"/>
-      <c r="N10" s="73"/>
-      <c r="O10" s="73"/>
-      <c r="P10" s="73"/>
-      <c r="Q10" s="73"/>
-      <c r="R10" s="73"/>
-      <c r="S10" s="73"/>
-      <c r="T10" s="73"/>
-      <c r="U10" s="73"/>
-      <c r="V10" s="73"/>
-      <c r="W10" s="73"/>
-      <c r="X10" s="73"/>
-      <c r="Y10" s="73"/>
-      <c r="Z10" s="73"/>
-      <c r="AA10" s="73"/>
-      <c r="AB10" s="73"/>
-      <c r="AC10" s="73"/>
-      <c r="AD10" s="73"/>
-      <c r="AE10" s="73"/>
-      <c r="AF10" s="73"/>
-      <c r="AG10" s="73"/>
-      <c r="AH10" s="73"/>
-      <c r="AI10" s="73"/>
-      <c r="AJ10" s="73"/>
-      <c r="AK10" s="73"/>
-      <c r="AL10" s="73"/>
-      <c r="AM10" s="73"/>
-      <c r="AN10" s="73"/>
-      <c r="AO10" s="73"/>
-      <c r="AP10" s="73"/>
-      <c r="AQ10" s="73"/>
-      <c r="AR10" s="73"/>
-      <c r="AS10" s="73"/>
-      <c r="AT10" s="73"/>
-      <c r="AU10" s="73"/>
-      <c r="AV10" s="73"/>
+      <c r="L10" s="71"/>
+      <c r="M10" s="71"/>
+      <c r="N10" s="71"/>
+      <c r="O10" s="71"/>
+      <c r="P10" s="71"/>
+      <c r="Q10" s="71"/>
+      <c r="R10" s="71"/>
+      <c r="S10" s="71"/>
+      <c r="T10" s="71"/>
+      <c r="U10" s="71"/>
+      <c r="V10" s="71"/>
+      <c r="W10" s="71"/>
+      <c r="X10" s="71"/>
+      <c r="Y10" s="71"/>
+      <c r="Z10" s="71"/>
+      <c r="AA10" s="71"/>
+      <c r="AB10" s="71"/>
+      <c r="AC10" s="71"/>
+      <c r="AD10" s="71"/>
+      <c r="AE10" s="71"/>
+      <c r="AF10" s="71"/>
+      <c r="AG10" s="71"/>
+      <c r="AH10" s="71"/>
+      <c r="AI10" s="71"/>
+      <c r="AJ10" s="71"/>
+      <c r="AK10" s="71"/>
+      <c r="AL10" s="71"/>
+      <c r="AM10" s="71"/>
+      <c r="AN10" s="71"/>
+      <c r="AO10" s="71"/>
+      <c r="AP10" s="71"/>
+      <c r="AQ10" s="71"/>
+      <c r="AR10" s="71"/>
+      <c r="AS10" s="71"/>
+      <c r="AT10" s="71"/>
+      <c r="AU10" s="71"/>
+      <c r="AV10" s="71"/>
       <c r="AW10" s="36"/>
       <c r="AX10" s="36"/>
       <c r="AY10" s="36"/>
@@ -2769,68 +2813,67 @@
       <c r="BL10" s="36"/>
     </row>
     <row r="11" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="76"/>
-      <c r="B11" s="89" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="47" t="s">
-        <v>78</v>
+      <c r="A11" s="74"/>
+      <c r="B11" s="87" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="45" t="s">
+        <v>75</v>
       </c>
       <c r="D11" s="20">
-        <v>0.8</v>
-      </c>
-      <c r="E11" s="77">
-        <v>44478</v>
-      </c>
-      <c r="F11" s="77">
-        <f>E11+5</f>
-        <v>44483</v>
+        <v>1</v>
+      </c>
+      <c r="E11" s="75">
+        <v>44480</v>
+      </c>
+      <c r="F11" s="75">
+        <v>44482</v>
       </c>
       <c r="G11" s="17"/>
       <c r="H11" s="17">
         <f t="shared" si="6"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I11" s="36"/>
       <c r="J11" s="36"/>
       <c r="K11" s="36"/>
-      <c r="L11" s="73"/>
-      <c r="M11" s="73"/>
-      <c r="N11" s="73"/>
-      <c r="O11" s="73"/>
-      <c r="P11" s="73"/>
-      <c r="Q11" s="73"/>
-      <c r="R11" s="73"/>
-      <c r="S11" s="73"/>
-      <c r="T11" s="73"/>
-      <c r="U11" s="73"/>
-      <c r="V11" s="73"/>
-      <c r="W11" s="73"/>
-      <c r="X11" s="73"/>
-      <c r="Y11" s="73"/>
-      <c r="Z11" s="73"/>
-      <c r="AA11" s="73"/>
-      <c r="AB11" s="73"/>
-      <c r="AC11" s="73"/>
-      <c r="AD11" s="73"/>
-      <c r="AE11" s="73"/>
-      <c r="AF11" s="73"/>
-      <c r="AG11" s="73"/>
-      <c r="AH11" s="73"/>
-      <c r="AI11" s="73"/>
-      <c r="AJ11" s="73"/>
-      <c r="AK11" s="73"/>
-      <c r="AL11" s="73"/>
-      <c r="AM11" s="73"/>
-      <c r="AN11" s="73"/>
-      <c r="AO11" s="73"/>
-      <c r="AP11" s="73"/>
-      <c r="AQ11" s="73"/>
-      <c r="AR11" s="73"/>
-      <c r="AS11" s="73"/>
-      <c r="AT11" s="73"/>
-      <c r="AU11" s="73"/>
-      <c r="AV11" s="73"/>
+      <c r="L11" s="71"/>
+      <c r="M11" s="71"/>
+      <c r="N11" s="71"/>
+      <c r="O11" s="71"/>
+      <c r="P11" s="71"/>
+      <c r="Q11" s="71"/>
+      <c r="R11" s="71"/>
+      <c r="S11" s="71"/>
+      <c r="T11" s="71"/>
+      <c r="U11" s="71"/>
+      <c r="V11" s="71"/>
+      <c r="W11" s="71"/>
+      <c r="X11" s="71"/>
+      <c r="Y11" s="72"/>
+      <c r="Z11" s="71"/>
+      <c r="AA11" s="71"/>
+      <c r="AB11" s="71"/>
+      <c r="AC11" s="71"/>
+      <c r="AD11" s="71"/>
+      <c r="AE11" s="71"/>
+      <c r="AF11" s="71"/>
+      <c r="AG11" s="71"/>
+      <c r="AH11" s="71"/>
+      <c r="AI11" s="71"/>
+      <c r="AJ11" s="71"/>
+      <c r="AK11" s="71"/>
+      <c r="AL11" s="71"/>
+      <c r="AM11" s="71"/>
+      <c r="AN11" s="71"/>
+      <c r="AO11" s="71"/>
+      <c r="AP11" s="71"/>
+      <c r="AQ11" s="71"/>
+      <c r="AR11" s="71"/>
+      <c r="AS11" s="71"/>
+      <c r="AT11" s="71"/>
+      <c r="AU11" s="71"/>
+      <c r="AV11" s="71"/>
       <c r="AW11" s="36"/>
       <c r="AX11" s="36"/>
       <c r="AY11" s="36"/>
@@ -2849,67 +2892,64 @@
       <c r="BL11" s="36"/>
     </row>
     <row r="12" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="76"/>
-      <c r="B12" s="89" t="s">
-        <v>69</v>
-      </c>
-      <c r="C12" s="47" t="s">
-        <v>78</v>
+      <c r="A12" s="74"/>
+      <c r="B12" s="87" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" s="45" t="s">
+        <v>72</v>
       </c>
       <c r="D12" s="20">
         <v>1</v>
       </c>
-      <c r="E12" s="77">
+      <c r="E12" s="75">
         <v>44480</v>
       </c>
-      <c r="F12" s="77">
+      <c r="F12" s="75">
         <v>44482</v>
       </c>
       <c r="G12" s="17"/>
-      <c r="H12" s="17">
-        <f t="shared" si="6"/>
-        <v>3</v>
-      </c>
+      <c r="H12" s="17"/>
       <c r="I12" s="36"/>
       <c r="J12" s="36"/>
       <c r="K12" s="36"/>
-      <c r="L12" s="73"/>
-      <c r="M12" s="73"/>
-      <c r="N12" s="73"/>
-      <c r="O12" s="73"/>
-      <c r="P12" s="73"/>
-      <c r="Q12" s="73"/>
-      <c r="R12" s="73"/>
-      <c r="S12" s="73"/>
-      <c r="T12" s="73"/>
-      <c r="U12" s="73"/>
-      <c r="V12" s="73"/>
-      <c r="W12" s="73"/>
-      <c r="X12" s="73"/>
-      <c r="Y12" s="74"/>
-      <c r="Z12" s="73"/>
-      <c r="AA12" s="73"/>
-      <c r="AB12" s="73"/>
-      <c r="AC12" s="73"/>
-      <c r="AD12" s="73"/>
-      <c r="AE12" s="73"/>
-      <c r="AF12" s="73"/>
-      <c r="AG12" s="73"/>
-      <c r="AH12" s="73"/>
-      <c r="AI12" s="73"/>
-      <c r="AJ12" s="73"/>
-      <c r="AK12" s="73"/>
-      <c r="AL12" s="73"/>
-      <c r="AM12" s="73"/>
-      <c r="AN12" s="73"/>
-      <c r="AO12" s="73"/>
-      <c r="AP12" s="73"/>
-      <c r="AQ12" s="73"/>
-      <c r="AR12" s="73"/>
-      <c r="AS12" s="73"/>
-      <c r="AT12" s="73"/>
-      <c r="AU12" s="73"/>
-      <c r="AV12" s="73"/>
+      <c r="L12" s="71"/>
+      <c r="M12" s="71"/>
+      <c r="N12" s="71"/>
+      <c r="O12" s="71"/>
+      <c r="P12" s="71"/>
+      <c r="Q12" s="71"/>
+      <c r="R12" s="71"/>
+      <c r="S12" s="71"/>
+      <c r="T12" s="71"/>
+      <c r="U12" s="71"/>
+      <c r="V12" s="71"/>
+      <c r="W12" s="71"/>
+      <c r="X12" s="71"/>
+      <c r="Y12" s="72"/>
+      <c r="Z12" s="71"/>
+      <c r="AA12" s="71"/>
+      <c r="AB12" s="71"/>
+      <c r="AC12" s="71"/>
+      <c r="AD12" s="71"/>
+      <c r="AE12" s="71"/>
+      <c r="AF12" s="71"/>
+      <c r="AG12" s="71"/>
+      <c r="AH12" s="71"/>
+      <c r="AI12" s="71"/>
+      <c r="AJ12" s="71"/>
+      <c r="AK12" s="71"/>
+      <c r="AL12" s="71"/>
+      <c r="AM12" s="71"/>
+      <c r="AN12" s="71"/>
+      <c r="AO12" s="71"/>
+      <c r="AP12" s="71"/>
+      <c r="AQ12" s="71"/>
+      <c r="AR12" s="71"/>
+      <c r="AS12" s="71"/>
+      <c r="AT12" s="71"/>
+      <c r="AU12" s="71"/>
+      <c r="AV12" s="71"/>
       <c r="AW12" s="36"/>
       <c r="AX12" s="36"/>
       <c r="AY12" s="36"/>
@@ -2928,64 +2968,64 @@
       <c r="BL12" s="36"/>
     </row>
     <row r="13" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="76"/>
-      <c r="B13" s="89" t="s">
-        <v>70</v>
-      </c>
-      <c r="C13" s="47" t="s">
-        <v>75</v>
+      <c r="A13" s="74"/>
+      <c r="B13" s="87" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" s="45" t="s">
+        <v>17</v>
       </c>
       <c r="D13" s="20">
-        <v>0.8</v>
-      </c>
-      <c r="E13" s="77">
-        <v>44480</v>
-      </c>
-      <c r="F13" s="77">
-        <v>44482</v>
+        <v>1</v>
+      </c>
+      <c r="E13" s="75">
+        <v>44481</v>
+      </c>
+      <c r="F13" s="75">
+        <v>44483</v>
       </c>
       <c r="G13" s="17"/>
       <c r="H13" s="17"/>
       <c r="I13" s="36"/>
       <c r="J13" s="36"/>
       <c r="K13" s="36"/>
-      <c r="L13" s="73"/>
-      <c r="M13" s="73"/>
-      <c r="N13" s="73"/>
-      <c r="O13" s="73"/>
-      <c r="P13" s="73"/>
-      <c r="Q13" s="73"/>
-      <c r="R13" s="73"/>
-      <c r="S13" s="73"/>
-      <c r="T13" s="73"/>
-      <c r="U13" s="73"/>
-      <c r="V13" s="73"/>
-      <c r="W13" s="73"/>
-      <c r="X13" s="73"/>
-      <c r="Y13" s="74"/>
-      <c r="Z13" s="73"/>
-      <c r="AA13" s="73"/>
-      <c r="AB13" s="73"/>
-      <c r="AC13" s="73"/>
-      <c r="AD13" s="73"/>
-      <c r="AE13" s="73"/>
-      <c r="AF13" s="73"/>
-      <c r="AG13" s="73"/>
-      <c r="AH13" s="73"/>
-      <c r="AI13" s="73"/>
-      <c r="AJ13" s="73"/>
-      <c r="AK13" s="73"/>
-      <c r="AL13" s="73"/>
-      <c r="AM13" s="73"/>
-      <c r="AN13" s="73"/>
-      <c r="AO13" s="73"/>
-      <c r="AP13" s="73"/>
-      <c r="AQ13" s="73"/>
-      <c r="AR13" s="73"/>
-      <c r="AS13" s="73"/>
-      <c r="AT13" s="73"/>
-      <c r="AU13" s="73"/>
-      <c r="AV13" s="73"/>
+      <c r="L13" s="71"/>
+      <c r="M13" s="71"/>
+      <c r="N13" s="71"/>
+      <c r="O13" s="71"/>
+      <c r="P13" s="71"/>
+      <c r="Q13" s="71"/>
+      <c r="R13" s="71"/>
+      <c r="S13" s="71"/>
+      <c r="T13" s="71"/>
+      <c r="U13" s="71"/>
+      <c r="V13" s="71"/>
+      <c r="W13" s="71"/>
+      <c r="X13" s="71"/>
+      <c r="Y13" s="72"/>
+      <c r="Z13" s="71"/>
+      <c r="AA13" s="71"/>
+      <c r="AB13" s="71"/>
+      <c r="AC13" s="71"/>
+      <c r="AD13" s="71"/>
+      <c r="AE13" s="71"/>
+      <c r="AF13" s="71"/>
+      <c r="AG13" s="71"/>
+      <c r="AH13" s="71"/>
+      <c r="AI13" s="71"/>
+      <c r="AJ13" s="71"/>
+      <c r="AK13" s="71"/>
+      <c r="AL13" s="71"/>
+      <c r="AM13" s="71"/>
+      <c r="AN13" s="71"/>
+      <c r="AO13" s="71"/>
+      <c r="AP13" s="71"/>
+      <c r="AQ13" s="71"/>
+      <c r="AR13" s="71"/>
+      <c r="AS13" s="71"/>
+      <c r="AT13" s="71"/>
+      <c r="AU13" s="71"/>
+      <c r="AV13" s="71"/>
       <c r="AW13" s="36"/>
       <c r="AX13" s="36"/>
       <c r="AY13" s="36"/>
@@ -3004,64 +3044,64 @@
       <c r="BL13" s="36"/>
     </row>
     <row r="14" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="76"/>
-      <c r="B14" s="89" t="s">
-        <v>77</v>
-      </c>
-      <c r="C14" s="47" t="s">
-        <v>20</v>
+      <c r="A14" s="74"/>
+      <c r="B14" s="87" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" s="45" t="s">
+        <v>22</v>
       </c>
       <c r="D14" s="20">
         <v>0</v>
       </c>
-      <c r="E14" s="77">
-        <v>44481</v>
-      </c>
-      <c r="F14" s="77">
-        <v>44483</v>
+      <c r="E14" s="75">
+        <v>44485</v>
+      </c>
+      <c r="F14" s="75">
+        <v>44488</v>
       </c>
       <c r="G14" s="17"/>
       <c r="H14" s="17"/>
       <c r="I14" s="36"/>
       <c r="J14" s="36"/>
       <c r="K14" s="36"/>
-      <c r="L14" s="73"/>
-      <c r="M14" s="73"/>
-      <c r="N14" s="73"/>
-      <c r="O14" s="73"/>
-      <c r="P14" s="73"/>
-      <c r="Q14" s="73"/>
-      <c r="R14" s="73"/>
-      <c r="S14" s="73"/>
-      <c r="T14" s="73"/>
-      <c r="U14" s="73"/>
-      <c r="V14" s="73"/>
-      <c r="W14" s="73"/>
-      <c r="X14" s="73"/>
-      <c r="Y14" s="74"/>
-      <c r="Z14" s="73"/>
-      <c r="AA14" s="73"/>
-      <c r="AB14" s="73"/>
-      <c r="AC14" s="73"/>
-      <c r="AD14" s="73"/>
-      <c r="AE14" s="73"/>
-      <c r="AF14" s="73"/>
-      <c r="AG14" s="73"/>
-      <c r="AH14" s="73"/>
-      <c r="AI14" s="73"/>
-      <c r="AJ14" s="73"/>
-      <c r="AK14" s="73"/>
-      <c r="AL14" s="73"/>
-      <c r="AM14" s="73"/>
-      <c r="AN14" s="73"/>
-      <c r="AO14" s="73"/>
-      <c r="AP14" s="73"/>
-      <c r="AQ14" s="73"/>
-      <c r="AR14" s="73"/>
-      <c r="AS14" s="73"/>
-      <c r="AT14" s="73"/>
-      <c r="AU14" s="73"/>
-      <c r="AV14" s="73"/>
+      <c r="L14" s="71"/>
+      <c r="M14" s="71"/>
+      <c r="N14" s="71"/>
+      <c r="O14" s="71"/>
+      <c r="P14" s="71"/>
+      <c r="Q14" s="71"/>
+      <c r="R14" s="71"/>
+      <c r="S14" s="71"/>
+      <c r="T14" s="71"/>
+      <c r="U14" s="71"/>
+      <c r="V14" s="71"/>
+      <c r="W14" s="71"/>
+      <c r="X14" s="71"/>
+      <c r="Y14" s="72"/>
+      <c r="Z14" s="71"/>
+      <c r="AA14" s="71"/>
+      <c r="AB14" s="71"/>
+      <c r="AC14" s="71"/>
+      <c r="AD14" s="71"/>
+      <c r="AE14" s="71"/>
+      <c r="AF14" s="71"/>
+      <c r="AG14" s="71"/>
+      <c r="AH14" s="71"/>
+      <c r="AI14" s="71"/>
+      <c r="AJ14" s="71"/>
+      <c r="AK14" s="71"/>
+      <c r="AL14" s="71"/>
+      <c r="AM14" s="71"/>
+      <c r="AN14" s="71"/>
+      <c r="AO14" s="71"/>
+      <c r="AP14" s="71"/>
+      <c r="AQ14" s="71"/>
+      <c r="AR14" s="71"/>
+      <c r="AS14" s="71"/>
+      <c r="AT14" s="71"/>
+      <c r="AU14" s="71"/>
+      <c r="AV14" s="71"/>
       <c r="AW14" s="36"/>
       <c r="AX14" s="36"/>
       <c r="AY14" s="36"/>
@@ -3080,64 +3120,64 @@
       <c r="BL14" s="36"/>
     </row>
     <row r="15" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="76"/>
-      <c r="B15" s="89" t="s">
-        <v>74</v>
-      </c>
-      <c r="C15" s="47" t="s">
-        <v>25</v>
+      <c r="A15" s="74"/>
+      <c r="B15" s="87" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" s="45" t="s">
+        <v>79</v>
       </c>
       <c r="D15" s="20">
         <v>0</v>
       </c>
-      <c r="E15" s="77">
-        <v>44484</v>
-      </c>
-      <c r="F15" s="77">
-        <v>44486</v>
+      <c r="E15" s="75">
+        <v>44485</v>
+      </c>
+      <c r="F15" s="75">
+        <v>44488</v>
       </c>
       <c r="G15" s="17"/>
       <c r="H15" s="17"/>
       <c r="I15" s="36"/>
       <c r="J15" s="36"/>
       <c r="K15" s="36"/>
-      <c r="L15" s="73"/>
-      <c r="M15" s="73"/>
-      <c r="N15" s="73"/>
-      <c r="O15" s="73"/>
-      <c r="P15" s="73"/>
-      <c r="Q15" s="73"/>
-      <c r="R15" s="73"/>
-      <c r="S15" s="73"/>
-      <c r="T15" s="73"/>
-      <c r="U15" s="73"/>
-      <c r="V15" s="73"/>
-      <c r="W15" s="73"/>
-      <c r="X15" s="73"/>
-      <c r="Y15" s="74"/>
-      <c r="Z15" s="73"/>
-      <c r="AA15" s="73"/>
-      <c r="AB15" s="73"/>
-      <c r="AC15" s="73"/>
-      <c r="AD15" s="73"/>
-      <c r="AE15" s="73"/>
-      <c r="AF15" s="73"/>
-      <c r="AG15" s="73"/>
-      <c r="AH15" s="73"/>
-      <c r="AI15" s="73"/>
-      <c r="AJ15" s="73"/>
-      <c r="AK15" s="73"/>
-      <c r="AL15" s="73"/>
-      <c r="AM15" s="73"/>
-      <c r="AN15" s="73"/>
-      <c r="AO15" s="73"/>
-      <c r="AP15" s="73"/>
-      <c r="AQ15" s="73"/>
-      <c r="AR15" s="73"/>
-      <c r="AS15" s="73"/>
-      <c r="AT15" s="73"/>
-      <c r="AU15" s="73"/>
-      <c r="AV15" s="73"/>
+      <c r="L15" s="71"/>
+      <c r="M15" s="71"/>
+      <c r="N15" s="71"/>
+      <c r="O15" s="71"/>
+      <c r="P15" s="71"/>
+      <c r="Q15" s="71"/>
+      <c r="R15" s="71"/>
+      <c r="S15" s="71"/>
+      <c r="T15" s="71"/>
+      <c r="U15" s="71"/>
+      <c r="V15" s="71"/>
+      <c r="W15" s="71"/>
+      <c r="X15" s="71"/>
+      <c r="Y15" s="72"/>
+      <c r="Z15" s="71"/>
+      <c r="AA15" s="71"/>
+      <c r="AB15" s="71"/>
+      <c r="AC15" s="71"/>
+      <c r="AD15" s="71"/>
+      <c r="AE15" s="71"/>
+      <c r="AF15" s="71"/>
+      <c r="AG15" s="71"/>
+      <c r="AH15" s="71"/>
+      <c r="AI15" s="71"/>
+      <c r="AJ15" s="71"/>
+      <c r="AK15" s="71"/>
+      <c r="AL15" s="71"/>
+      <c r="AM15" s="71"/>
+      <c r="AN15" s="71"/>
+      <c r="AO15" s="71"/>
+      <c r="AP15" s="71"/>
+      <c r="AQ15" s="71"/>
+      <c r="AR15" s="71"/>
+      <c r="AS15" s="71"/>
+      <c r="AT15" s="71"/>
+      <c r="AU15" s="71"/>
+      <c r="AV15" s="71"/>
       <c r="AW15" s="36"/>
       <c r="AX15" s="36"/>
       <c r="AY15" s="36"/>
@@ -3156,64 +3196,64 @@
       <c r="BL15" s="36"/>
     </row>
     <row r="16" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="76"/>
-      <c r="B16" s="89" t="s">
-        <v>76</v>
-      </c>
-      <c r="C16" s="47" t="s">
-        <v>23</v>
+      <c r="A16" s="74"/>
+      <c r="B16" s="87" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" s="45" t="s">
+        <v>20</v>
       </c>
       <c r="D16" s="20">
         <v>0</v>
       </c>
-      <c r="E16" s="77">
-        <v>44484</v>
-      </c>
-      <c r="F16" s="77">
-        <v>44486</v>
+      <c r="E16" s="75">
+        <v>44485</v>
+      </c>
+      <c r="F16" s="75">
+        <v>44488</v>
       </c>
       <c r="G16" s="17"/>
       <c r="H16" s="17"/>
       <c r="I16" s="36"/>
       <c r="J16" s="36"/>
       <c r="K16" s="36"/>
-      <c r="L16" s="73"/>
-      <c r="M16" s="73"/>
-      <c r="N16" s="73"/>
-      <c r="O16" s="73"/>
-      <c r="P16" s="73"/>
-      <c r="Q16" s="73"/>
-      <c r="R16" s="73"/>
-      <c r="S16" s="73"/>
-      <c r="T16" s="73"/>
-      <c r="U16" s="73"/>
-      <c r="V16" s="73"/>
-      <c r="W16" s="73"/>
-      <c r="X16" s="73"/>
-      <c r="Y16" s="74"/>
-      <c r="Z16" s="73"/>
-      <c r="AA16" s="73"/>
-      <c r="AB16" s="73"/>
-      <c r="AC16" s="73"/>
-      <c r="AD16" s="73"/>
-      <c r="AE16" s="73"/>
-      <c r="AF16" s="73"/>
-      <c r="AG16" s="73"/>
-      <c r="AH16" s="73"/>
-      <c r="AI16" s="73"/>
-      <c r="AJ16" s="73"/>
-      <c r="AK16" s="73"/>
-      <c r="AL16" s="73"/>
-      <c r="AM16" s="73"/>
-      <c r="AN16" s="73"/>
-      <c r="AO16" s="73"/>
-      <c r="AP16" s="73"/>
-      <c r="AQ16" s="73"/>
-      <c r="AR16" s="73"/>
-      <c r="AS16" s="73"/>
-      <c r="AT16" s="73"/>
-      <c r="AU16" s="73"/>
-      <c r="AV16" s="73"/>
+      <c r="L16" s="71"/>
+      <c r="M16" s="71"/>
+      <c r="N16" s="71"/>
+      <c r="O16" s="71"/>
+      <c r="P16" s="71"/>
+      <c r="Q16" s="71"/>
+      <c r="R16" s="71"/>
+      <c r="S16" s="71"/>
+      <c r="T16" s="71"/>
+      <c r="U16" s="71"/>
+      <c r="V16" s="71"/>
+      <c r="W16" s="71"/>
+      <c r="X16" s="71"/>
+      <c r="Y16" s="72"/>
+      <c r="Z16" s="71"/>
+      <c r="AA16" s="71"/>
+      <c r="AB16" s="71"/>
+      <c r="AC16" s="71"/>
+      <c r="AD16" s="71"/>
+      <c r="AE16" s="71"/>
+      <c r="AF16" s="71"/>
+      <c r="AG16" s="71"/>
+      <c r="AH16" s="71"/>
+      <c r="AI16" s="71"/>
+      <c r="AJ16" s="71"/>
+      <c r="AK16" s="71"/>
+      <c r="AL16" s="71"/>
+      <c r="AM16" s="71"/>
+      <c r="AN16" s="71"/>
+      <c r="AO16" s="71"/>
+      <c r="AP16" s="71"/>
+      <c r="AQ16" s="71"/>
+      <c r="AR16" s="71"/>
+      <c r="AS16" s="71"/>
+      <c r="AT16" s="71"/>
+      <c r="AU16" s="71"/>
+      <c r="AV16" s="71"/>
       <c r="AW16" s="36"/>
       <c r="AX16" s="36"/>
       <c r="AY16" s="36"/>
@@ -3232,64 +3272,64 @@
       <c r="BL16" s="36"/>
     </row>
     <row r="17" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="76"/>
-      <c r="B17" s="90" t="s">
-        <v>79</v>
-      </c>
-      <c r="C17" s="47" t="s">
-        <v>20</v>
+      <c r="A17" s="74"/>
+      <c r="B17" s="87" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" s="45" t="s">
+        <v>17</v>
       </c>
       <c r="D17" s="20">
         <v>0</v>
       </c>
-      <c r="E17" s="77">
-        <v>44487</v>
-      </c>
-      <c r="F17" s="77">
-        <v>44489</v>
+      <c r="E17" s="75">
+        <v>44488</v>
+      </c>
+      <c r="F17" s="75">
+        <v>44490</v>
       </c>
       <c r="G17" s="17"/>
       <c r="H17" s="17"/>
       <c r="I17" s="36"/>
       <c r="J17" s="36"/>
       <c r="K17" s="36"/>
-      <c r="L17" s="73"/>
-      <c r="M17" s="73"/>
-      <c r="N17" s="73"/>
-      <c r="O17" s="73"/>
-      <c r="P17" s="73"/>
-      <c r="Q17" s="73"/>
-      <c r="R17" s="73"/>
-      <c r="S17" s="73"/>
-      <c r="T17" s="73"/>
-      <c r="U17" s="73"/>
-      <c r="V17" s="73"/>
-      <c r="W17" s="73"/>
-      <c r="X17" s="73"/>
-      <c r="Y17" s="74"/>
-      <c r="Z17" s="73"/>
-      <c r="AA17" s="73"/>
-      <c r="AB17" s="73"/>
-      <c r="AC17" s="73"/>
-      <c r="AD17" s="73"/>
-      <c r="AE17" s="73"/>
-      <c r="AF17" s="73"/>
-      <c r="AG17" s="73"/>
-      <c r="AH17" s="73"/>
-      <c r="AI17" s="73"/>
-      <c r="AJ17" s="73"/>
-      <c r="AK17" s="73"/>
-      <c r="AL17" s="73"/>
-      <c r="AM17" s="73"/>
-      <c r="AN17" s="73"/>
-      <c r="AO17" s="73"/>
-      <c r="AP17" s="73"/>
-      <c r="AQ17" s="73"/>
-      <c r="AR17" s="73"/>
-      <c r="AS17" s="73"/>
-      <c r="AT17" s="73"/>
-      <c r="AU17" s="73"/>
-      <c r="AV17" s="73"/>
+      <c r="L17" s="71"/>
+      <c r="M17" s="71"/>
+      <c r="N17" s="71"/>
+      <c r="O17" s="71"/>
+      <c r="P17" s="71"/>
+      <c r="Q17" s="71"/>
+      <c r="R17" s="71"/>
+      <c r="S17" s="71"/>
+      <c r="T17" s="71"/>
+      <c r="U17" s="71"/>
+      <c r="V17" s="71"/>
+      <c r="W17" s="71"/>
+      <c r="X17" s="71"/>
+      <c r="Y17" s="72"/>
+      <c r="Z17" s="71"/>
+      <c r="AA17" s="71"/>
+      <c r="AB17" s="71"/>
+      <c r="AC17" s="71"/>
+      <c r="AD17" s="71"/>
+      <c r="AE17" s="71"/>
+      <c r="AF17" s="71"/>
+      <c r="AG17" s="71"/>
+      <c r="AH17" s="71"/>
+      <c r="AI17" s="71"/>
+      <c r="AJ17" s="71"/>
+      <c r="AK17" s="71"/>
+      <c r="AL17" s="71"/>
+      <c r="AM17" s="71"/>
+      <c r="AN17" s="71"/>
+      <c r="AO17" s="71"/>
+      <c r="AP17" s="71"/>
+      <c r="AQ17" s="71"/>
+      <c r="AR17" s="71"/>
+      <c r="AS17" s="71"/>
+      <c r="AT17" s="71"/>
+      <c r="AU17" s="71"/>
+      <c r="AV17" s="71"/>
       <c r="AW17" s="36"/>
       <c r="AX17" s="36"/>
       <c r="AY17" s="36"/>
@@ -3308,21 +3348,21 @@
       <c r="BL17" s="36"/>
     </row>
     <row r="18" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="76"/>
-      <c r="B18" s="89" t="s">
-        <v>80</v>
-      </c>
-      <c r="C18" s="47" t="s">
-        <v>25</v>
+      <c r="A18" s="74"/>
+      <c r="B18" s="87" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" s="45" t="s">
+        <v>22</v>
       </c>
       <c r="D18" s="20">
         <v>0</v>
       </c>
-      <c r="E18" s="77">
-        <v>44487</v>
-      </c>
-      <c r="F18" s="77">
-        <v>44489</v>
+      <c r="E18" s="75">
+        <v>44488</v>
+      </c>
+      <c r="F18" s="75">
+        <v>44490</v>
       </c>
       <c r="G18" s="17"/>
       <c r="H18" s="17">
@@ -3332,43 +3372,43 @@
       <c r="I18" s="36"/>
       <c r="J18" s="36"/>
       <c r="K18" s="36"/>
-      <c r="L18" s="73"/>
-      <c r="M18" s="73"/>
-      <c r="N18" s="73"/>
-      <c r="O18" s="73"/>
-      <c r="P18" s="73"/>
-      <c r="Q18" s="73"/>
-      <c r="R18" s="73"/>
-      <c r="S18" s="73"/>
-      <c r="T18" s="73"/>
-      <c r="U18" s="73"/>
-      <c r="V18" s="73"/>
-      <c r="W18" s="73"/>
-      <c r="X18" s="73"/>
-      <c r="Y18" s="73"/>
-      <c r="Z18" s="73"/>
-      <c r="AA18" s="73"/>
-      <c r="AB18" s="73"/>
-      <c r="AC18" s="73"/>
-      <c r="AD18" s="73"/>
-      <c r="AE18" s="73"/>
-      <c r="AF18" s="73"/>
-      <c r="AG18" s="73"/>
-      <c r="AH18" s="73"/>
-      <c r="AI18" s="73"/>
-      <c r="AJ18" s="73"/>
-      <c r="AK18" s="73"/>
-      <c r="AL18" s="73"/>
-      <c r="AM18" s="73"/>
-      <c r="AN18" s="73"/>
-      <c r="AO18" s="73"/>
-      <c r="AP18" s="73"/>
-      <c r="AQ18" s="73"/>
-      <c r="AR18" s="73"/>
-      <c r="AS18" s="73"/>
-      <c r="AT18" s="73"/>
-      <c r="AU18" s="73"/>
-      <c r="AV18" s="73"/>
+      <c r="L18" s="71"/>
+      <c r="M18" s="71"/>
+      <c r="N18" s="71"/>
+      <c r="O18" s="71"/>
+      <c r="P18" s="71"/>
+      <c r="Q18" s="71"/>
+      <c r="R18" s="71"/>
+      <c r="S18" s="71"/>
+      <c r="T18" s="71"/>
+      <c r="U18" s="71"/>
+      <c r="V18" s="71"/>
+      <c r="W18" s="71"/>
+      <c r="X18" s="71"/>
+      <c r="Y18" s="71"/>
+      <c r="Z18" s="71"/>
+      <c r="AA18" s="71"/>
+      <c r="AB18" s="71"/>
+      <c r="AC18" s="71"/>
+      <c r="AD18" s="71"/>
+      <c r="AE18" s="71"/>
+      <c r="AF18" s="71"/>
+      <c r="AG18" s="71"/>
+      <c r="AH18" s="71"/>
+      <c r="AI18" s="71"/>
+      <c r="AJ18" s="71"/>
+      <c r="AK18" s="71"/>
+      <c r="AL18" s="71"/>
+      <c r="AM18" s="71"/>
+      <c r="AN18" s="71"/>
+      <c r="AO18" s="71"/>
+      <c r="AP18" s="71"/>
+      <c r="AQ18" s="71"/>
+      <c r="AR18" s="71"/>
+      <c r="AS18" s="71"/>
+      <c r="AT18" s="71"/>
+      <c r="AU18" s="71"/>
+      <c r="AV18" s="71"/>
       <c r="AW18" s="36"/>
       <c r="AX18" s="36"/>
       <c r="AY18" s="36"/>
@@ -3387,54 +3427,64 @@
       <c r="BL18" s="36"/>
     </row>
     <row r="19" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="76"/>
-      <c r="B19" s="89"/>
-      <c r="C19" s="47"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="77"/>
-      <c r="F19" s="77"/>
+      <c r="A19" s="74"/>
+      <c r="B19" s="87" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="20">
+        <v>0</v>
+      </c>
+      <c r="E19" s="75">
+        <v>44490</v>
+      </c>
+      <c r="F19" s="75">
+        <v>44496</v>
+      </c>
       <c r="G19" s="17"/>
       <c r="H19" s="17"/>
       <c r="I19" s="36"/>
       <c r="J19" s="36"/>
       <c r="K19" s="36"/>
-      <c r="L19" s="73"/>
-      <c r="M19" s="73"/>
-      <c r="N19" s="73"/>
-      <c r="O19" s="73"/>
-      <c r="P19" s="73"/>
-      <c r="Q19" s="73"/>
-      <c r="R19" s="73"/>
-      <c r="S19" s="73"/>
-      <c r="T19" s="73"/>
-      <c r="U19" s="73"/>
-      <c r="V19" s="73"/>
-      <c r="W19" s="73"/>
-      <c r="X19" s="73"/>
-      <c r="Y19" s="73"/>
-      <c r="Z19" s="73"/>
-      <c r="AA19" s="73"/>
-      <c r="AB19" s="73"/>
-      <c r="AC19" s="73"/>
-      <c r="AD19" s="73"/>
-      <c r="AE19" s="73"/>
-      <c r="AF19" s="73"/>
-      <c r="AG19" s="73"/>
-      <c r="AH19" s="73"/>
-      <c r="AI19" s="73"/>
-      <c r="AJ19" s="73"/>
-      <c r="AK19" s="73"/>
-      <c r="AL19" s="73"/>
-      <c r="AM19" s="73"/>
-      <c r="AN19" s="73"/>
-      <c r="AO19" s="73"/>
-      <c r="AP19" s="73"/>
-      <c r="AQ19" s="73"/>
-      <c r="AR19" s="73"/>
-      <c r="AS19" s="73"/>
-      <c r="AT19" s="73"/>
-      <c r="AU19" s="73"/>
-      <c r="AV19" s="73"/>
+      <c r="L19" s="71"/>
+      <c r="M19" s="71"/>
+      <c r="N19" s="71"/>
+      <c r="O19" s="71"/>
+      <c r="P19" s="71"/>
+      <c r="Q19" s="71"/>
+      <c r="R19" s="71"/>
+      <c r="S19" s="71"/>
+      <c r="T19" s="71"/>
+      <c r="U19" s="71"/>
+      <c r="V19" s="71"/>
+      <c r="W19" s="71"/>
+      <c r="X19" s="71"/>
+      <c r="Y19" s="71"/>
+      <c r="Z19" s="71"/>
+      <c r="AA19" s="71"/>
+      <c r="AB19" s="71"/>
+      <c r="AC19" s="71"/>
+      <c r="AD19" s="71"/>
+      <c r="AE19" s="71"/>
+      <c r="AF19" s="71"/>
+      <c r="AG19" s="71"/>
+      <c r="AH19" s="71"/>
+      <c r="AI19" s="71"/>
+      <c r="AJ19" s="71"/>
+      <c r="AK19" s="71"/>
+      <c r="AL19" s="71"/>
+      <c r="AM19" s="71"/>
+      <c r="AN19" s="71"/>
+      <c r="AO19" s="71"/>
+      <c r="AP19" s="71"/>
+      <c r="AQ19" s="71"/>
+      <c r="AR19" s="71"/>
+      <c r="AS19" s="71"/>
+      <c r="AT19" s="71"/>
+      <c r="AU19" s="71"/>
+      <c r="AV19" s="71"/>
       <c r="AW19" s="36"/>
       <c r="AX19" s="36"/>
       <c r="AY19" s="36"/>
@@ -3453,54 +3503,54 @@
       <c r="BL19" s="36"/>
     </row>
     <row r="20" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="76"/>
-      <c r="B20" s="89"/>
-      <c r="C20" s="47"/>
+      <c r="A20" s="74"/>
+      <c r="B20" s="87"/>
+      <c r="C20" s="45"/>
       <c r="D20" s="20"/>
-      <c r="E20" s="77"/>
-      <c r="F20" s="77"/>
+      <c r="E20" s="75"/>
+      <c r="F20" s="75"/>
       <c r="G20" s="17"/>
       <c r="H20" s="17"/>
       <c r="I20" s="36"/>
       <c r="J20" s="36"/>
       <c r="K20" s="36"/>
-      <c r="L20" s="73"/>
-      <c r="M20" s="73"/>
-      <c r="N20" s="73"/>
-      <c r="O20" s="73"/>
-      <c r="P20" s="73"/>
-      <c r="Q20" s="73"/>
-      <c r="R20" s="73"/>
-      <c r="S20" s="73"/>
-      <c r="T20" s="73"/>
-      <c r="U20" s="73"/>
-      <c r="V20" s="73"/>
-      <c r="W20" s="73"/>
-      <c r="X20" s="73"/>
-      <c r="Y20" s="73"/>
-      <c r="Z20" s="73"/>
-      <c r="AA20" s="73"/>
-      <c r="AB20" s="73"/>
-      <c r="AC20" s="73"/>
-      <c r="AD20" s="73"/>
-      <c r="AE20" s="73"/>
-      <c r="AF20" s="73"/>
-      <c r="AG20" s="73"/>
-      <c r="AH20" s="73"/>
-      <c r="AI20" s="73"/>
-      <c r="AJ20" s="73"/>
-      <c r="AK20" s="73"/>
-      <c r="AL20" s="73"/>
-      <c r="AM20" s="73"/>
-      <c r="AN20" s="73"/>
-      <c r="AO20" s="73"/>
-      <c r="AP20" s="73"/>
-      <c r="AQ20" s="73"/>
-      <c r="AR20" s="73"/>
-      <c r="AS20" s="73"/>
-      <c r="AT20" s="73"/>
-      <c r="AU20" s="73"/>
-      <c r="AV20" s="73"/>
+      <c r="L20" s="71"/>
+      <c r="M20" s="71"/>
+      <c r="N20" s="71"/>
+      <c r="O20" s="71"/>
+      <c r="P20" s="71"/>
+      <c r="Q20" s="71"/>
+      <c r="R20" s="71"/>
+      <c r="S20" s="71"/>
+      <c r="T20" s="71"/>
+      <c r="U20" s="71"/>
+      <c r="V20" s="71"/>
+      <c r="W20" s="71"/>
+      <c r="X20" s="71"/>
+      <c r="Y20" s="71"/>
+      <c r="Z20" s="71"/>
+      <c r="AA20" s="71"/>
+      <c r="AB20" s="71"/>
+      <c r="AC20" s="71"/>
+      <c r="AD20" s="71"/>
+      <c r="AE20" s="71"/>
+      <c r="AF20" s="71"/>
+      <c r="AG20" s="71"/>
+      <c r="AH20" s="71"/>
+      <c r="AI20" s="71"/>
+      <c r="AJ20" s="71"/>
+      <c r="AK20" s="71"/>
+      <c r="AL20" s="71"/>
+      <c r="AM20" s="71"/>
+      <c r="AN20" s="71"/>
+      <c r="AO20" s="71"/>
+      <c r="AP20" s="71"/>
+      <c r="AQ20" s="71"/>
+      <c r="AR20" s="71"/>
+      <c r="AS20" s="71"/>
+      <c r="AT20" s="71"/>
+      <c r="AU20" s="71"/>
+      <c r="AV20" s="71"/>
       <c r="AW20" s="36"/>
       <c r="AX20" s="36"/>
       <c r="AY20" s="36"/>
@@ -3519,54 +3569,54 @@
       <c r="BL20" s="36"/>
     </row>
     <row r="21" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="76"/>
-      <c r="B21" s="89"/>
-      <c r="C21" s="47"/>
+      <c r="A21" s="74"/>
+      <c r="B21" s="87"/>
+      <c r="C21" s="45"/>
       <c r="D21" s="20"/>
-      <c r="E21" s="77"/>
-      <c r="F21" s="77"/>
+      <c r="E21" s="75"/>
+      <c r="F21" s="75"/>
       <c r="G21" s="17"/>
       <c r="H21" s="17"/>
       <c r="I21" s="36"/>
       <c r="J21" s="36"/>
       <c r="K21" s="36"/>
-      <c r="L21" s="73"/>
-      <c r="M21" s="73"/>
-      <c r="N21" s="73"/>
-      <c r="O21" s="73"/>
-      <c r="P21" s="73"/>
-      <c r="Q21" s="73"/>
-      <c r="R21" s="73"/>
-      <c r="S21" s="73"/>
-      <c r="T21" s="73"/>
-      <c r="U21" s="73"/>
-      <c r="V21" s="73"/>
-      <c r="W21" s="73"/>
-      <c r="X21" s="73"/>
-      <c r="Y21" s="73"/>
-      <c r="Z21" s="73"/>
-      <c r="AA21" s="73"/>
-      <c r="AB21" s="73"/>
-      <c r="AC21" s="73"/>
-      <c r="AD21" s="73"/>
-      <c r="AE21" s="73"/>
-      <c r="AF21" s="73"/>
-      <c r="AG21" s="73"/>
-      <c r="AH21" s="73"/>
-      <c r="AI21" s="73"/>
-      <c r="AJ21" s="73"/>
-      <c r="AK21" s="73"/>
-      <c r="AL21" s="73"/>
-      <c r="AM21" s="73"/>
-      <c r="AN21" s="73"/>
-      <c r="AO21" s="73"/>
-      <c r="AP21" s="73"/>
-      <c r="AQ21" s="73"/>
-      <c r="AR21" s="73"/>
-      <c r="AS21" s="73"/>
-      <c r="AT21" s="73"/>
-      <c r="AU21" s="73"/>
-      <c r="AV21" s="73"/>
+      <c r="L21" s="71"/>
+      <c r="M21" s="71"/>
+      <c r="N21" s="71"/>
+      <c r="O21" s="71"/>
+      <c r="P21" s="71"/>
+      <c r="Q21" s="71"/>
+      <c r="R21" s="71"/>
+      <c r="S21" s="71"/>
+      <c r="T21" s="71"/>
+      <c r="U21" s="71"/>
+      <c r="V21" s="71"/>
+      <c r="W21" s="71"/>
+      <c r="X21" s="71"/>
+      <c r="Y21" s="71"/>
+      <c r="Z21" s="71"/>
+      <c r="AA21" s="71"/>
+      <c r="AB21" s="71"/>
+      <c r="AC21" s="71"/>
+      <c r="AD21" s="71"/>
+      <c r="AE21" s="71"/>
+      <c r="AF21" s="71"/>
+      <c r="AG21" s="71"/>
+      <c r="AH21" s="71"/>
+      <c r="AI21" s="71"/>
+      <c r="AJ21" s="71"/>
+      <c r="AK21" s="71"/>
+      <c r="AL21" s="71"/>
+      <c r="AM21" s="71"/>
+      <c r="AN21" s="71"/>
+      <c r="AO21" s="71"/>
+      <c r="AP21" s="71"/>
+      <c r="AQ21" s="71"/>
+      <c r="AR21" s="71"/>
+      <c r="AS21" s="71"/>
+      <c r="AT21" s="71"/>
+      <c r="AU21" s="71"/>
+      <c r="AV21" s="71"/>
       <c r="AW21" s="36"/>
       <c r="AX21" s="36"/>
       <c r="AY21" s="36"/>
@@ -3585,16 +3635,16 @@
       <c r="BL21" s="36"/>
     </row>
     <row r="22" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="75" t="s">
-        <v>27</v>
+      <c r="A22" s="73" t="s">
+        <v>24</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="C22" s="48"/>
+        <v>70</v>
+      </c>
+      <c r="C22" s="46"/>
       <c r="D22" s="22"/>
-      <c r="E22" s="80"/>
-      <c r="F22" s="81"/>
+      <c r="E22" s="78"/>
+      <c r="F22" s="79"/>
       <c r="G22" s="17"/>
       <c r="H22" s="17" t="str">
         <f t="shared" si="6"/>
@@ -3603,43 +3653,43 @@
       <c r="I22" s="36"/>
       <c r="J22" s="36"/>
       <c r="K22" s="36"/>
-      <c r="L22" s="73"/>
-      <c r="M22" s="73"/>
-      <c r="N22" s="73"/>
-      <c r="O22" s="73"/>
-      <c r="P22" s="73"/>
-      <c r="Q22" s="73"/>
-      <c r="R22" s="73"/>
-      <c r="S22" s="73"/>
-      <c r="T22" s="73"/>
-      <c r="U22" s="73"/>
-      <c r="V22" s="73"/>
-      <c r="W22" s="73"/>
-      <c r="X22" s="73"/>
-      <c r="Y22" s="73"/>
-      <c r="Z22" s="73"/>
-      <c r="AA22" s="73"/>
-      <c r="AB22" s="73"/>
-      <c r="AC22" s="73"/>
-      <c r="AD22" s="73"/>
-      <c r="AE22" s="73"/>
-      <c r="AF22" s="73"/>
-      <c r="AG22" s="73"/>
-      <c r="AH22" s="73"/>
-      <c r="AI22" s="73"/>
-      <c r="AJ22" s="73"/>
-      <c r="AK22" s="73"/>
-      <c r="AL22" s="73"/>
-      <c r="AM22" s="73"/>
-      <c r="AN22" s="73"/>
-      <c r="AO22" s="73"/>
-      <c r="AP22" s="73"/>
-      <c r="AQ22" s="73"/>
-      <c r="AR22" s="73"/>
-      <c r="AS22" s="73"/>
-      <c r="AT22" s="73"/>
-      <c r="AU22" s="73"/>
-      <c r="AV22" s="73"/>
+      <c r="L22" s="71"/>
+      <c r="M22" s="71"/>
+      <c r="N22" s="71"/>
+      <c r="O22" s="71"/>
+      <c r="P22" s="71"/>
+      <c r="Q22" s="71"/>
+      <c r="R22" s="71"/>
+      <c r="S22" s="71"/>
+      <c r="T22" s="71"/>
+      <c r="U22" s="71"/>
+      <c r="V22" s="71"/>
+      <c r="W22" s="71"/>
+      <c r="X22" s="71"/>
+      <c r="Y22" s="71"/>
+      <c r="Z22" s="71"/>
+      <c r="AA22" s="71"/>
+      <c r="AB22" s="71"/>
+      <c r="AC22" s="71"/>
+      <c r="AD22" s="71"/>
+      <c r="AE22" s="71"/>
+      <c r="AF22" s="71"/>
+      <c r="AG22" s="71"/>
+      <c r="AH22" s="71"/>
+      <c r="AI22" s="71"/>
+      <c r="AJ22" s="71"/>
+      <c r="AK22" s="71"/>
+      <c r="AL22" s="71"/>
+      <c r="AM22" s="71"/>
+      <c r="AN22" s="71"/>
+      <c r="AO22" s="71"/>
+      <c r="AP22" s="71"/>
+      <c r="AQ22" s="71"/>
+      <c r="AR22" s="71"/>
+      <c r="AS22" s="71"/>
+      <c r="AT22" s="71"/>
+      <c r="AU22" s="71"/>
+      <c r="AV22" s="71"/>
       <c r="AW22" s="36"/>
       <c r="AX22" s="36"/>
       <c r="AY22" s="36"/>
@@ -3658,20 +3708,20 @@
       <c r="BL22" s="36"/>
     </row>
     <row r="23" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="75"/>
-      <c r="B23" s="56" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" s="49" t="s">
-        <v>20</v>
+      <c r="A23" s="73"/>
+      <c r="B23" s="54" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="47" t="s">
+        <v>17</v>
       </c>
       <c r="D23" s="23">
-        <v>0</v>
-      </c>
-      <c r="E23" s="82">
+        <v>1</v>
+      </c>
+      <c r="E23" s="80">
         <v>44481</v>
       </c>
-      <c r="F23" s="82">
+      <c r="F23" s="80">
         <v>44482</v>
       </c>
       <c r="G23" s="17"/>
@@ -3682,43 +3732,43 @@
       <c r="I23" s="36"/>
       <c r="J23" s="36"/>
       <c r="K23" s="36"/>
-      <c r="L23" s="73"/>
-      <c r="M23" s="73"/>
-      <c r="N23" s="73"/>
-      <c r="O23" s="73"/>
-      <c r="P23" s="73"/>
-      <c r="Q23" s="73"/>
-      <c r="R23" s="73"/>
-      <c r="S23" s="73"/>
-      <c r="T23" s="73"/>
-      <c r="U23" s="73"/>
-      <c r="V23" s="73"/>
-      <c r="W23" s="73"/>
-      <c r="X23" s="73"/>
-      <c r="Y23" s="73"/>
-      <c r="Z23" s="73"/>
-      <c r="AA23" s="73"/>
-      <c r="AB23" s="73"/>
-      <c r="AC23" s="73"/>
-      <c r="AD23" s="73"/>
-      <c r="AE23" s="73"/>
-      <c r="AF23" s="73"/>
-      <c r="AG23" s="73"/>
-      <c r="AH23" s="73"/>
-      <c r="AI23" s="73"/>
-      <c r="AJ23" s="73"/>
-      <c r="AK23" s="73"/>
-      <c r="AL23" s="73"/>
-      <c r="AM23" s="73"/>
-      <c r="AN23" s="73"/>
-      <c r="AO23" s="73"/>
-      <c r="AP23" s="73"/>
-      <c r="AQ23" s="73"/>
-      <c r="AR23" s="73"/>
-      <c r="AS23" s="73"/>
-      <c r="AT23" s="73"/>
-      <c r="AU23" s="73"/>
-      <c r="AV23" s="73"/>
+      <c r="L23" s="71"/>
+      <c r="M23" s="71"/>
+      <c r="N23" s="71"/>
+      <c r="O23" s="71"/>
+      <c r="P23" s="71"/>
+      <c r="Q23" s="71"/>
+      <c r="R23" s="71"/>
+      <c r="S23" s="71"/>
+      <c r="T23" s="71"/>
+      <c r="U23" s="71"/>
+      <c r="V23" s="71"/>
+      <c r="W23" s="71"/>
+      <c r="X23" s="71"/>
+      <c r="Y23" s="71"/>
+      <c r="Z23" s="71"/>
+      <c r="AA23" s="71"/>
+      <c r="AB23" s="71"/>
+      <c r="AC23" s="71"/>
+      <c r="AD23" s="71"/>
+      <c r="AE23" s="71"/>
+      <c r="AF23" s="71"/>
+      <c r="AG23" s="71"/>
+      <c r="AH23" s="71"/>
+      <c r="AI23" s="71"/>
+      <c r="AJ23" s="71"/>
+      <c r="AK23" s="71"/>
+      <c r="AL23" s="71"/>
+      <c r="AM23" s="71"/>
+      <c r="AN23" s="71"/>
+      <c r="AO23" s="71"/>
+      <c r="AP23" s="71"/>
+      <c r="AQ23" s="71"/>
+      <c r="AR23" s="71"/>
+      <c r="AS23" s="71"/>
+      <c r="AT23" s="71"/>
+      <c r="AU23" s="71"/>
+      <c r="AV23" s="71"/>
       <c r="AW23" s="36"/>
       <c r="AX23" s="36"/>
       <c r="AY23" s="36"/>
@@ -3737,65 +3787,57 @@
       <c r="BL23" s="36"/>
     </row>
     <row r="24" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="76"/>
-      <c r="B24" s="91" t="s">
-        <v>84</v>
-      </c>
-      <c r="C24" s="49" t="s">
-        <v>78</v>
-      </c>
+      <c r="A24" s="74"/>
+      <c r="B24" s="88"/>
+      <c r="C24" s="47"/>
       <c r="D24" s="23"/>
-      <c r="E24" s="82">
-        <v>44481</v>
-      </c>
-      <c r="F24" s="82">
-        <v>44482</v>
-      </c>
+      <c r="E24" s="80"/>
+      <c r="F24" s="80"/>
       <c r="G24" s="17"/>
-      <c r="H24" s="17">
+      <c r="H24" s="17" t="str">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v/>
       </c>
       <c r="I24" s="36"/>
       <c r="J24" s="36"/>
       <c r="K24" s="36"/>
-      <c r="L24" s="73"/>
-      <c r="M24" s="73"/>
-      <c r="N24" s="73"/>
-      <c r="O24" s="73"/>
-      <c r="P24" s="73"/>
-      <c r="Q24" s="73"/>
-      <c r="R24" s="73"/>
-      <c r="S24" s="73"/>
-      <c r="T24" s="73"/>
-      <c r="U24" s="74"/>
-      <c r="V24" s="74"/>
-      <c r="W24" s="73"/>
-      <c r="X24" s="73"/>
-      <c r="Y24" s="73"/>
-      <c r="Z24" s="73"/>
-      <c r="AA24" s="73"/>
-      <c r="AB24" s="73"/>
-      <c r="AC24" s="73"/>
-      <c r="AD24" s="73"/>
-      <c r="AE24" s="73"/>
-      <c r="AF24" s="73"/>
-      <c r="AG24" s="73"/>
-      <c r="AH24" s="73"/>
-      <c r="AI24" s="73"/>
-      <c r="AJ24" s="73"/>
-      <c r="AK24" s="73"/>
-      <c r="AL24" s="73"/>
-      <c r="AM24" s="73"/>
-      <c r="AN24" s="73"/>
-      <c r="AO24" s="73"/>
-      <c r="AP24" s="73"/>
-      <c r="AQ24" s="73"/>
-      <c r="AR24" s="73"/>
-      <c r="AS24" s="73"/>
-      <c r="AT24" s="73"/>
-      <c r="AU24" s="73"/>
-      <c r="AV24" s="73"/>
+      <c r="L24" s="71"/>
+      <c r="M24" s="71"/>
+      <c r="N24" s="71"/>
+      <c r="O24" s="71"/>
+      <c r="P24" s="71"/>
+      <c r="Q24" s="71"/>
+      <c r="R24" s="71"/>
+      <c r="S24" s="71"/>
+      <c r="T24" s="71"/>
+      <c r="U24" s="72"/>
+      <c r="V24" s="72"/>
+      <c r="W24" s="71"/>
+      <c r="X24" s="71"/>
+      <c r="Y24" s="71"/>
+      <c r="Z24" s="71"/>
+      <c r="AA24" s="71"/>
+      <c r="AB24" s="71"/>
+      <c r="AC24" s="71"/>
+      <c r="AD24" s="71"/>
+      <c r="AE24" s="71"/>
+      <c r="AF24" s="71"/>
+      <c r="AG24" s="71"/>
+      <c r="AH24" s="71"/>
+      <c r="AI24" s="71"/>
+      <c r="AJ24" s="71"/>
+      <c r="AK24" s="71"/>
+      <c r="AL24" s="71"/>
+      <c r="AM24" s="71"/>
+      <c r="AN24" s="71"/>
+      <c r="AO24" s="71"/>
+      <c r="AP24" s="71"/>
+      <c r="AQ24" s="71"/>
+      <c r="AR24" s="71"/>
+      <c r="AS24" s="71"/>
+      <c r="AT24" s="71"/>
+      <c r="AU24" s="71"/>
+      <c r="AV24" s="71"/>
       <c r="AW24" s="36"/>
       <c r="AX24" s="36"/>
       <c r="AY24" s="36"/>
@@ -3814,65 +3856,57 @@
       <c r="BL24" s="36"/>
     </row>
     <row r="25" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="76"/>
-      <c r="B25" s="56" t="s">
-        <v>83</v>
-      </c>
-      <c r="C25" s="49" t="s">
-        <v>78</v>
-      </c>
+      <c r="A25" s="74"/>
+      <c r="B25" s="54"/>
+      <c r="C25" s="47"/>
       <c r="D25" s="23"/>
-      <c r="E25" s="82">
-        <v>44481</v>
-      </c>
-      <c r="F25" s="82">
-        <v>44482</v>
-      </c>
+      <c r="E25" s="80"/>
+      <c r="F25" s="80"/>
       <c r="G25" s="17"/>
-      <c r="H25" s="17">
+      <c r="H25" s="17" t="str">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v/>
       </c>
       <c r="I25" s="36"/>
       <c r="J25" s="36"/>
       <c r="K25" s="36"/>
-      <c r="L25" s="73"/>
-      <c r="M25" s="73"/>
-      <c r="N25" s="73"/>
-      <c r="O25" s="73"/>
-      <c r="P25" s="73"/>
-      <c r="Q25" s="73"/>
-      <c r="R25" s="73"/>
-      <c r="S25" s="73"/>
-      <c r="T25" s="73"/>
-      <c r="U25" s="73"/>
-      <c r="V25" s="73"/>
-      <c r="W25" s="73"/>
-      <c r="X25" s="73"/>
-      <c r="Y25" s="73"/>
-      <c r="Z25" s="73"/>
-      <c r="AA25" s="73"/>
-      <c r="AB25" s="73"/>
-      <c r="AC25" s="73"/>
-      <c r="AD25" s="73"/>
-      <c r="AE25" s="73"/>
-      <c r="AF25" s="73"/>
-      <c r="AG25" s="73"/>
-      <c r="AH25" s="73"/>
-      <c r="AI25" s="73"/>
-      <c r="AJ25" s="73"/>
-      <c r="AK25" s="73"/>
-      <c r="AL25" s="73"/>
-      <c r="AM25" s="73"/>
-      <c r="AN25" s="73"/>
-      <c r="AO25" s="73"/>
-      <c r="AP25" s="73"/>
-      <c r="AQ25" s="73"/>
-      <c r="AR25" s="73"/>
-      <c r="AS25" s="73"/>
-      <c r="AT25" s="73"/>
-      <c r="AU25" s="73"/>
-      <c r="AV25" s="73"/>
+      <c r="L25" s="71"/>
+      <c r="M25" s="71"/>
+      <c r="N25" s="71"/>
+      <c r="O25" s="71"/>
+      <c r="P25" s="71"/>
+      <c r="Q25" s="71"/>
+      <c r="R25" s="71"/>
+      <c r="S25" s="71"/>
+      <c r="T25" s="71"/>
+      <c r="U25" s="71"/>
+      <c r="V25" s="71"/>
+      <c r="W25" s="71"/>
+      <c r="X25" s="71"/>
+      <c r="Y25" s="71"/>
+      <c r="Z25" s="71"/>
+      <c r="AA25" s="71"/>
+      <c r="AB25" s="71"/>
+      <c r="AC25" s="71"/>
+      <c r="AD25" s="71"/>
+      <c r="AE25" s="71"/>
+      <c r="AF25" s="71"/>
+      <c r="AG25" s="71"/>
+      <c r="AH25" s="71"/>
+      <c r="AI25" s="71"/>
+      <c r="AJ25" s="71"/>
+      <c r="AK25" s="71"/>
+      <c r="AL25" s="71"/>
+      <c r="AM25" s="71"/>
+      <c r="AN25" s="71"/>
+      <c r="AO25" s="71"/>
+      <c r="AP25" s="71"/>
+      <c r="AQ25" s="71"/>
+      <c r="AR25" s="71"/>
+      <c r="AS25" s="71"/>
+      <c r="AT25" s="71"/>
+      <c r="AU25" s="71"/>
+      <c r="AV25" s="71"/>
       <c r="AW25" s="36"/>
       <c r="AX25" s="36"/>
       <c r="AY25" s="36"/>
@@ -3891,62 +3925,54 @@
       <c r="BL25" s="36"/>
     </row>
     <row r="26" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="76"/>
-      <c r="B26" s="56" t="s">
-        <v>81</v>
-      </c>
-      <c r="C26" s="49" t="s">
-        <v>23</v>
-      </c>
+      <c r="A26" s="74"/>
+      <c r="B26" s="54"/>
+      <c r="C26" s="47"/>
       <c r="D26" s="23"/>
-      <c r="E26" s="82">
-        <v>44481</v>
-      </c>
-      <c r="F26" s="82">
-        <v>44482</v>
-      </c>
+      <c r="E26" s="80"/>
+      <c r="F26" s="80"/>
       <c r="G26" s="17"/>
       <c r="H26" s="17"/>
       <c r="I26" s="36"/>
       <c r="J26" s="36"/>
       <c r="K26" s="36"/>
-      <c r="L26" s="73"/>
-      <c r="M26" s="73"/>
-      <c r="N26" s="73"/>
-      <c r="O26" s="73"/>
-      <c r="P26" s="73"/>
-      <c r="Q26" s="73"/>
-      <c r="R26" s="73"/>
-      <c r="S26" s="73"/>
-      <c r="T26" s="73"/>
-      <c r="U26" s="73"/>
-      <c r="V26" s="73"/>
-      <c r="W26" s="73"/>
-      <c r="X26" s="73"/>
-      <c r="Y26" s="73"/>
-      <c r="Z26" s="73"/>
-      <c r="AA26" s="73"/>
-      <c r="AB26" s="73"/>
-      <c r="AC26" s="73"/>
-      <c r="AD26" s="73"/>
-      <c r="AE26" s="73"/>
-      <c r="AF26" s="73"/>
-      <c r="AG26" s="73"/>
-      <c r="AH26" s="73"/>
-      <c r="AI26" s="73"/>
-      <c r="AJ26" s="73"/>
-      <c r="AK26" s="73"/>
-      <c r="AL26" s="73"/>
-      <c r="AM26" s="73"/>
-      <c r="AN26" s="73"/>
-      <c r="AO26" s="73"/>
-      <c r="AP26" s="73"/>
-      <c r="AQ26" s="73"/>
-      <c r="AR26" s="73"/>
-      <c r="AS26" s="73"/>
-      <c r="AT26" s="73"/>
-      <c r="AU26" s="73"/>
-      <c r="AV26" s="73"/>
+      <c r="L26" s="71"/>
+      <c r="M26" s="71"/>
+      <c r="N26" s="71"/>
+      <c r="O26" s="71"/>
+      <c r="P26" s="71"/>
+      <c r="Q26" s="71"/>
+      <c r="R26" s="71"/>
+      <c r="S26" s="71"/>
+      <c r="T26" s="71"/>
+      <c r="U26" s="71"/>
+      <c r="V26" s="71"/>
+      <c r="W26" s="71"/>
+      <c r="X26" s="71"/>
+      <c r="Y26" s="71"/>
+      <c r="Z26" s="71"/>
+      <c r="AA26" s="71"/>
+      <c r="AB26" s="71"/>
+      <c r="AC26" s="71"/>
+      <c r="AD26" s="71"/>
+      <c r="AE26" s="71"/>
+      <c r="AF26" s="71"/>
+      <c r="AG26" s="71"/>
+      <c r="AH26" s="71"/>
+      <c r="AI26" s="71"/>
+      <c r="AJ26" s="71"/>
+      <c r="AK26" s="71"/>
+      <c r="AL26" s="71"/>
+      <c r="AM26" s="71"/>
+      <c r="AN26" s="71"/>
+      <c r="AO26" s="71"/>
+      <c r="AP26" s="71"/>
+      <c r="AQ26" s="71"/>
+      <c r="AR26" s="71"/>
+      <c r="AS26" s="71"/>
+      <c r="AT26" s="71"/>
+      <c r="AU26" s="71"/>
+      <c r="AV26" s="71"/>
       <c r="AW26" s="36"/>
       <c r="AX26" s="36"/>
       <c r="AY26" s="36"/>
@@ -3965,62 +3991,54 @@
       <c r="BL26" s="36"/>
     </row>
     <row r="27" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="76"/>
-      <c r="B27" s="56" t="s">
-        <v>82</v>
-      </c>
-      <c r="C27" s="49" t="s">
-        <v>75</v>
-      </c>
+      <c r="A27" s="74"/>
+      <c r="B27" s="54"/>
+      <c r="C27" s="47"/>
       <c r="D27" s="23"/>
-      <c r="E27" s="82">
-        <v>44481</v>
-      </c>
-      <c r="F27" s="82">
-        <v>44482</v>
-      </c>
+      <c r="E27" s="80"/>
+      <c r="F27" s="80"/>
       <c r="G27" s="17"/>
       <c r="H27" s="17"/>
       <c r="I27" s="36"/>
       <c r="J27" s="36"/>
       <c r="K27" s="36"/>
-      <c r="L27" s="73"/>
-      <c r="M27" s="73"/>
-      <c r="N27" s="73"/>
-      <c r="O27" s="73"/>
-      <c r="P27" s="73"/>
-      <c r="Q27" s="73"/>
-      <c r="R27" s="73"/>
-      <c r="S27" s="73"/>
-      <c r="T27" s="73"/>
-      <c r="U27" s="73"/>
-      <c r="V27" s="73"/>
-      <c r="W27" s="73"/>
-      <c r="X27" s="73"/>
-      <c r="Y27" s="73"/>
-      <c r="Z27" s="73"/>
-      <c r="AA27" s="73"/>
-      <c r="AB27" s="73"/>
-      <c r="AC27" s="73"/>
-      <c r="AD27" s="73"/>
-      <c r="AE27" s="73"/>
-      <c r="AF27" s="73"/>
-      <c r="AG27" s="73"/>
-      <c r="AH27" s="73"/>
-      <c r="AI27" s="73"/>
-      <c r="AJ27" s="73"/>
-      <c r="AK27" s="73"/>
-      <c r="AL27" s="73"/>
-      <c r="AM27" s="73"/>
-      <c r="AN27" s="73"/>
-      <c r="AO27" s="73"/>
-      <c r="AP27" s="73"/>
-      <c r="AQ27" s="73"/>
-      <c r="AR27" s="73"/>
-      <c r="AS27" s="73"/>
-      <c r="AT27" s="73"/>
-      <c r="AU27" s="73"/>
-      <c r="AV27" s="73"/>
+      <c r="L27" s="71"/>
+      <c r="M27" s="71"/>
+      <c r="N27" s="71"/>
+      <c r="O27" s="71"/>
+      <c r="P27" s="71"/>
+      <c r="Q27" s="71"/>
+      <c r="R27" s="71"/>
+      <c r="S27" s="71"/>
+      <c r="T27" s="71"/>
+      <c r="U27" s="71"/>
+      <c r="V27" s="71"/>
+      <c r="W27" s="71"/>
+      <c r="X27" s="71"/>
+      <c r="Y27" s="71"/>
+      <c r="Z27" s="71"/>
+      <c r="AA27" s="71"/>
+      <c r="AB27" s="71"/>
+      <c r="AC27" s="71"/>
+      <c r="AD27" s="71"/>
+      <c r="AE27" s="71"/>
+      <c r="AF27" s="71"/>
+      <c r="AG27" s="71"/>
+      <c r="AH27" s="71"/>
+      <c r="AI27" s="71"/>
+      <c r="AJ27" s="71"/>
+      <c r="AK27" s="71"/>
+      <c r="AL27" s="71"/>
+      <c r="AM27" s="71"/>
+      <c r="AN27" s="71"/>
+      <c r="AO27" s="71"/>
+      <c r="AP27" s="71"/>
+      <c r="AQ27" s="71"/>
+      <c r="AR27" s="71"/>
+      <c r="AS27" s="71"/>
+      <c r="AT27" s="71"/>
+      <c r="AU27" s="71"/>
+      <c r="AV27" s="71"/>
       <c r="AW27" s="36"/>
       <c r="AX27" s="36"/>
       <c r="AY27" s="36"/>
@@ -4039,54 +4057,54 @@
       <c r="BL27" s="36"/>
     </row>
     <row r="28" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="76"/>
-      <c r="B28" s="56"/>
-      <c r="C28" s="49"/>
+      <c r="A28" s="74"/>
+      <c r="B28" s="54"/>
+      <c r="C28" s="47"/>
       <c r="D28" s="23"/>
-      <c r="E28" s="82"/>
-      <c r="F28" s="82"/>
+      <c r="E28" s="80"/>
+      <c r="F28" s="80"/>
       <c r="G28" s="17"/>
       <c r="H28" s="17"/>
       <c r="I28" s="36"/>
       <c r="J28" s="36"/>
       <c r="K28" s="36"/>
-      <c r="L28" s="73"/>
-      <c r="M28" s="73"/>
-      <c r="N28" s="73"/>
-      <c r="O28" s="73"/>
-      <c r="P28" s="73"/>
-      <c r="Q28" s="73"/>
-      <c r="R28" s="73"/>
-      <c r="S28" s="73"/>
-      <c r="T28" s="73"/>
-      <c r="U28" s="73"/>
-      <c r="V28" s="73"/>
-      <c r="W28" s="73"/>
-      <c r="X28" s="73"/>
-      <c r="Y28" s="73"/>
-      <c r="Z28" s="73"/>
-      <c r="AA28" s="73"/>
-      <c r="AB28" s="73"/>
-      <c r="AC28" s="73"/>
-      <c r="AD28" s="73"/>
-      <c r="AE28" s="73"/>
-      <c r="AF28" s="73"/>
-      <c r="AG28" s="73"/>
-      <c r="AH28" s="73"/>
-      <c r="AI28" s="73"/>
-      <c r="AJ28" s="73"/>
-      <c r="AK28" s="73"/>
-      <c r="AL28" s="73"/>
-      <c r="AM28" s="73"/>
-      <c r="AN28" s="73"/>
-      <c r="AO28" s="73"/>
-      <c r="AP28" s="73"/>
-      <c r="AQ28" s="73"/>
-      <c r="AR28" s="73"/>
-      <c r="AS28" s="73"/>
-      <c r="AT28" s="73"/>
-      <c r="AU28" s="73"/>
-      <c r="AV28" s="73"/>
+      <c r="L28" s="71"/>
+      <c r="M28" s="71"/>
+      <c r="N28" s="71"/>
+      <c r="O28" s="71"/>
+      <c r="P28" s="71"/>
+      <c r="Q28" s="71"/>
+      <c r="R28" s="71"/>
+      <c r="S28" s="71"/>
+      <c r="T28" s="71"/>
+      <c r="U28" s="71"/>
+      <c r="V28" s="71"/>
+      <c r="W28" s="71"/>
+      <c r="X28" s="71"/>
+      <c r="Y28" s="71"/>
+      <c r="Z28" s="71"/>
+      <c r="AA28" s="71"/>
+      <c r="AB28" s="71"/>
+      <c r="AC28" s="71"/>
+      <c r="AD28" s="71"/>
+      <c r="AE28" s="71"/>
+      <c r="AF28" s="71"/>
+      <c r="AG28" s="71"/>
+      <c r="AH28" s="71"/>
+      <c r="AI28" s="71"/>
+      <c r="AJ28" s="71"/>
+      <c r="AK28" s="71"/>
+      <c r="AL28" s="71"/>
+      <c r="AM28" s="71"/>
+      <c r="AN28" s="71"/>
+      <c r="AO28" s="71"/>
+      <c r="AP28" s="71"/>
+      <c r="AQ28" s="71"/>
+      <c r="AR28" s="71"/>
+      <c r="AS28" s="71"/>
+      <c r="AT28" s="71"/>
+      <c r="AU28" s="71"/>
+      <c r="AV28" s="71"/>
       <c r="AW28" s="36"/>
       <c r="AX28" s="36"/>
       <c r="AY28" s="36"/>
@@ -4105,12 +4123,12 @@
       <c r="BL28" s="36"/>
     </row>
     <row r="29" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="76"/>
-      <c r="B29" s="56"/>
-      <c r="C29" s="49"/>
+      <c r="A29" s="74"/>
+      <c r="B29" s="54"/>
+      <c r="C29" s="47"/>
       <c r="D29" s="23"/>
-      <c r="E29" s="82"/>
-      <c r="F29" s="82"/>
+      <c r="E29" s="80"/>
+      <c r="F29" s="80"/>
       <c r="G29" s="17"/>
       <c r="H29" s="17" t="str">
         <f t="shared" si="6"/>
@@ -4119,43 +4137,43 @@
       <c r="I29" s="36"/>
       <c r="J29" s="36"/>
       <c r="K29" s="36"/>
-      <c r="L29" s="73"/>
-      <c r="M29" s="73"/>
-      <c r="N29" s="73"/>
-      <c r="O29" s="73"/>
-      <c r="P29" s="73"/>
-      <c r="Q29" s="73"/>
-      <c r="R29" s="73"/>
-      <c r="S29" s="73"/>
-      <c r="T29" s="73"/>
-      <c r="U29" s="73"/>
-      <c r="V29" s="73"/>
-      <c r="W29" s="73"/>
-      <c r="X29" s="73"/>
-      <c r="Y29" s="74"/>
-      <c r="Z29" s="73"/>
-      <c r="AA29" s="73"/>
-      <c r="AB29" s="73"/>
-      <c r="AC29" s="73"/>
-      <c r="AD29" s="73"/>
-      <c r="AE29" s="73"/>
-      <c r="AF29" s="73"/>
-      <c r="AG29" s="73"/>
-      <c r="AH29" s="73"/>
-      <c r="AI29" s="73"/>
-      <c r="AJ29" s="73"/>
-      <c r="AK29" s="73"/>
-      <c r="AL29" s="73"/>
-      <c r="AM29" s="73"/>
-      <c r="AN29" s="73"/>
-      <c r="AO29" s="73"/>
-      <c r="AP29" s="73"/>
-      <c r="AQ29" s="73"/>
-      <c r="AR29" s="73"/>
-      <c r="AS29" s="73"/>
-      <c r="AT29" s="73"/>
-      <c r="AU29" s="73"/>
-      <c r="AV29" s="73"/>
+      <c r="L29" s="71"/>
+      <c r="M29" s="71"/>
+      <c r="N29" s="71"/>
+      <c r="O29" s="71"/>
+      <c r="P29" s="71"/>
+      <c r="Q29" s="71"/>
+      <c r="R29" s="71"/>
+      <c r="S29" s="71"/>
+      <c r="T29" s="71"/>
+      <c r="U29" s="71"/>
+      <c r="V29" s="71"/>
+      <c r="W29" s="71"/>
+      <c r="X29" s="71"/>
+      <c r="Y29" s="72"/>
+      <c r="Z29" s="71"/>
+      <c r="AA29" s="71"/>
+      <c r="AB29" s="71"/>
+      <c r="AC29" s="71"/>
+      <c r="AD29" s="71"/>
+      <c r="AE29" s="71"/>
+      <c r="AF29" s="71"/>
+      <c r="AG29" s="71"/>
+      <c r="AH29" s="71"/>
+      <c r="AI29" s="71"/>
+      <c r="AJ29" s="71"/>
+      <c r="AK29" s="71"/>
+      <c r="AL29" s="71"/>
+      <c r="AM29" s="71"/>
+      <c r="AN29" s="71"/>
+      <c r="AO29" s="71"/>
+      <c r="AP29" s="71"/>
+      <c r="AQ29" s="71"/>
+      <c r="AR29" s="71"/>
+      <c r="AS29" s="71"/>
+      <c r="AT29" s="71"/>
+      <c r="AU29" s="71"/>
+      <c r="AV29" s="71"/>
       <c r="AW29" s="36"/>
       <c r="AX29" s="36"/>
       <c r="AY29" s="36"/>
@@ -4174,16 +4192,16 @@
       <c r="BL29" s="36"/>
     </row>
     <row r="30" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="76" t="s">
-        <v>28</v>
+      <c r="A30" s="74" t="s">
+        <v>25</v>
       </c>
       <c r="B30" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="C30" s="50"/>
+        <v>26</v>
+      </c>
+      <c r="C30" s="48"/>
       <c r="D30" s="25"/>
-      <c r="E30" s="83"/>
-      <c r="F30" s="84"/>
+      <c r="E30" s="81"/>
+      <c r="F30" s="82"/>
       <c r="G30" s="17"/>
       <c r="H30" s="17" t="str">
         <f t="shared" si="6"/>
@@ -4192,43 +4210,43 @@
       <c r="I30" s="36"/>
       <c r="J30" s="36"/>
       <c r="K30" s="36"/>
-      <c r="L30" s="73"/>
-      <c r="M30" s="73"/>
-      <c r="N30" s="73"/>
-      <c r="O30" s="73"/>
-      <c r="P30" s="73"/>
-      <c r="Q30" s="73"/>
-      <c r="R30" s="73"/>
-      <c r="S30" s="73"/>
-      <c r="T30" s="73"/>
-      <c r="U30" s="73"/>
-      <c r="V30" s="73"/>
-      <c r="W30" s="73"/>
-      <c r="X30" s="73"/>
-      <c r="Y30" s="73"/>
-      <c r="Z30" s="73"/>
-      <c r="AA30" s="73"/>
-      <c r="AB30" s="73"/>
-      <c r="AC30" s="73"/>
-      <c r="AD30" s="73"/>
-      <c r="AE30" s="73"/>
-      <c r="AF30" s="73"/>
-      <c r="AG30" s="73"/>
-      <c r="AH30" s="73"/>
-      <c r="AI30" s="73"/>
-      <c r="AJ30" s="73"/>
-      <c r="AK30" s="73"/>
-      <c r="AL30" s="73"/>
-      <c r="AM30" s="73"/>
-      <c r="AN30" s="73"/>
-      <c r="AO30" s="73"/>
-      <c r="AP30" s="73"/>
-      <c r="AQ30" s="73"/>
-      <c r="AR30" s="73"/>
-      <c r="AS30" s="73"/>
-      <c r="AT30" s="73"/>
-      <c r="AU30" s="73"/>
-      <c r="AV30" s="73"/>
+      <c r="L30" s="71"/>
+      <c r="M30" s="71"/>
+      <c r="N30" s="71"/>
+      <c r="O30" s="71"/>
+      <c r="P30" s="71"/>
+      <c r="Q30" s="71"/>
+      <c r="R30" s="71"/>
+      <c r="S30" s="71"/>
+      <c r="T30" s="71"/>
+      <c r="U30" s="71"/>
+      <c r="V30" s="71"/>
+      <c r="W30" s="71"/>
+      <c r="X30" s="71"/>
+      <c r="Y30" s="71"/>
+      <c r="Z30" s="71"/>
+      <c r="AA30" s="71"/>
+      <c r="AB30" s="71"/>
+      <c r="AC30" s="71"/>
+      <c r="AD30" s="71"/>
+      <c r="AE30" s="71"/>
+      <c r="AF30" s="71"/>
+      <c r="AG30" s="71"/>
+      <c r="AH30" s="71"/>
+      <c r="AI30" s="71"/>
+      <c r="AJ30" s="71"/>
+      <c r="AK30" s="71"/>
+      <c r="AL30" s="71"/>
+      <c r="AM30" s="71"/>
+      <c r="AN30" s="71"/>
+      <c r="AO30" s="71"/>
+      <c r="AP30" s="71"/>
+      <c r="AQ30" s="71"/>
+      <c r="AR30" s="71"/>
+      <c r="AS30" s="71"/>
+      <c r="AT30" s="71"/>
+      <c r="AU30" s="71"/>
+      <c r="AV30" s="71"/>
       <c r="AW30" s="36"/>
       <c r="AX30" s="36"/>
       <c r="AY30" s="36"/>
@@ -4247,12 +4265,12 @@
       <c r="BL30" s="36"/>
     </row>
     <row r="31" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="76"/>
-      <c r="B31" s="57"/>
-      <c r="C31" s="51"/>
+      <c r="A31" s="74"/>
+      <c r="B31" s="55"/>
+      <c r="C31" s="49"/>
       <c r="D31" s="26"/>
-      <c r="E31" s="85"/>
-      <c r="F31" s="85"/>
+      <c r="E31" s="83"/>
+      <c r="F31" s="83"/>
       <c r="G31" s="17"/>
       <c r="H31" s="17" t="str">
         <f t="shared" si="6"/>
@@ -4261,43 +4279,43 @@
       <c r="I31" s="36"/>
       <c r="J31" s="36"/>
       <c r="K31" s="36"/>
-      <c r="L31" s="73"/>
-      <c r="M31" s="73"/>
-      <c r="N31" s="73"/>
-      <c r="O31" s="73"/>
-      <c r="P31" s="73"/>
-      <c r="Q31" s="73"/>
-      <c r="R31" s="73"/>
-      <c r="S31" s="73"/>
-      <c r="T31" s="73"/>
-      <c r="U31" s="73"/>
-      <c r="V31" s="73"/>
-      <c r="W31" s="73"/>
-      <c r="X31" s="73"/>
-      <c r="Y31" s="73"/>
-      <c r="Z31" s="73"/>
-      <c r="AA31" s="73"/>
-      <c r="AB31" s="73"/>
-      <c r="AC31" s="73"/>
-      <c r="AD31" s="73"/>
-      <c r="AE31" s="73"/>
-      <c r="AF31" s="73"/>
-      <c r="AG31" s="73"/>
-      <c r="AH31" s="73"/>
-      <c r="AI31" s="73"/>
-      <c r="AJ31" s="73"/>
-      <c r="AK31" s="73"/>
-      <c r="AL31" s="73"/>
-      <c r="AM31" s="73"/>
-      <c r="AN31" s="73"/>
-      <c r="AO31" s="73"/>
-      <c r="AP31" s="73"/>
-      <c r="AQ31" s="73"/>
-      <c r="AR31" s="73"/>
-      <c r="AS31" s="73"/>
-      <c r="AT31" s="73"/>
-      <c r="AU31" s="73"/>
-      <c r="AV31" s="73"/>
+      <c r="L31" s="71"/>
+      <c r="M31" s="71"/>
+      <c r="N31" s="71"/>
+      <c r="O31" s="71"/>
+      <c r="P31" s="71"/>
+      <c r="Q31" s="71"/>
+      <c r="R31" s="71"/>
+      <c r="S31" s="71"/>
+      <c r="T31" s="71"/>
+      <c r="U31" s="71"/>
+      <c r="V31" s="71"/>
+      <c r="W31" s="71"/>
+      <c r="X31" s="71"/>
+      <c r="Y31" s="71"/>
+      <c r="Z31" s="71"/>
+      <c r="AA31" s="71"/>
+      <c r="AB31" s="71"/>
+      <c r="AC31" s="71"/>
+      <c r="AD31" s="71"/>
+      <c r="AE31" s="71"/>
+      <c r="AF31" s="71"/>
+      <c r="AG31" s="71"/>
+      <c r="AH31" s="71"/>
+      <c r="AI31" s="71"/>
+      <c r="AJ31" s="71"/>
+      <c r="AK31" s="71"/>
+      <c r="AL31" s="71"/>
+      <c r="AM31" s="71"/>
+      <c r="AN31" s="71"/>
+      <c r="AO31" s="71"/>
+      <c r="AP31" s="71"/>
+      <c r="AQ31" s="71"/>
+      <c r="AR31" s="71"/>
+      <c r="AS31" s="71"/>
+      <c r="AT31" s="71"/>
+      <c r="AU31" s="71"/>
+      <c r="AV31" s="71"/>
       <c r="AW31" s="36"/>
       <c r="AX31" s="36"/>
       <c r="AY31" s="36"/>
@@ -4316,12 +4334,12 @@
       <c r="BL31" s="36"/>
     </row>
     <row r="32" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="76"/>
-      <c r="B32" s="57"/>
-      <c r="C32" s="51"/>
+      <c r="A32" s="74"/>
+      <c r="B32" s="55"/>
+      <c r="C32" s="49"/>
       <c r="D32" s="26"/>
-      <c r="E32" s="85"/>
-      <c r="F32" s="85"/>
+      <c r="E32" s="83"/>
+      <c r="F32" s="83"/>
       <c r="G32" s="17"/>
       <c r="H32" s="17" t="str">
         <f t="shared" si="6"/>
@@ -4330,43 +4348,43 @@
       <c r="I32" s="36"/>
       <c r="J32" s="36"/>
       <c r="K32" s="36"/>
-      <c r="L32" s="73"/>
-      <c r="M32" s="73"/>
-      <c r="N32" s="73"/>
-      <c r="O32" s="73"/>
-      <c r="P32" s="73"/>
-      <c r="Q32" s="73"/>
-      <c r="R32" s="73"/>
-      <c r="S32" s="73"/>
-      <c r="T32" s="73"/>
-      <c r="U32" s="73"/>
-      <c r="V32" s="73"/>
-      <c r="W32" s="73"/>
-      <c r="X32" s="73"/>
-      <c r="Y32" s="73"/>
-      <c r="Z32" s="73"/>
-      <c r="AA32" s="73"/>
-      <c r="AB32" s="73"/>
-      <c r="AC32" s="73"/>
-      <c r="AD32" s="73"/>
-      <c r="AE32" s="73"/>
-      <c r="AF32" s="73"/>
-      <c r="AG32" s="73"/>
-      <c r="AH32" s="73"/>
-      <c r="AI32" s="73"/>
-      <c r="AJ32" s="73"/>
-      <c r="AK32" s="73"/>
-      <c r="AL32" s="73"/>
-      <c r="AM32" s="73"/>
-      <c r="AN32" s="73"/>
-      <c r="AO32" s="73"/>
-      <c r="AP32" s="73"/>
-      <c r="AQ32" s="73"/>
-      <c r="AR32" s="73"/>
-      <c r="AS32" s="73"/>
-      <c r="AT32" s="73"/>
-      <c r="AU32" s="73"/>
-      <c r="AV32" s="73"/>
+      <c r="L32" s="71"/>
+      <c r="M32" s="71"/>
+      <c r="N32" s="71"/>
+      <c r="O32" s="71"/>
+      <c r="P32" s="71"/>
+      <c r="Q32" s="71"/>
+      <c r="R32" s="71"/>
+      <c r="S32" s="71"/>
+      <c r="T32" s="71"/>
+      <c r="U32" s="71"/>
+      <c r="V32" s="71"/>
+      <c r="W32" s="71"/>
+      <c r="X32" s="71"/>
+      <c r="Y32" s="71"/>
+      <c r="Z32" s="71"/>
+      <c r="AA32" s="71"/>
+      <c r="AB32" s="71"/>
+      <c r="AC32" s="71"/>
+      <c r="AD32" s="71"/>
+      <c r="AE32" s="71"/>
+      <c r="AF32" s="71"/>
+      <c r="AG32" s="71"/>
+      <c r="AH32" s="71"/>
+      <c r="AI32" s="71"/>
+      <c r="AJ32" s="71"/>
+      <c r="AK32" s="71"/>
+      <c r="AL32" s="71"/>
+      <c r="AM32" s="71"/>
+      <c r="AN32" s="71"/>
+      <c r="AO32" s="71"/>
+      <c r="AP32" s="71"/>
+      <c r="AQ32" s="71"/>
+      <c r="AR32" s="71"/>
+      <c r="AS32" s="71"/>
+      <c r="AT32" s="71"/>
+      <c r="AU32" s="71"/>
+      <c r="AV32" s="71"/>
       <c r="AW32" s="36"/>
       <c r="AX32" s="36"/>
       <c r="AY32" s="36"/>
@@ -4385,12 +4403,12 @@
       <c r="BL32" s="36"/>
     </row>
     <row r="33" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="76"/>
-      <c r="B33" s="57"/>
-      <c r="C33" s="51"/>
+      <c r="A33" s="74"/>
+      <c r="B33" s="55"/>
+      <c r="C33" s="49"/>
       <c r="D33" s="26"/>
-      <c r="E33" s="85"/>
-      <c r="F33" s="85"/>
+      <c r="E33" s="83"/>
+      <c r="F33" s="83"/>
       <c r="G33" s="17"/>
       <c r="H33" s="17" t="str">
         <f t="shared" si="6"/>
@@ -4399,43 +4417,43 @@
       <c r="I33" s="36"/>
       <c r="J33" s="36"/>
       <c r="K33" s="36"/>
-      <c r="L33" s="73"/>
-      <c r="M33" s="73"/>
-      <c r="N33" s="73"/>
-      <c r="O33" s="73"/>
-      <c r="P33" s="73"/>
-      <c r="Q33" s="73"/>
-      <c r="R33" s="73"/>
-      <c r="S33" s="73"/>
-      <c r="T33" s="73"/>
-      <c r="U33" s="73"/>
-      <c r="V33" s="73"/>
-      <c r="W33" s="73"/>
-      <c r="X33" s="73"/>
-      <c r="Y33" s="73"/>
-      <c r="Z33" s="73"/>
-      <c r="AA33" s="73"/>
-      <c r="AB33" s="73"/>
-      <c r="AC33" s="73"/>
-      <c r="AD33" s="73"/>
-      <c r="AE33" s="73"/>
-      <c r="AF33" s="73"/>
-      <c r="AG33" s="73"/>
-      <c r="AH33" s="73"/>
-      <c r="AI33" s="73"/>
-      <c r="AJ33" s="73"/>
-      <c r="AK33" s="73"/>
-      <c r="AL33" s="73"/>
-      <c r="AM33" s="73"/>
-      <c r="AN33" s="73"/>
-      <c r="AO33" s="73"/>
-      <c r="AP33" s="73"/>
-      <c r="AQ33" s="73"/>
-      <c r="AR33" s="73"/>
-      <c r="AS33" s="73"/>
-      <c r="AT33" s="73"/>
-      <c r="AU33" s="73"/>
-      <c r="AV33" s="73"/>
+      <c r="L33" s="71"/>
+      <c r="M33" s="71"/>
+      <c r="N33" s="71"/>
+      <c r="O33" s="71"/>
+      <c r="P33" s="71"/>
+      <c r="Q33" s="71"/>
+      <c r="R33" s="71"/>
+      <c r="S33" s="71"/>
+      <c r="T33" s="71"/>
+      <c r="U33" s="71"/>
+      <c r="V33" s="71"/>
+      <c r="W33" s="71"/>
+      <c r="X33" s="71"/>
+      <c r="Y33" s="71"/>
+      <c r="Z33" s="71"/>
+      <c r="AA33" s="71"/>
+      <c r="AB33" s="71"/>
+      <c r="AC33" s="71"/>
+      <c r="AD33" s="71"/>
+      <c r="AE33" s="71"/>
+      <c r="AF33" s="71"/>
+      <c r="AG33" s="71"/>
+      <c r="AH33" s="71"/>
+      <c r="AI33" s="71"/>
+      <c r="AJ33" s="71"/>
+      <c r="AK33" s="71"/>
+      <c r="AL33" s="71"/>
+      <c r="AM33" s="71"/>
+      <c r="AN33" s="71"/>
+      <c r="AO33" s="71"/>
+      <c r="AP33" s="71"/>
+      <c r="AQ33" s="71"/>
+      <c r="AR33" s="71"/>
+      <c r="AS33" s="71"/>
+      <c r="AT33" s="71"/>
+      <c r="AU33" s="71"/>
+      <c r="AV33" s="71"/>
       <c r="AW33" s="36"/>
       <c r="AX33" s="36"/>
       <c r="AY33" s="36"/>
@@ -4454,16 +4472,16 @@
       <c r="BL33" s="36"/>
     </row>
     <row r="34" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="76" t="s">
-        <v>28</v>
+      <c r="A34" s="74" t="s">
+        <v>25</v>
       </c>
       <c r="B34" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="C34" s="52"/>
+        <v>27</v>
+      </c>
+      <c r="C34" s="50"/>
       <c r="D34" s="28"/>
-      <c r="E34" s="86"/>
-      <c r="F34" s="87"/>
+      <c r="E34" s="84"/>
+      <c r="F34" s="85"/>
       <c r="G34" s="17"/>
       <c r="H34" s="17" t="str">
         <f t="shared" si="6"/>
@@ -4527,12 +4545,12 @@
       <c r="BL34" s="36"/>
     </row>
     <row r="35" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="76"/>
-      <c r="B35" s="58"/>
-      <c r="C35" s="53"/>
+      <c r="A35" s="74"/>
+      <c r="B35" s="56"/>
+      <c r="C35" s="51"/>
       <c r="D35" s="29"/>
-      <c r="E35" s="88"/>
-      <c r="F35" s="88"/>
+      <c r="E35" s="86"/>
+      <c r="F35" s="86"/>
       <c r="G35" s="17"/>
       <c r="H35" s="17"/>
       <c r="I35" s="36"/>
@@ -4593,12 +4611,12 @@
       <c r="BL35" s="36"/>
     </row>
     <row r="36" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="76"/>
-      <c r="B36" s="58"/>
-      <c r="C36" s="53"/>
+      <c r="A36" s="74"/>
+      <c r="B36" s="56"/>
+      <c r="C36" s="51"/>
       <c r="D36" s="29"/>
-      <c r="E36" s="88"/>
-      <c r="F36" s="88"/>
+      <c r="E36" s="86"/>
+      <c r="F36" s="86"/>
       <c r="G36" s="17"/>
       <c r="H36" s="17"/>
       <c r="I36" s="36"/>
@@ -4659,12 +4677,12 @@
       <c r="BL36" s="36"/>
     </row>
     <row r="37" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="76"/>
-      <c r="B37" s="58"/>
-      <c r="C37" s="53"/>
+      <c r="A37" s="74"/>
+      <c r="B37" s="56"/>
+      <c r="C37" s="51"/>
       <c r="D37" s="29"/>
-      <c r="E37" s="88"/>
-      <c r="F37" s="88"/>
+      <c r="E37" s="86"/>
+      <c r="F37" s="86"/>
       <c r="G37" s="17"/>
       <c r="H37" s="17"/>
       <c r="I37" s="36"/>
@@ -4725,12 +4743,12 @@
       <c r="BL37" s="36"/>
     </row>
     <row r="38" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="76"/>
-      <c r="B38" s="58"/>
-      <c r="C38" s="53"/>
+      <c r="A38" s="74"/>
+      <c r="B38" s="56"/>
+      <c r="C38" s="51"/>
       <c r="D38" s="29"/>
-      <c r="E38" s="88"/>
-      <c r="F38" s="88"/>
+      <c r="E38" s="86"/>
+      <c r="F38" s="86"/>
       <c r="G38" s="17"/>
       <c r="H38" s="17"/>
       <c r="I38" s="36"/>
@@ -4791,12 +4809,12 @@
       <c r="BL38" s="36"/>
     </row>
     <row r="39" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="76"/>
-      <c r="B39" s="58"/>
-      <c r="C39" s="53"/>
+      <c r="A39" s="74"/>
+      <c r="B39" s="56"/>
+      <c r="C39" s="51"/>
       <c r="D39" s="29"/>
-      <c r="E39" s="88"/>
-      <c r="F39" s="88"/>
+      <c r="E39" s="86"/>
+      <c r="F39" s="86"/>
       <c r="G39" s="17"/>
       <c r="H39" s="17"/>
       <c r="I39" s="36"/>
@@ -4857,14 +4875,14 @@
       <c r="BL39" s="36"/>
     </row>
     <row r="40" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="76" t="s">
-        <v>31</v>
-      </c>
-      <c r="B40" s="59"/>
-      <c r="C40" s="54"/>
+      <c r="A40" s="74" t="s">
+        <v>28</v>
+      </c>
+      <c r="B40" s="57"/>
+      <c r="C40" s="52"/>
       <c r="D40" s="16"/>
-      <c r="E40" s="45"/>
-      <c r="F40" s="45"/>
+      <c r="E40" s="43"/>
+      <c r="F40" s="43"/>
       <c r="G40" s="17"/>
       <c r="H40" s="17"/>
       <c r="I40" s="36"/>
@@ -4925,11 +4943,11 @@
       <c r="BL40" s="36"/>
     </row>
     <row r="41" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="75" t="s">
-        <v>32</v>
+      <c r="A41" s="73" t="s">
+        <v>29</v>
       </c>
       <c r="B41" s="30" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C41" s="31"/>
       <c r="D41" s="32"/>
@@ -5008,54 +5026,54 @@
       <c r="C44" s="15"/>
     </row>
     <row r="45" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="55" t="s">
+      <c r="B45" s="53" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="46" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="53" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="47" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="53" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="48" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="53" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="46" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="55" t="s">
+    <row r="49" spans="2:2" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="53" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="53"/>
+    </row>
+    <row r="51" spans="2:2" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="53" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="47" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="55" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="48" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="55" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="49" spans="2:2" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="55" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="50" spans="2:2" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="55"/>
-    </row>
-    <row r="51" spans="2:2" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="55" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="AY4:BE4"/>
-    <mergeCell ref="BF4:BL4"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="I4:O4"/>
-    <mergeCell ref="P4:V4"/>
-    <mergeCell ref="W4:AC4"/>
-    <mergeCell ref="AD4:AJ4"/>
+    <mergeCell ref="AY3:BE3"/>
+    <mergeCell ref="BF3:BL3"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="I3:O3"/>
+    <mergeCell ref="P3:V3"/>
+    <mergeCell ref="W3:AC3"/>
+    <mergeCell ref="AD3:AJ3"/>
+    <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="AK3:AQ3"/>
+    <mergeCell ref="AR3:AX3"/>
   </mergeCells>
-  <conditionalFormatting sqref="D22:D41 D7:D14">
+  <conditionalFormatting sqref="D22:D41 D6:D13">
     <cfRule type="dataBar" priority="18">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -5069,17 +5087,17 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:BL41">
+  <conditionalFormatting sqref="I4:BL41">
     <cfRule type="expression" dxfId="2" priority="37">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
+      <formula>AND(TODAY()&gt;=I$4,TODAY()&lt;J$4)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I7:BL41">
+  <conditionalFormatting sqref="I6:BL41">
     <cfRule type="expression" dxfId="1" priority="31">
-      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
+      <formula>AND(task_start&lt;=I$4,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$4)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="0" priority="32" stopIfTrue="1">
-      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
+      <formula>AND(task_end&gt;=I$4,task_start&lt;J$4)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18:D21">
@@ -5096,7 +5114,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D15:D16">
+  <conditionalFormatting sqref="D14:D16">
     <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -5125,17 +5143,13 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="Display Week" prompt="Changing this number will scroll the Gantt Chart view." sqref="E4" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="Display Week" prompt="Changing this number will scroll the Gantt Chart view." sqref="E3" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>1</formula1>
     </dataValidation>
   </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="I1" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-  </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.35" right="0.35" top="0.35" bottom="0.5" header="0.3" footer="0.3"/>
-  <pageSetup scale="57" fitToHeight="0" orientation="landscape" r:id="rId3"/>
+  <pageSetup scale="57" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter differentFirst="1" scaleWithDoc="0">
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
@@ -5155,7 +5169,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D22:D41 D7:D14</xm:sqref>
+          <xm:sqref>D22:D41 D6:D13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{D13E1797-F8B6-4241-9FBC-9074A55E5511}">
@@ -5185,7 +5199,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D15:D16</xm:sqref>
+          <xm:sqref>D14:D16</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{DE25D6E0-AD7C-C54F-90DC-0E8CB25971C9}">
@@ -5212,7 +5226,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DD426C5-DD40-CF4E-AA43-4C9D61A809CA}">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView zoomScale="112" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="112" workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
@@ -5224,229 +5238,229 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="60" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="60" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="60" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="62" t="s">
+      <c r="B2" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="62" t="s">
+      <c r="C2" s="64" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="68" t="s">
+    <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="67"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="68" t="s">
+    </row>
+    <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="66"/>
+      <c r="B4" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="66" t="s">
+      <c r="C4" s="62" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="69"/>
-      <c r="B3" s="69"/>
-      <c r="C3" s="63" t="s">
+    <row r="5" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="67"/>
+      <c r="B5" s="67" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="68"/>
-      <c r="B4" s="68" t="s">
+      <c r="C5" s="63" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="64" t="s">
+    </row>
+    <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="66"/>
+      <c r="B6" s="66" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="69"/>
-      <c r="B5" s="69" t="s">
+      <c r="C6" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="65" t="s">
+    </row>
+    <row r="7" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="67"/>
+      <c r="B7" s="67"/>
+      <c r="C7" s="63" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="68"/>
-      <c r="B6" s="68" t="s">
+    <row r="8" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="66"/>
+      <c r="B8" s="66" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="64" t="s">
+      <c r="C8" s="62" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="69"/>
-      <c r="B7" s="69"/>
-      <c r="C7" s="65" t="s">
+    <row r="9" spans="1:3" ht="64" x14ac:dyDescent="0.2">
+      <c r="A9" s="67"/>
+      <c r="B9" s="67"/>
+      <c r="C9" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="68"/>
-      <c r="B8" s="68" t="s">
+    <row r="10" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="66"/>
+      <c r="B10" s="66"/>
+      <c r="C10" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="C8" s="64" t="s">
+    </row>
+    <row r="11" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="67" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="64" x14ac:dyDescent="0.2">
-      <c r="A9" s="69"/>
-      <c r="B9" s="69"/>
-      <c r="C9" s="65" t="s">
+      <c r="B11" s="70" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="63" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="68"/>
-      <c r="B10" s="68"/>
-      <c r="C10" s="64" t="s">
+    <row r="12" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="66"/>
+      <c r="B12" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="62" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="69" t="s">
+    <row r="13" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="67"/>
+      <c r="B13" s="67" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="61"/>
+    </row>
+    <row r="14" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="66"/>
+      <c r="B14" s="66" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="B11" s="72" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="65" t="s">
+    </row>
+    <row r="15" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="67"/>
+      <c r="B15" s="67" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="61"/>
+    </row>
+    <row r="16" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="66" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="68"/>
-      <c r="B12" s="68" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" s="64" t="s">
+      <c r="B16" s="66" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="64" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="69"/>
-      <c r="B13" s="69" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" s="63"/>
-    </row>
-    <row r="14" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="68"/>
-      <c r="B14" s="68" t="s">
+    <row r="17" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="67"/>
+      <c r="B17" s="67" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="61"/>
+    </row>
+    <row r="18" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="66"/>
+      <c r="B18" s="66" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="65" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="67"/>
+      <c r="B19" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="67" t="s">
+      <c r="C19" s="61"/>
+    </row>
+    <row r="20" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="66" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="69"/>
-      <c r="B15" s="69" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" s="63"/>
-    </row>
-    <row r="16" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="68" t="s">
+      <c r="B20" s="66" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="64" t="s">
         <v>61</v>
       </c>
-      <c r="B16" s="68" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" s="66" t="s">
+    </row>
+    <row r="21" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="67"/>
+      <c r="B21" s="67" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="61"/>
+    </row>
+    <row r="22" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="66"/>
+      <c r="B22" s="66" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="65" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="69"/>
-      <c r="B17" s="69" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" s="63"/>
-    </row>
-    <row r="18" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="68"/>
-      <c r="B18" s="68" t="s">
+    <row r="23" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="67"/>
+      <c r="B23" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="67" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="69"/>
-      <c r="B19" s="69" t="s">
-        <v>53</v>
-      </c>
-      <c r="C19" s="63"/>
-    </row>
-    <row r="20" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="68" t="s">
+      <c r="C23" s="61" t="s">
         <v>63</v>
       </c>
-      <c r="B20" s="68" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" s="66" t="s">
+    </row>
+    <row r="24" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" s="66" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="69"/>
-      <c r="B21" s="69" t="s">
-        <v>48</v>
-      </c>
-      <c r="C21" s="63"/>
-    </row>
-    <row r="22" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="68"/>
-      <c r="B22" s="68" t="s">
-        <v>50</v>
-      </c>
-      <c r="C22" s="67" t="s">
+      <c r="B24" s="66" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="64" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="69"/>
-      <c r="B23" s="69" t="s">
-        <v>53</v>
-      </c>
-      <c r="C23" s="63" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="68" t="s">
-        <v>67</v>
-      </c>
-      <c r="B24" s="68" t="s">
-        <v>48</v>
-      </c>
-      <c r="C24" s="66" t="s">
-        <v>68</v>
-      </c>
-    </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="70"/>
-      <c r="B25" s="70"/>
-      <c r="C25" s="60"/>
+      <c r="A25" s="68"/>
+      <c r="B25" s="68"/>
+      <c r="C25" s="58"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="71"/>
-      <c r="B26" s="71"/>
-      <c r="C26" s="61"/>
+      <c r="A26" s="69"/>
+      <c r="B26" s="69"/>
+      <c r="C26" s="59"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="70"/>
-      <c r="B27" s="70"/>
-      <c r="C27" s="60"/>
+      <c r="A27" s="68"/>
+      <c r="B27" s="68"/>
+      <c r="C27" s="58"/>
     </row>
   </sheetData>
   <hyperlinks>
